--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EA78C4-A60A-4F8C-A989-B8E3313D294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D74C79B-17CE-452C-8E81-C27CDC8F95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="77">
   <si>
     <t>HW1</t>
   </si>
@@ -266,12 +266,15 @@
   <si>
     <t>GA + block relocate</t>
   </si>
+  <si>
+    <t>Our</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +357,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -463,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,9 +524,15 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,11 +545,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V960"/>
+  <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="G101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC126" sqref="AC126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -777,9 +787,14 @@
     <col min="16" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" customWidth="1"/>
     <col min="19" max="20" width="12.42578125" customWidth="1"/>
-    <col min="21" max="22" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
     <col min="23" max="23" width="11.140625" customWidth="1"/>
     <col min="24" max="26" width="8.7109375" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11.28515625" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2077,22 +2092,22 @@
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="L44" s="34" t="s">
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="L44" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
@@ -3154,22 +3169,22 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="36"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="L63" s="35" t="s">
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="L63" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="M63" s="36"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="36"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="36"/>
+      <c r="M63" s="40"/>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -4063,12 +4078,12 @@
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="37"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="36"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="40"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4117,22 +4132,10 @@
         <v>135</v>
       </c>
       <c r="F84" s="19">
-        <f xml:space="preserve"> AVERAGE(G84:J84)</f>
+        <f xml:space="preserve"> AVERAGE(G84:N84)</f>
         <v>121.179999999999</v>
       </c>
       <c r="G84">
-        <v>121.179999999999</v>
-      </c>
-      <c r="H84">
-        <v>121.179999999999</v>
-      </c>
-      <c r="I84">
-        <v>121.179999999999</v>
-      </c>
-      <c r="J84">
-        <v>121.179999999999</v>
-      </c>
-      <c r="K84">
         <v>121.179999999999</v>
       </c>
       <c r="L84" s="5"/>
@@ -4159,23 +4162,11 @@
         <v>95.6</v>
       </c>
       <c r="F85" s="19">
-        <f t="shared" ref="F85:F98" si="4" xml:space="preserve"> AVERAGE(G85:J85)</f>
-        <v>90.975000000000009</v>
+        <f t="shared" ref="F85:F99" si="4" xml:space="preserve"> AVERAGE(G85:J85)</f>
+        <v>92.42</v>
       </c>
       <c r="G85">
-        <v>86.92</v>
-      </c>
-      <c r="H85">
-        <v>92.12</v>
-      </c>
-      <c r="I85">
-        <v>92.44</v>
-      </c>
-      <c r="J85">
         <v>92.42</v>
-      </c>
-      <c r="K85">
-        <v>92.44</v>
       </c>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
@@ -4202,22 +4193,10 @@
       </c>
       <c r="F86" s="19">
         <f t="shared" si="4"/>
-        <v>102.66</v>
+        <v>102.52</v>
       </c>
       <c r="G86">
-        <v>102.8</v>
-      </c>
-      <c r="H86">
         <v>102.52</v>
-      </c>
-      <c r="I86">
-        <v>102.52</v>
-      </c>
-      <c r="J86">
-        <v>102.8</v>
-      </c>
-      <c r="K86">
-        <v>96.82</v>
       </c>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -4244,21 +4223,9 @@
       </c>
       <c r="F87" s="19">
         <f t="shared" si="4"/>
-        <v>93.084999999999994</v>
+        <v>93.96</v>
       </c>
       <c r="G87">
-        <v>92.78</v>
-      </c>
-      <c r="H87">
-        <v>93.96</v>
-      </c>
-      <c r="I87">
-        <v>92.78</v>
-      </c>
-      <c r="J87">
-        <v>92.82</v>
-      </c>
-      <c r="K87">
         <v>93.96</v>
       </c>
       <c r="L87" s="5"/>
@@ -4286,22 +4253,10 @@
       </c>
       <c r="F88" s="19">
         <f t="shared" si="4"/>
-        <v>5445.16</v>
+        <v>5444.76</v>
       </c>
       <c r="G88">
-        <v>5444.84</v>
-      </c>
-      <c r="H88">
-        <v>5445.48</v>
-      </c>
-      <c r="I88">
-        <v>5445.48</v>
-      </c>
-      <c r="J88">
-        <v>5444.84</v>
-      </c>
-      <c r="K88">
-        <v>5444.84</v>
+        <v>5444.76</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
@@ -4328,21 +4283,9 @@
       </c>
       <c r="F89" s="19">
         <f t="shared" si="4"/>
-        <v>120.43499999999999</v>
+        <v>118.44</v>
       </c>
       <c r="G89">
-        <v>121.8</v>
-      </c>
-      <c r="H89">
-        <v>121.66</v>
-      </c>
-      <c r="I89">
-        <v>119.7</v>
-      </c>
-      <c r="J89">
-        <v>118.58</v>
-      </c>
-      <c r="K89">
         <v>118.44</v>
       </c>
       <c r="L89" s="5"/>
@@ -4370,22 +4313,10 @@
       </c>
       <c r="F90" s="19">
         <f t="shared" si="4"/>
-        <v>6010.7049999999981</v>
+        <v>3785.16</v>
       </c>
       <c r="G90">
-        <v>5917.7733333333299</v>
-      </c>
-      <c r="H90">
-        <v>5917.7733333333299</v>
-      </c>
-      <c r="I90">
-        <v>6289.1</v>
-      </c>
-      <c r="J90">
-        <v>5918.1733333333304</v>
-      </c>
-      <c r="K90">
-        <v>3786.12</v>
+        <v>3785.16</v>
       </c>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
@@ -4412,22 +4343,10 @@
       </c>
       <c r="F91" s="19">
         <f t="shared" si="4"/>
-        <v>65.439999999999955</v>
+        <v>65.38</v>
       </c>
       <c r="G91">
-        <v>65.479999999999905</v>
-      </c>
-      <c r="H91">
         <v>65.38</v>
-      </c>
-      <c r="I91">
-        <v>65.479999999999905</v>
-      </c>
-      <c r="J91">
-        <v>65.42</v>
-      </c>
-      <c r="K91">
-        <v>65.479999999999905</v>
       </c>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
@@ -4454,19 +4373,10 @@
       </c>
       <c r="F92" s="19">
         <f t="shared" si="4"/>
-        <v>163.55999999999935</v>
+        <v>166.4</v>
       </c>
       <c r="G92">
-        <v>162.24</v>
-      </c>
-      <c r="I92">
-        <v>166.35999999999899</v>
-      </c>
-      <c r="J92">
-        <v>162.07999999999899</v>
-      </c>
-      <c r="K92">
-        <v>159.88</v>
+        <v>166.4</v>
       </c>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
@@ -4491,24 +4401,9 @@
       <c r="E93" s="28">
         <v>183000</v>
       </c>
-      <c r="F93" s="30">
+      <c r="F93" s="19" t="e">
         <f t="shared" si="4"/>
-        <v>154933.35444444424</v>
-      </c>
-      <c r="G93">
-        <v>123676.71799999999</v>
-      </c>
-      <c r="H93">
-        <v>168637.88200000001</v>
-      </c>
-      <c r="I93">
-        <v>165655.97111111099</v>
-      </c>
-      <c r="J93">
-        <v>161762.84666666601</v>
-      </c>
-      <c r="K93">
-        <v>107963.307</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -4533,8 +4428,8 @@
       <c r="E94" s="19">
         <v>500</v>
       </c>
-      <c r="F94" s="30" t="e">
-        <f xml:space="preserve"> AVERAGE(G94:J94)</f>
+      <c r="F94" s="19" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L94" s="5"/>
@@ -4560,9 +4455,12 @@
       <c r="E95" s="19">
         <v>79000</v>
       </c>
-      <c r="F95" s="30" t="e">
+      <c r="F95" s="19">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>90698.744444444397</v>
+      </c>
+      <c r="G95">
+        <v>90698.744444444397</v>
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -4587,7 +4485,7 @@
       <c r="E96" s="19">
         <v>1100</v>
       </c>
-      <c r="F96" s="30" t="e">
+      <c r="F96" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4598,7 +4496,7 @@
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
     </row>
-    <row r="97" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>13</v>
       </c>
@@ -4614,7 +4512,7 @@
       <c r="E97" s="19">
         <v>6500</v>
       </c>
-      <c r="F97" s="30" t="e">
+      <c r="F97" s="19" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -4625,7 +4523,7 @@
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
     </row>
-    <row r="98" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>14</v>
       </c>
@@ -4641,24 +4539,9 @@
       <c r="E98" s="19">
         <v>47000</v>
       </c>
-      <c r="F98" s="30">
+      <c r="F98" s="19" t="e">
         <f t="shared" si="4"/>
-        <v>44633.749472222175</v>
-      </c>
-      <c r="G98">
-        <v>23723.548999999999</v>
-      </c>
-      <c r="H98">
-        <v>47977.288888888797</v>
-      </c>
-      <c r="I98">
-        <v>52764.302222222199</v>
-      </c>
-      <c r="J98">
-        <v>54069.857777777703</v>
-      </c>
-      <c r="K98">
-        <v>52764.302000000003</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -4667,7 +4550,7 @@
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
     </row>
-    <row r="99" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>15</v>
       </c>
@@ -4683,12 +4566,9 @@
       <c r="E99" s="19">
         <v>49000</v>
       </c>
-      <c r="F99" s="30">
-        <f xml:space="preserve"> AVERAGE(G99:J99)</f>
-        <v>13908.075555555501</v>
-      </c>
-      <c r="G99">
-        <v>13908.075555555501</v>
+      <c r="F99" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -4697,12 +4577,12 @@
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
     </row>
-    <row r="100" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>71</v>
       </c>
@@ -4718,9 +4598,29 @@
       <c r="E105" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R105" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="S105" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T105" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U105" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V105" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W105" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>0</v>
       </c>
@@ -4736,15 +4636,15 @@
       <c r="E106" s="19">
         <v>135</v>
       </c>
-      <c r="F106" s="31">
+      <c r="F106" s="16">
         <f xml:space="preserve"> AVERAGE(G106:L106)</f>
-        <v>130.48333333333284</v>
+        <v>127.88999999999932</v>
       </c>
       <c r="G106">
         <v>121.179999999999</v>
       </c>
       <c r="H106">
-        <v>136.74</v>
+        <v>121.179999999999</v>
       </c>
       <c r="I106">
         <v>135.95999999999901</v>
@@ -4758,18 +4658,55 @@
       <c r="L106">
         <v>117.41999999999901</v>
       </c>
-      <c r="O106">
-        <v>130.48333333333284</v>
-      </c>
-      <c r="P106" s="32">
-        <v>123.8</v>
-      </c>
-      <c r="Q106">
-        <f>SIGN(O106-P106)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P106" s="31"/>
+      <c r="R106" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S106" s="34">
+        <v>134</v>
+      </c>
+      <c r="T106" s="34">
+        <v>2300</v>
+      </c>
+      <c r="U106" s="34">
+        <v>130</v>
+      </c>
+      <c r="V106" s="34">
+        <v>135</v>
+      </c>
+      <c r="W106" s="35">
+        <f>AVERAGE(X106:AG106)</f>
+        <v>121.179999999999</v>
+      </c>
+      <c r="X106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="Y106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="Z106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="AA106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="AB106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="AC106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="AD106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="AE106">
+        <v>121.179999999999</v>
+      </c>
+      <c r="AF106">
+        <v>121.179999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>1</v>
       </c>
@@ -4785,8 +4722,8 @@
       <c r="E107" s="28">
         <v>95.6</v>
       </c>
-      <c r="F107" s="31">
-        <f t="shared" ref="F107:F121" si="5" xml:space="preserve"> AVERAGE(G107:L107)</f>
+      <c r="F107" s="16">
+        <f t="shared" ref="F107:F120" si="5" xml:space="preserve"> AVERAGE(G107:L107)</f>
         <v>87.773333333333326</v>
       </c>
       <c r="G107">
@@ -4807,18 +4744,55 @@
       <c r="L107">
         <v>86.92</v>
       </c>
-      <c r="O107">
-        <v>87.773333333333326</v>
-      </c>
-      <c r="P107" s="32">
-        <v>87.96</v>
-      </c>
-      <c r="Q107">
-        <f t="shared" ref="Q107:Q121" si="6">SIGN(O107-P107)</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P107" s="31"/>
+      <c r="R107" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S107" s="34">
+        <v>95.74</v>
+      </c>
+      <c r="T107" s="34">
+        <v>30500</v>
+      </c>
+      <c r="U107" s="34">
+        <v>91.4</v>
+      </c>
+      <c r="V107" s="34">
+        <v>95.6</v>
+      </c>
+      <c r="W107" s="35">
+        <f t="shared" ref="W107:W137" si="6">AVERAGE(X107:AG107)</f>
+        <v>90.566666666666649</v>
+      </c>
+      <c r="X107">
+        <v>92.44</v>
+      </c>
+      <c r="Y107">
+        <v>92.44</v>
+      </c>
+      <c r="Z107">
+        <v>92.44</v>
+      </c>
+      <c r="AA107">
+        <v>92.44</v>
+      </c>
+      <c r="AB107">
+        <v>92.14</v>
+      </c>
+      <c r="AC107">
+        <v>86.92</v>
+      </c>
+      <c r="AD107">
+        <v>86.92</v>
+      </c>
+      <c r="AE107">
+        <v>92.44</v>
+      </c>
+      <c r="AF107">
+        <v>86.92</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>2</v>
       </c>
@@ -4831,7 +4805,7 @@
       <c r="D108" s="28">
         <v>96.5</v>
       </c>
-      <c r="E108" s="28">
+      <c r="E108" s="17">
         <v>96.8</v>
       </c>
       <c r="F108" s="19">
@@ -4856,18 +4830,58 @@
       <c r="L108">
         <v>102.8</v>
       </c>
-      <c r="O108">
-        <v>102.75333333333333</v>
-      </c>
-      <c r="P108" s="32">
-        <v>102.6</v>
-      </c>
-      <c r="Q108">
+      <c r="P108" s="31"/>
+      <c r="R108" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S108" s="34">
+        <v>97.44</v>
+      </c>
+      <c r="T108" s="34">
+        <v>35800</v>
+      </c>
+      <c r="U108" s="35">
+        <v>96.5</v>
+      </c>
+      <c r="V108" s="34">
+        <v>96.8</v>
+      </c>
+      <c r="W108" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100.8059999999999</v>
+      </c>
+      <c r="X108">
+        <v>102.05999999999899</v>
+      </c>
+      <c r="Y108">
+        <v>102.8</v>
+      </c>
+      <c r="Z108">
+        <v>102.52</v>
+      </c>
+      <c r="AA108">
+        <v>102.8</v>
+      </c>
+      <c r="AB108">
+        <v>102.52</v>
+      </c>
+      <c r="AC108">
+        <v>96.82</v>
+      </c>
+      <c r="AD108">
+        <v>96.64</v>
+      </c>
+      <c r="AE108">
+        <v>102.52</v>
+      </c>
+      <c r="AF108">
+        <v>102.8</v>
+      </c>
+      <c r="AG108">
+        <v>96.58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4894,7 @@
       <c r="D109" s="28">
         <v>104</v>
       </c>
-      <c r="E109" s="28">
+      <c r="E109" s="17">
         <v>94.6</v>
       </c>
       <c r="F109" s="19">
@@ -4905,22 +4919,62 @@
       <c r="L109">
         <v>92.82</v>
       </c>
-      <c r="O109">
-        <v>96.36666666666666</v>
-      </c>
-      <c r="P109" s="32">
-        <v>98.18</v>
-      </c>
-      <c r="Q109">
+      <c r="P109" s="31"/>
+      <c r="R109" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S109" s="34">
+        <v>102.7342857</v>
+      </c>
+      <c r="T109" s="34">
+        <v>5490</v>
+      </c>
+      <c r="U109" s="34">
+        <v>104</v>
+      </c>
+      <c r="V109" s="34">
+        <v>94.6</v>
+      </c>
+      <c r="W109" s="35">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93.933999999999997</v>
+      </c>
+      <c r="X109">
+        <v>99.48</v>
+      </c>
+      <c r="Y109">
+        <v>92.78</v>
+      </c>
+      <c r="Z109">
+        <v>92.82</v>
+      </c>
+      <c r="AA109">
+        <v>93.96</v>
+      </c>
+      <c r="AB109">
+        <v>93.96</v>
+      </c>
+      <c r="AC109">
+        <v>93.96</v>
+      </c>
+      <c r="AD109">
+        <v>92.82</v>
+      </c>
+      <c r="AE109">
+        <v>92.82</v>
+      </c>
+      <c r="AF109">
+        <v>93.96</v>
+      </c>
+      <c r="AG109">
+        <v>92.78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="38">
+      <c r="B110" s="17">
         <v>4069.6358019999998</v>
       </c>
       <c r="C110" s="28">
@@ -4932,7 +4986,7 @@
       <c r="E110" s="28">
         <v>8000</v>
       </c>
-      <c r="F110" s="39">
+      <c r="F110" s="10">
         <f t="shared" si="5"/>
         <v>5445.2300000000005</v>
       </c>
@@ -4954,22 +5008,62 @@
       <c r="L110">
         <v>5445.34</v>
       </c>
-      <c r="O110">
-        <v>5445.2300000000005</v>
-      </c>
-      <c r="P110" s="32">
-        <v>5445.32</v>
-      </c>
-      <c r="Q110">
+      <c r="P110" s="31"/>
+      <c r="R110" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S110" s="35">
+        <v>4069.6358019999998</v>
+      </c>
+      <c r="T110" s="34">
+        <v>16900</v>
+      </c>
+      <c r="U110" s="34">
+        <v>8000</v>
+      </c>
+      <c r="V110" s="34">
+        <v>8000</v>
+      </c>
+      <c r="W110" s="34">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5445.2400000000007</v>
+      </c>
+      <c r="X110">
+        <v>5445.5</v>
+      </c>
+      <c r="Y110">
+        <v>5444.84</v>
+      </c>
+      <c r="Z110">
+        <v>5445.26</v>
+      </c>
+      <c r="AA110">
+        <v>5445.26</v>
+      </c>
+      <c r="AB110">
+        <v>5444.76</v>
+      </c>
+      <c r="AC110">
+        <v>5445.26</v>
+      </c>
+      <c r="AD110">
+        <v>5445.5</v>
+      </c>
+      <c r="AE110">
+        <v>5445.26</v>
+      </c>
+      <c r="AF110">
+        <v>5445.5</v>
+      </c>
+      <c r="AG110">
+        <v>5445.26</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B111" s="38">
+      <c r="B111" s="17">
         <v>105</v>
       </c>
       <c r="C111" s="28">
@@ -5003,18 +5097,58 @@
       <c r="L111">
         <v>121.8</v>
       </c>
-      <c r="O111">
-        <v>120.37666666666667</v>
-      </c>
-      <c r="P111" s="32">
-        <v>120.624</v>
-      </c>
-      <c r="Q111">
+      <c r="P111" s="31"/>
+      <c r="R111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S111" s="35">
+        <v>105</v>
+      </c>
+      <c r="T111" s="34">
+        <v>4760</v>
+      </c>
+      <c r="U111" s="34">
+        <v>118</v>
+      </c>
+      <c r="V111" s="34">
+        <v>120</v>
+      </c>
+      <c r="W111" s="34">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120.73599999999999</v>
+      </c>
+      <c r="X111">
+        <v>121.66</v>
+      </c>
+      <c r="Y111">
+        <v>121.66</v>
+      </c>
+      <c r="Z111">
+        <v>121.66</v>
+      </c>
+      <c r="AA111">
+        <v>118.58</v>
+      </c>
+      <c r="AB111">
+        <v>118.44</v>
+      </c>
+      <c r="AC111">
+        <v>121.8</v>
+      </c>
+      <c r="AD111">
+        <v>121.66</v>
+      </c>
+      <c r="AE111">
+        <v>121.66</v>
+      </c>
+      <c r="AF111">
+        <v>121.8</v>
+      </c>
+      <c r="AG111">
+        <v>118.44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>6</v>
       </c>
@@ -5030,7 +5164,7 @@
       <c r="E112" s="19">
         <v>7200</v>
       </c>
-      <c r="F112" s="31">
+      <c r="F112" s="16">
         <f t="shared" si="5"/>
         <v>4407.2755555555532</v>
       </c>
@@ -5052,18 +5186,52 @@
       <c r="L112">
         <v>3985.12</v>
       </c>
-      <c r="O112">
-        <v>4407.2755555555532</v>
-      </c>
-      <c r="P112" s="32">
-        <v>4758.4772670000002</v>
-      </c>
-      <c r="Q112">
+      <c r="P112" s="31"/>
+      <c r="R112" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S112" s="34">
+        <v>10338.10578</v>
+      </c>
+      <c r="T112" s="34">
+        <v>12800</v>
+      </c>
+      <c r="U112" s="34">
+        <v>7360</v>
+      </c>
+      <c r="V112" s="34">
+        <v>7200</v>
+      </c>
+      <c r="W112" s="35">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4197.6024999999991</v>
+      </c>
+      <c r="X112">
+        <v>3985.22</v>
+      </c>
+      <c r="Y112">
+        <v>3985.86</v>
+      </c>
+      <c r="Z112">
+        <v>3985.12</v>
+      </c>
+      <c r="AA112">
+        <v>3984.76</v>
+      </c>
+      <c r="AB112">
+        <v>5917.7733333333299</v>
+      </c>
+      <c r="AC112">
+        <v>3751.6666666666601</v>
+      </c>
+      <c r="AD112">
+        <v>3985.32</v>
+      </c>
+      <c r="AE112">
+        <v>3985.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>7</v>
       </c>
@@ -5079,7 +5247,7 @@
       <c r="E113" s="19">
         <v>95</v>
       </c>
-      <c r="F113" s="31">
+      <c r="F113" s="16">
         <f t="shared" si="5"/>
         <v>65.776666666666642</v>
       </c>
@@ -5101,18 +5269,58 @@
       <c r="L113">
         <v>65.38</v>
       </c>
-      <c r="O113">
-        <v>65.776666666666642</v>
-      </c>
-      <c r="P113" s="32">
-        <v>65.83</v>
-      </c>
-      <c r="Q113">
+      <c r="P113" s="31"/>
+      <c r="R113" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S113" s="34">
+        <v>68.8</v>
+      </c>
+      <c r="T113" s="34">
+        <v>797</v>
+      </c>
+      <c r="U113" s="34">
+        <v>769</v>
+      </c>
+      <c r="V113" s="34">
+        <v>95</v>
+      </c>
+      <c r="W113" s="35">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65.485999999999919</v>
+      </c>
+      <c r="X113">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="Y113">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="Z113">
+        <v>65.64</v>
+      </c>
+      <c r="AA113">
+        <v>65.38</v>
+      </c>
+      <c r="AB113">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="AC113">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="AD113">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="AE113">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="AF113">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="AG113">
+        <v>65.479999999999905</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>8</v>
       </c>
@@ -5128,7 +5336,7 @@
       <c r="E114" s="19">
         <v>5000</v>
       </c>
-      <c r="F114" s="31">
+      <c r="F114" s="16">
         <f t="shared" si="5"/>
         <v>162.66666666666669</v>
       </c>
@@ -5150,18 +5358,58 @@
       <c r="L114">
         <v>162.34</v>
       </c>
-      <c r="O114">
-        <v>162.66666666666669</v>
-      </c>
-      <c r="P114" s="32">
-        <v>157.01</v>
-      </c>
-      <c r="Q114">
+      <c r="P114" s="31"/>
+      <c r="R114" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S114" s="34">
+        <v>3307.1417280000001</v>
+      </c>
+      <c r="T114" s="34">
+        <v>181000</v>
+      </c>
+      <c r="U114" s="34">
+        <v>8480</v>
+      </c>
+      <c r="V114" s="34">
+        <v>5000</v>
+      </c>
+      <c r="W114" s="35">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159.4959999999995</v>
+      </c>
+      <c r="X114">
+        <v>162.07999999999899</v>
+      </c>
+      <c r="Y114">
+        <v>160.96</v>
+      </c>
+      <c r="Z114">
+        <v>162.07999999999899</v>
+      </c>
+      <c r="AA114">
+        <v>162.07999999999899</v>
+      </c>
+      <c r="AB114">
+        <v>156.18</v>
+      </c>
+      <c r="AC114">
+        <v>159.88</v>
+      </c>
+      <c r="AD114">
+        <v>153.16</v>
+      </c>
+      <c r="AE114">
+        <v>154.38</v>
+      </c>
+      <c r="AF114">
+        <v>162.07999999999899</v>
+      </c>
+      <c r="AG114">
+        <v>162.07999999999899</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>9</v>
       </c>
@@ -5177,7 +5425,7 @@
       <c r="E115" s="28">
         <v>183000</v>
       </c>
-      <c r="F115" s="31">
+      <c r="F115" s="16">
         <f t="shared" si="5"/>
         <v>153544.06777777732</v>
       </c>
@@ -5199,18 +5447,43 @@
       <c r="L115">
         <v>164558.52888888799</v>
       </c>
-      <c r="O115">
-        <v>153544.06777777732</v>
-      </c>
-      <c r="P115" s="32">
-        <v>147192.46230000001</v>
-      </c>
-      <c r="Q115">
+      <c r="P115" s="31"/>
+      <c r="R115" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S115" s="34">
+        <v>194000</v>
+      </c>
+      <c r="T115" s="34">
+        <v>1770000</v>
+      </c>
+      <c r="U115" s="34">
+        <v>187000</v>
+      </c>
+      <c r="V115" s="34">
+        <v>183000</v>
+      </c>
+      <c r="W115" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148198.18311111079</v>
+      </c>
+      <c r="X115">
+        <v>152588.851111111</v>
+      </c>
+      <c r="Y115">
+        <v>167731.79999999999</v>
+      </c>
+      <c r="Z115">
+        <v>153461.228888888</v>
+      </c>
+      <c r="AA115">
+        <v>114620.18444444401</v>
+      </c>
+      <c r="AB115">
+        <v>152588.851111111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>10</v>
       </c>
@@ -5226,7 +5499,7 @@
       <c r="E116" s="19">
         <v>500</v>
       </c>
-      <c r="F116" s="31">
+      <c r="F116" s="16">
         <f t="shared" si="5"/>
         <v>170.804</v>
       </c>
@@ -5245,18 +5518,43 @@
       <c r="K116">
         <v>173.56</v>
       </c>
-      <c r="O116">
-        <v>170.804</v>
-      </c>
-      <c r="P116" s="32">
-        <v>164.82499999999999</v>
-      </c>
-      <c r="Q116">
+      <c r="P116" s="31"/>
+      <c r="R116" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S116" s="34">
+        <v>910.73827159999996</v>
+      </c>
+      <c r="T116" s="34">
+        <v>181000</v>
+      </c>
+      <c r="U116" s="34">
+        <v>3040</v>
+      </c>
+      <c r="V116" s="34">
+        <v>500</v>
+      </c>
+      <c r="W116" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162.74799999999982</v>
+      </c>
+      <c r="X116">
+        <v>173.94</v>
+      </c>
+      <c r="Y116">
+        <v>161.66</v>
+      </c>
+      <c r="Z116">
+        <v>156.95999999999901</v>
+      </c>
+      <c r="AA116">
+        <v>159.24</v>
+      </c>
+      <c r="AB116">
+        <v>161.94</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>11</v>
       </c>
@@ -5272,7 +5570,7 @@
       <c r="E117" s="19">
         <v>79000</v>
       </c>
-      <c r="F117" s="31">
+      <c r="F117" s="16">
         <f xml:space="preserve"> AVERAGE(G117:M117)</f>
         <v>14126.115873015839</v>
       </c>
@@ -5297,18 +5595,61 @@
       <c r="M117">
         <v>14639.6733333333</v>
       </c>
-      <c r="O117">
-        <v>14126.115873015839</v>
-      </c>
-      <c r="P117" s="32">
-        <v>12699.390460000001</v>
-      </c>
-      <c r="Q117">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P117" s="31"/>
+      <c r="R117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S117" s="34">
+        <v>14974.64444</v>
+      </c>
+      <c r="T117" s="34">
+        <v>567000</v>
+      </c>
+      <c r="U117" s="34">
+        <v>84200</v>
+      </c>
+      <c r="V117" s="34">
+        <v>79000</v>
+      </c>
+      <c r="W117" s="34">
+        <f>AVERAGE(X117:AH117)</f>
+        <v>10087.747111111092</v>
+      </c>
+      <c r="X117">
+        <v>15972.606666666599</v>
+      </c>
+      <c r="Y117">
+        <v>2554.3955555555499</v>
+      </c>
+      <c r="Z117">
+        <v>14448.926666666601</v>
+      </c>
+      <c r="AA117">
+        <v>6383.2533333333304</v>
+      </c>
+      <c r="AB117">
+        <v>8032.6911111111103</v>
+      </c>
+      <c r="AC117">
+        <v>8033.2111111111099</v>
+      </c>
+      <c r="AD117">
+        <v>20832.7133333333</v>
+      </c>
+      <c r="AE117">
+        <v>18597.975999999999</v>
+      </c>
+      <c r="AF117">
+        <v>611.31111111111102</v>
+      </c>
+      <c r="AG117">
+        <v>5160.8622222222202</v>
+      </c>
+      <c r="AH117">
+        <v>10337.2711111111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>12</v>
       </c>
@@ -5324,7 +5665,7 @@
       <c r="E118" s="19">
         <v>1100</v>
       </c>
-      <c r="F118" s="31">
+      <c r="F118" s="16">
         <f xml:space="preserve"> AVERAGE(G118:M118)</f>
         <v>186.15666666666633</v>
       </c>
@@ -5346,18 +5687,38 @@
       <c r="L118">
         <v>189.84</v>
       </c>
-      <c r="O118">
-        <v>186.15666666666633</v>
-      </c>
-      <c r="P118" s="32">
-        <v>183.97</v>
-      </c>
-      <c r="Q118">
+      <c r="P118" s="31"/>
+      <c r="R118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S118" s="34">
+        <v>3359.6609880000001</v>
+      </c>
+      <c r="T118" s="34">
+        <v>220000</v>
+      </c>
+      <c r="U118" s="34">
+        <v>277</v>
+      </c>
+      <c r="V118" s="34">
+        <v>1100</v>
+      </c>
+      <c r="W118" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>297.51333333333332</v>
+      </c>
+      <c r="X118">
+        <v>495.74</v>
+      </c>
+      <c r="Y118">
+        <v>198.06</v>
+      </c>
+      <c r="Z118">
+        <v>198.74</v>
+      </c>
+      <c r="AF118" s="36"/>
+    </row>
+    <row r="119" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>13</v>
       </c>
@@ -5373,7 +5734,7 @@
       <c r="E119" s="19">
         <v>6500</v>
       </c>
-      <c r="F119" s="31">
+      <c r="F119" s="16">
         <f t="shared" si="5"/>
         <v>165.71499999999975</v>
       </c>
@@ -5389,19 +5750,59 @@
       <c r="J119">
         <v>174.3</v>
       </c>
-      <c r="O119">
-        <v>165.71499999999975</v>
-      </c>
-      <c r="P119" s="32">
-        <v>160.25</v>
-      </c>
-      <c r="Q119">
+      <c r="P119" s="31"/>
+      <c r="R119" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S119" s="34">
+        <v>18163.26296</v>
+      </c>
+      <c r="T119" s="34">
+        <v>237000</v>
+      </c>
+      <c r="U119" s="34">
+        <v>7820</v>
+      </c>
+      <c r="V119" s="34">
+        <v>6500</v>
+      </c>
+      <c r="W119" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="33" t="s">
+        <v>164.14199999999988</v>
+      </c>
+      <c r="X119">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="Y119">
+        <v>148.96</v>
+      </c>
+      <c r="Z119">
+        <v>162.74</v>
+      </c>
+      <c r="AA119">
+        <v>177.02</v>
+      </c>
+      <c r="AB119">
+        <v>155.1</v>
+      </c>
+      <c r="AC119">
+        <v>172.72</v>
+      </c>
+      <c r="AD119" s="31">
+        <v>170.88</v>
+      </c>
+      <c r="AE119">
+        <v>173.92</v>
+      </c>
+      <c r="AF119">
+        <v>164.76</v>
+      </c>
+      <c r="AG119">
+        <v>151.61999999999901</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
         <v>14</v>
       </c>
       <c r="B120" s="28">
@@ -5416,7 +5817,7 @@
       <c r="E120" s="19">
         <v>47000</v>
       </c>
-      <c r="F120" s="31">
+      <c r="F120" s="16">
         <f t="shared" si="5"/>
         <v>27677.096277777757</v>
       </c>
@@ -5438,18 +5839,43 @@
       <c r="L120">
         <v>16395.122222222199</v>
       </c>
-      <c r="O120">
-        <v>27677.096277777757</v>
-      </c>
-      <c r="P120" s="32">
-        <v>35857.566910000001</v>
-      </c>
-      <c r="Q120">
+      <c r="P120" s="31"/>
+      <c r="R120" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="S120" s="34">
+        <v>32301.335800000001</v>
+      </c>
+      <c r="T120" s="34">
+        <v>793000</v>
+      </c>
+      <c r="U120" s="34">
+        <v>149000</v>
+      </c>
+      <c r="V120" s="34">
+        <v>47000</v>
+      </c>
+      <c r="W120" s="34">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43452.058222222186</v>
+      </c>
+      <c r="X120">
+        <v>54069.857777777703</v>
+      </c>
+      <c r="Y120">
+        <v>46357.944444444402</v>
+      </c>
+      <c r="Z120">
+        <v>24116.6</v>
+      </c>
+      <c r="AA120">
+        <v>46357.944444444402</v>
+      </c>
+      <c r="AB120">
+        <v>46357.944444444402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>15</v>
       </c>
@@ -5465,9 +5891,8 @@
       <c r="E121" s="19">
         <v>49000</v>
       </c>
-      <c r="F121" s="31">
-        <f t="shared" si="5"/>
-        <v>16318.882185185168</v>
+      <c r="F121" s="16">
+        <v>16634.444729999999</v>
       </c>
       <c r="G121">
         <v>16337.02</v>
@@ -5490,19 +5915,44 @@
       <c r="M121">
         <v>18527.82</v>
       </c>
-      <c r="O121">
-        <v>16318.882185185168</v>
-      </c>
-      <c r="P121" s="32">
-        <v>18279.583930000001</v>
-      </c>
-      <c r="Q121">
+      <c r="P121" s="31"/>
+      <c r="R121" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S121" s="34">
+        <v>51313.376790000002</v>
+      </c>
+      <c r="T121" s="34">
+        <v>854000</v>
+      </c>
+      <c r="U121" s="34">
+        <v>57800</v>
+      </c>
+      <c r="V121" s="34">
+        <v>49000</v>
+      </c>
+      <c r="W121" s="34">
         <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="33" t="s">
+        <v>22227.051111111079</v>
+      </c>
+      <c r="X121">
+        <v>27674.573333333301</v>
+      </c>
+      <c r="Y121">
+        <v>27674.573333333301</v>
+      </c>
+      <c r="Z121">
+        <v>17347.824444444399</v>
+      </c>
+      <c r="AA121">
+        <v>27674.573333333301</v>
+      </c>
+      <c r="AB121">
+        <v>10763.711111111101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
         <v>23</v>
       </c>
       <c r="B122" s="26">
@@ -5517,25 +5967,48 @@
       <c r="E122" s="11">
         <v>92</v>
       </c>
-      <c r="F122" s="40">
+      <c r="F122" s="37">
         <v>83.635000000000005</v>
       </c>
-      <c r="G122" s="32">
+      <c r="G122" s="31">
         <v>83.875</v>
       </c>
       <c r="H122">
         <v>83.394999999999996</v>
       </c>
-      <c r="O122">
-        <f>AVERAGE(O106:O121)</f>
-        <v>13925.471250165312</v>
-      </c>
-      <c r="P122">
-        <f>AVERAGE(P106:P121)</f>
-        <v>14093.615616687501</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R122" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S122" s="34">
+        <v>84.667500000000004</v>
+      </c>
+      <c r="T122" s="34">
+        <v>96</v>
+      </c>
+      <c r="U122" s="34">
+        <v>411</v>
+      </c>
+      <c r="V122" s="34">
+        <v>92</v>
+      </c>
+      <c r="W122" s="34">
+        <f t="shared" si="6"/>
+        <v>79.797499999999999</v>
+      </c>
+      <c r="X122">
+        <v>80.97</v>
+      </c>
+      <c r="Y122">
+        <v>78.739999999999995</v>
+      </c>
+      <c r="Z122">
+        <v>80.48</v>
+      </c>
+      <c r="AA122">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>24</v>
       </c>
@@ -5551,18 +6024,49 @@
       <c r="E123" s="11">
         <v>96.42</v>
       </c>
-      <c r="F123" s="40">
+      <c r="F123" s="37">
         <v>85.567499999999995</v>
       </c>
-      <c r="G123" s="32">
+      <c r="G123" s="31">
         <v>84.27</v>
       </c>
       <c r="H123">
         <v>86.864999999999995</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
+      <c r="R123" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S123" s="34">
+        <v>1627.9475</v>
+      </c>
+      <c r="T123" s="34">
+        <v>112</v>
+      </c>
+      <c r="U123" s="34">
+        <v>8560</v>
+      </c>
+      <c r="V123" s="34">
+        <v>96.42</v>
+      </c>
+      <c r="W123" s="34">
+        <f t="shared" si="6"/>
+        <v>84.907499999999985</v>
+      </c>
+      <c r="X123">
+        <v>86.355000000000004</v>
+      </c>
+      <c r="Y123">
+        <v>81.429999999999893</v>
+      </c>
+      <c r="Z123">
+        <v>85.92</v>
+      </c>
+      <c r="AA123">
+        <v>85.924999999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="32" t="s">
         <v>25</v>
       </c>
       <c r="B124" s="26">
@@ -5574,13 +6078,13 @@
       <c r="D124" s="11">
         <v>4150</v>
       </c>
-      <c r="E124" s="11">
+      <c r="E124" s="18">
         <v>120</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="37">
         <v>120.36377779999999</v>
       </c>
-      <c r="G124" s="32">
+      <c r="G124" s="31">
         <v>112.338333333333</v>
       </c>
       <c r="H124">
@@ -5595,8 +6099,39 @@
       <c r="K124">
         <v>148.65888888888799</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R124" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S124" s="34">
+        <v>1260.0333889999999</v>
+      </c>
+      <c r="T124" s="34">
+        <v>478</v>
+      </c>
+      <c r="U124" s="34">
+        <v>4150</v>
+      </c>
+      <c r="V124" s="34">
+        <v>120</v>
+      </c>
+      <c r="W124" s="34">
+        <f t="shared" si="6"/>
+        <v>130.00902777777725</v>
+      </c>
+      <c r="X124">
+        <v>105.685</v>
+      </c>
+      <c r="Y124">
+        <v>146.023888888888</v>
+      </c>
+      <c r="Z124">
+        <v>119.293333333333</v>
+      </c>
+      <c r="AA124">
+        <v>149.03388888888799</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>26</v>
       </c>
@@ -5609,27 +6144,67 @@
       <c r="D125" s="11">
         <v>16200</v>
       </c>
-      <c r="E125" s="40">
+      <c r="E125" s="18">
         <v>100</v>
       </c>
-      <c r="F125" s="11">
-        <v>3347.2365279999999</v>
-      </c>
-      <c r="G125" s="32">
+      <c r="F125" s="26">
+        <v>3298.2621899999999</v>
+      </c>
+      <c r="G125" s="31">
         <v>3298.1727777777701</v>
       </c>
       <c r="H125">
         <v>3296.5727777777702</v>
       </c>
       <c r="I125">
-        <v>3497.2777777777701</v>
+        <v>3298.6030000000001</v>
       </c>
       <c r="J125">
         <v>3296.9227777777701</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
+      <c r="K125">
+        <v>3299.1880000000001</v>
+      </c>
+      <c r="L125">
+        <v>3299.1880000000001</v>
+      </c>
+      <c r="M125">
+        <v>3299.1880000000001</v>
+      </c>
+      <c r="R125" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S125" s="34">
+        <v>7055.9061670000001</v>
+      </c>
+      <c r="T125" s="34">
+        <v>3980</v>
+      </c>
+      <c r="U125" s="34">
+        <v>16200</v>
+      </c>
+      <c r="V125" s="34">
+        <v>100</v>
+      </c>
+      <c r="W125" s="34">
+        <f t="shared" si="6"/>
+        <v>3296.9365277777706</v>
+      </c>
+      <c r="X125">
+        <v>3297.23277777777</v>
+      </c>
+      <c r="Y125">
+        <v>3295.7627777777702</v>
+      </c>
+      <c r="Z125">
+        <v>3296.5577777777698</v>
+      </c>
+      <c r="AA125">
+        <v>3298.1927777777701</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B126" s="26">
@@ -5644,10 +6219,10 @@
       <c r="E126" s="11">
         <v>110</v>
       </c>
-      <c r="F126" s="40">
+      <c r="F126" s="37">
         <v>104.95</v>
       </c>
-      <c r="G126" s="32">
+      <c r="G126" s="31">
         <v>106.72</v>
       </c>
       <c r="H126">
@@ -5659,8 +6234,30 @@
       <c r="J126">
         <v>103.49999999999901</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R126" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S126" s="34">
+        <v>2396.498556</v>
+      </c>
+      <c r="T126" s="34">
+        <v>2340</v>
+      </c>
+      <c r="U126" s="34">
+        <v>18500</v>
+      </c>
+      <c r="V126" s="34">
+        <v>110</v>
+      </c>
+      <c r="W126" s="34">
+        <f t="shared" si="6"/>
+        <v>101.09</v>
+      </c>
+      <c r="X126">
+        <v>101.09</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>28</v>
       </c>
@@ -5673,27 +6270,52 @@
       <c r="D127" s="11">
         <v>21100</v>
       </c>
-      <c r="E127" s="40">
+      <c r="E127" s="18">
         <v>96</v>
       </c>
-      <c r="F127" s="11">
-        <v>3010.5563889999999</v>
+      <c r="F127" s="26">
+        <v>1641.7612220000001</v>
       </c>
       <c r="G127">
-        <v>3313.2438888888801</v>
+        <v>1641.6172222222201</v>
       </c>
       <c r="H127">
-        <v>1641.3172222222199</v>
+        <v>1643.0522222222201</v>
       </c>
       <c r="I127">
-        <v>3543.6972222222198</v>
+        <v>1641.78722222222</v>
       </c>
       <c r="J127">
-        <v>3543.9672222222198</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="33" t="s">
+        <v>1639.3672222222201</v>
+      </c>
+      <c r="K127">
+        <v>1642.9822222222199</v>
+      </c>
+      <c r="R127" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S127" s="34">
+        <v>3322.8712220000002</v>
+      </c>
+      <c r="T127" s="34">
+        <v>3320</v>
+      </c>
+      <c r="U127" s="34">
+        <v>21100</v>
+      </c>
+      <c r="V127" s="34">
+        <v>96</v>
+      </c>
+      <c r="W127" s="34">
+        <f t="shared" si="6"/>
+        <v>1640.96722222222</v>
+      </c>
+      <c r="X127">
+        <v>1640.96722222222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="32" t="s">
         <v>29</v>
       </c>
       <c r="B128" s="26">
@@ -5708,9 +6330,60 @@
       <c r="E128" s="11">
         <v>105</v>
       </c>
-      <c r="F128" s="11"/>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="37">
+        <v>103.19499999999999</v>
+      </c>
+      <c r="G128">
+        <v>108.69499999999999</v>
+      </c>
+      <c r="H128">
+        <v>102.83</v>
+      </c>
+      <c r="I128">
+        <v>101.88</v>
+      </c>
+      <c r="J128">
+        <v>97.924999999999898</v>
+      </c>
+      <c r="K128">
+        <v>104.645</v>
+      </c>
+      <c r="R128" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S128" s="34">
+        <v>106.435</v>
+      </c>
+      <c r="T128" s="34">
+        <v>6870</v>
+      </c>
+      <c r="U128" s="34">
+        <v>809</v>
+      </c>
+      <c r="V128" s="34">
+        <v>105</v>
+      </c>
+      <c r="W128" s="34">
+        <f t="shared" si="6"/>
+        <v>103.98899999999961</v>
+      </c>
+      <c r="X128">
+        <v>103.755</v>
+      </c>
+      <c r="Y128">
+        <v>102.1</v>
+      </c>
+      <c r="Z128">
+        <v>104.19999999999899</v>
+      </c>
+      <c r="AA128">
+        <v>103.295</v>
+      </c>
+      <c r="AB128">
+        <v>106.594999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>30</v>
       </c>
@@ -5726,10 +6399,64 @@
       <c r="E129" s="11">
         <v>94.4</v>
       </c>
-      <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="33" t="s">
+      <c r="F129" s="37">
+        <v>90.204999999999998</v>
+      </c>
+      <c r="G129">
+        <v>91.7349999999999</v>
+      </c>
+      <c r="H129">
+        <v>90.42</v>
+      </c>
+      <c r="I129">
+        <v>91.564999999999998</v>
+      </c>
+      <c r="J129">
+        <v>89.265000000000001</v>
+      </c>
+      <c r="K129">
+        <v>89.64</v>
+      </c>
+      <c r="L129">
+        <v>88.605000000000004</v>
+      </c>
+      <c r="R129" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S129" s="34">
+        <v>92.355999999999995</v>
+      </c>
+      <c r="T129" s="34">
+        <v>1290</v>
+      </c>
+      <c r="U129" s="34">
+        <v>2000</v>
+      </c>
+      <c r="V129" s="34">
+        <v>94.4</v>
+      </c>
+      <c r="W129" s="34">
+        <f t="shared" si="6"/>
+        <v>88.970999999999933</v>
+      </c>
+      <c r="X129">
+        <v>89.364999999999895</v>
+      </c>
+      <c r="Y129">
+        <v>87.5</v>
+      </c>
+      <c r="Z129">
+        <v>90.319999999999894</v>
+      </c>
+      <c r="AA129">
+        <v>88.749999999999901</v>
+      </c>
+      <c r="AB129">
+        <v>88.92</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B130" s="26">
@@ -5741,15 +6468,80 @@
       <c r="D130" s="11">
         <v>21500</v>
       </c>
-      <c r="E130" s="11"/>
-      <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E130" s="18">
+        <v>6428</v>
+      </c>
+      <c r="F130" s="26">
+        <v>7768.4649380000001</v>
+      </c>
+      <c r="G130">
+        <v>9819.0127777777707</v>
+      </c>
+      <c r="H130">
+        <v>9854.2061111111107</v>
+      </c>
+      <c r="I130">
+        <v>5930.2538888888803</v>
+      </c>
+      <c r="J130">
+        <v>6162.5372222222204</v>
+      </c>
+      <c r="K130">
+        <v>9757.1961111111104</v>
+      </c>
+      <c r="L130">
+        <v>9621.7927777777695</v>
+      </c>
+      <c r="M130">
+        <v>6318.1277777777696</v>
+      </c>
+      <c r="N130">
+        <v>5867.93722222222</v>
+      </c>
+      <c r="O130">
+        <v>6585.1205555555498</v>
+      </c>
+      <c r="R130" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S130" s="34">
+        <v>10300</v>
+      </c>
+      <c r="T130" s="34">
+        <v>92400</v>
+      </c>
+      <c r="U130" s="34">
+        <v>21500</v>
+      </c>
+      <c r="V130" s="34">
+        <v>6428</v>
+      </c>
+      <c r="W130" s="34">
+        <f t="shared" si="6"/>
+        <v>6091.5938888888822</v>
+      </c>
+      <c r="X130">
+        <v>5944.2038888888801</v>
+      </c>
+      <c r="Y130">
+        <v>6382.4255555555501</v>
+      </c>
+      <c r="Z130">
+        <v>5934.3938888888797</v>
+      </c>
+      <c r="AA130">
+        <v>6137.9988888888802</v>
+      </c>
+      <c r="AB130">
+        <v>6058.9472222222203</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B131" s="11">
-        <v>4480</v>
+        <v>34883</v>
       </c>
       <c r="C131" s="25">
         <v>275000</v>
@@ -5757,11 +6549,76 @@
       <c r="D131" s="11">
         <v>54000</v>
       </c>
-      <c r="E131" s="11"/>
-      <c r="F131" s="11"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
+      <c r="E131" s="11">
+        <v>9285</v>
+      </c>
+      <c r="F131" s="37">
+        <v>6197.4147780000003</v>
+      </c>
+      <c r="G131">
+        <v>7054.9859999999999</v>
+      </c>
+      <c r="H131">
+        <v>7954.2205555555502</v>
+      </c>
+      <c r="I131">
+        <v>4600.4133333333302</v>
+      </c>
+      <c r="J131">
+        <v>6527.8472222222199</v>
+      </c>
+      <c r="K131">
+        <v>3002.31833333333</v>
+      </c>
+      <c r="L131">
+        <v>8153.2305555555504</v>
+      </c>
+      <c r="M131">
+        <v>7688.82388888888</v>
+      </c>
+      <c r="N131">
+        <v>4597.4783333333298</v>
+      </c>
+      <c r="R131" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S131" s="34">
+        <v>34883</v>
+      </c>
+      <c r="T131" s="34">
+        <v>275000</v>
+      </c>
+      <c r="U131" s="34">
+        <v>54000</v>
+      </c>
+      <c r="V131" s="34">
+        <v>9285</v>
+      </c>
+      <c r="W131" s="34">
+        <f t="shared" si="6"/>
+        <v>8153.5372222222186</v>
+      </c>
+      <c r="X131">
+        <v>8558.0355555555507</v>
+      </c>
+      <c r="Y131">
+        <v>7917.0772222222204</v>
+      </c>
+      <c r="Z131">
+        <v>7519.6272222222196</v>
+      </c>
+      <c r="AA131">
+        <v>8953.6255555555508</v>
+      </c>
+      <c r="AB131">
+        <v>7917.4222222222197</v>
+      </c>
+      <c r="AC131">
+        <v>8055.4355555555503</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B132" s="11">
@@ -5773,10 +6630,63 @@
       <c r="D132" s="11">
         <v>18800</v>
       </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="11">
+        <v>130</v>
+      </c>
+      <c r="F132" s="37">
+        <v>124.857</v>
+      </c>
+      <c r="G132">
+        <v>123.269999999999</v>
+      </c>
+      <c r="H132">
+        <v>124.47499999999999</v>
+      </c>
+      <c r="I132">
+        <v>124.705</v>
+      </c>
+      <c r="J132">
+        <v>128.28</v>
+      </c>
+      <c r="K132">
+        <v>123.554999999999</v>
+      </c>
+      <c r="R132" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S132" s="34">
+        <v>134</v>
+      </c>
+      <c r="T132" s="34">
+        <v>18400</v>
+      </c>
+      <c r="U132" s="34">
+        <v>18800</v>
+      </c>
+      <c r="V132" s="34">
+        <v>130</v>
+      </c>
+      <c r="W132" s="34">
+        <f t="shared" si="6"/>
+        <v>126.10599999999981</v>
+      </c>
+      <c r="X132">
+        <v>126.01</v>
+      </c>
+      <c r="Y132">
+        <v>125.77</v>
+      </c>
+      <c r="Z132">
+        <v>125.97499999999999</v>
+      </c>
+      <c r="AA132">
+        <v>126.22</v>
+      </c>
+      <c r="AB132">
+        <v>126.554999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>34</v>
       </c>
@@ -5789,11 +6699,79 @@
       <c r="D133" s="11">
         <v>14900</v>
       </c>
-      <c r="E133" s="11"/>
-      <c r="F133" s="11"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
+      <c r="E133" s="18">
+        <v>302</v>
+      </c>
+      <c r="F133" s="26">
+        <v>7131.0942219999997</v>
+      </c>
+      <c r="G133">
+        <v>7137.6122222222202</v>
+      </c>
+      <c r="H133">
+        <v>7129.4472222222203</v>
+      </c>
+      <c r="I133">
+        <v>7131.9922222222203</v>
+      </c>
+      <c r="J133">
+        <v>7136.5272222222202</v>
+      </c>
+      <c r="K133">
+        <v>7129.35222222222</v>
+      </c>
+      <c r="L133">
+        <v>7133.4422222222202</v>
+      </c>
+      <c r="M133">
+        <v>7125.2472222222204</v>
+      </c>
+      <c r="N133">
+        <v>7134.6472222222201</v>
+      </c>
+      <c r="O133">
+        <v>7127.6822222222199</v>
+      </c>
+      <c r="P133">
+        <v>7124.9922222222203</v>
+      </c>
+      <c r="R133" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S133" s="34">
+        <v>7100</v>
+      </c>
+      <c r="T133" s="34">
+        <v>9440</v>
+      </c>
+      <c r="U133" s="34">
+        <v>14900</v>
+      </c>
+      <c r="V133" s="34">
+        <v>302</v>
+      </c>
+      <c r="W133" s="34">
+        <f t="shared" si="6"/>
+        <v>7133.2742222222205</v>
+      </c>
+      <c r="X133">
+        <v>7130.7872222222204</v>
+      </c>
+      <c r="Y133">
+        <v>7132.3872222222199</v>
+      </c>
+      <c r="Z133">
+        <v>7134.97722222222</v>
+      </c>
+      <c r="AA133">
+        <v>7134.5572222222199</v>
+      </c>
+      <c r="AB133">
+        <v>7133.6622222222204</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B134" s="11">
@@ -5805,10 +6783,60 @@
       <c r="D134" s="11">
         <v>42400</v>
       </c>
-      <c r="E134" s="11"/>
-      <c r="F134" s="11"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E134" s="18">
+        <v>925</v>
+      </c>
+      <c r="F134" s="26">
+        <v>6088.4937040000004</v>
+      </c>
+      <c r="G134">
+        <v>6058.8305555555498</v>
+      </c>
+      <c r="H134">
+        <v>6061.1105555555496</v>
+      </c>
+      <c r="I134">
+        <v>6230.3822222222198</v>
+      </c>
+      <c r="J134">
+        <v>6066.9055555555497</v>
+      </c>
+      <c r="K134">
+        <v>6228.1472222222201</v>
+      </c>
+      <c r="L134">
+        <v>6098.2638888888796</v>
+      </c>
+      <c r="M134">
+        <v>6094.6688888888802</v>
+      </c>
+      <c r="N134">
+        <v>6095.8688888888801</v>
+      </c>
+      <c r="O134">
+        <v>5862.2655555555502</v>
+      </c>
+      <c r="R134" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S134" s="34">
+        <v>6400</v>
+      </c>
+      <c r="T134" s="34">
+        <v>163000</v>
+      </c>
+      <c r="U134" s="34">
+        <v>42400</v>
+      </c>
+      <c r="V134" s="34">
+        <v>925</v>
+      </c>
+      <c r="W134" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>36</v>
       </c>
@@ -5821,11 +6849,52 @@
       <c r="D135" s="11">
         <v>21100</v>
       </c>
-      <c r="E135" s="11"/>
-      <c r="F135" s="11"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
+      <c r="E135" s="11">
+        <v>450</v>
+      </c>
+      <c r="F135" s="37">
+        <v>118.5316667</v>
+      </c>
+      <c r="G135">
+        <v>119.285</v>
+      </c>
+      <c r="H135">
+        <v>112.645</v>
+      </c>
+      <c r="I135">
+        <v>121.604999999999</v>
+      </c>
+      <c r="J135">
+        <v>119.594999999999</v>
+      </c>
+      <c r="K135">
+        <v>121.46499999999899</v>
+      </c>
+      <c r="L135">
+        <v>116.595</v>
+      </c>
+      <c r="R135" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S135" s="34">
+        <v>119</v>
+      </c>
+      <c r="T135" s="34">
+        <v>74000</v>
+      </c>
+      <c r="U135" s="34">
+        <v>21100</v>
+      </c>
+      <c r="V135" s="34">
+        <v>450</v>
+      </c>
+      <c r="W135" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B136" s="11">
@@ -5837,10 +6906,51 @@
       <c r="D136" s="11">
         <v>23300</v>
       </c>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E136" s="11">
+        <v>22000</v>
+      </c>
+      <c r="F136" s="37">
+        <v>15247.96</v>
+      </c>
+      <c r="G136">
+        <v>15915.3166666666</v>
+      </c>
+      <c r="H136">
+        <v>15686.9683333333</v>
+      </c>
+      <c r="I136">
+        <v>15686.9683333333</v>
+      </c>
+      <c r="J136">
+        <v>14142.98</v>
+      </c>
+      <c r="K136">
+        <v>16078.9233333333</v>
+      </c>
+      <c r="L136">
+        <v>13976.6033333333</v>
+      </c>
+      <c r="R136" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S136" s="34">
+        <v>22600</v>
+      </c>
+      <c r="T136" s="34">
+        <v>147000</v>
+      </c>
+      <c r="U136" s="34">
+        <v>23300</v>
+      </c>
+      <c r="V136" s="34">
+        <v>22000</v>
+      </c>
+      <c r="W136" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>38</v>
       </c>
@@ -5853,11 +6963,55 @@
       <c r="D137" s="11">
         <v>19600</v>
       </c>
-      <c r="E137" s="11"/>
-      <c r="F137" s="11"/>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
+      <c r="E137" s="18">
+        <v>200</v>
+      </c>
+      <c r="F137" s="26">
+        <v>6859.770794</v>
+      </c>
+      <c r="G137">
+        <v>7729.2788888888799</v>
+      </c>
+      <c r="H137">
+        <v>7494.1755555555501</v>
+      </c>
+      <c r="I137">
+        <v>7360.43722222222</v>
+      </c>
+      <c r="J137">
+        <v>7797.1905555555504</v>
+      </c>
+      <c r="K137">
+        <v>5690.8905555555502</v>
+      </c>
+      <c r="L137">
+        <v>6121.2088888888802</v>
+      </c>
+      <c r="M137">
+        <v>5825.2138888888803</v>
+      </c>
+      <c r="R137" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S137" s="34">
+        <v>7670</v>
+      </c>
+      <c r="T137" s="34">
+        <v>60400</v>
+      </c>
+      <c r="U137" s="34">
+        <v>19600</v>
+      </c>
+      <c r="V137" s="34">
+        <v>200</v>
+      </c>
+      <c r="W137" s="34" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
         <v>39</v>
       </c>
       <c r="B138" s="11">
@@ -5869,47 +7023,968 @@
       <c r="D138" s="11">
         <v>95000</v>
       </c>
-      <c r="E138" s="11"/>
       <c r="F138" s="11"/>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G138">
+        <v>74.536000000000001</v>
+      </c>
+      <c r="H138">
+        <v>72.864000000000004</v>
+      </c>
+      <c r="R138" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S138" s="34">
+        <v>1590</v>
+      </c>
+      <c r="T138" s="34">
+        <v>7030</v>
+      </c>
+      <c r="U138" s="34">
+        <v>95000</v>
+      </c>
+      <c r="V138" s="34"/>
+      <c r="W138" s="34"/>
+    </row>
+    <row r="139" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B139" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C139" s="11">
+        <v>10500</v>
+      </c>
+      <c r="D139" s="11">
+        <v>54400</v>
+      </c>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139">
+        <v>6945.3406666666597</v>
+      </c>
+      <c r="R139" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S139" s="34">
+        <v>10500</v>
+      </c>
+      <c r="T139" s="34">
+        <v>10500</v>
+      </c>
+      <c r="U139" s="34">
+        <v>54400</v>
+      </c>
+      <c r="V139" s="34"/>
+      <c r="W139" s="34"/>
+    </row>
+    <row r="140" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="11">
+        <v>3440</v>
+      </c>
+      <c r="C140" s="11">
+        <v>15800</v>
+      </c>
+      <c r="D140" s="11">
+        <v>104000</v>
+      </c>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="R140" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S140" s="34">
+        <v>3440</v>
+      </c>
+      <c r="T140" s="34">
+        <v>15800</v>
+      </c>
+      <c r="U140" s="34">
+        <v>104000</v>
+      </c>
+      <c r="V140" s="34"/>
+      <c r="W140" s="34"/>
+    </row>
+    <row r="141" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" s="11">
+        <v>17500</v>
+      </c>
+      <c r="C141" s="11">
+        <v>23200</v>
+      </c>
+      <c r="D141" s="11">
+        <v>113000</v>
+      </c>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="R141" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="S141" s="34">
+        <v>17500</v>
+      </c>
+      <c r="T141" s="34">
+        <v>23200</v>
+      </c>
+      <c r="U141" s="34">
+        <v>113000</v>
+      </c>
+      <c r="V141" s="34"/>
+      <c r="W141" s="34"/>
+    </row>
+    <row r="142" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="11">
+        <v>11200</v>
+      </c>
+      <c r="C142" s="11">
+        <v>5140</v>
+      </c>
+      <c r="D142" s="11">
+        <v>95700</v>
+      </c>
+      <c r="E142" s="11"/>
+      <c r="F142" s="11"/>
+      <c r="R142" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S142" s="34">
+        <v>11200</v>
+      </c>
+      <c r="T142" s="34">
+        <v>5140</v>
+      </c>
+      <c r="U142" s="34">
+        <v>95700</v>
+      </c>
+      <c r="V142" s="34"/>
+      <c r="W142" s="34"/>
+    </row>
+    <row r="143" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B143" s="11">
+        <v>15000</v>
+      </c>
+      <c r="C143" s="11">
+        <v>30100</v>
+      </c>
+      <c r="D143" s="11">
+        <v>94200</v>
+      </c>
+      <c r="E143" s="11"/>
+      <c r="F143" s="11"/>
+      <c r="R143" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="S143" s="34">
+        <v>15000</v>
+      </c>
+      <c r="T143" s="34">
+        <v>30100</v>
+      </c>
+      <c r="U143" s="34">
+        <v>94200</v>
+      </c>
+      <c r="V143" s="34"/>
+      <c r="W143" s="34"/>
+    </row>
+    <row r="144" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" s="11">
+        <v>14900</v>
+      </c>
+      <c r="C144" s="11">
+        <v>22300</v>
+      </c>
+      <c r="D144" s="11">
+        <v>85200</v>
+      </c>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="R144" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S144" s="34">
+        <v>14900</v>
+      </c>
+      <c r="T144" s="34">
+        <v>22300</v>
+      </c>
+      <c r="U144" s="34">
+        <v>85200</v>
+      </c>
+      <c r="V144" s="34"/>
+      <c r="W144" s="34"/>
+    </row>
+    <row r="145" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B145" s="11">
+        <v>10200</v>
+      </c>
+      <c r="C145" s="11">
+        <v>24300</v>
+      </c>
+      <c r="D145" s="11">
+        <v>117000</v>
+      </c>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="R145" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S145" s="34">
+        <v>10200</v>
+      </c>
+      <c r="T145" s="34">
+        <v>24300</v>
+      </c>
+      <c r="U145" s="34">
+        <v>117000</v>
+      </c>
+      <c r="V145" s="34"/>
+      <c r="W145" s="34"/>
+    </row>
+    <row r="146" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B146" s="11">
+        <v>29300</v>
+      </c>
+      <c r="C146" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D146" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E146" s="11"/>
+      <c r="F146" s="11"/>
+      <c r="R146" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="S146" s="34">
+        <v>29300</v>
+      </c>
+      <c r="T146" s="34">
+        <v>124000</v>
+      </c>
+      <c r="U146" s="34">
+        <v>549000</v>
+      </c>
+      <c r="V146" s="34"/>
+      <c r="W146" s="34"/>
+    </row>
+    <row r="147" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="11">
+        <v>52900</v>
+      </c>
+      <c r="C147" s="11">
+        <v>164000</v>
+      </c>
+      <c r="D147" s="11">
+        <v>601000</v>
+      </c>
+      <c r="E147" s="11"/>
+      <c r="F147" s="11"/>
+      <c r="R147" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S147" s="34">
+        <v>52900</v>
+      </c>
+      <c r="T147" s="34">
+        <v>164000</v>
+      </c>
+      <c r="U147" s="34">
+        <v>601000</v>
+      </c>
+      <c r="V147" s="34"/>
+      <c r="W147" s="34"/>
+    </row>
+    <row r="148" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" s="11">
+        <v>69800</v>
+      </c>
+      <c r="C148" s="11">
+        <v>167000</v>
+      </c>
+      <c r="D148" s="11">
+        <v>551000</v>
+      </c>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="R148" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S148" s="34">
+        <v>69800</v>
+      </c>
+      <c r="T148" s="34">
+        <v>167000</v>
+      </c>
+      <c r="U148" s="34">
+        <v>551000</v>
+      </c>
+      <c r="V148" s="34"/>
+      <c r="W148" s="34"/>
+    </row>
+    <row r="149" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B149" s="11">
+        <v>77800</v>
+      </c>
+      <c r="C149" s="11">
+        <v>191000</v>
+      </c>
+      <c r="D149" s="11">
+        <v>715000</v>
+      </c>
+      <c r="E149" s="11"/>
+      <c r="F149" s="11"/>
+      <c r="R149" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S149" s="34">
+        <v>77800</v>
+      </c>
+      <c r="T149" s="34">
+        <v>191000</v>
+      </c>
+      <c r="U149" s="34">
+        <v>715000</v>
+      </c>
+      <c r="V149" s="34"/>
+      <c r="W149" s="34"/>
+    </row>
+    <row r="150" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B150" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C150" s="11">
+        <v>181000</v>
+      </c>
+      <c r="D150" s="11">
+        <v>616000</v>
+      </c>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="R150" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="S150" s="34">
+        <v>36300</v>
+      </c>
+      <c r="T150" s="34">
+        <v>181000</v>
+      </c>
+      <c r="U150" s="34">
+        <v>616000</v>
+      </c>
+      <c r="V150" s="34"/>
+      <c r="W150" s="34"/>
+    </row>
+    <row r="151" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="11">
+        <v>30900</v>
+      </c>
+      <c r="C151" s="11">
+        <v>176000</v>
+      </c>
+      <c r="D151" s="11">
+        <v>798000</v>
+      </c>
+      <c r="E151" s="11"/>
+      <c r="F151" s="11"/>
+      <c r="R151" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="S151" s="34">
+        <v>30900</v>
+      </c>
+      <c r="T151" s="34">
+        <v>176000</v>
+      </c>
+      <c r="U151" s="34">
+        <v>798000</v>
+      </c>
+      <c r="V151" s="34"/>
+      <c r="W151" s="34"/>
+    </row>
+    <row r="152" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B152" s="11">
+        <v>26800</v>
+      </c>
+      <c r="C152" s="11">
+        <v>104000</v>
+      </c>
+      <c r="D152" s="11">
+        <v>603000</v>
+      </c>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="R152" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="S152" s="34">
+        <v>26800</v>
+      </c>
+      <c r="T152" s="34">
+        <v>104000</v>
+      </c>
+      <c r="U152" s="34">
+        <v>603000</v>
+      </c>
+      <c r="V152" s="34"/>
+      <c r="W152" s="34"/>
+    </row>
+    <row r="153" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B153" s="11">
+        <v>15200</v>
+      </c>
+      <c r="C153" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D153" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="R153" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="S153" s="34">
+        <v>15200</v>
+      </c>
+      <c r="T153" s="34">
+        <v>124000</v>
+      </c>
+      <c r="U153" s="34">
+        <v>549000</v>
+      </c>
+      <c r="V153" s="34"/>
+      <c r="W153" s="34"/>
+    </row>
+    <row r="154" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B154" s="11">
+        <v>1580000</v>
+      </c>
+      <c r="C154" s="11">
+        <v>1180000</v>
+      </c>
+      <c r="D154" s="11">
+        <v>1590000</v>
+      </c>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+      <c r="R154" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S154" s="34">
+        <v>1580000</v>
+      </c>
+      <c r="T154" s="34">
+        <v>1180000</v>
+      </c>
+      <c r="U154" s="34">
+        <v>1590000</v>
+      </c>
+      <c r="V154" s="34"/>
+      <c r="W154" s="34"/>
+    </row>
+    <row r="155" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B155" s="11">
+        <v>931000</v>
+      </c>
+      <c r="C155" s="11">
+        <v>572000</v>
+      </c>
+      <c r="D155" s="11">
+        <v>2510000</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="R155" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="S155" s="34">
+        <v>931000</v>
+      </c>
+      <c r="T155" s="34">
+        <v>572000</v>
+      </c>
+      <c r="U155" s="34">
+        <v>2510000</v>
+      </c>
+      <c r="V155" s="34"/>
+      <c r="W155" s="34"/>
+    </row>
+    <row r="156" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" s="11">
+        <v>74400</v>
+      </c>
+      <c r="C156" s="11">
+        <v>515000</v>
+      </c>
+      <c r="D156" s="11">
+        <v>1340000</v>
+      </c>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="R156" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S156" s="34">
+        <v>74400</v>
+      </c>
+      <c r="T156" s="34">
+        <v>515000</v>
+      </c>
+      <c r="U156" s="34">
+        <v>1340000</v>
+      </c>
+      <c r="V156" s="34"/>
+      <c r="W156" s="34"/>
+    </row>
+    <row r="157" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" s="11">
+        <v>761000</v>
+      </c>
+      <c r="C157" s="11">
+        <v>448000</v>
+      </c>
+      <c r="D157" s="11">
+        <v>2030000</v>
+      </c>
+      <c r="E157" s="11"/>
+      <c r="F157" s="11"/>
+      <c r="R157" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S157" s="34">
+        <v>761000</v>
+      </c>
+      <c r="T157" s="34">
+        <v>448000</v>
+      </c>
+      <c r="U157" s="34">
+        <v>2030000</v>
+      </c>
+      <c r="V157" s="34"/>
+      <c r="W157" s="34"/>
+    </row>
+    <row r="158" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B158" s="11">
+        <v>84700</v>
+      </c>
+      <c r="C158" s="11">
+        <v>317000</v>
+      </c>
+      <c r="D158" s="11">
+        <v>1930000</v>
+      </c>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="R158" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S158" s="11">
+        <v>84700</v>
+      </c>
+      <c r="T158" s="11">
+        <v>317000</v>
+      </c>
+      <c r="U158" s="11">
+        <v>1930000</v>
+      </c>
+      <c r="V158" s="11"/>
+      <c r="W158" s="11"/>
+    </row>
+    <row r="159" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" s="11">
+        <v>2070000</v>
+      </c>
+      <c r="C159" s="11">
+        <v>1630000</v>
+      </c>
+      <c r="D159" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="R159" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="S159" s="11">
+        <v>2070000</v>
+      </c>
+      <c r="T159" s="11">
+        <v>1630000</v>
+      </c>
+      <c r="U159" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="V159" s="11"/>
+      <c r="W159" s="11"/>
+    </row>
+    <row r="160" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B160" s="11">
+        <v>323000</v>
+      </c>
+      <c r="C160" s="11">
+        <v>730000</v>
+      </c>
+      <c r="D160" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="R160" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S160" s="11">
+        <v>323000</v>
+      </c>
+      <c r="T160" s="11">
+        <v>730000</v>
+      </c>
+      <c r="U160" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="V160" s="11"/>
+      <c r="W160" s="11"/>
+    </row>
+    <row r="161" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B161" s="11">
+        <v>2080000</v>
+      </c>
+      <c r="C161" s="11">
+        <v>1840000</v>
+      </c>
+      <c r="D161" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="R161" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="S161" s="11">
+        <v>2080000</v>
+      </c>
+      <c r="T161" s="11">
+        <v>1840000</v>
+      </c>
+      <c r="U161" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="V161" s="11"/>
+      <c r="W161" s="11"/>
+    </row>
+    <row r="162" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B162" s="11">
+        <v>10400000</v>
+      </c>
+      <c r="C162" s="11">
+        <v>22400000</v>
+      </c>
+      <c r="D162" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="E162" s="11"/>
+      <c r="F162" s="11"/>
+      <c r="R162" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="S162" s="11">
+        <v>10400000</v>
+      </c>
+      <c r="T162" s="11">
+        <v>22400000</v>
+      </c>
+      <c r="U162" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="V162" s="11"/>
+      <c r="W162" s="11"/>
+    </row>
+    <row r="163" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B163" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="C163" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="D163" s="11">
+        <v>11200000</v>
+      </c>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="R163" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S163" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="T163" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="U163" s="11">
+        <v>11200000</v>
+      </c>
+      <c r="V163" s="11"/>
+      <c r="W163" s="11"/>
+    </row>
+    <row r="164" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B164" s="11">
+        <v>7770000</v>
+      </c>
+      <c r="C164" s="11">
+        <v>12400000</v>
+      </c>
+      <c r="D164" s="11">
+        <v>9540000</v>
+      </c>
+      <c r="E164" s="11"/>
+      <c r="F164" s="11"/>
+      <c r="R164" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="S164" s="11">
+        <v>7770000</v>
+      </c>
+      <c r="T164" s="11">
+        <v>12400000</v>
+      </c>
+      <c r="U164" s="11">
+        <v>9540000</v>
+      </c>
+      <c r="V164" s="11"/>
+      <c r="W164" s="11"/>
+    </row>
+    <row r="165" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B165" s="11">
+        <v>10700000</v>
+      </c>
+      <c r="C165" s="11">
+        <v>21500000</v>
+      </c>
+      <c r="D165" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="R165" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S165" s="11">
+        <v>10700000</v>
+      </c>
+      <c r="T165" s="11">
+        <v>21500000</v>
+      </c>
+      <c r="U165" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="V165" s="11"/>
+      <c r="W165" s="11"/>
+    </row>
+    <row r="166" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B166" s="11">
+        <v>6030000</v>
+      </c>
+      <c r="C166" s="11">
+        <v>9100000</v>
+      </c>
+      <c r="D166" s="11">
+        <v>7210000</v>
+      </c>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+      <c r="R166" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="S166" s="11">
+        <v>6030000</v>
+      </c>
+      <c r="T166" s="11">
+        <v>9100000</v>
+      </c>
+      <c r="U166" s="11">
+        <v>7210000</v>
+      </c>
+      <c r="V166" s="11"/>
+      <c r="W166" s="11"/>
+    </row>
+    <row r="167" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B167" s="11">
+        <v>8800000</v>
+      </c>
+      <c r="C167" s="11">
+        <v>14500000</v>
+      </c>
+      <c r="D167" s="11">
+        <v>10900000</v>
+      </c>
+      <c r="E167" s="11"/>
+      <c r="F167" s="11"/>
+      <c r="R167" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S167" s="11">
+        <v>8800000</v>
+      </c>
+      <c r="T167" s="11">
+        <v>14500000</v>
+      </c>
+      <c r="U167" s="11">
+        <v>10900000</v>
+      </c>
+      <c r="V167" s="11"/>
+      <c r="W167" s="11"/>
+    </row>
+    <row r="168" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B168" s="11">
+        <v>13300000</v>
+      </c>
+      <c r="C168" s="11">
+        <v>30900000</v>
+      </c>
+      <c r="D168" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="E168" s="11"/>
+      <c r="F168" s="11"/>
+      <c r="R168" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="S168" s="11">
+        <v>13300000</v>
+      </c>
+      <c r="T168" s="11">
+        <v>30900000</v>
+      </c>
+      <c r="U168" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="V168" s="11"/>
+      <c r="W168" s="11"/>
+    </row>
+    <row r="169" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B169" s="11">
+        <v>15700000</v>
+      </c>
+      <c r="C169" s="11">
+        <v>25400000</v>
+      </c>
+      <c r="D169" s="11">
+        <v>27400000</v>
+      </c>
+      <c r="E169" s="11"/>
+      <c r="F169" s="11"/>
+      <c r="R169" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="S169" s="11">
+        <v>15700000</v>
+      </c>
+      <c r="T169" s="11">
+        <v>25400000</v>
+      </c>
+      <c r="U169" s="11">
+        <v>27400000</v>
+      </c>
+      <c r="V169" s="11"/>
+      <c r="W169" s="11"/>
+    </row>
+    <row r="170" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6712,8 +8787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911A5E9-8C1D-4937-B2E8-4FEF8E2ACD16}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D74C79B-17CE-452C-8E81-C27CDC8F95F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E6D78-30D0-4B1F-8C63-C35FFEBFA572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="82">
   <si>
     <t>HW1</t>
   </si>
@@ -269,16 +269,52 @@
   <si>
     <t>Our</t>
   </si>
+  <si>
+    <t>GAVND + crossover cua ng ta</t>
+  </si>
+  <si>
+    <t>GAVND1</t>
+  </si>
+  <si>
+    <t>GAVND2</t>
+  </si>
+  <si>
+    <t>cũ</t>
+  </si>
+  <si>
+    <t>mới</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -362,6 +398,12 @@
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C4043"/>
+      <name val="Roboto Mono"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -470,70 +512,78 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -542,7 +592,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC126" sqref="AC126"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H278" sqref="H278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2092,22 +2148,22 @@
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="L44" s="38" t="s">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
+      <c r="L44" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
-      <c r="Q44" s="38"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="47"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
@@ -3169,22 +3225,22 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="L63" s="39" t="s">
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="L63" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -3220,7 +3276,7 @@
       </c>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>0</v>
       </c>
@@ -3272,7 +3328,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>1</v>
       </c>
@@ -3324,7 +3380,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>2</v>
       </c>
@@ -3376,7 +3432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>3</v>
       </c>
@@ -3428,7 +3484,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>4</v>
       </c>
@@ -3480,7 +3536,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>5</v>
       </c>
@@ -3532,7 +3588,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>6</v>
       </c>
@@ -3579,12 +3635,27 @@
       <c r="P71" s="19">
         <v>7200</v>
       </c>
-      <c r="Q71" s="19" t="e">
+      <c r="Q71" s="19">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4493.31833333333</v>
+      </c>
+      <c r="R71">
+        <v>3751.4866666666599</v>
+      </c>
+      <c r="S71">
+        <v>4318.7533333333304</v>
+      </c>
+      <c r="T71">
+        <v>3985.24</v>
+      </c>
+      <c r="U71">
+        <v>5917.7933333333303</v>
+      </c>
+      <c r="V71">
+        <v>3985.32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>7</v>
       </c>
@@ -3636,7 +3707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>8</v>
       </c>
@@ -3691,7 +3762,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>9</v>
       </c>
@@ -3741,12 +3812,27 @@
       <c r="P74" s="28">
         <v>183000</v>
       </c>
-      <c r="Q74" s="30" t="e">
+      <c r="Q74" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159797.3227777775</v>
+      </c>
+      <c r="R74">
+        <v>133484.33111111101</v>
+      </c>
+      <c r="S74">
+        <v>170412.96444444399</v>
+      </c>
+      <c r="T74">
+        <v>169301.47111111099</v>
+      </c>
+      <c r="U74">
+        <v>165990.52444444399</v>
+      </c>
+      <c r="V74">
+        <v>204165.86888888801</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>10</v>
       </c>
@@ -3801,7 +3887,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>11</v>
       </c>
@@ -3851,12 +3937,27 @@
       <c r="P76" s="19">
         <v>79000</v>
       </c>
-      <c r="Q76" s="30" t="e">
+      <c r="Q76" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23262.921666666651</v>
+      </c>
+      <c r="R76">
+        <v>59352.611111111102</v>
+      </c>
+      <c r="S76">
+        <v>4865.84</v>
+      </c>
+      <c r="T76">
+        <v>15531.8955555555</v>
+      </c>
+      <c r="U76">
+        <v>13301.34</v>
+      </c>
+      <c r="V76">
+        <v>22026.064444444401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>12</v>
       </c>
@@ -3911,7 +4012,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>13</v>
       </c>
@@ -3966,7 +4067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>14</v>
       </c>
@@ -4016,12 +4117,27 @@
       <c r="P79" s="19">
         <v>47000</v>
       </c>
-      <c r="Q79" s="30" t="e">
+      <c r="Q79" s="30">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55495.293888888853</v>
+      </c>
+      <c r="R79">
+        <v>72546.082222222205</v>
+      </c>
+      <c r="S79">
+        <v>56361.142222222203</v>
+      </c>
+      <c r="T79">
+        <v>44179.093333333301</v>
+      </c>
+      <c r="U79">
+        <v>48894.857777777703</v>
+      </c>
+      <c r="V79">
+        <v>10203.3377777777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>15</v>
       </c>
@@ -4071,19 +4187,34 @@
       <c r="P80" s="19">
         <v>49000</v>
       </c>
-      <c r="Q80" s="30" t="e">
+      <c r="Q80" s="30">
         <f xml:space="preserve"> AVERAGE(R80:U80)</f>
-        <v>#DIV/0!</v>
+        <v>16664.79166666665</v>
+      </c>
+      <c r="R80">
+        <v>13214.4911111111</v>
+      </c>
+      <c r="S80">
+        <v>18728.099999999999</v>
+      </c>
+      <c r="T80">
+        <v>19909.2155555555</v>
+      </c>
+      <c r="U80">
+        <v>14807.36</v>
+      </c>
+      <c r="V80">
+        <v>15247.644444444401</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="40"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="40"/>
+      <c r="A82" s="49"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4581,7 +4712,16 @@
     <row r="101" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R104" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="S104" s="44"/>
+      <c r="T104" s="44"/>
+      <c r="U104" s="44"/>
+      <c r="V104" s="44"/>
+      <c r="W104" s="44"/>
+    </row>
     <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
         <v>71</v>
@@ -7985,150 +8125,5169 @@
     <row r="174" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B177" s="46"/>
+      <c r="C177" s="46"/>
+      <c r="D177" s="46"/>
+      <c r="E177" s="46"/>
+      <c r="F177" s="46"/>
+      <c r="R177" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="S177" s="46"/>
+      <c r="T177" s="46"/>
+      <c r="U177" s="46"/>
+      <c r="V177" s="46"/>
+      <c r="W177" s="46"/>
+    </row>
+    <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D178" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F178" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="R178" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="S178" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T178" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U178" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V178" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="W178" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="28">
+        <v>134</v>
+      </c>
+      <c r="C179" s="28">
+        <v>2300</v>
+      </c>
+      <c r="D179" s="28">
+        <v>130</v>
+      </c>
+      <c r="E179" s="19">
+        <v>135</v>
+      </c>
+      <c r="F179" s="19" t="e">
+        <f xml:space="preserve"> AVERAGE(G179:P179)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R179" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="S179" s="28">
+        <v>134</v>
+      </c>
+      <c r="T179" s="28">
+        <v>2300</v>
+      </c>
+      <c r="U179" s="28">
+        <v>130</v>
+      </c>
+      <c r="V179" s="19">
+        <v>135</v>
+      </c>
+      <c r="W179" s="19" t="e">
+        <f xml:space="preserve"> AVERAGE(X179:AG179)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="28">
+        <v>95.74</v>
+      </c>
+      <c r="C180" s="28">
+        <v>30500</v>
+      </c>
+      <c r="D180" s="28">
+        <v>91.4</v>
+      </c>
+      <c r="E180" s="28">
+        <v>95.6</v>
+      </c>
+      <c r="F180" s="19" t="e">
+        <f t="shared" ref="F180:F229" si="7" xml:space="preserve"> AVERAGE(G180:P180)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R180" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="S180" s="28">
+        <v>95.74</v>
+      </c>
+      <c r="T180" s="28">
+        <v>30500</v>
+      </c>
+      <c r="U180" s="28">
+        <v>91.4</v>
+      </c>
+      <c r="V180" s="28">
+        <v>95.6</v>
+      </c>
+      <c r="W180" s="19" t="e">
+        <f t="shared" ref="W180:W184" si="8" xml:space="preserve"> AVERAGE(X180:AG180)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B181" s="28">
+        <v>97.44</v>
+      </c>
+      <c r="C181" s="28">
+        <v>35800</v>
+      </c>
+      <c r="D181" s="28">
+        <v>96.5</v>
+      </c>
+      <c r="E181" s="28">
+        <v>96.8</v>
+      </c>
+      <c r="F181" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R181" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="S181" s="28">
+        <v>97.44</v>
+      </c>
+      <c r="T181" s="28">
+        <v>35800</v>
+      </c>
+      <c r="U181" s="28">
+        <v>96.5</v>
+      </c>
+      <c r="V181" s="28">
+        <v>96.8</v>
+      </c>
+      <c r="W181" s="19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B182" s="28">
+        <v>102.7342857</v>
+      </c>
+      <c r="C182" s="28">
+        <v>5490</v>
+      </c>
+      <c r="D182" s="28">
+        <v>104</v>
+      </c>
+      <c r="E182" s="28">
+        <v>94.6</v>
+      </c>
+      <c r="F182" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R182" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S182" s="28">
+        <v>102.7342857</v>
+      </c>
+      <c r="T182" s="28">
+        <v>5490</v>
+      </c>
+      <c r="U182" s="28">
+        <v>104</v>
+      </c>
+      <c r="V182" s="28">
+        <v>94.6</v>
+      </c>
+      <c r="W182" s="19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B183" s="28">
+        <v>4069.6358019999998</v>
+      </c>
+      <c r="C183" s="28">
+        <v>16900</v>
+      </c>
+      <c r="D183" s="28">
+        <v>8000</v>
+      </c>
+      <c r="E183" s="28">
+        <v>8000</v>
+      </c>
+      <c r="F183" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R183" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S183" s="28">
+        <v>4069.6358019999998</v>
+      </c>
+      <c r="T183" s="28">
+        <v>16900</v>
+      </c>
+      <c r="U183" s="28">
+        <v>8000</v>
+      </c>
+      <c r="V183" s="28">
+        <v>8000</v>
+      </c>
+      <c r="W183" s="19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="28">
+        <v>105</v>
+      </c>
+      <c r="C184" s="28">
+        <v>4760</v>
+      </c>
+      <c r="D184" s="28">
+        <v>118</v>
+      </c>
+      <c r="E184" s="19">
+        <v>120</v>
+      </c>
+      <c r="F184" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R184" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S184" s="28">
+        <v>105</v>
+      </c>
+      <c r="T184" s="28">
+        <v>4760</v>
+      </c>
+      <c r="U184" s="28">
+        <v>118</v>
+      </c>
+      <c r="V184" s="19">
+        <v>120</v>
+      </c>
+      <c r="W184" s="19" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="28">
+        <v>10338.10578</v>
+      </c>
+      <c r="C185" s="28">
+        <v>12800</v>
+      </c>
+      <c r="D185" s="28">
+        <v>7360</v>
+      </c>
+      <c r="E185" s="19">
+        <v>7200</v>
+      </c>
+      <c r="F185" s="19" t="e">
+        <f xml:space="preserve"> AVERAGE(G185:P185)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R185" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S185" s="28">
+        <v>10338.10578</v>
+      </c>
+      <c r="T185" s="28">
+        <v>12800</v>
+      </c>
+      <c r="U185" s="28">
+        <v>7360</v>
+      </c>
+      <c r="V185" s="19">
+        <v>7200</v>
+      </c>
+      <c r="W185" s="19" t="e">
+        <f xml:space="preserve"> AVERAGE(X185:AG185)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="28">
+        <v>68.8</v>
+      </c>
+      <c r="C186" s="28">
+        <v>797</v>
+      </c>
+      <c r="D186" s="28">
+        <v>769</v>
+      </c>
+      <c r="E186" s="19">
+        <v>95</v>
+      </c>
+      <c r="F186" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R186" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="S186" s="28">
+        <v>68.8</v>
+      </c>
+      <c r="T186" s="28">
+        <v>797</v>
+      </c>
+      <c r="U186" s="28">
+        <v>769</v>
+      </c>
+      <c r="V186" s="19">
+        <v>95</v>
+      </c>
+      <c r="W186" s="19" t="e">
+        <f t="shared" ref="W186:W229" si="9" xml:space="preserve"> AVERAGE(X186:AG186)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B187" s="28">
+        <v>3307.1417280000001</v>
+      </c>
+      <c r="C187" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D187" s="28">
+        <v>8480</v>
+      </c>
+      <c r="E187" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F187" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L187" s="42"/>
+      <c r="R187" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="S187" s="28">
+        <v>3307.1417280000001</v>
+      </c>
+      <c r="T187" s="28">
+        <v>181000</v>
+      </c>
+      <c r="U187" s="28">
+        <v>8480</v>
+      </c>
+      <c r="V187" s="19">
+        <v>5000</v>
+      </c>
+      <c r="W187" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B188" s="28">
+        <v>194000</v>
+      </c>
+      <c r="C188" s="28">
+        <v>1770000</v>
+      </c>
+      <c r="D188" s="28">
+        <v>187000</v>
+      </c>
+      <c r="E188" s="28">
+        <v>183000</v>
+      </c>
+      <c r="F188" s="19">
+        <f xml:space="preserve"> AVERAGE(G188:P188)</f>
+        <v>146012.72419753045</v>
+      </c>
+      <c r="G188">
+        <v>127025.39777777701</v>
+      </c>
+      <c r="H188">
+        <v>170216.06222222201</v>
+      </c>
+      <c r="I188">
+        <v>111133.771111111</v>
+      </c>
+      <c r="J188">
+        <v>111133.771111111</v>
+      </c>
+      <c r="K188">
+        <v>165329.366666666</v>
+      </c>
+      <c r="L188">
+        <v>136509.451111111</v>
+      </c>
+      <c r="M188">
+        <v>176886.064444444</v>
+      </c>
+      <c r="N188">
+        <v>189342.884444444</v>
+      </c>
+      <c r="O188">
+        <v>126537.748888888</v>
+      </c>
+      <c r="R188" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="S188" s="28">
+        <v>194000</v>
+      </c>
+      <c r="T188" s="28">
+        <v>1770000</v>
+      </c>
+      <c r="U188" s="28">
+        <v>187000</v>
+      </c>
+      <c r="V188" s="28">
+        <v>183000</v>
+      </c>
+      <c r="W188" s="19">
+        <f t="shared" si="9"/>
+        <v>153389.81936507887</v>
+      </c>
+      <c r="X188">
+        <v>165328.04666666599</v>
+      </c>
+      <c r="Y188">
+        <v>152588.851111111</v>
+      </c>
+      <c r="Z188">
+        <v>165596.03333333301</v>
+      </c>
+      <c r="AA188">
+        <v>125081.806666666</v>
+      </c>
+      <c r="AB188">
+        <v>174874.093333333</v>
+      </c>
+      <c r="AC188">
+        <v>168659.448888888</v>
+      </c>
+      <c r="AD188">
+        <v>121600.455555555</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="28">
+        <v>910.73827159999996</v>
+      </c>
+      <c r="C189" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D189" s="28">
+        <v>3040</v>
+      </c>
+      <c r="E189" s="19">
+        <v>500</v>
+      </c>
+      <c r="F189" s="19">
+        <f t="shared" si="7"/>
+        <v>166.25777777777779</v>
+      </c>
+      <c r="G189">
+        <v>172.62</v>
+      </c>
+      <c r="H189">
+        <v>170.12</v>
+      </c>
+      <c r="I189">
+        <v>159.44</v>
+      </c>
+      <c r="J189">
+        <v>172.54</v>
+      </c>
+      <c r="K189">
+        <v>172.62</v>
+      </c>
+      <c r="L189">
+        <v>155.96</v>
+      </c>
+      <c r="M189">
+        <v>163.84</v>
+      </c>
+      <c r="N189">
+        <v>172.62</v>
+      </c>
+      <c r="O189">
+        <v>156.56</v>
+      </c>
+      <c r="R189" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S189" s="28">
+        <v>910.73827159999996</v>
+      </c>
+      <c r="T189" s="28">
+        <v>181000</v>
+      </c>
+      <c r="U189" s="28">
+        <v>3040</v>
+      </c>
+      <c r="V189" s="19">
+        <v>500</v>
+      </c>
+      <c r="W189" s="19">
+        <f t="shared" si="9"/>
+        <v>170.53428571428572</v>
+      </c>
+      <c r="X189">
+        <v>170.14</v>
+      </c>
+      <c r="Y189">
+        <v>169.64</v>
+      </c>
+      <c r="Z189">
+        <v>172.62</v>
+      </c>
+      <c r="AA189">
+        <v>172.54</v>
+      </c>
+      <c r="AB189">
+        <v>171.4</v>
+      </c>
+      <c r="AC189">
+        <v>171.94</v>
+      </c>
+      <c r="AD189">
+        <v>165.46</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="28">
+        <v>14974.64444</v>
+      </c>
+      <c r="C190" s="28">
+        <v>567000</v>
+      </c>
+      <c r="D190" s="28">
+        <v>84200</v>
+      </c>
+      <c r="E190" s="19">
+        <v>79000</v>
+      </c>
+      <c r="F190" s="19">
+        <f t="shared" si="7"/>
+        <v>23060.931111111073</v>
+      </c>
+      <c r="G190">
+        <v>23378.944444444402</v>
+      </c>
+      <c r="H190">
+        <v>15972.2866666666</v>
+      </c>
+      <c r="I190">
+        <v>20102.240000000002</v>
+      </c>
+      <c r="J190">
+        <v>22208.911111111101</v>
+      </c>
+      <c r="K190">
+        <v>23957.117777777701</v>
+      </c>
+      <c r="L190">
+        <v>47828.337777777699</v>
+      </c>
+      <c r="M190">
+        <v>7978.68</v>
+      </c>
+      <c r="R190" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S190" s="28">
+        <v>14974.64444</v>
+      </c>
+      <c r="T190" s="28">
+        <v>567000</v>
+      </c>
+      <c r="U190" s="28">
+        <v>84200</v>
+      </c>
+      <c r="V190" s="19">
+        <v>79000</v>
+      </c>
+      <c r="W190" s="19">
+        <f t="shared" si="9"/>
+        <v>43212.613968253936</v>
+      </c>
+      <c r="X190">
+        <v>22648.5466666666</v>
+      </c>
+      <c r="Y190">
+        <v>54594.835555555503</v>
+      </c>
+      <c r="Z190">
+        <v>67333.428888888797</v>
+      </c>
+      <c r="AA190">
+        <v>24237.973333333299</v>
+      </c>
+      <c r="AB190">
+        <v>26926.44</v>
+      </c>
+      <c r="AC190">
+        <v>76717.811111111107</v>
+      </c>
+      <c r="AD190">
+        <v>30029.262222222202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B191" s="28">
+        <v>3359.6609880000001</v>
+      </c>
+      <c r="C191" s="28">
+        <v>220000</v>
+      </c>
+      <c r="D191" s="28">
+        <v>277</v>
+      </c>
+      <c r="E191" s="19">
+        <v>1100</v>
+      </c>
+      <c r="F191" s="19">
+        <f t="shared" si="7"/>
+        <v>3690.0244444444397</v>
+      </c>
+      <c r="G191">
+        <v>2431.0733333333301</v>
+      </c>
+      <c r="H191">
+        <v>2430.8133333333299</v>
+      </c>
+      <c r="I191">
+        <v>4113.75555555555</v>
+      </c>
+      <c r="J191">
+        <v>4113.75555555555</v>
+      </c>
+      <c r="K191">
+        <v>1598.0022222222201</v>
+      </c>
+      <c r="L191">
+        <v>8827.2777777777701</v>
+      </c>
+      <c r="M191">
+        <v>2315.4933333333302</v>
+      </c>
+      <c r="R191" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="S191" s="28">
+        <v>3359.6609880000001</v>
+      </c>
+      <c r="T191" s="28">
+        <v>220000</v>
+      </c>
+      <c r="U191" s="28">
+        <v>277</v>
+      </c>
+      <c r="V191" s="19">
+        <v>1100</v>
+      </c>
+      <c r="W191" s="19">
+        <f t="shared" si="9"/>
+        <v>1499.9241269841259</v>
+      </c>
+      <c r="X191">
+        <v>3300.98</v>
+      </c>
+      <c r="Y191">
+        <v>4113.8955555555503</v>
+      </c>
+      <c r="Z191">
+        <v>189.58</v>
+      </c>
+      <c r="AA191">
+        <v>192.94</v>
+      </c>
+      <c r="AB191">
+        <v>189.6</v>
+      </c>
+      <c r="AC191">
+        <v>2315.4933333333302</v>
+      </c>
+      <c r="AD191">
+        <v>196.98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="28">
+        <v>18163.26296</v>
+      </c>
+      <c r="C192" s="28">
+        <v>237000</v>
+      </c>
+      <c r="D192" s="28">
+        <v>7820</v>
+      </c>
+      <c r="E192" s="19">
+        <v>6500</v>
+      </c>
+      <c r="F192" s="19">
+        <f xml:space="preserve"> AVERAGE(G192:P192)</f>
+        <v>160.19714285714284</v>
+      </c>
+      <c r="G192">
+        <v>157.69999999999999</v>
+      </c>
+      <c r="H192">
+        <v>160</v>
+      </c>
+      <c r="I192">
+        <v>161.88</v>
+      </c>
+      <c r="J192">
+        <v>169.26</v>
+      </c>
+      <c r="K192">
+        <v>158.9</v>
+      </c>
+      <c r="L192">
+        <v>156.78</v>
+      </c>
+      <c r="M192">
+        <v>156.86000000000001</v>
+      </c>
+      <c r="R192" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S192" s="28">
+        <v>18163.26296</v>
+      </c>
+      <c r="T192" s="28">
+        <v>237000</v>
+      </c>
+      <c r="U192" s="28">
+        <v>7820</v>
+      </c>
+      <c r="V192" s="19">
+        <v>6500</v>
+      </c>
+      <c r="W192" s="19">
+        <f t="shared" si="9"/>
+        <v>1756.6450793650786</v>
+      </c>
+      <c r="X192">
+        <v>169.26</v>
+      </c>
+      <c r="Y192">
+        <v>175.68</v>
+      </c>
+      <c r="Z192">
+        <v>8920.10222222222</v>
+      </c>
+      <c r="AA192">
+        <v>527.28888888888798</v>
+      </c>
+      <c r="AB192">
+        <v>148.62</v>
+      </c>
+      <c r="AC192">
+        <v>149.97999999999999</v>
+      </c>
+      <c r="AD192">
+        <v>2205.5844444444401</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193" s="28">
+        <v>32301.335800000001</v>
+      </c>
+      <c r="C193" s="28">
+        <v>793000</v>
+      </c>
+      <c r="D193" s="28">
+        <v>149000</v>
+      </c>
+      <c r="E193" s="19">
+        <v>47000</v>
+      </c>
+      <c r="F193" s="19">
+        <f t="shared" si="7"/>
+        <v>38392.827301587262</v>
+      </c>
+      <c r="G193">
+        <v>46357.944444444402</v>
+      </c>
+      <c r="H193">
+        <v>46357.944444444402</v>
+      </c>
+      <c r="I193">
+        <v>44990.8777777777</v>
+      </c>
+      <c r="J193">
+        <v>36270.175555555499</v>
+      </c>
+      <c r="K193">
+        <v>24116.66</v>
+      </c>
+      <c r="L193">
+        <v>44248.233333333301</v>
+      </c>
+      <c r="M193">
+        <v>26407.955555555502</v>
+      </c>
+      <c r="R193" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="S193" s="28">
+        <v>32301.335800000001</v>
+      </c>
+      <c r="T193" s="28">
+        <v>793000</v>
+      </c>
+      <c r="U193" s="28">
+        <v>149000</v>
+      </c>
+      <c r="V193" s="19">
+        <v>47000</v>
+      </c>
+      <c r="W193" s="19">
+        <f t="shared" si="9"/>
+        <v>39306.723492063429</v>
+      </c>
+      <c r="X193">
+        <v>48384.542222222197</v>
+      </c>
+      <c r="Y193">
+        <v>38475.328888888798</v>
+      </c>
+      <c r="Z193">
+        <v>23211.8977777777</v>
+      </c>
+      <c r="AA193">
+        <v>38475.328888888798</v>
+      </c>
+      <c r="AB193">
+        <v>32616.564444444401</v>
+      </c>
+      <c r="AC193">
+        <v>30177.073333333301</v>
+      </c>
+      <c r="AD193">
+        <v>63806.328888888798</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B194" s="28">
+        <v>51313.376790000002</v>
+      </c>
+      <c r="C194" s="28">
+        <v>854000</v>
+      </c>
+      <c r="D194" s="28">
+        <v>57800</v>
+      </c>
+      <c r="E194" s="19">
+        <v>49000</v>
+      </c>
+      <c r="F194" s="19">
+        <f t="shared" si="7"/>
+        <v>22007.85814814812</v>
+      </c>
+      <c r="G194">
+        <v>15247.2044444444</v>
+      </c>
+      <c r="H194">
+        <v>27675.093333333301</v>
+      </c>
+      <c r="I194">
+        <v>18527.98</v>
+      </c>
+      <c r="J194">
+        <v>15247.2044444444</v>
+      </c>
+      <c r="K194">
+        <v>27675.093333333301</v>
+      </c>
+      <c r="M194">
+        <v>27674.573333333301</v>
+      </c>
+      <c r="R194" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S194" s="28">
+        <v>51313.376790000002</v>
+      </c>
+      <c r="T194" s="28">
+        <v>854000</v>
+      </c>
+      <c r="U194" s="28">
+        <v>57800</v>
+      </c>
+      <c r="V194" s="19">
+        <v>49000</v>
+      </c>
+      <c r="W194" s="19">
+        <f t="shared" si="9"/>
+        <v>21228.831428571404</v>
+      </c>
+      <c r="X194">
+        <v>19379.36</v>
+      </c>
+      <c r="Y194">
+        <v>27674.573333333301</v>
+      </c>
+      <c r="Z194">
+        <v>13908.255555555501</v>
+      </c>
+      <c r="AA194">
+        <v>13190.731111111099</v>
+      </c>
+      <c r="AB194">
+        <v>39822.335555555503</v>
+      </c>
+      <c r="AC194">
+        <v>15247.2044444444</v>
+      </c>
+      <c r="AD194">
+        <v>19379.36</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="38">
+        <v>84.667500000000004</v>
+      </c>
+      <c r="C195" s="39">
+        <v>96</v>
+      </c>
+      <c r="D195" s="40">
+        <v>411</v>
+      </c>
+      <c r="E195" s="40">
+        <v>92</v>
+      </c>
+      <c r="F195" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R195" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="S195" s="38">
+        <v>84.667500000000004</v>
+      </c>
+      <c r="T195" s="39">
+        <v>96</v>
+      </c>
+      <c r="U195" s="40">
+        <v>411</v>
+      </c>
+      <c r="V195" s="40">
+        <v>92</v>
+      </c>
+      <c r="W195" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B196" s="38">
+        <v>1627.9475</v>
+      </c>
+      <c r="C196" s="39">
+        <v>112</v>
+      </c>
+      <c r="D196" s="40">
+        <v>8560</v>
+      </c>
+      <c r="E196" s="40">
+        <v>96.42</v>
+      </c>
+      <c r="F196" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R196" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="S196" s="38">
+        <v>1627.9475</v>
+      </c>
+      <c r="T196" s="39">
+        <v>112</v>
+      </c>
+      <c r="U196" s="40">
+        <v>8560</v>
+      </c>
+      <c r="V196" s="40">
+        <v>96.42</v>
+      </c>
+      <c r="W196" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" s="38">
+        <v>1260.0333889999999</v>
+      </c>
+      <c r="C197" s="39">
+        <v>478</v>
+      </c>
+      <c r="D197" s="40">
+        <v>4150</v>
+      </c>
+      <c r="E197" s="40">
+        <v>120</v>
+      </c>
+      <c r="F197" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R197" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="S197" s="38">
+        <v>1260.0333889999999</v>
+      </c>
+      <c r="T197" s="39">
+        <v>478</v>
+      </c>
+      <c r="U197" s="40">
+        <v>4150</v>
+      </c>
+      <c r="V197" s="40">
+        <v>120</v>
+      </c>
+      <c r="W197" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198" s="38">
+        <v>7055.9061670000001</v>
+      </c>
+      <c r="C198" s="39">
+        <v>3980</v>
+      </c>
+      <c r="D198" s="40">
+        <v>16200</v>
+      </c>
+      <c r="E198" s="40">
+        <v>100</v>
+      </c>
+      <c r="F198" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R198" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S198" s="38">
+        <v>7055.9061670000001</v>
+      </c>
+      <c r="T198" s="39">
+        <v>3980</v>
+      </c>
+      <c r="U198" s="40">
+        <v>16200</v>
+      </c>
+      <c r="V198" s="40">
+        <v>100</v>
+      </c>
+      <c r="W198" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B199" s="38">
+        <v>2396.498556</v>
+      </c>
+      <c r="C199" s="39">
+        <v>2340</v>
+      </c>
+      <c r="D199" s="40">
+        <v>18500</v>
+      </c>
+      <c r="E199" s="40">
+        <v>110</v>
+      </c>
+      <c r="F199" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R199" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="S199" s="38">
+        <v>2396.498556</v>
+      </c>
+      <c r="T199" s="39">
+        <v>2340</v>
+      </c>
+      <c r="U199" s="40">
+        <v>18500</v>
+      </c>
+      <c r="V199" s="40">
+        <v>110</v>
+      </c>
+      <c r="W199" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" s="38">
+        <v>3322.8712220000002</v>
+      </c>
+      <c r="C200" s="39">
+        <v>3320</v>
+      </c>
+      <c r="D200" s="40">
+        <v>21100</v>
+      </c>
+      <c r="E200" s="40">
+        <v>96</v>
+      </c>
+      <c r="F200" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R200" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S200" s="38">
+        <v>3322.8712220000002</v>
+      </c>
+      <c r="T200" s="39">
+        <v>3320</v>
+      </c>
+      <c r="U200" s="40">
+        <v>21100</v>
+      </c>
+      <c r="V200" s="40">
+        <v>96</v>
+      </c>
+      <c r="W200" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201" s="38">
+        <v>106.435</v>
+      </c>
+      <c r="C201" s="39">
+        <v>6870</v>
+      </c>
+      <c r="D201" s="40">
+        <v>809</v>
+      </c>
+      <c r="E201" s="40">
+        <v>105</v>
+      </c>
+      <c r="F201" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R201" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S201" s="38">
+        <v>106.435</v>
+      </c>
+      <c r="T201" s="39">
+        <v>6870</v>
+      </c>
+      <c r="U201" s="40">
+        <v>809</v>
+      </c>
+      <c r="V201" s="40">
+        <v>105</v>
+      </c>
+      <c r="W201" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B202" s="38">
+        <v>92.355999999999995</v>
+      </c>
+      <c r="C202" s="39">
+        <v>1290</v>
+      </c>
+      <c r="D202" s="40">
+        <v>2000</v>
+      </c>
+      <c r="E202" s="40">
+        <v>94.4</v>
+      </c>
+      <c r="F202" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R202" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S202" s="38">
+        <v>92.355999999999995</v>
+      </c>
+      <c r="T202" s="39">
+        <v>1290</v>
+      </c>
+      <c r="U202" s="40">
+        <v>2000</v>
+      </c>
+      <c r="V202" s="40">
+        <v>94.4</v>
+      </c>
+      <c r="W202" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B203" s="38">
+        <v>10300</v>
+      </c>
+      <c r="C203" s="39">
+        <v>92400</v>
+      </c>
+      <c r="D203" s="40">
+        <v>21500</v>
+      </c>
+      <c r="E203" s="40">
+        <v>6428</v>
+      </c>
+      <c r="F203" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R203" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S203" s="38">
+        <v>10300</v>
+      </c>
+      <c r="T203" s="39">
+        <v>92400</v>
+      </c>
+      <c r="U203" s="40">
+        <v>21500</v>
+      </c>
+      <c r="V203" s="40">
+        <v>6428</v>
+      </c>
+      <c r="W203" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B204" s="40">
+        <v>34883</v>
+      </c>
+      <c r="C204" s="39">
+        <v>275000</v>
+      </c>
+      <c r="D204" s="40">
+        <v>54000</v>
+      </c>
+      <c r="E204" s="40">
+        <v>9285</v>
+      </c>
+      <c r="F204" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R204" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S204" s="40">
+        <v>34883</v>
+      </c>
+      <c r="T204" s="39">
+        <v>275000</v>
+      </c>
+      <c r="U204" s="40">
+        <v>54000</v>
+      </c>
+      <c r="V204" s="40">
+        <v>9285</v>
+      </c>
+      <c r="W204" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B205" s="40">
+        <v>134</v>
+      </c>
+      <c r="C205" s="39">
+        <v>18400</v>
+      </c>
+      <c r="D205" s="40">
+        <v>18800</v>
+      </c>
+      <c r="E205" s="40">
+        <v>130</v>
+      </c>
+      <c r="F205" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R205" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="S205" s="40">
+        <v>134</v>
+      </c>
+      <c r="T205" s="39">
+        <v>18400</v>
+      </c>
+      <c r="U205" s="40">
+        <v>18800</v>
+      </c>
+      <c r="V205" s="40">
+        <v>130</v>
+      </c>
+      <c r="W205" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="40">
+        <v>7100</v>
+      </c>
+      <c r="C206" s="39">
+        <v>9440</v>
+      </c>
+      <c r="D206" s="40">
+        <v>14900</v>
+      </c>
+      <c r="E206" s="40">
+        <v>302</v>
+      </c>
+      <c r="F206" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R206" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S206" s="40">
+        <v>7100</v>
+      </c>
+      <c r="T206" s="39">
+        <v>9440</v>
+      </c>
+      <c r="U206" s="40">
+        <v>14900</v>
+      </c>
+      <c r="V206" s="40">
+        <v>302</v>
+      </c>
+      <c r="W206" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B207" s="40">
+        <v>6400</v>
+      </c>
+      <c r="C207" s="39">
+        <v>163000</v>
+      </c>
+      <c r="D207" s="40">
+        <v>42400</v>
+      </c>
+      <c r="E207" s="40">
+        <v>925</v>
+      </c>
+      <c r="F207" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R207" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="S207" s="40">
+        <v>6400</v>
+      </c>
+      <c r="T207" s="39">
+        <v>163000</v>
+      </c>
+      <c r="U207" s="40">
+        <v>42400</v>
+      </c>
+      <c r="V207" s="40">
+        <v>925</v>
+      </c>
+      <c r="W207" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B208" s="40">
+        <v>119</v>
+      </c>
+      <c r="C208" s="39">
+        <v>74000</v>
+      </c>
+      <c r="D208" s="40">
+        <v>21100</v>
+      </c>
+      <c r="E208" s="40">
+        <v>450</v>
+      </c>
+      <c r="F208" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R208" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S208" s="40">
+        <v>119</v>
+      </c>
+      <c r="T208" s="39">
+        <v>74000</v>
+      </c>
+      <c r="U208" s="40">
+        <v>21100</v>
+      </c>
+      <c r="V208" s="40">
+        <v>450</v>
+      </c>
+      <c r="W208" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B209" s="40">
+        <v>22600</v>
+      </c>
+      <c r="C209" s="39">
+        <v>147000</v>
+      </c>
+      <c r="D209" s="40">
+        <v>23300</v>
+      </c>
+      <c r="E209" s="40">
+        <v>22000</v>
+      </c>
+      <c r="F209" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R209" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="S209" s="40">
+        <v>22600</v>
+      </c>
+      <c r="T209" s="39">
+        <v>147000</v>
+      </c>
+      <c r="U209" s="40">
+        <v>23300</v>
+      </c>
+      <c r="V209" s="40">
+        <v>22000</v>
+      </c>
+      <c r="W209" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B210" s="40">
+        <v>7670</v>
+      </c>
+      <c r="C210" s="39">
+        <v>60400</v>
+      </c>
+      <c r="D210" s="40">
+        <v>19600</v>
+      </c>
+      <c r="E210" s="40">
+        <v>200</v>
+      </c>
+      <c r="F210" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R210" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S210" s="40">
+        <v>7670</v>
+      </c>
+      <c r="T210" s="39">
+        <v>60400</v>
+      </c>
+      <c r="U210" s="40">
+        <v>19600</v>
+      </c>
+      <c r="V210" s="40">
+        <v>200</v>
+      </c>
+      <c r="W210" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B211" s="40">
+        <v>1590</v>
+      </c>
+      <c r="C211" s="39">
+        <v>7030</v>
+      </c>
+      <c r="D211" s="40">
+        <v>95000</v>
+      </c>
+      <c r="E211" s="41"/>
+      <c r="F211" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R211" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S211" s="40">
+        <v>1590</v>
+      </c>
+      <c r="T211" s="39">
+        <v>7030</v>
+      </c>
+      <c r="U211" s="40">
+        <v>95000</v>
+      </c>
+      <c r="V211" s="41"/>
+      <c r="W211" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B212" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C212" s="11">
+        <v>10500</v>
+      </c>
+      <c r="D212" s="11">
+        <v>54400</v>
+      </c>
+      <c r="E212" s="11"/>
+      <c r="F212" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R212" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="S212" s="11">
+        <v>10500</v>
+      </c>
+      <c r="T212" s="11">
+        <v>10500</v>
+      </c>
+      <c r="U212" s="11">
+        <v>54400</v>
+      </c>
+      <c r="V212" s="11"/>
+      <c r="W212" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213" s="11">
+        <v>3440</v>
+      </c>
+      <c r="C213" s="11">
+        <v>15800</v>
+      </c>
+      <c r="D213" s="11">
+        <v>104000</v>
+      </c>
+      <c r="E213" s="11"/>
+      <c r="F213" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R213" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="S213" s="11">
+        <v>3440</v>
+      </c>
+      <c r="T213" s="11">
+        <v>15800</v>
+      </c>
+      <c r="U213" s="11">
+        <v>104000</v>
+      </c>
+      <c r="V213" s="11"/>
+      <c r="W213" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B214" s="11">
+        <v>17500</v>
+      </c>
+      <c r="C214" s="11">
+        <v>23200</v>
+      </c>
+      <c r="D214" s="11">
+        <v>113000</v>
+      </c>
+      <c r="E214" s="11"/>
+      <c r="F214" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R214" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="S214" s="11">
+        <v>17500</v>
+      </c>
+      <c r="T214" s="11">
+        <v>23200</v>
+      </c>
+      <c r="U214" s="11">
+        <v>113000</v>
+      </c>
+      <c r="V214" s="11"/>
+      <c r="W214" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B215" s="11">
+        <v>11200</v>
+      </c>
+      <c r="C215" s="11">
+        <v>5140</v>
+      </c>
+      <c r="D215" s="11">
+        <v>95700</v>
+      </c>
+      <c r="E215" s="11"/>
+      <c r="F215" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R215" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="S215" s="11">
+        <v>11200</v>
+      </c>
+      <c r="T215" s="11">
+        <v>5140</v>
+      </c>
+      <c r="U215" s="11">
+        <v>95700</v>
+      </c>
+      <c r="V215" s="11"/>
+      <c r="W215" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B216" s="11">
+        <v>15000</v>
+      </c>
+      <c r="C216" s="11">
+        <v>30100</v>
+      </c>
+      <c r="D216" s="11">
+        <v>94200</v>
+      </c>
+      <c r="E216" s="11"/>
+      <c r="F216" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R216" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="S216" s="11">
+        <v>15000</v>
+      </c>
+      <c r="T216" s="11">
+        <v>30100</v>
+      </c>
+      <c r="U216" s="11">
+        <v>94200</v>
+      </c>
+      <c r="V216" s="11"/>
+      <c r="W216" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" s="11">
+        <v>14900</v>
+      </c>
+      <c r="C217" s="11">
+        <v>22300</v>
+      </c>
+      <c r="D217" s="11">
+        <v>85200</v>
+      </c>
+      <c r="E217" s="11"/>
+      <c r="F217" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R217" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="S217" s="11">
+        <v>14900</v>
+      </c>
+      <c r="T217" s="11">
+        <v>22300</v>
+      </c>
+      <c r="U217" s="11">
+        <v>85200</v>
+      </c>
+      <c r="V217" s="11"/>
+      <c r="W217" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B218" s="11">
+        <v>10200</v>
+      </c>
+      <c r="C218" s="11">
+        <v>24300</v>
+      </c>
+      <c r="D218" s="11">
+        <v>117000</v>
+      </c>
+      <c r="E218" s="11"/>
+      <c r="F218" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R218" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="S218" s="11">
+        <v>10200</v>
+      </c>
+      <c r="T218" s="11">
+        <v>24300</v>
+      </c>
+      <c r="U218" s="11">
+        <v>117000</v>
+      </c>
+      <c r="V218" s="11"/>
+      <c r="W218" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B219" s="11">
+        <v>29300</v>
+      </c>
+      <c r="C219" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D219" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E219" s="11"/>
+      <c r="F219" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R219" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="S219" s="11">
+        <v>29300</v>
+      </c>
+      <c r="T219" s="11">
+        <v>124000</v>
+      </c>
+      <c r="U219" s="11">
+        <v>549000</v>
+      </c>
+      <c r="V219" s="11"/>
+      <c r="W219" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B220" s="11">
+        <v>52900</v>
+      </c>
+      <c r="C220" s="11">
+        <v>164000</v>
+      </c>
+      <c r="D220" s="11">
+        <v>601000</v>
+      </c>
+      <c r="E220" s="11"/>
+      <c r="F220" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R220" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="S220" s="11">
+        <v>52900</v>
+      </c>
+      <c r="T220" s="11">
+        <v>164000</v>
+      </c>
+      <c r="U220" s="11">
+        <v>601000</v>
+      </c>
+      <c r="V220" s="11"/>
+      <c r="W220" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B221" s="11">
+        <v>69800</v>
+      </c>
+      <c r="C221" s="11">
+        <v>167000</v>
+      </c>
+      <c r="D221" s="11">
+        <v>551000</v>
+      </c>
+      <c r="E221" s="11"/>
+      <c r="F221" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R221" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="S221" s="11">
+        <v>69800</v>
+      </c>
+      <c r="T221" s="11">
+        <v>167000</v>
+      </c>
+      <c r="U221" s="11">
+        <v>551000</v>
+      </c>
+      <c r="V221" s="11"/>
+      <c r="W221" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B222" s="11">
+        <v>77800</v>
+      </c>
+      <c r="C222" s="11">
+        <v>191000</v>
+      </c>
+      <c r="D222" s="11">
+        <v>715000</v>
+      </c>
+      <c r="E222" s="11"/>
+      <c r="F222" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R222" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S222" s="11">
+        <v>77800</v>
+      </c>
+      <c r="T222" s="11">
+        <v>191000</v>
+      </c>
+      <c r="U222" s="11">
+        <v>715000</v>
+      </c>
+      <c r="V222" s="11"/>
+      <c r="W222" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B223" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C223" s="11">
+        <v>181000</v>
+      </c>
+      <c r="D223" s="11">
+        <v>616000</v>
+      </c>
+      <c r="E223" s="11"/>
+      <c r="F223" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R223" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="S223" s="11">
+        <v>36300</v>
+      </c>
+      <c r="T223" s="11">
+        <v>181000</v>
+      </c>
+      <c r="U223" s="11">
+        <v>616000</v>
+      </c>
+      <c r="V223" s="11"/>
+      <c r="W223" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B224" s="11">
+        <v>30900</v>
+      </c>
+      <c r="C224" s="11">
+        <v>176000</v>
+      </c>
+      <c r="D224" s="11">
+        <v>798000</v>
+      </c>
+      <c r="E224" s="11"/>
+      <c r="F224" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R224" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="S224" s="11">
+        <v>30900</v>
+      </c>
+      <c r="T224" s="11">
+        <v>176000</v>
+      </c>
+      <c r="U224" s="11">
+        <v>798000</v>
+      </c>
+      <c r="V224" s="11"/>
+      <c r="W224" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="225" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" s="11">
+        <v>26800</v>
+      </c>
+      <c r="C225" s="11">
+        <v>104000</v>
+      </c>
+      <c r="D225" s="11">
+        <v>603000</v>
+      </c>
+      <c r="E225" s="11"/>
+      <c r="F225" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R225" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="S225" s="11">
+        <v>26800</v>
+      </c>
+      <c r="T225" s="11">
+        <v>104000</v>
+      </c>
+      <c r="U225" s="11">
+        <v>603000</v>
+      </c>
+      <c r="V225" s="11"/>
+      <c r="W225" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="226" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226" s="11">
+        <v>15200</v>
+      </c>
+      <c r="C226" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D226" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E226" s="11"/>
+      <c r="F226" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R226" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="S226" s="11">
+        <v>15200</v>
+      </c>
+      <c r="T226" s="11">
+        <v>124000</v>
+      </c>
+      <c r="U226" s="11">
+        <v>549000</v>
+      </c>
+      <c r="V226" s="11"/>
+      <c r="W226" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B227" s="11">
+        <v>1580000</v>
+      </c>
+      <c r="C227" s="11">
+        <v>1180000</v>
+      </c>
+      <c r="D227" s="11">
+        <v>1590000</v>
+      </c>
+      <c r="E227" s="11"/>
+      <c r="F227" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R227" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="S227" s="11">
+        <v>1580000</v>
+      </c>
+      <c r="T227" s="11">
+        <v>1180000</v>
+      </c>
+      <c r="U227" s="11">
+        <v>1590000</v>
+      </c>
+      <c r="V227" s="11"/>
+      <c r="W227" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B228" s="11">
+        <v>931000</v>
+      </c>
+      <c r="C228" s="11">
+        <v>572000</v>
+      </c>
+      <c r="D228" s="11">
+        <v>2510000</v>
+      </c>
+      <c r="E228" s="11"/>
+      <c r="F228" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R228" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="S228" s="11">
+        <v>931000</v>
+      </c>
+      <c r="T228" s="11">
+        <v>572000</v>
+      </c>
+      <c r="U228" s="11">
+        <v>2510000</v>
+      </c>
+      <c r="V228" s="11"/>
+      <c r="W228" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B229" s="11">
+        <v>74400</v>
+      </c>
+      <c r="C229" s="11">
+        <v>515000</v>
+      </c>
+      <c r="D229" s="11">
+        <v>1340000</v>
+      </c>
+      <c r="E229" s="11"/>
+      <c r="F229" s="19" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R229" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S229" s="11">
+        <v>74400</v>
+      </c>
+      <c r="T229" s="11">
+        <v>515000</v>
+      </c>
+      <c r="U229" s="11">
+        <v>1340000</v>
+      </c>
+      <c r="V229" s="11"/>
+      <c r="W229" s="19" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B230" s="11">
+        <v>761000</v>
+      </c>
+      <c r="C230" s="11">
+        <v>448000</v>
+      </c>
+      <c r="D230" s="11">
+        <v>2030000</v>
+      </c>
+      <c r="E230" s="11"/>
+      <c r="F230" s="11"/>
+      <c r="R230" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S230" s="11">
+        <v>761000</v>
+      </c>
+      <c r="T230" s="11">
+        <v>448000</v>
+      </c>
+      <c r="U230" s="11">
+        <v>2030000</v>
+      </c>
+      <c r="V230" s="11"/>
+      <c r="W230" s="11"/>
+    </row>
+    <row r="231" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B231" s="11">
+        <v>84700</v>
+      </c>
+      <c r="C231" s="11">
+        <v>317000</v>
+      </c>
+      <c r="D231" s="11">
+        <v>1930000</v>
+      </c>
+      <c r="E231" s="11"/>
+      <c r="F231" s="11"/>
+      <c r="R231" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S231" s="11">
+        <v>84700</v>
+      </c>
+      <c r="T231" s="11">
+        <v>317000</v>
+      </c>
+      <c r="U231" s="11">
+        <v>1930000</v>
+      </c>
+      <c r="V231" s="11"/>
+      <c r="W231" s="11"/>
+    </row>
+    <row r="232" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B232" s="11">
+        <v>2070000</v>
+      </c>
+      <c r="C232" s="11">
+        <v>1630000</v>
+      </c>
+      <c r="D232" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="R232" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="S232" s="11">
+        <v>2070000</v>
+      </c>
+      <c r="T232" s="11">
+        <v>1630000</v>
+      </c>
+      <c r="U232" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="V232" s="11"/>
+      <c r="W232" s="11"/>
+    </row>
+    <row r="233" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B233" s="11">
+        <v>323000</v>
+      </c>
+      <c r="C233" s="11">
+        <v>730000</v>
+      </c>
+      <c r="D233" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="E233" s="11"/>
+      <c r="F233" s="11"/>
+      <c r="R233" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S233" s="11">
+        <v>323000</v>
+      </c>
+      <c r="T233" s="11">
+        <v>730000</v>
+      </c>
+      <c r="U233" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="V233" s="11"/>
+      <c r="W233" s="11"/>
+    </row>
+    <row r="234" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B234" s="11">
+        <v>2080000</v>
+      </c>
+      <c r="C234" s="11">
+        <v>1840000</v>
+      </c>
+      <c r="D234" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="E234" s="11"/>
+      <c r="F234" s="11"/>
+      <c r="R234" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="S234" s="11">
+        <v>2080000</v>
+      </c>
+      <c r="T234" s="11">
+        <v>1840000</v>
+      </c>
+      <c r="U234" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="V234" s="11"/>
+      <c r="W234" s="11"/>
+    </row>
+    <row r="235" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B235" s="11">
+        <v>10400000</v>
+      </c>
+      <c r="C235" s="11">
+        <v>22400000</v>
+      </c>
+      <c r="D235" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="E235" s="11"/>
+      <c r="F235" s="11"/>
+      <c r="R235" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="S235" s="11">
+        <v>10400000</v>
+      </c>
+      <c r="T235" s="11">
+        <v>22400000</v>
+      </c>
+      <c r="U235" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="V235" s="11"/>
+      <c r="W235" s="11"/>
+    </row>
+    <row r="236" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B236" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="C236" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="D236" s="11">
+        <v>11200000</v>
+      </c>
+      <c r="E236" s="11"/>
+      <c r="F236" s="11"/>
+      <c r="R236" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="S236" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="T236" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="U236" s="11">
+        <v>11200000</v>
+      </c>
+      <c r="V236" s="11"/>
+      <c r="W236" s="11"/>
+    </row>
+    <row r="237" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B237" s="11">
+        <v>7770000</v>
+      </c>
+      <c r="C237" s="11">
+        <v>12400000</v>
+      </c>
+      <c r="D237" s="11">
+        <v>9540000</v>
+      </c>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="R237" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="S237" s="11">
+        <v>7770000</v>
+      </c>
+      <c r="T237" s="11">
+        <v>12400000</v>
+      </c>
+      <c r="U237" s="11">
+        <v>9540000</v>
+      </c>
+      <c r="V237" s="11"/>
+      <c r="W237" s="11"/>
+    </row>
+    <row r="238" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B238" s="11">
+        <v>10700000</v>
+      </c>
+      <c r="C238" s="11">
+        <v>21500000</v>
+      </c>
+      <c r="D238" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="E238" s="11"/>
+      <c r="F238" s="11"/>
+      <c r="R238" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S238" s="11">
+        <v>10700000</v>
+      </c>
+      <c r="T238" s="11">
+        <v>21500000</v>
+      </c>
+      <c r="U238" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="V238" s="11"/>
+      <c r="W238" s="11"/>
+    </row>
+    <row r="239" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B239" s="11">
+        <v>6030000</v>
+      </c>
+      <c r="C239" s="11">
+        <v>9100000</v>
+      </c>
+      <c r="D239" s="11">
+        <v>7210000</v>
+      </c>
+      <c r="E239" s="11"/>
+      <c r="F239" s="11"/>
+      <c r="R239" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="S239" s="11">
+        <v>6030000</v>
+      </c>
+      <c r="T239" s="11">
+        <v>9100000</v>
+      </c>
+      <c r="U239" s="11">
+        <v>7210000</v>
+      </c>
+      <c r="V239" s="11"/>
+      <c r="W239" s="11"/>
+    </row>
+    <row r="240" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B240" s="11">
+        <v>8800000</v>
+      </c>
+      <c r="C240" s="11">
+        <v>14500000</v>
+      </c>
+      <c r="D240" s="11">
+        <v>10900000</v>
+      </c>
+      <c r="E240" s="11"/>
+      <c r="F240" s="11"/>
+      <c r="R240" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S240" s="11">
+        <v>8800000</v>
+      </c>
+      <c r="T240" s="11">
+        <v>14500000</v>
+      </c>
+      <c r="U240" s="11">
+        <v>10900000</v>
+      </c>
+      <c r="V240" s="11"/>
+      <c r="W240" s="11"/>
+    </row>
+    <row r="241" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B241" s="11">
+        <v>13300000</v>
+      </c>
+      <c r="C241" s="11">
+        <v>30900000</v>
+      </c>
+      <c r="D241" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="E241" s="11"/>
+      <c r="F241" s="11"/>
+      <c r="R241" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="S241" s="11">
+        <v>13300000</v>
+      </c>
+      <c r="T241" s="11">
+        <v>30900000</v>
+      </c>
+      <c r="U241" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="V241" s="11"/>
+      <c r="W241" s="11"/>
+    </row>
+    <row r="242" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B242" s="11">
+        <v>15700000</v>
+      </c>
+      <c r="C242" s="11">
+        <v>25400000</v>
+      </c>
+      <c r="D242" s="11">
+        <v>27400000</v>
+      </c>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="R242" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="S242" s="11">
+        <v>15700000</v>
+      </c>
+      <c r="T242" s="11">
+        <v>25400000</v>
+      </c>
+      <c r="U242" s="11">
+        <v>27400000</v>
+      </c>
+      <c r="V242" s="11"/>
+      <c r="W242" s="11"/>
+    </row>
+    <row r="243" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D247" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F247" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="S247" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="T247" s="43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" s="28">
+        <v>134</v>
+      </c>
+      <c r="C248" s="28">
+        <v>2300</v>
+      </c>
+      <c r="D248" s="28">
+        <v>130</v>
+      </c>
+      <c r="E248" s="19">
+        <v>135</v>
+      </c>
+      <c r="F248" s="16">
+        <f xml:space="preserve"> AVERAGE(G248:P248)</f>
+        <v>121.8066666666659</v>
+      </c>
+      <c r="G248">
+        <v>121.179999999999</v>
+      </c>
+      <c r="H248">
+        <v>121.179999999999</v>
+      </c>
+      <c r="I248">
+        <v>121.179999999999</v>
+      </c>
+      <c r="J248">
+        <v>121.28</v>
+      </c>
+      <c r="K248">
+        <v>121.179999999999</v>
+      </c>
+      <c r="L248">
+        <v>121.179999999999</v>
+      </c>
+      <c r="M248">
+        <v>126.72</v>
+      </c>
+      <c r="O248">
+        <v>121.179999999999</v>
+      </c>
+      <c r="P248">
+        <v>121.179999999999</v>
+      </c>
+      <c r="S248">
+        <v>121.8066666666659</v>
+      </c>
+      <c r="T248">
+        <v>127.88999999999932</v>
+      </c>
+      <c r="U248">
+        <f xml:space="preserve"> T248 - S248</f>
+        <v>6.0833333333334139</v>
+      </c>
+      <c r="V248">
+        <f xml:space="preserve"> U248 / T248 * 100</f>
+        <v>4.7566919488102632</v>
+      </c>
+      <c r="W248">
+        <v>4.7566919488102632</v>
+      </c>
+    </row>
+    <row r="249" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" s="28">
+        <v>95.74</v>
+      </c>
+      <c r="C249" s="28">
+        <v>30500</v>
+      </c>
+      <c r="D249" s="28">
+        <v>91.4</v>
+      </c>
+      <c r="E249" s="28">
+        <v>95.6</v>
+      </c>
+      <c r="F249" s="16">
+        <f t="shared" ref="F249:F253" si="10" xml:space="preserve"> AVERAGE(G249:P249)</f>
+        <v>91.153999999999996</v>
+      </c>
+      <c r="G249">
+        <v>86.92</v>
+      </c>
+      <c r="H249">
+        <v>86.92</v>
+      </c>
+      <c r="I249">
+        <v>92.14</v>
+      </c>
+      <c r="J249">
+        <v>92.14</v>
+      </c>
+      <c r="K249">
+        <v>92.12</v>
+      </c>
+      <c r="L249">
+        <v>92.44</v>
+      </c>
+      <c r="M249">
+        <v>92.14</v>
+      </c>
+      <c r="N249">
+        <v>92.14</v>
+      </c>
+      <c r="O249">
+        <v>92.14</v>
+      </c>
+      <c r="P249">
+        <v>92.44</v>
+      </c>
+      <c r="S249">
+        <v>91.153999999999996</v>
+      </c>
+      <c r="T249">
+        <v>87.773333333333326</v>
+      </c>
+      <c r="U249">
+        <f t="shared" ref="U249:U273" si="11" xml:space="preserve"> T249 - S249</f>
+        <v>-3.38066666666667</v>
+      </c>
+      <c r="V249">
+        <f t="shared" ref="V249:V273" si="12" xml:space="preserve"> U249 / T249 * 100</f>
+        <v>-3.8515874221479609</v>
+      </c>
+      <c r="W249">
+        <v>-3.8515874221479609</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B250" s="28">
+        <v>97.44</v>
+      </c>
+      <c r="C250" s="28">
+        <v>35800</v>
+      </c>
+      <c r="D250" s="17">
+        <v>96.5</v>
+      </c>
+      <c r="E250" s="28">
+        <v>96.8</v>
+      </c>
+      <c r="F250" s="19">
+        <f t="shared" si="10"/>
+        <v>100.97599999999997</v>
+      </c>
+      <c r="G250">
+        <v>102.8</v>
+      </c>
+      <c r="H250">
+        <v>96.619999999999905</v>
+      </c>
+      <c r="I250">
+        <v>96.64</v>
+      </c>
+      <c r="J250">
+        <v>97.739999999999895</v>
+      </c>
+      <c r="K250">
+        <v>102.52</v>
+      </c>
+      <c r="L250">
+        <v>102.52</v>
+      </c>
+      <c r="M250">
+        <v>102.8</v>
+      </c>
+      <c r="N250">
+        <v>102.8</v>
+      </c>
+      <c r="O250">
+        <v>102.8</v>
+      </c>
+      <c r="P250">
+        <v>102.52</v>
+      </c>
+      <c r="S250">
+        <v>100.97599999999997</v>
+      </c>
+      <c r="T250">
+        <v>102.75333333333333</v>
+      </c>
+      <c r="U250">
+        <f t="shared" si="11"/>
+        <v>1.7773333333333596</v>
+      </c>
+      <c r="V250">
+        <f t="shared" si="12"/>
+        <v>1.7297086874716407</v>
+      </c>
+      <c r="W250">
+        <v>1.7297086874716407</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B251" s="28">
+        <v>102.7342857</v>
+      </c>
+      <c r="C251" s="28">
+        <v>5490</v>
+      </c>
+      <c r="D251" s="28">
+        <v>104</v>
+      </c>
+      <c r="E251" s="28">
+        <v>94.6</v>
+      </c>
+      <c r="F251" s="16">
+        <f t="shared" si="10"/>
+        <v>94.061999999999983</v>
+      </c>
+      <c r="G251">
+        <v>91.7</v>
+      </c>
+      <c r="H251">
+        <v>99.6</v>
+      </c>
+      <c r="I251">
+        <v>92.82</v>
+      </c>
+      <c r="J251">
+        <v>92.82</v>
+      </c>
+      <c r="K251">
+        <v>97.16</v>
+      </c>
+      <c r="L251">
+        <v>92.82</v>
+      </c>
+      <c r="M251">
+        <v>92.82</v>
+      </c>
+      <c r="N251">
+        <v>92.82</v>
+      </c>
+      <c r="O251">
+        <v>92.82</v>
+      </c>
+      <c r="P251">
+        <v>95.24</v>
+      </c>
+      <c r="S251">
+        <v>94.061999999999983</v>
+      </c>
+      <c r="T251">
+        <v>96.36666666666666</v>
+      </c>
+      <c r="U251">
+        <f t="shared" si="11"/>
+        <v>2.3046666666666766</v>
+      </c>
+      <c r="V251">
+        <f t="shared" si="12"/>
+        <v>2.3915600138360533</v>
+      </c>
+      <c r="W251">
+        <v>2.3915600138360533</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B252" s="17">
+        <v>4069.6358019999998</v>
+      </c>
+      <c r="C252" s="28">
+        <v>16900</v>
+      </c>
+      <c r="D252" s="28">
+        <v>8000</v>
+      </c>
+      <c r="E252" s="28">
+        <v>8000</v>
+      </c>
+      <c r="F252" s="19">
+        <f t="shared" si="10"/>
+        <v>5445.2300000000005</v>
+      </c>
+      <c r="G252">
+        <v>5445.52</v>
+      </c>
+      <c r="H252">
+        <v>5444.76</v>
+      </c>
+      <c r="I252">
+        <v>5445.34</v>
+      </c>
+      <c r="J252">
+        <v>5444.76</v>
+      </c>
+      <c r="K252">
+        <v>5444.76</v>
+      </c>
+      <c r="L252">
+        <v>5445.56</v>
+      </c>
+      <c r="M252">
+        <v>5445.52</v>
+      </c>
+      <c r="N252">
+        <v>5445.26</v>
+      </c>
+      <c r="O252">
+        <v>5445.56</v>
+      </c>
+      <c r="P252">
+        <v>5445.26</v>
+      </c>
+      <c r="S252">
+        <v>5445.2300000000005</v>
+      </c>
+      <c r="T252">
+        <v>5445.2300000000005</v>
+      </c>
+      <c r="U252">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V252">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="17">
+        <v>105</v>
+      </c>
+      <c r="C253" s="28">
+        <v>4760</v>
+      </c>
+      <c r="D253" s="28">
+        <v>118</v>
+      </c>
+      <c r="E253" s="19">
+        <v>120</v>
+      </c>
+      <c r="F253" s="19">
+        <f t="shared" si="10"/>
+        <v>120.428</v>
+      </c>
+      <c r="G253">
+        <v>121.66</v>
+      </c>
+      <c r="H253">
+        <v>121.8</v>
+      </c>
+      <c r="I253">
+        <v>121.8</v>
+      </c>
+      <c r="J253">
+        <v>121.66</v>
+      </c>
+      <c r="K253">
+        <v>121.66</v>
+      </c>
+      <c r="L253">
+        <v>118.44</v>
+      </c>
+      <c r="M253">
+        <v>121.8</v>
+      </c>
+      <c r="N253">
+        <v>118.58</v>
+      </c>
+      <c r="O253">
+        <v>118.44</v>
+      </c>
+      <c r="P253">
+        <v>118.44</v>
+      </c>
+      <c r="S253">
+        <v>120.428</v>
+      </c>
+      <c r="T253">
+        <v>120.37666666666667</v>
+      </c>
+      <c r="U253">
+        <f t="shared" si="11"/>
+        <v>-5.1333333333332121E-2</v>
+      </c>
+      <c r="V253">
+        <f t="shared" si="12"/>
+        <v>-4.2643923240937159E-2</v>
+      </c>
+      <c r="W253">
+        <v>-4.2643923240937159E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" s="28">
+        <v>10338.10578</v>
+      </c>
+      <c r="C254" s="28">
+        <v>12800</v>
+      </c>
+      <c r="D254" s="28">
+        <v>7360</v>
+      </c>
+      <c r="E254" s="19">
+        <v>7200</v>
+      </c>
+      <c r="F254" s="16">
+        <f xml:space="preserve"> AVERAGE(G254:P254)</f>
+        <v>4604.4999999999991</v>
+      </c>
+      <c r="G254">
+        <v>3983.84</v>
+      </c>
+      <c r="H254">
+        <v>3985.1</v>
+      </c>
+      <c r="I254">
+        <v>5917.7733333333299</v>
+      </c>
+      <c r="J254">
+        <v>3985.34</v>
+      </c>
+      <c r="K254">
+        <v>5917.7933333333303</v>
+      </c>
+      <c r="L254">
+        <v>4383.66</v>
+      </c>
+      <c r="M254">
+        <v>3984.64</v>
+      </c>
+      <c r="N254">
+        <v>3985.22</v>
+      </c>
+      <c r="O254">
+        <v>3983.86</v>
+      </c>
+      <c r="P254">
+        <v>5917.7733333333299</v>
+      </c>
+      <c r="S254">
+        <v>4604.4999999999991</v>
+      </c>
+      <c r="T254">
+        <v>4407.2755555555532</v>
+      </c>
+      <c r="U254">
+        <f t="shared" si="11"/>
+        <v>-197.22444444444591</v>
+      </c>
+      <c r="V254">
+        <f t="shared" si="12"/>
+        <v>-4.4749742093125153</v>
+      </c>
+      <c r="W254">
+        <v>-4.4749742093125153</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B255" s="28">
+        <v>68.8</v>
+      </c>
+      <c r="C255" s="28">
+        <v>797</v>
+      </c>
+      <c r="D255" s="28">
+        <v>769</v>
+      </c>
+      <c r="E255" s="19">
+        <v>95</v>
+      </c>
+      <c r="F255" s="16">
+        <f t="shared" ref="F255:F298" si="13" xml:space="preserve"> AVERAGE(G255:P255)</f>
+        <v>65.543999999999954</v>
+      </c>
+      <c r="G255">
+        <v>65.64</v>
+      </c>
+      <c r="H255">
+        <v>65.42</v>
+      </c>
+      <c r="I255">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="J255">
+        <v>65.64</v>
+      </c>
+      <c r="K255">
+        <v>65.38</v>
+      </c>
+      <c r="L255">
+        <v>65.64</v>
+      </c>
+      <c r="M255">
+        <v>65.64</v>
+      </c>
+      <c r="N255">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="O255">
+        <v>65.64</v>
+      </c>
+      <c r="P255">
+        <v>65.479999999999905</v>
+      </c>
+      <c r="S255">
+        <v>65.543999999999954</v>
+      </c>
+      <c r="T255">
+        <v>65.776666666666642</v>
+      </c>
+      <c r="U255">
+        <f t="shared" si="11"/>
+        <v>0.23266666666668812</v>
+      </c>
+      <c r="V255">
+        <f t="shared" si="12"/>
+        <v>0.35372219125326337</v>
+      </c>
+      <c r="W255">
+        <v>0.35372219125326337</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B256" s="28">
+        <v>3307.1417280000001</v>
+      </c>
+      <c r="C256" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D256" s="28">
+        <v>8480</v>
+      </c>
+      <c r="E256" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F256" s="16">
+        <f t="shared" si="13"/>
+        <v>155.81</v>
+      </c>
+      <c r="G256">
+        <v>155.82</v>
+      </c>
+      <c r="I256">
+        <v>156.68</v>
+      </c>
+      <c r="K256">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="M256">
+        <v>151.62</v>
+      </c>
+      <c r="O256">
+        <v>155.6</v>
+      </c>
+      <c r="P256">
+        <v>156.66</v>
+      </c>
+      <c r="S256">
+        <v>155.81</v>
+      </c>
+      <c r="T256">
+        <v>162.66666666666669</v>
+      </c>
+      <c r="U256">
+        <f t="shared" si="11"/>
+        <v>6.8566666666666833</v>
+      </c>
+      <c r="V256">
+        <f t="shared" si="12"/>
+        <v>4.215163934426239</v>
+      </c>
+      <c r="W256">
+        <v>4.215163934426239</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B257" s="28">
+        <v>194000</v>
+      </c>
+      <c r="C257" s="28">
+        <v>1770000</v>
+      </c>
+      <c r="D257" s="28">
+        <v>187000</v>
+      </c>
+      <c r="E257" s="28">
+        <v>183000</v>
+      </c>
+      <c r="F257" s="16">
+        <f t="shared" si="13"/>
+        <v>130455.19255555511</v>
+      </c>
+      <c r="G257">
+        <v>139004.47555555499</v>
+      </c>
+      <c r="H257">
+        <v>122190.702222222</v>
+      </c>
+      <c r="I257">
+        <v>139029.37299999999</v>
+      </c>
+      <c r="J257">
+        <v>135839.784444444</v>
+      </c>
+      <c r="K257">
+        <v>132133.62888888799</v>
+      </c>
+      <c r="L257">
+        <v>127368.424444444</v>
+      </c>
+      <c r="M257">
+        <v>131543.164444444</v>
+      </c>
+      <c r="N257">
+        <v>132231.32888888801</v>
+      </c>
+      <c r="O257">
+        <v>114755.851111111</v>
+      </c>
+      <c r="S257">
+        <v>130455.19255555511</v>
+      </c>
+      <c r="T257">
+        <v>153544.06777777732</v>
+      </c>
+      <c r="U257">
+        <f t="shared" si="11"/>
+        <v>23088.87522222221</v>
+      </c>
+      <c r="V257">
+        <f t="shared" si="12"/>
+        <v>15.037295518077906</v>
+      </c>
+      <c r="W257">
+        <v>15.037295518077906</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="28">
+        <v>910.73827159999996</v>
+      </c>
+      <c r="C258" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D258" s="28">
+        <v>3040</v>
+      </c>
+      <c r="E258" s="19">
+        <v>500</v>
+      </c>
+      <c r="F258" s="16">
+        <f t="shared" si="13"/>
+        <v>164.566</v>
+      </c>
+      <c r="G258">
+        <v>170.06</v>
+      </c>
+      <c r="H258">
+        <v>169.44</v>
+      </c>
+      <c r="I258">
+        <v>172.58</v>
+      </c>
+      <c r="J258">
+        <v>170.38</v>
+      </c>
+      <c r="K258">
+        <v>170.12</v>
+      </c>
+      <c r="L258">
+        <v>163.94</v>
+      </c>
+      <c r="M258">
+        <v>151.74</v>
+      </c>
+      <c r="N258">
+        <v>160.08000000000001</v>
+      </c>
+      <c r="O258">
+        <v>165.12</v>
+      </c>
+      <c r="P258">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="S258">
+        <v>164.566</v>
+      </c>
+      <c r="T258">
+        <v>170.804</v>
+      </c>
+      <c r="U258">
+        <f t="shared" si="11"/>
+        <v>6.2379999999999995</v>
+      </c>
+      <c r="V258">
+        <f t="shared" si="12"/>
+        <v>3.6521392941617292</v>
+      </c>
+      <c r="W258">
+        <v>3.6521392941617292</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" s="28">
+        <v>14974.64444</v>
+      </c>
+      <c r="C259" s="28">
+        <v>567000</v>
+      </c>
+      <c r="D259" s="28">
+        <v>84200</v>
+      </c>
+      <c r="E259" s="19">
+        <v>79000</v>
+      </c>
+      <c r="F259" s="16">
+        <f t="shared" si="13"/>
+        <v>14820.856825396791</v>
+      </c>
+      <c r="G259">
+        <v>14382.575555555501</v>
+      </c>
+      <c r="H259">
+        <v>10669.264444444399</v>
+      </c>
+      <c r="I259">
+        <v>16253.0355555555</v>
+      </c>
+      <c r="J259">
+        <v>23944.073333333301</v>
+      </c>
+      <c r="K259">
+        <v>21015.3955555555</v>
+      </c>
+      <c r="L259">
+        <v>9014.4088888888891</v>
+      </c>
+      <c r="M259">
+        <v>8467.2444444444409</v>
+      </c>
+      <c r="S259">
+        <v>14820.856825396791</v>
+      </c>
+      <c r="T259">
+        <v>14126.115873015839</v>
+      </c>
+      <c r="U259">
+        <f t="shared" si="11"/>
+        <v>-694.74095238095288</v>
+      </c>
+      <c r="V259">
+        <f t="shared" si="12"/>
+        <v>-4.9181314851598339</v>
+      </c>
+      <c r="W259">
+        <v>-4.9181314851598339</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B260" s="28">
+        <v>3359.6609880000001</v>
+      </c>
+      <c r="C260" s="28">
+        <v>220000</v>
+      </c>
+      <c r="D260" s="28">
+        <v>277</v>
+      </c>
+      <c r="E260" s="19">
+        <v>1100</v>
+      </c>
+      <c r="F260" s="16">
+        <f xml:space="preserve"> AVERAGE(G260:P260)</f>
+        <v>169.99333333333334</v>
+      </c>
+      <c r="G260">
+        <v>172.2</v>
+      </c>
+      <c r="H260">
+        <v>169.28</v>
+      </c>
+      <c r="I260">
+        <v>172.2</v>
+      </c>
+      <c r="J260">
+        <v>174.82</v>
+      </c>
+      <c r="K260">
+        <v>167.38</v>
+      </c>
+      <c r="L260">
+        <v>165.26</v>
+      </c>
+      <c r="M260">
+        <v>165.26</v>
+      </c>
+      <c r="N260">
+        <v>176.04</v>
+      </c>
+      <c r="O260">
+        <v>167.5</v>
+      </c>
+      <c r="S260">
+        <v>169.99333333333334</v>
+      </c>
+      <c r="T260">
+        <v>186.15666666666633</v>
+      </c>
+      <c r="U260">
+        <f t="shared" si="11"/>
+        <v>16.163333333332986</v>
+      </c>
+      <c r="V260">
+        <f t="shared" si="12"/>
+        <v>8.6826508138304739</v>
+      </c>
+      <c r="W260">
+        <v>8.6826508138304739</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B261" s="28">
+        <v>18163.26296</v>
+      </c>
+      <c r="C261" s="28">
+        <v>237000</v>
+      </c>
+      <c r="D261" s="28">
+        <v>7820</v>
+      </c>
+      <c r="E261" s="19">
+        <v>6500</v>
+      </c>
+      <c r="F261" s="16">
+        <f t="shared" si="13"/>
+        <v>158.64222222222202</v>
+      </c>
+      <c r="G261">
+        <v>166.57999999999899</v>
+      </c>
+      <c r="H261">
+        <v>166.26</v>
+      </c>
+      <c r="I261">
+        <v>165.07999999999899</v>
+      </c>
+      <c r="J261">
+        <v>164.38</v>
+      </c>
+      <c r="K261">
+        <v>148.96</v>
+      </c>
+      <c r="L261">
+        <v>149.63999999999999</v>
+      </c>
+      <c r="M261">
+        <v>149.69999999999999</v>
+      </c>
+      <c r="N261">
+        <v>151.91999999999999</v>
+      </c>
+      <c r="O261">
+        <v>165.26</v>
+      </c>
+      <c r="S261">
+        <v>158.64222222222202</v>
+      </c>
+      <c r="T261">
+        <v>165.71499999999975</v>
+      </c>
+      <c r="U261">
+        <f t="shared" si="11"/>
+        <v>7.0727777777777305</v>
+      </c>
+      <c r="V261">
+        <f t="shared" si="12"/>
+        <v>4.2680371588436419</v>
+      </c>
+      <c r="W261">
+        <v>4.2680371588436419</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262" s="28">
+        <v>32301.335800000001</v>
+      </c>
+      <c r="C262" s="28">
+        <v>793000</v>
+      </c>
+      <c r="D262" s="28">
+        <v>149000</v>
+      </c>
+      <c r="E262" s="19">
+        <v>47000</v>
+      </c>
+      <c r="F262" s="16">
+        <f t="shared" si="13"/>
+        <v>18867.613611111075</v>
+      </c>
+      <c r="G262">
+        <v>12153.4911111111</v>
+      </c>
+      <c r="H262">
+        <v>16655.6822222222</v>
+      </c>
+      <c r="I262">
+        <v>24116.66</v>
+      </c>
+      <c r="J262">
+        <v>24785.828888888798</v>
+      </c>
+      <c r="K262">
+        <v>12957.3844444444</v>
+      </c>
+      <c r="L262">
+        <v>22668.324444444399</v>
+      </c>
+      <c r="M262">
+        <v>13493.177777777701</v>
+      </c>
+      <c r="N262">
+        <v>24110.36</v>
+      </c>
+      <c r="S262">
+        <v>18867.613611111075</v>
+      </c>
+      <c r="T262">
+        <v>27677.096277777757</v>
+      </c>
+      <c r="U262">
+        <f t="shared" si="11"/>
+        <v>8809.4826666666813</v>
+      </c>
+      <c r="V262">
+        <f t="shared" si="12"/>
+        <v>31.829504722068375</v>
+      </c>
+      <c r="W262">
+        <v>31.829504722068375</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B263" s="28">
+        <v>51313.376790000002</v>
+      </c>
+      <c r="C263" s="28">
+        <v>854000</v>
+      </c>
+      <c r="D263" s="28">
+        <v>57800</v>
+      </c>
+      <c r="E263" s="19">
+        <v>49000</v>
+      </c>
+      <c r="F263" s="16">
+        <f t="shared" si="13"/>
+        <v>18238.845555555512</v>
+      </c>
+      <c r="G263">
+        <v>21061.7133333333</v>
+      </c>
+      <c r="H263">
+        <v>14297.7244444444</v>
+      </c>
+      <c r="I263">
+        <v>14481.037777777699</v>
+      </c>
+      <c r="J263">
+        <v>14225.462222222201</v>
+      </c>
+      <c r="K263">
+        <v>19214.8777777777</v>
+      </c>
+      <c r="L263">
+        <v>27614.9911111111</v>
+      </c>
+      <c r="M263">
+        <v>27288.653333333299</v>
+      </c>
+      <c r="N263">
+        <v>17491.848888888799</v>
+      </c>
+      <c r="O263">
+        <v>14955.995555555501</v>
+      </c>
+      <c r="P263">
+        <v>11756.151111111099</v>
+      </c>
+      <c r="S263">
+        <v>18238.845555555512</v>
+      </c>
+      <c r="T263">
+        <v>16634.444729999999</v>
+      </c>
+      <c r="U263">
+        <f t="shared" si="11"/>
+        <v>-1604.4008255555127</v>
+      </c>
+      <c r="V263">
+        <f t="shared" si="12"/>
+        <v>-9.6450518883987595</v>
+      </c>
+      <c r="W263">
+        <v>-9.6450518883987595</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B264" s="38">
+        <v>84.667500000000004</v>
+      </c>
+      <c r="C264" s="39">
+        <v>96</v>
+      </c>
+      <c r="D264" s="40">
+        <v>411</v>
+      </c>
+      <c r="E264" s="40">
+        <v>92</v>
+      </c>
+      <c r="F264" s="16">
+        <f t="shared" si="13"/>
+        <v>80.118999999999943</v>
+      </c>
+      <c r="G264">
+        <v>76.309999999999903</v>
+      </c>
+      <c r="H264">
+        <v>79.774999999999906</v>
+      </c>
+      <c r="I264">
+        <v>81.03</v>
+      </c>
+      <c r="J264">
+        <v>79.63</v>
+      </c>
+      <c r="K264">
+        <v>81.114999999999895</v>
+      </c>
+      <c r="L264">
+        <v>81.454999999999998</v>
+      </c>
+      <c r="M264">
+        <v>83.71</v>
+      </c>
+      <c r="N264">
+        <v>79.869999999999905</v>
+      </c>
+      <c r="O264">
+        <v>78.44</v>
+      </c>
+      <c r="P264">
+        <v>79.854999999999905</v>
+      </c>
+      <c r="S264">
+        <v>80.118999999999943</v>
+      </c>
+      <c r="T264">
+        <v>83.635000000000005</v>
+      </c>
+      <c r="U264">
+        <f t="shared" si="11"/>
+        <v>3.5160000000000622</v>
+      </c>
+      <c r="V264">
+        <f t="shared" si="12"/>
+        <v>4.2039815866563783</v>
+      </c>
+      <c r="W264">
+        <v>4.2039815866563783</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B265" s="38">
+        <v>1627.9475</v>
+      </c>
+      <c r="C265" s="39">
+        <v>112</v>
+      </c>
+      <c r="D265" s="40">
+        <v>8560</v>
+      </c>
+      <c r="E265" s="40">
+        <v>96.42</v>
+      </c>
+      <c r="F265" s="16">
+        <f t="shared" si="13"/>
+        <v>84.204499999999982</v>
+      </c>
+      <c r="G265">
+        <v>88.194999999999993</v>
+      </c>
+      <c r="H265">
+        <v>85.12</v>
+      </c>
+      <c r="I265">
+        <v>81.405000000000001</v>
+      </c>
+      <c r="J265">
+        <v>82.13</v>
+      </c>
+      <c r="K265">
+        <v>83.974999999999895</v>
+      </c>
+      <c r="L265">
+        <v>81.53</v>
+      </c>
+      <c r="M265">
+        <v>83.6</v>
+      </c>
+      <c r="N265">
+        <v>85.14</v>
+      </c>
+      <c r="O265">
+        <v>86.38</v>
+      </c>
+      <c r="P265">
+        <v>84.57</v>
+      </c>
+      <c r="S265">
+        <v>84.204499999999982</v>
+      </c>
+      <c r="T265">
+        <v>85.567499999999995</v>
+      </c>
+      <c r="U265">
+        <f t="shared" si="11"/>
+        <v>1.3630000000000138</v>
+      </c>
+      <c r="V265">
+        <f t="shared" si="12"/>
+        <v>1.5928944984953559</v>
+      </c>
+      <c r="W265">
+        <v>1.5928944984953559</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B266" s="38">
+        <v>1260.0333889999999</v>
+      </c>
+      <c r="C266" s="39">
+        <v>478</v>
+      </c>
+      <c r="D266" s="40">
+        <v>4150</v>
+      </c>
+      <c r="E266" s="40">
+        <v>120</v>
+      </c>
+      <c r="F266" s="16">
+        <f t="shared" si="13"/>
+        <v>105.14149999999999</v>
+      </c>
+      <c r="G266">
+        <v>107.495</v>
+      </c>
+      <c r="H266">
+        <v>103.08</v>
+      </c>
+      <c r="I266">
+        <v>105.66</v>
+      </c>
+      <c r="J266">
+        <v>103.79</v>
+      </c>
+      <c r="K266">
+        <v>104.36499999999999</v>
+      </c>
+      <c r="L266">
+        <v>104.06</v>
+      </c>
+      <c r="M266">
+        <v>111.395</v>
+      </c>
+      <c r="N266">
+        <v>102.505</v>
+      </c>
+      <c r="O266">
+        <v>104.395</v>
+      </c>
+      <c r="P266">
+        <v>104.67</v>
+      </c>
+      <c r="S266">
+        <v>105.14149999999999</v>
+      </c>
+      <c r="T266">
+        <v>120.36377779999999</v>
+      </c>
+      <c r="U266">
+        <f t="shared" si="11"/>
+        <v>15.222277800000001</v>
+      </c>
+      <c r="V266">
+        <f t="shared" si="12"/>
+        <v>12.646892676710253</v>
+      </c>
+      <c r="W266">
+        <v>12.646892676710253</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B267" s="38">
+        <v>7055.9061670000001</v>
+      </c>
+      <c r="C267" s="39">
+        <v>3980</v>
+      </c>
+      <c r="D267" s="40">
+        <v>16200</v>
+      </c>
+      <c r="E267" s="18">
+        <v>100</v>
+      </c>
+      <c r="F267" s="19">
+        <f t="shared" si="13"/>
+        <v>3296.3892777777701</v>
+      </c>
+      <c r="G267">
+        <v>3296.93777777777</v>
+      </c>
+      <c r="H267">
+        <v>3297.5377777777699</v>
+      </c>
+      <c r="I267">
+        <v>3295.6527777777701</v>
+      </c>
+      <c r="J267">
+        <v>3298.4777777777699</v>
+      </c>
+      <c r="K267">
+        <v>3295.9677777777702</v>
+      </c>
+      <c r="L267">
+        <v>3295.7427777777698</v>
+      </c>
+      <c r="M267">
+        <v>3298.5077777777701</v>
+      </c>
+      <c r="N267">
+        <v>3295.7077777777699</v>
+      </c>
+      <c r="O267">
+        <v>3293.8077777777698</v>
+      </c>
+      <c r="P267">
+        <v>3295.5527777777702</v>
+      </c>
+      <c r="S267">
+        <v>3296.3892777777701</v>
+      </c>
+      <c r="T267">
+        <v>3298.2621899999999</v>
+      </c>
+      <c r="U267">
+        <f t="shared" si="11"/>
+        <v>1.8729122222298429</v>
+      </c>
+      <c r="V267">
+        <f t="shared" si="12"/>
+        <v>5.6784819227177416E-2</v>
+      </c>
+      <c r="W267">
+        <v>5.6784819227177416E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B268" s="38">
+        <v>2396.498556</v>
+      </c>
+      <c r="C268" s="39">
+        <v>2340</v>
+      </c>
+      <c r="D268" s="40">
+        <v>18500</v>
+      </c>
+      <c r="E268" s="40">
+        <v>110</v>
+      </c>
+      <c r="F268" s="16">
+        <f t="shared" si="13"/>
+        <v>102.11599999999972</v>
+      </c>
+      <c r="G268">
+        <v>102.46</v>
+      </c>
+      <c r="H268">
+        <v>103.22</v>
+      </c>
+      <c r="I268">
+        <v>103.229999999999</v>
+      </c>
+      <c r="J268">
+        <v>101.08499999999999</v>
+      </c>
+      <c r="K268">
+        <v>102.164999999999</v>
+      </c>
+      <c r="L268">
+        <v>102.604999999999</v>
+      </c>
+      <c r="M268">
+        <v>102.005</v>
+      </c>
+      <c r="N268">
+        <v>100.69</v>
+      </c>
+      <c r="O268">
+        <v>100.245</v>
+      </c>
+      <c r="P268">
+        <v>103.455</v>
+      </c>
+      <c r="S268">
+        <v>102.11599999999972</v>
+      </c>
+      <c r="T268">
+        <v>104.95</v>
+      </c>
+      <c r="U268">
+        <f t="shared" si="11"/>
+        <v>2.8340000000002874</v>
+      </c>
+      <c r="V268">
+        <f t="shared" si="12"/>
+        <v>2.7003334921393876</v>
+      </c>
+      <c r="W268">
+        <v>2.7003334921393876</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B269" s="38">
+        <v>3322.8712220000002</v>
+      </c>
+      <c r="C269" s="39">
+        <v>3320</v>
+      </c>
+      <c r="D269" s="40">
+        <v>21100</v>
+      </c>
+      <c r="E269" s="18">
+        <v>96</v>
+      </c>
+      <c r="F269" s="19">
+        <f t="shared" si="13"/>
+        <v>1640.8047222222201</v>
+      </c>
+      <c r="G269">
+        <v>1641.4072222222201</v>
+      </c>
+      <c r="H269">
+        <v>1638.5122222222201</v>
+      </c>
+      <c r="I269">
+        <v>1642.8022222222201</v>
+      </c>
+      <c r="J269">
+        <v>1640.69722222222</v>
+      </c>
+      <c r="K269">
+        <v>1641.31222222222</v>
+      </c>
+      <c r="L269">
+        <v>1640.0022222222201</v>
+      </c>
+      <c r="M269">
+        <v>1640.03722222222</v>
+      </c>
+      <c r="N269">
+        <v>1641.6672222222201</v>
+      </c>
+      <c r="S269">
+        <v>1640.8047222222201</v>
+      </c>
+      <c r="T269">
+        <v>1641.7612220000001</v>
+      </c>
+      <c r="U269">
+        <f t="shared" si="11"/>
+        <v>0.95649977777998174</v>
+      </c>
+      <c r="V269">
+        <f t="shared" si="12"/>
+        <v>5.826059021023592E-2</v>
+      </c>
+      <c r="W269">
+        <v>5.826059021023592E-2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B270" s="38">
+        <v>106.435</v>
+      </c>
+      <c r="C270" s="39">
+        <v>6870</v>
+      </c>
+      <c r="D270" s="40">
+        <v>809</v>
+      </c>
+      <c r="E270" s="40">
+        <v>105</v>
+      </c>
+      <c r="F270" s="16">
+        <f t="shared" si="13"/>
+        <v>103.65899999999958</v>
+      </c>
+      <c r="G270">
+        <v>101.09</v>
+      </c>
+      <c r="H270">
+        <v>103.17</v>
+      </c>
+      <c r="I270">
+        <v>103.65</v>
+      </c>
+      <c r="J270">
+        <v>108.509999999999</v>
+      </c>
+      <c r="K270">
+        <v>101.87499999999901</v>
+      </c>
+      <c r="S270">
+        <v>103.65899999999958</v>
+      </c>
+      <c r="T270">
+        <v>103.19499999999999</v>
+      </c>
+      <c r="U270">
+        <f t="shared" si="11"/>
+        <v>-0.46399999999958652</v>
+      </c>
+      <c r="V270">
+        <f t="shared" si="12"/>
+        <v>-0.44963418770249197</v>
+      </c>
+      <c r="W270">
+        <v>-0.44963418770249197</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B271" s="38">
+        <v>92.355999999999995</v>
+      </c>
+      <c r="C271" s="39">
+        <v>1290</v>
+      </c>
+      <c r="D271" s="40">
+        <v>2000</v>
+      </c>
+      <c r="E271" s="40">
+        <v>94.4</v>
+      </c>
+      <c r="F271" s="16">
+        <f t="shared" si="13"/>
+        <v>88.480833333333337</v>
+      </c>
+      <c r="G271">
+        <v>89.885000000000005</v>
+      </c>
+      <c r="H271">
+        <v>89.484999999999999</v>
+      </c>
+      <c r="I271">
+        <v>86.36</v>
+      </c>
+      <c r="J271">
+        <v>87.715000000000003</v>
+      </c>
+      <c r="K271">
+        <v>88.825000000000003</v>
+      </c>
+      <c r="L271">
+        <v>88.614999999999995</v>
+      </c>
+      <c r="S271">
+        <v>88.480833333333337</v>
+      </c>
+      <c r="T271">
+        <v>90.204999999999998</v>
+      </c>
+      <c r="U271">
+        <f t="shared" si="11"/>
+        <v>1.7241666666666617</v>
+      </c>
+      <c r="V271">
+        <f t="shared" si="12"/>
+        <v>1.9113870258485248</v>
+      </c>
+      <c r="W271">
+        <v>1.9113870258485248</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B272" s="38">
+        <v>10300</v>
+      </c>
+      <c r="C272" s="39">
+        <v>92400</v>
+      </c>
+      <c r="D272" s="40">
+        <v>21500</v>
+      </c>
+      <c r="E272" s="18">
+        <v>6428</v>
+      </c>
+      <c r="F272" s="19">
+        <f t="shared" si="13"/>
+        <v>9138.368472222217</v>
+      </c>
+      <c r="G272">
+        <v>8021.6677777777704</v>
+      </c>
+      <c r="H272">
+        <v>9919.68777777777</v>
+      </c>
+      <c r="I272">
+        <v>8766.7672222222209</v>
+      </c>
+      <c r="J272">
+        <v>9845.3511111111093</v>
+      </c>
+      <c r="S272">
+        <v>9138.368472222217</v>
+      </c>
+      <c r="T272">
+        <v>7768.4649380000001</v>
+      </c>
+      <c r="U272">
+        <f t="shared" si="11"/>
+        <v>-1369.9035342222169</v>
+      </c>
+      <c r="V272">
+        <f t="shared" si="12"/>
+        <v>-17.634159967965306</v>
+      </c>
+      <c r="W272">
+        <v>-17.634159967965306</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B273" s="40">
+        <v>34883</v>
+      </c>
+      <c r="C273" s="39">
+        <v>275000</v>
+      </c>
+      <c r="D273" s="40">
+        <v>54000</v>
+      </c>
+      <c r="E273" s="40">
+        <v>9285</v>
+      </c>
+      <c r="F273" s="16">
+        <f t="shared" si="13"/>
+        <v>7223.3358333333308</v>
+      </c>
+      <c r="G273">
+        <v>3973.05</v>
+      </c>
+      <c r="H273">
+        <v>8854.2083333333303</v>
+      </c>
+      <c r="I273">
+        <v>8951.3755555555508</v>
+      </c>
+      <c r="J273">
+        <v>7114.7094444444401</v>
+      </c>
+      <c r="S273">
+        <v>7223.3358333333308</v>
+      </c>
+      <c r="T273">
+        <v>6197.4147780000003</v>
+      </c>
+      <c r="U273">
+        <f t="shared" si="11"/>
+        <v>-1025.9210553333305</v>
+      </c>
+      <c r="V273">
+        <f t="shared" si="12"/>
+        <v>-16.554016345254379</v>
+      </c>
+      <c r="W273">
+        <v>-16.554016345254379</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B274" s="40">
+        <v>134</v>
+      </c>
+      <c r="C274" s="39">
+        <v>18400</v>
+      </c>
+      <c r="D274" s="40">
+        <v>18800</v>
+      </c>
+      <c r="E274" s="40">
+        <v>130</v>
+      </c>
+      <c r="F274" s="19">
+        <f t="shared" si="13"/>
+        <v>127.82166666666656</v>
+      </c>
+      <c r="G274">
+        <v>122.325</v>
+      </c>
+      <c r="H274">
+        <v>132.72999999999999</v>
+      </c>
+      <c r="I274">
+        <v>126.77500000000001</v>
+      </c>
+      <c r="J274">
+        <v>130.88999999999999</v>
+      </c>
+      <c r="K274">
+        <v>125.51499999999901</v>
+      </c>
+      <c r="L274">
+        <v>131.465</v>
+      </c>
+      <c r="M274">
+        <v>126.205</v>
+      </c>
+      <c r="N274">
+        <v>126.48</v>
+      </c>
+      <c r="O274">
+        <v>128.01</v>
+      </c>
+      <c r="U274" s="43">
+        <f xml:space="preserve"> COUNTIF(U248:U273, "&gt;0")</f>
+        <v>17</v>
+      </c>
+      <c r="V274" s="43">
+        <f>AVERAGEIF(V248:V273, "&gt;0")</f>
+        <v>5.8874711160039359</v>
+      </c>
+      <c r="W274" s="43">
+        <f>AVERAGEIF(W248:W273, "&lt;0")</f>
+        <v>-7.1962749286477727</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B275" s="40">
+        <v>7100</v>
+      </c>
+      <c r="C275" s="39">
+        <v>9440</v>
+      </c>
+      <c r="D275" s="40">
+        <v>14900</v>
+      </c>
+      <c r="E275" s="40">
+        <v>302</v>
+      </c>
+      <c r="F275" s="19">
+        <f t="shared" si="13"/>
+        <v>7163.2225555555515</v>
+      </c>
+      <c r="G275">
+        <v>7129.4622222222197</v>
+      </c>
+      <c r="H275">
+        <v>7132.8372222222197</v>
+      </c>
+      <c r="I275">
+        <v>7123.2322222222201</v>
+      </c>
+      <c r="J275">
+        <v>7300.4938888888801</v>
+      </c>
+      <c r="K275">
+        <v>7130.0872222222197</v>
+      </c>
+      <c r="U275" s="43"/>
+    </row>
+    <row r="276" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B276" s="40">
+        <v>6400</v>
+      </c>
+      <c r="C276" s="39">
+        <v>163000</v>
+      </c>
+      <c r="D276" s="40">
+        <v>42400</v>
+      </c>
+      <c r="E276" s="40">
+        <v>925</v>
+      </c>
+      <c r="F276" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B277" s="40">
+        <v>119</v>
+      </c>
+      <c r="C277" s="39">
+        <v>74000</v>
+      </c>
+      <c r="D277" s="40">
+        <v>21100</v>
+      </c>
+      <c r="E277" s="40">
+        <v>450</v>
+      </c>
+      <c r="F277" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B278" s="40">
+        <v>22600</v>
+      </c>
+      <c r="C278" s="39">
+        <v>147000</v>
+      </c>
+      <c r="D278" s="40">
+        <v>23300</v>
+      </c>
+      <c r="E278" s="40">
+        <v>22000</v>
+      </c>
+      <c r="F278" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B279" s="40">
+        <v>7670</v>
+      </c>
+      <c r="C279" s="39">
+        <v>60400</v>
+      </c>
+      <c r="D279" s="40">
+        <v>19600</v>
+      </c>
+      <c r="E279" s="40">
+        <v>200</v>
+      </c>
+      <c r="F279" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B280" s="40">
+        <v>1590</v>
+      </c>
+      <c r="C280" s="39">
+        <v>7030</v>
+      </c>
+      <c r="D280" s="40">
+        <v>95000</v>
+      </c>
+      <c r="E280" s="41"/>
+      <c r="F280" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B281" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C281" s="11">
+        <v>10500</v>
+      </c>
+      <c r="D281" s="11">
+        <v>54400</v>
+      </c>
+      <c r="E281" s="11"/>
+      <c r="F281" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B282" s="11">
+        <v>3440</v>
+      </c>
+      <c r="C282" s="11">
+        <v>15800</v>
+      </c>
+      <c r="D282" s="11">
+        <v>104000</v>
+      </c>
+      <c r="E282" s="11"/>
+      <c r="F282" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B283" s="11">
+        <v>17500</v>
+      </c>
+      <c r="C283" s="11">
+        <v>23200</v>
+      </c>
+      <c r="D283" s="11">
+        <v>113000</v>
+      </c>
+      <c r="E283" s="11"/>
+      <c r="F283" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B284" s="11">
+        <v>11200</v>
+      </c>
+      <c r="C284" s="11">
+        <v>5140</v>
+      </c>
+      <c r="D284" s="11">
+        <v>95700</v>
+      </c>
+      <c r="E284" s="11"/>
+      <c r="F284" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285" s="11">
+        <v>15000</v>
+      </c>
+      <c r="C285" s="11">
+        <v>30100</v>
+      </c>
+      <c r="D285" s="11">
+        <v>94200</v>
+      </c>
+      <c r="E285" s="11"/>
+      <c r="F285" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B286" s="11">
+        <v>14900</v>
+      </c>
+      <c r="C286" s="11">
+        <v>22300</v>
+      </c>
+      <c r="D286" s="11">
+        <v>85200</v>
+      </c>
+      <c r="E286" s="11"/>
+      <c r="F286" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B287" s="11">
+        <v>10200</v>
+      </c>
+      <c r="C287" s="11">
+        <v>24300</v>
+      </c>
+      <c r="D287" s="11">
+        <v>117000</v>
+      </c>
+      <c r="E287" s="11"/>
+      <c r="F287" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B288" s="11">
+        <v>29300</v>
+      </c>
+      <c r="C288" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D288" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E288" s="11"/>
+      <c r="F288" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B289" s="11">
+        <v>52900</v>
+      </c>
+      <c r="C289" s="11">
+        <v>164000</v>
+      </c>
+      <c r="D289" s="11">
+        <v>601000</v>
+      </c>
+      <c r="E289" s="11"/>
+      <c r="F289" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B290" s="11">
+        <v>69800</v>
+      </c>
+      <c r="C290" s="11">
+        <v>167000</v>
+      </c>
+      <c r="D290" s="11">
+        <v>551000</v>
+      </c>
+      <c r="E290" s="11"/>
+      <c r="F290" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B291" s="11">
+        <v>77800</v>
+      </c>
+      <c r="C291" s="11">
+        <v>191000</v>
+      </c>
+      <c r="D291" s="11">
+        <v>715000</v>
+      </c>
+      <c r="E291" s="11"/>
+      <c r="F291" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B292" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C292" s="11">
+        <v>181000</v>
+      </c>
+      <c r="D292" s="11">
+        <v>616000</v>
+      </c>
+      <c r="E292" s="11"/>
+      <c r="F292" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B293" s="11">
+        <v>30900</v>
+      </c>
+      <c r="C293" s="11">
+        <v>176000</v>
+      </c>
+      <c r="D293" s="11">
+        <v>798000</v>
+      </c>
+      <c r="E293" s="11"/>
+      <c r="F293" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B294" s="11">
+        <v>26800</v>
+      </c>
+      <c r="C294" s="11">
+        <v>104000</v>
+      </c>
+      <c r="D294" s="11">
+        <v>603000</v>
+      </c>
+      <c r="E294" s="11"/>
+      <c r="F294" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B295" s="11">
+        <v>15200</v>
+      </c>
+      <c r="C295" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D295" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E295" s="11"/>
+      <c r="F295" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B296" s="11">
+        <v>1580000</v>
+      </c>
+      <c r="C296" s="11">
+        <v>1180000</v>
+      </c>
+      <c r="D296" s="11">
+        <v>1590000</v>
+      </c>
+      <c r="E296" s="11"/>
+      <c r="F296" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B297" s="11">
+        <v>931000</v>
+      </c>
+      <c r="C297" s="11">
+        <v>572000</v>
+      </c>
+      <c r="D297" s="11">
+        <v>2510000</v>
+      </c>
+      <c r="E297" s="11"/>
+      <c r="F297" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B298" s="11">
+        <v>74400</v>
+      </c>
+      <c r="C298" s="11">
+        <v>515000</v>
+      </c>
+      <c r="D298" s="11">
+        <v>1340000</v>
+      </c>
+      <c r="E298" s="11"/>
+      <c r="F298" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B299" s="11">
+        <v>761000</v>
+      </c>
+      <c r="C299" s="11">
+        <v>448000</v>
+      </c>
+      <c r="D299" s="11">
+        <v>2030000</v>
+      </c>
+      <c r="E299" s="11"/>
+      <c r="F299" s="11"/>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B300" s="11">
+        <v>84700</v>
+      </c>
+      <c r="C300" s="11">
+        <v>317000</v>
+      </c>
+      <c r="D300" s="11">
+        <v>1930000</v>
+      </c>
+      <c r="E300" s="11"/>
+      <c r="F300" s="11"/>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B301" s="11">
+        <v>2070000</v>
+      </c>
+      <c r="C301" s="11">
+        <v>1630000</v>
+      </c>
+      <c r="D301" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B302" s="11">
+        <v>323000</v>
+      </c>
+      <c r="C302" s="11">
+        <v>730000</v>
+      </c>
+      <c r="D302" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="E302" s="11"/>
+      <c r="F302" s="11"/>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B303" s="11">
+        <v>2080000</v>
+      </c>
+      <c r="C303" s="11">
+        <v>1840000</v>
+      </c>
+      <c r="D303" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="E303" s="11"/>
+      <c r="F303" s="11"/>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B304" s="11">
+        <v>10400000</v>
+      </c>
+      <c r="C304" s="11">
+        <v>22400000</v>
+      </c>
+      <c r="D304" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="E304" s="11"/>
+      <c r="F304" s="11"/>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B305" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="C305" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="D305" s="11">
+        <v>11200000</v>
+      </c>
+      <c r="E305" s="11"/>
+      <c r="F305" s="11"/>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B306" s="11">
+        <v>7770000</v>
+      </c>
+      <c r="C306" s="11">
+        <v>12400000</v>
+      </c>
+      <c r="D306" s="11">
+        <v>9540000</v>
+      </c>
+      <c r="E306" s="11"/>
+      <c r="F306" s="11"/>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B307" s="11">
+        <v>10700000</v>
+      </c>
+      <c r="C307" s="11">
+        <v>21500000</v>
+      </c>
+      <c r="D307" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="E307" s="11"/>
+      <c r="F307" s="11"/>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B308" s="11">
+        <v>6030000</v>
+      </c>
+      <c r="C308" s="11">
+        <v>9100000</v>
+      </c>
+      <c r="D308" s="11">
+        <v>7210000</v>
+      </c>
+      <c r="E308" s="11"/>
+      <c r="F308" s="11"/>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B309" s="11">
+        <v>8800000</v>
+      </c>
+      <c r="C309" s="11">
+        <v>14500000</v>
+      </c>
+      <c r="D309" s="11">
+        <v>10900000</v>
+      </c>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B310" s="11">
+        <v>13300000</v>
+      </c>
+      <c r="C310" s="11">
+        <v>30900000</v>
+      </c>
+      <c r="D310" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="E310" s="11"/>
+      <c r="F310" s="11"/>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B311" s="11">
+        <v>15700000</v>
+      </c>
+      <c r="C311" s="11">
+        <v>25400000</v>
+      </c>
+      <c r="D311" s="11">
+        <v>27400000</v>
+      </c>
+      <c r="E311" s="11"/>
+      <c r="F311" s="11"/>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8770,14 +13929,17 @@
     <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="R104:W104"/>
+    <mergeCell ref="A177:F177"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="L44:Q44"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="L63:Q63"/>
     <mergeCell ref="A82:F82"/>
+    <mergeCell ref="R177:W177"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8787,8 +13949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911A5E9-8C1D-4937-B2E8-4FEF8E2ACD16}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:J26"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919E6D78-30D0-4B1F-8C63-C35FFEBFA572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C560364-741A-40EE-91C3-0F98B1589AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="82">
   <si>
     <t>HW1</t>
   </si>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="105" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H278" sqref="H278"/>
+    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I334" sqref="I334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12338,7 +12338,7 @@
       </c>
       <c r="F270" s="16">
         <f t="shared" si="13"/>
-        <v>103.65899999999958</v>
+        <v>103.25499999999968</v>
       </c>
       <c r="G270">
         <v>101.09</v>
@@ -12350,10 +12350,25 @@
         <v>103.65</v>
       </c>
       <c r="J270">
-        <v>108.509999999999</v>
+        <v>105.785</v>
       </c>
       <c r="K270">
         <v>101.87499999999901</v>
+      </c>
+      <c r="L270">
+        <v>103.4</v>
+      </c>
+      <c r="M270">
+        <v>103.844999999999</v>
+      </c>
+      <c r="N270">
+        <v>100.489999999999</v>
+      </c>
+      <c r="O270">
+        <v>103.005</v>
+      </c>
+      <c r="P270">
+        <v>106.24</v>
       </c>
       <c r="S270">
         <v>103.65899999999958</v>
@@ -12391,7 +12406,7 @@
       </c>
       <c r="F271" s="16">
         <f t="shared" si="13"/>
-        <v>88.480833333333337</v>
+        <v>88.430999999999997</v>
       </c>
       <c r="G271">
         <v>89.885000000000005</v>
@@ -12410,6 +12425,18 @@
       </c>
       <c r="L271">
         <v>88.614999999999995</v>
+      </c>
+      <c r="M271">
+        <v>86.625</v>
+      </c>
+      <c r="N271">
+        <v>88.995000000000005</v>
+      </c>
+      <c r="O271">
+        <v>88.614999999999995</v>
+      </c>
+      <c r="P271">
+        <v>89.19</v>
       </c>
       <c r="S271">
         <v>88.480833333333337</v>
@@ -12447,7 +12474,7 @@
       </c>
       <c r="F272" s="19">
         <f t="shared" si="13"/>
-        <v>9138.368472222217</v>
+        <v>8440.9032222222158</v>
       </c>
       <c r="G272">
         <v>8021.6677777777704</v>
@@ -12460,6 +12487,24 @@
       </c>
       <c r="J272">
         <v>9845.3511111111093</v>
+      </c>
+      <c r="K272">
+        <v>8812.9627777777696</v>
+      </c>
+      <c r="L272">
+        <v>10254.8411111111</v>
+      </c>
+      <c r="M272">
+        <v>5926.9388888888798</v>
+      </c>
+      <c r="N272">
+        <v>6133.5038888888803</v>
+      </c>
+      <c r="O272">
+        <v>8916.4277777777697</v>
+      </c>
+      <c r="P272">
+        <v>7810.8838888888804</v>
       </c>
       <c r="S272">
         <v>9138.368472222217</v>
@@ -12497,7 +12542,7 @@
       </c>
       <c r="F273" s="16">
         <f t="shared" si="13"/>
-        <v>7223.3358333333308</v>
+        <v>6539.0074691357995</v>
       </c>
       <c r="G273">
         <v>3973.05</v>
@@ -12510,6 +12555,21 @@
       </c>
       <c r="J273">
         <v>7114.7094444444401</v>
+      </c>
+      <c r="K273">
+        <v>4682.3688888888801</v>
+      </c>
+      <c r="L273">
+        <v>5450.54555555555</v>
+      </c>
+      <c r="M273">
+        <v>7697.2650000000003</v>
+      </c>
+      <c r="N273">
+        <v>5713.0772222222204</v>
+      </c>
+      <c r="O273">
+        <v>6414.4672222222198</v>
       </c>
       <c r="S273">
         <v>7223.3358333333308</v>
@@ -12545,7 +12605,7 @@
       <c r="E274" s="40">
         <v>130</v>
       </c>
-      <c r="F274" s="19">
+      <c r="F274" s="16">
         <f t="shared" si="13"/>
         <v>127.82166666666656</v>
       </c>
@@ -12602,7 +12662,7 @@
       <c r="D275" s="40">
         <v>14900</v>
       </c>
-      <c r="E275" s="40">
+      <c r="E275" s="18">
         <v>302</v>
       </c>
       <c r="F275" s="19">
@@ -12639,12 +12699,39 @@
       <c r="D276" s="40">
         <v>42400</v>
       </c>
-      <c r="E276" s="40">
+      <c r="E276" s="18">
         <v>925</v>
       </c>
-      <c r="F276" s="19" t="e">
+      <c r="F276" s="19">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>6185.6478395061658</v>
+      </c>
+      <c r="G276">
+        <v>6500.6638888888801</v>
+      </c>
+      <c r="H276">
+        <v>6089.6888888888798</v>
+      </c>
+      <c r="I276">
+        <v>6089.5588888888797</v>
+      </c>
+      <c r="J276">
+        <v>5933.3722222222204</v>
+      </c>
+      <c r="K276">
+        <v>6431.5327777777702</v>
+      </c>
+      <c r="L276">
+        <v>6165.3605555555496</v>
+      </c>
+      <c r="M276">
+        <v>6496.7988888888804</v>
+      </c>
+      <c r="N276">
+        <v>5868.1455555555503</v>
+      </c>
+      <c r="O276">
+        <v>6095.7088888888802</v>
       </c>
     </row>
     <row r="277" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12663,9 +12750,30 @@
       <c r="E277" s="40">
         <v>450</v>
       </c>
-      <c r="F277" s="19" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+      <c r="F277" s="16">
+        <f xml:space="preserve"> AVERAGE(G277:O277)</f>
+        <v>117.71142857142816</v>
+      </c>
+      <c r="G277">
+        <v>119.075</v>
+      </c>
+      <c r="H277">
+        <v>113.80999999999899</v>
+      </c>
+      <c r="I277">
+        <v>117.83499999999999</v>
+      </c>
+      <c r="J277">
+        <v>119.26499999999901</v>
+      </c>
+      <c r="K277">
+        <v>118.02</v>
+      </c>
+      <c r="L277">
+        <v>118.245</v>
+      </c>
+      <c r="M277">
+        <v>117.729999999999</v>
       </c>
     </row>
     <row r="278" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12684,9 +12792,39 @@
       <c r="E278" s="40">
         <v>22000</v>
       </c>
-      <c r="F278" s="19" t="e">
+      <c r="F278" s="16">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>15422.91838888886</v>
+      </c>
+      <c r="G278">
+        <v>16241.17</v>
+      </c>
+      <c r="H278">
+        <v>15913.2166666666</v>
+      </c>
+      <c r="I278">
+        <v>15109.9866666666</v>
+      </c>
+      <c r="J278">
+        <v>14246.2472222222</v>
+      </c>
+      <c r="K278">
+        <v>15686.8283333333</v>
+      </c>
+      <c r="L278">
+        <v>14151.81</v>
+      </c>
+      <c r="M278">
+        <v>12910.676666666601</v>
+      </c>
+      <c r="N278">
+        <v>16246.065000000001</v>
+      </c>
+      <c r="O278">
+        <v>16745.095000000001</v>
+      </c>
+      <c r="P278">
+        <v>16978.0883333333</v>
       </c>
     </row>
     <row r="279" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12702,12 +12840,39 @@
       <c r="D279" s="40">
         <v>19600</v>
       </c>
-      <c r="E279" s="40">
+      <c r="E279" s="18">
         <v>200</v>
       </c>
-      <c r="F279" s="19" t="e">
+      <c r="F279" s="19">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>6499.6679629629552</v>
+      </c>
+      <c r="G279">
+        <v>5959.7772222222202</v>
+      </c>
+      <c r="H279">
+        <v>7621.0288888888799</v>
+      </c>
+      <c r="I279">
+        <v>5827.5588888888797</v>
+      </c>
+      <c r="J279">
+        <v>7694.2155555555501</v>
+      </c>
+      <c r="K279">
+        <v>5693.3905555555502</v>
+      </c>
+      <c r="L279">
+        <v>6123.4138888888801</v>
+      </c>
+      <c r="M279">
+        <v>5825.0388888888801</v>
+      </c>
+      <c r="N279">
+        <v>5826.3088888888797</v>
+      </c>
+      <c r="O279">
+        <v>7926.2788888888799</v>
       </c>
     </row>
     <row r="280" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13283,75 +13448,1535 @@
     <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B316" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C316" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E316" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F316" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" s="28">
+        <v>134</v>
+      </c>
+      <c r="C317" s="28">
+        <v>2300</v>
+      </c>
+      <c r="D317" s="28">
+        <v>130</v>
+      </c>
+      <c r="E317" s="19">
+        <v>135</v>
+      </c>
+      <c r="F317" s="16" t="e">
+        <f xml:space="preserve"> AVERAGE(G317:P317)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B318" s="28">
+        <v>95.74</v>
+      </c>
+      <c r="C318" s="28">
+        <v>30500</v>
+      </c>
+      <c r="D318" s="28">
+        <v>91.4</v>
+      </c>
+      <c r="E318" s="28">
+        <v>95.6</v>
+      </c>
+      <c r="F318" s="16" t="e">
+        <f t="shared" ref="F318:F322" si="14" xml:space="preserve"> AVERAGE(G318:P318)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B319" s="28">
+        <v>97.44</v>
+      </c>
+      <c r="C319" s="28">
+        <v>35800</v>
+      </c>
+      <c r="D319" s="17">
+        <v>96.5</v>
+      </c>
+      <c r="E319" s="28">
+        <v>96.8</v>
+      </c>
+      <c r="F319" s="19" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320" s="28">
+        <v>102.7342857</v>
+      </c>
+      <c r="C320" s="28">
+        <v>5490</v>
+      </c>
+      <c r="D320" s="28">
+        <v>104</v>
+      </c>
+      <c r="E320" s="28">
+        <v>94.6</v>
+      </c>
+      <c r="F320" s="16" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B321" s="17">
+        <v>4069.6358019999998</v>
+      </c>
+      <c r="C321" s="28">
+        <v>16900</v>
+      </c>
+      <c r="D321" s="28">
+        <v>8000</v>
+      </c>
+      <c r="E321" s="28">
+        <v>8000</v>
+      </c>
+      <c r="F321" s="19" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" s="17">
+        <v>105</v>
+      </c>
+      <c r="C322" s="28">
+        <v>4760</v>
+      </c>
+      <c r="D322" s="28">
+        <v>118</v>
+      </c>
+      <c r="E322" s="19">
+        <v>120</v>
+      </c>
+      <c r="F322" s="19" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" s="28">
+        <v>10338.10578</v>
+      </c>
+      <c r="C323" s="28">
+        <v>12800</v>
+      </c>
+      <c r="D323" s="28">
+        <v>7360</v>
+      </c>
+      <c r="E323" s="19">
+        <v>7200</v>
+      </c>
+      <c r="F323" s="16" t="e">
+        <f xml:space="preserve"> AVERAGE(G323:P323)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B324" s="28">
+        <v>68.8</v>
+      </c>
+      <c r="C324" s="28">
+        <v>797</v>
+      </c>
+      <c r="D324" s="28">
+        <v>769</v>
+      </c>
+      <c r="E324" s="19">
+        <v>95</v>
+      </c>
+      <c r="F324" s="16" t="e">
+        <f t="shared" ref="F324:F328" si="15" xml:space="preserve"> AVERAGE(G324:P324)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B325" s="28">
+        <v>3307.1417280000001</v>
+      </c>
+      <c r="C325" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D325" s="28">
+        <v>8480</v>
+      </c>
+      <c r="E325" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F325" s="16" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B326" s="28">
+        <v>194000</v>
+      </c>
+      <c r="C326" s="28">
+        <v>1770000</v>
+      </c>
+      <c r="D326" s="28">
+        <v>187000</v>
+      </c>
+      <c r="E326" s="28">
+        <v>183000</v>
+      </c>
+      <c r="F326" s="16">
+        <f t="shared" si="15"/>
+        <v>142707.54507936476</v>
+      </c>
+      <c r="G326">
+        <v>153947.42000000001</v>
+      </c>
+      <c r="H326">
+        <v>184605.83555555501</v>
+      </c>
+      <c r="I326">
+        <v>89018.644444444406</v>
+      </c>
+      <c r="J326">
+        <v>167394.724444444</v>
+      </c>
+      <c r="L326">
+        <v>128688.431111111</v>
+      </c>
+      <c r="M326">
+        <v>133723.377777777</v>
+      </c>
+      <c r="N326">
+        <v>141574.38222222199</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B327" s="28">
+        <v>910.73827159999996</v>
+      </c>
+      <c r="C327" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D327" s="28">
+        <v>3040</v>
+      </c>
+      <c r="E327" s="19">
+        <v>500</v>
+      </c>
+      <c r="F327" s="16">
+        <f t="shared" si="15"/>
+        <v>174.05400000000003</v>
+      </c>
+      <c r="G327">
+        <v>171.14</v>
+      </c>
+      <c r="H327">
+        <v>173.72</v>
+      </c>
+      <c r="I327">
+        <v>182.94</v>
+      </c>
+      <c r="J327">
+        <v>171.1</v>
+      </c>
+      <c r="K327">
+        <v>163.84</v>
+      </c>
+      <c r="L327">
+        <v>179.22</v>
+      </c>
+      <c r="M327">
+        <v>166.88</v>
+      </c>
+      <c r="N327">
+        <v>185.52</v>
+      </c>
+      <c r="O327">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="P327">
+        <v>186.98</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B328" s="28">
+        <v>14974.64444</v>
+      </c>
+      <c r="C328" s="28">
+        <v>567000</v>
+      </c>
+      <c r="D328" s="28">
+        <v>84200</v>
+      </c>
+      <c r="E328" s="19">
+        <v>79000</v>
+      </c>
+      <c r="F328" s="16">
+        <f t="shared" si="15"/>
+        <v>20781.988888888867</v>
+      </c>
+      <c r="L328">
+        <v>21422.253333333301</v>
+      </c>
+      <c r="M328">
+        <v>21831.48</v>
+      </c>
+      <c r="P328">
+        <v>19092.233333333301</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B329" s="28">
+        <v>3359.6609880000001</v>
+      </c>
+      <c r="C329" s="28">
+        <v>220000</v>
+      </c>
+      <c r="D329" s="28">
+        <v>277</v>
+      </c>
+      <c r="E329" s="19">
+        <v>1100</v>
+      </c>
+      <c r="F329" s="16">
+        <f xml:space="preserve"> AVERAGE(G329:P329)</f>
+        <v>178.93142857142828</v>
+      </c>
+      <c r="G329">
+        <v>187.88</v>
+      </c>
+      <c r="I329">
+        <v>189.11999999999901</v>
+      </c>
+      <c r="K329">
+        <v>173.7</v>
+      </c>
+      <c r="M329">
+        <v>172.57999999999899</v>
+      </c>
+      <c r="N329">
+        <v>180.44</v>
+      </c>
+      <c r="O329">
+        <v>174.62</v>
+      </c>
+      <c r="P329">
+        <v>174.18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B330" s="28">
+        <v>18163.26296</v>
+      </c>
+      <c r="C330" s="28">
+        <v>237000</v>
+      </c>
+      <c r="D330" s="28">
+        <v>7820</v>
+      </c>
+      <c r="E330" s="19">
+        <v>6500</v>
+      </c>
+      <c r="F330" s="16">
+        <f t="shared" ref="F330:F345" si="16" xml:space="preserve"> AVERAGE(G330:P330)</f>
+        <v>878.42851851851674</v>
+      </c>
+      <c r="G330">
+        <v>166.62</v>
+      </c>
+      <c r="I330">
+        <v>158.56</v>
+      </c>
+      <c r="K330">
+        <v>164.88</v>
+      </c>
+      <c r="M330">
+        <v>155.13999999999999</v>
+      </c>
+      <c r="N330">
+        <v>1082.1444444444401</v>
+      </c>
+      <c r="P330">
+        <v>3543.2266666666601</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B331" s="28">
+        <v>32301.335800000001</v>
+      </c>
+      <c r="C331" s="28">
+        <v>793000</v>
+      </c>
+      <c r="D331" s="28">
+        <v>149000</v>
+      </c>
+      <c r="E331" s="19">
+        <v>47000</v>
+      </c>
+      <c r="F331" s="16">
+        <f t="shared" si="16"/>
+        <v>20544.331746031705</v>
+      </c>
+      <c r="G331">
+        <v>16249.6111111111</v>
+      </c>
+      <c r="I331">
+        <v>6603.7155555555501</v>
+      </c>
+      <c r="K331">
+        <v>18213.026666666599</v>
+      </c>
+      <c r="L331">
+        <v>30445.855555555499</v>
+      </c>
+      <c r="N331">
+        <v>24268.9088888888</v>
+      </c>
+      <c r="O331">
+        <v>16756.6711111111</v>
+      </c>
+      <c r="P331">
+        <v>31272.5333333333</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B332" s="28">
+        <v>51313.376790000002</v>
+      </c>
+      <c r="C332" s="28">
+        <v>854000</v>
+      </c>
+      <c r="D332" s="28">
+        <v>57800</v>
+      </c>
+      <c r="E332" s="19">
+        <v>49000</v>
+      </c>
+      <c r="F332" s="16">
+        <f t="shared" si="16"/>
+        <v>20344.828333333273</v>
+      </c>
+      <c r="H332">
+        <v>15425.608888888801</v>
+      </c>
+      <c r="I332">
+        <v>17565.313333333299</v>
+      </c>
+      <c r="J332">
+        <v>16691.9288888888</v>
+      </c>
+      <c r="L332">
+        <v>14201.904444444401</v>
+      </c>
+      <c r="M332">
+        <v>24808.137777777702</v>
+      </c>
+      <c r="N332">
+        <v>29805.126666666602</v>
+      </c>
+      <c r="O332">
+        <v>24202.880000000001</v>
+      </c>
+      <c r="P332">
+        <v>20057.7266666666</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B333" s="38">
+        <v>84.667500000000004</v>
+      </c>
+      <c r="C333" s="39">
+        <v>96</v>
+      </c>
+      <c r="D333" s="40">
+        <v>411</v>
+      </c>
+      <c r="E333" s="40">
+        <v>92</v>
+      </c>
+      <c r="F333" s="16">
+        <f t="shared" si="16"/>
+        <v>81.438999999999979</v>
+      </c>
+      <c r="G333">
+        <v>82.004999999999995</v>
+      </c>
+      <c r="H333">
+        <v>80.784999999999997</v>
+      </c>
+      <c r="I333">
+        <v>79.119999999999905</v>
+      </c>
+      <c r="J333">
+        <v>83.47</v>
+      </c>
+      <c r="K333">
+        <v>83.33</v>
+      </c>
+      <c r="L333">
+        <v>85.09</v>
+      </c>
+      <c r="M333">
+        <v>78.364999999999995</v>
+      </c>
+      <c r="N333">
+        <v>82.549999999999898</v>
+      </c>
+      <c r="O333">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="P333">
+        <v>81.325000000000003</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B334" s="38">
+        <v>1627.9475</v>
+      </c>
+      <c r="C334" s="39">
+        <v>112</v>
+      </c>
+      <c r="D334" s="40">
+        <v>8560</v>
+      </c>
+      <c r="E334" s="40">
+        <v>96.42</v>
+      </c>
+      <c r="F334" s="16">
+        <f t="shared" si="16"/>
+        <v>87.762999999999977</v>
+      </c>
+      <c r="G334">
+        <v>88.584999999999994</v>
+      </c>
+      <c r="H334">
+        <v>92.47</v>
+      </c>
+      <c r="I334">
+        <v>84.439999999999898</v>
+      </c>
+      <c r="J334">
+        <v>89.825000000000003</v>
+      </c>
+      <c r="K334">
+        <v>86.8</v>
+      </c>
+      <c r="L334">
+        <v>91.87</v>
+      </c>
+      <c r="M334">
+        <v>84.694999999999993</v>
+      </c>
+      <c r="N334">
+        <v>86.924999999999997</v>
+      </c>
+      <c r="O334">
+        <v>87.534999999999997</v>
+      </c>
+      <c r="P334">
+        <v>84.4849999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B335" s="38">
+        <v>1260.0333889999999</v>
+      </c>
+      <c r="C335" s="39">
+        <v>478</v>
+      </c>
+      <c r="D335" s="40">
+        <v>4150</v>
+      </c>
+      <c r="E335" s="40">
+        <v>120</v>
+      </c>
+      <c r="F335" s="16">
+        <f t="shared" si="16"/>
+        <v>116.8216111111107</v>
+      </c>
+      <c r="G335">
+        <v>110.375</v>
+      </c>
+      <c r="H335">
+        <v>110.729999999999</v>
+      </c>
+      <c r="I335">
+        <v>113.814999999999</v>
+      </c>
+      <c r="J335">
+        <v>141.81888888888801</v>
+      </c>
+      <c r="K335">
+        <v>145.56888888888801</v>
+      </c>
+      <c r="L335">
+        <v>113.34333333333301</v>
+      </c>
+      <c r="M335">
+        <v>113.25</v>
+      </c>
+      <c r="N335">
+        <v>105.785</v>
+      </c>
+      <c r="O335">
+        <v>105.995</v>
+      </c>
+      <c r="P335">
+        <v>107.535</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B336" s="38">
+        <v>7055.9061670000001</v>
+      </c>
+      <c r="C336" s="39">
+        <v>3980</v>
+      </c>
+      <c r="D336" s="40">
+        <v>16200</v>
+      </c>
+      <c r="E336" s="18">
+        <v>100</v>
+      </c>
+      <c r="F336" s="19">
+        <f t="shared" si="16"/>
+        <v>3387.148777777772</v>
+      </c>
+      <c r="G336">
+        <v>3295.3027777777702</v>
+      </c>
+      <c r="H336">
+        <v>3526.6661111111098</v>
+      </c>
+      <c r="I336">
+        <v>3528.1861111111102</v>
+      </c>
+      <c r="J336">
+        <v>3302.4727777777698</v>
+      </c>
+      <c r="K336">
+        <v>3296.10777777777</v>
+      </c>
+      <c r="L336">
+        <v>3498.10777777777</v>
+      </c>
+      <c r="M336">
+        <v>3298.85777777777</v>
+      </c>
+      <c r="N336">
+        <v>3299.3427777777702</v>
+      </c>
+      <c r="O336">
+        <v>3529.13611111111</v>
+      </c>
+      <c r="P336">
+        <v>3297.3077777777698</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B337" s="38">
+        <v>2396.498556</v>
+      </c>
+      <c r="C337" s="39">
+        <v>2340</v>
+      </c>
+      <c r="D337" s="40">
+        <v>18500</v>
+      </c>
+      <c r="E337" s="40">
+        <v>110</v>
+      </c>
+      <c r="F337" s="16" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B338" s="38">
+        <v>3322.8712220000002</v>
+      </c>
+      <c r="C338" s="39">
+        <v>3320</v>
+      </c>
+      <c r="D338" s="40">
+        <v>21100</v>
+      </c>
+      <c r="E338" s="18">
+        <v>96</v>
+      </c>
+      <c r="F338" s="19" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B339" s="38">
+        <v>106.435</v>
+      </c>
+      <c r="C339" s="39">
+        <v>6870</v>
+      </c>
+      <c r="D339" s="40">
+        <v>809</v>
+      </c>
+      <c r="E339" s="40">
+        <v>105</v>
+      </c>
+      <c r="F339" s="16" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B340" s="38">
+        <v>92.355999999999995</v>
+      </c>
+      <c r="C340" s="39">
+        <v>1290</v>
+      </c>
+      <c r="D340" s="40">
+        <v>2000</v>
+      </c>
+      <c r="E340" s="40">
+        <v>94.4</v>
+      </c>
+      <c r="F340" s="16" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B341" s="38">
+        <v>10300</v>
+      </c>
+      <c r="C341" s="39">
+        <v>92400</v>
+      </c>
+      <c r="D341" s="40">
+        <v>21500</v>
+      </c>
+      <c r="E341" s="18">
+        <v>6428</v>
+      </c>
+      <c r="F341" s="19" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B342" s="40">
+        <v>34883</v>
+      </c>
+      <c r="C342" s="39">
+        <v>275000</v>
+      </c>
+      <c r="D342" s="40">
+        <v>54000</v>
+      </c>
+      <c r="E342" s="40">
+        <v>9285</v>
+      </c>
+      <c r="F342" s="16" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B343" s="40">
+        <v>134</v>
+      </c>
+      <c r="C343" s="39">
+        <v>18400</v>
+      </c>
+      <c r="D343" s="40">
+        <v>18800</v>
+      </c>
+      <c r="E343" s="40">
+        <v>130</v>
+      </c>
+      <c r="F343" s="16" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B344" s="40">
+        <v>7100</v>
+      </c>
+      <c r="C344" s="39">
+        <v>9440</v>
+      </c>
+      <c r="D344" s="40">
+        <v>14900</v>
+      </c>
+      <c r="E344" s="18">
+        <v>302</v>
+      </c>
+      <c r="F344" s="19" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B345" s="40">
+        <v>6400</v>
+      </c>
+      <c r="C345" s="39">
+        <v>163000</v>
+      </c>
+      <c r="D345" s="40">
+        <v>42400</v>
+      </c>
+      <c r="E345" s="18">
+        <v>925</v>
+      </c>
+      <c r="F345" s="19" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B346" s="40">
+        <v>119</v>
+      </c>
+      <c r="C346" s="39">
+        <v>74000</v>
+      </c>
+      <c r="D346" s="40">
+        <v>21100</v>
+      </c>
+      <c r="E346" s="40">
+        <v>450</v>
+      </c>
+      <c r="F346" s="16" t="e">
+        <f xml:space="preserve"> AVERAGE(G346:O346)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B347" s="40">
+        <v>22600</v>
+      </c>
+      <c r="C347" s="39">
+        <v>147000</v>
+      </c>
+      <c r="D347" s="40">
+        <v>23300</v>
+      </c>
+      <c r="E347" s="40">
+        <v>22000</v>
+      </c>
+      <c r="F347" s="16" t="e">
+        <f t="shared" ref="F347:F380" si="17" xml:space="preserve"> AVERAGE(G347:P347)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B348" s="40">
+        <v>7670</v>
+      </c>
+      <c r="C348" s="39">
+        <v>60400</v>
+      </c>
+      <c r="D348" s="40">
+        <v>19600</v>
+      </c>
+      <c r="E348" s="18">
+        <v>200</v>
+      </c>
+      <c r="F348" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B349" s="40">
+        <v>1590</v>
+      </c>
+      <c r="C349" s="39">
+        <v>7030</v>
+      </c>
+      <c r="D349" s="40">
+        <v>95000</v>
+      </c>
+      <c r="E349" s="41"/>
+      <c r="F349" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B350" s="11">
+        <v>10500</v>
+      </c>
+      <c r="C350" s="11">
+        <v>10500</v>
+      </c>
+      <c r="D350" s="11">
+        <v>54400</v>
+      </c>
+      <c r="E350" s="11"/>
+      <c r="F350" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B351" s="11">
+        <v>3440</v>
+      </c>
+      <c r="C351" s="11">
+        <v>15800</v>
+      </c>
+      <c r="D351" s="11">
+        <v>104000</v>
+      </c>
+      <c r="E351" s="11"/>
+      <c r="F351" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B352" s="11">
+        <v>17500</v>
+      </c>
+      <c r="C352" s="11">
+        <v>23200</v>
+      </c>
+      <c r="D352" s="11">
+        <v>113000</v>
+      </c>
+      <c r="E352" s="11"/>
+      <c r="F352" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B353" s="11">
+        <v>11200</v>
+      </c>
+      <c r="C353" s="11">
+        <v>5140</v>
+      </c>
+      <c r="D353" s="11">
+        <v>95700</v>
+      </c>
+      <c r="E353" s="11"/>
+      <c r="F353" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B354" s="11">
+        <v>15000</v>
+      </c>
+      <c r="C354" s="11">
+        <v>30100</v>
+      </c>
+      <c r="D354" s="11">
+        <v>94200</v>
+      </c>
+      <c r="E354" s="11"/>
+      <c r="F354" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B355" s="11">
+        <v>14900</v>
+      </c>
+      <c r="C355" s="11">
+        <v>22300</v>
+      </c>
+      <c r="D355" s="11">
+        <v>85200</v>
+      </c>
+      <c r="E355" s="11"/>
+      <c r="F355" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B356" s="11">
+        <v>10200</v>
+      </c>
+      <c r="C356" s="11">
+        <v>24300</v>
+      </c>
+      <c r="D356" s="11">
+        <v>117000</v>
+      </c>
+      <c r="E356" s="11"/>
+      <c r="F356" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B357" s="11">
+        <v>29300</v>
+      </c>
+      <c r="C357" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D357" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E357" s="11"/>
+      <c r="F357" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B358" s="11">
+        <v>52900</v>
+      </c>
+      <c r="C358" s="11">
+        <v>164000</v>
+      </c>
+      <c r="D358" s="11">
+        <v>601000</v>
+      </c>
+      <c r="E358" s="11"/>
+      <c r="F358" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B359" s="11">
+        <v>69800</v>
+      </c>
+      <c r="C359" s="11">
+        <v>167000</v>
+      </c>
+      <c r="D359" s="11">
+        <v>551000</v>
+      </c>
+      <c r="E359" s="11"/>
+      <c r="F359" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B360" s="11">
+        <v>77800</v>
+      </c>
+      <c r="C360" s="11">
+        <v>191000</v>
+      </c>
+      <c r="D360" s="11">
+        <v>715000</v>
+      </c>
+      <c r="E360" s="11"/>
+      <c r="F360" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B361" s="11">
+        <v>36300</v>
+      </c>
+      <c r="C361" s="11">
+        <v>181000</v>
+      </c>
+      <c r="D361" s="11">
+        <v>616000</v>
+      </c>
+      <c r="E361" s="11"/>
+      <c r="F361" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B362" s="11">
+        <v>30900</v>
+      </c>
+      <c r="C362" s="11">
+        <v>176000</v>
+      </c>
+      <c r="D362" s="11">
+        <v>798000</v>
+      </c>
+      <c r="E362" s="11"/>
+      <c r="F362" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B363" s="11">
+        <v>26800</v>
+      </c>
+      <c r="C363" s="11">
+        <v>104000</v>
+      </c>
+      <c r="D363" s="11">
+        <v>603000</v>
+      </c>
+      <c r="E363" s="11"/>
+      <c r="F363" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B364" s="11">
+        <v>15200</v>
+      </c>
+      <c r="C364" s="11">
+        <v>124000</v>
+      </c>
+      <c r="D364" s="11">
+        <v>549000</v>
+      </c>
+      <c r="E364" s="11"/>
+      <c r="F364" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B365" s="11">
+        <v>1580000</v>
+      </c>
+      <c r="C365" s="11">
+        <v>1180000</v>
+      </c>
+      <c r="D365" s="11">
+        <v>1590000</v>
+      </c>
+      <c r="E365" s="11"/>
+      <c r="F365" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B366" s="11">
+        <v>931000</v>
+      </c>
+      <c r="C366" s="11">
+        <v>572000</v>
+      </c>
+      <c r="D366" s="11">
+        <v>2510000</v>
+      </c>
+      <c r="E366" s="11"/>
+      <c r="F366" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B367" s="11">
+        <v>74400</v>
+      </c>
+      <c r="C367" s="11">
+        <v>515000</v>
+      </c>
+      <c r="D367" s="11">
+        <v>1340000</v>
+      </c>
+      <c r="E367" s="11"/>
+      <c r="F367" s="19" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B368" s="11">
+        <v>761000</v>
+      </c>
+      <c r="C368" s="11">
+        <v>448000</v>
+      </c>
+      <c r="D368" s="11">
+        <v>2030000</v>
+      </c>
+      <c r="E368" s="11"/>
+      <c r="F368" s="11"/>
+    </row>
+    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B369" s="11">
+        <v>84700</v>
+      </c>
+      <c r="C369" s="11">
+        <v>317000</v>
+      </c>
+      <c r="D369" s="11">
+        <v>1930000</v>
+      </c>
+      <c r="E369" s="11"/>
+      <c r="F369" s="11"/>
+    </row>
+    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B370" s="11">
+        <v>2070000</v>
+      </c>
+      <c r="C370" s="11">
+        <v>1630000</v>
+      </c>
+      <c r="D370" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="E370" s="11"/>
+      <c r="F370" s="11"/>
+    </row>
+    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B371" s="11">
+        <v>323000</v>
+      </c>
+      <c r="C371" s="11">
+        <v>730000</v>
+      </c>
+      <c r="D371" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="E371" s="11"/>
+      <c r="F371" s="11"/>
+    </row>
+    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B372" s="11">
+        <v>2080000</v>
+      </c>
+      <c r="C372" s="11">
+        <v>1840000</v>
+      </c>
+      <c r="D372" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="E372" s="11"/>
+      <c r="F372" s="11"/>
+    </row>
+    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B373" s="11">
+        <v>10400000</v>
+      </c>
+      <c r="C373" s="11">
+        <v>22400000</v>
+      </c>
+      <c r="D373" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="E373" s="11"/>
+      <c r="F373" s="11"/>
+    </row>
+    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B374" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="C374" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="D374" s="11">
+        <v>11200000</v>
+      </c>
+      <c r="E374" s="11"/>
+      <c r="F374" s="11"/>
+    </row>
+    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B375" s="11">
+        <v>7770000</v>
+      </c>
+      <c r="C375" s="11">
+        <v>12400000</v>
+      </c>
+      <c r="D375" s="11">
+        <v>9540000</v>
+      </c>
+      <c r="E375" s="11"/>
+      <c r="F375" s="11"/>
+    </row>
+    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B376" s="11">
+        <v>10700000</v>
+      </c>
+      <c r="C376" s="11">
+        <v>21500000</v>
+      </c>
+      <c r="D376" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="E376" s="11"/>
+      <c r="F376" s="11"/>
+    </row>
+    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B377" s="11">
+        <v>6030000</v>
+      </c>
+      <c r="C377" s="11">
+        <v>9100000</v>
+      </c>
+      <c r="D377" s="11">
+        <v>7210000</v>
+      </c>
+      <c r="E377" s="11"/>
+      <c r="F377" s="11"/>
+    </row>
+    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B378" s="11">
+        <v>8800000</v>
+      </c>
+      <c r="C378" s="11">
+        <v>14500000</v>
+      </c>
+      <c r="D378" s="11">
+        <v>10900000</v>
+      </c>
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
+    </row>
+    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B379" s="11">
+        <v>13300000</v>
+      </c>
+      <c r="C379" s="11">
+        <v>30900000</v>
+      </c>
+      <c r="D379" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="E379" s="11"/>
+      <c r="F379" s="11"/>
+    </row>
+    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B380" s="11">
+        <v>15700000</v>
+      </c>
+      <c r="C380" s="11">
+        <v>25400000</v>
+      </c>
+      <c r="D380" s="11">
+        <v>27400000</v>
+      </c>
+      <c r="E380" s="11"/>
+      <c r="F380" s="11"/>
+    </row>
+    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C560364-741A-40EE-91C3-0F98B1589AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE36A6F-5256-47FB-88F3-B1C6BD6745DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="82">
   <si>
     <t>HW1</t>
   </si>
@@ -289,11 +289,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -512,93 +519,97 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="14" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="12" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I334" sqref="I334"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K420" sqref="K420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2148,22 +2159,22 @@
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-      <c r="L44" s="47" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="L44" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="47"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
@@ -3225,22 +3236,22 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="48" t="s">
+      <c r="A63" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="46"/>
-      <c r="D63" s="46"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="46"/>
-      <c r="L63" s="48" t="s">
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="L63" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="M63" s="46"/>
-      <c r="N63" s="46"/>
-      <c r="O63" s="46"/>
-      <c r="P63" s="46"/>
-      <c r="Q63" s="46"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -4209,12 +4220,12 @@
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="46"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4713,14 +4724,14 @@
     <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R104" s="44" t="s">
+      <c r="R104" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="S104" s="44"/>
-      <c r="T104" s="44"/>
-      <c r="U104" s="44"/>
-      <c r="V104" s="44"/>
-      <c r="W104" s="44"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="48"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="48"/>
+      <c r="W104" s="48"/>
     </row>
     <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
@@ -8126,22 +8137,22 @@
     <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="45" t="s">
+      <c r="A177" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B177" s="46"/>
-      <c r="C177" s="46"/>
-      <c r="D177" s="46"/>
-      <c r="E177" s="46"/>
-      <c r="F177" s="46"/>
-      <c r="R177" s="46" t="s">
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="50"/>
+      <c r="R177" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="S177" s="46"/>
-      <c r="T177" s="46"/>
-      <c r="U177" s="46"/>
-      <c r="V177" s="46"/>
-      <c r="W177" s="46"/>
+      <c r="S177" s="50"/>
+      <c r="T177" s="50"/>
+      <c r="U177" s="50"/>
+      <c r="V177" s="50"/>
+      <c r="W177" s="50"/>
     </row>
     <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
@@ -14152,7 +14163,7 @@
         <v>3297.3077777777698</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="32" t="s">
         <v>27</v>
       </c>
@@ -14173,7 +14184,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>28</v>
       </c>
@@ -14194,7 +14205,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="32" t="s">
         <v>29</v>
       </c>
@@ -14215,7 +14226,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
@@ -14236,7 +14247,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="32" t="s">
         <v>31</v>
       </c>
@@ -14257,7 +14268,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>32</v>
       </c>
@@ -14278,7 +14289,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="32" t="s">
         <v>33</v>
       </c>
@@ -14299,7 +14310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>34</v>
       </c>
@@ -14320,7 +14331,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="32" t="s">
         <v>35</v>
       </c>
@@ -14341,7 +14352,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>36</v>
       </c>
@@ -14362,7 +14373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="32" t="s">
         <v>37</v>
       </c>
@@ -14379,11 +14390,11 @@
         <v>22000</v>
       </c>
       <c r="F347" s="16" t="e">
-        <f t="shared" ref="F347:F380" si="17" xml:space="preserve"> AVERAGE(G347:P347)</f>
+        <f t="shared" ref="F347:F367" si="17" xml:space="preserve"> AVERAGE(G347:P347)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>38</v>
       </c>
@@ -14404,7 +14415,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="32" t="s">
         <v>39</v>
       </c>
@@ -14417,13 +14428,39 @@
       <c r="D349" s="40">
         <v>95000</v>
       </c>
-      <c r="E349" s="41"/>
-      <c r="F349" s="19" t="e">
+      <c r="E349" s="41">
+        <v>1300</v>
+      </c>
+      <c r="F349" s="16">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75.40674999999996</v>
+      </c>
+      <c r="G349">
+        <v>76.616</v>
+      </c>
+      <c r="H349">
+        <v>76.073999999999899</v>
+      </c>
+      <c r="I349">
+        <v>72.337999999999994</v>
+      </c>
+      <c r="J349">
+        <v>72.363999999999905</v>
+      </c>
+      <c r="K349">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="L349">
+        <v>77.518000000000001</v>
+      </c>
+      <c r="M349">
+        <v>76.367999999999995</v>
+      </c>
+      <c r="N349">
+        <v>76.406000000000006</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="32" t="s">
         <v>40</v>
       </c>
@@ -14436,13 +14473,36 @@
       <c r="D350" s="11">
         <v>54400</v>
       </c>
-      <c r="E350" s="11"/>
-      <c r="F350" s="19" t="e">
+      <c r="E350" s="18">
+        <v>100</v>
+      </c>
+      <c r="F350" s="19">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6721.8893968253897</v>
+      </c>
+      <c r="G350">
+        <v>7151.0086666666602</v>
+      </c>
+      <c r="H350">
+        <v>10492.193111111101</v>
+      </c>
+      <c r="I350">
+        <v>9087.2817777777691</v>
+      </c>
+      <c r="J350">
+        <v>3517.18711111111</v>
+      </c>
+      <c r="K350">
+        <v>5161.6337777777699</v>
+      </c>
+      <c r="L350">
+        <v>6292.1208888888796</v>
+      </c>
+      <c r="M350">
+        <v>5351.8004444444396</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="32" t="s">
         <v>41</v>
       </c>
@@ -14455,13 +14515,39 @@
       <c r="D351" s="11">
         <v>104000</v>
       </c>
-      <c r="E351" s="11"/>
-      <c r="F351" s="19" t="e">
+      <c r="E351" s="18">
+        <v>100</v>
+      </c>
+      <c r="F351" s="19">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3439.5528055555501</v>
+      </c>
+      <c r="G351">
+        <v>3439.7535555555501</v>
+      </c>
+      <c r="H351">
+        <v>3440.2415555555499</v>
+      </c>
+      <c r="I351">
+        <v>3439.8295555555501</v>
+      </c>
+      <c r="J351">
+        <v>3441.00755555555</v>
+      </c>
+      <c r="K351">
+        <v>3438.7235555555499</v>
+      </c>
+      <c r="L351">
+        <v>3435.6955555555501</v>
+      </c>
+      <c r="M351">
+        <v>3439.1135555555502</v>
+      </c>
+      <c r="N351">
+        <v>3442.0575555555502</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="32" t="s">
         <v>42</v>
       </c>
@@ -14474,13 +14560,39 @@
       <c r="D352" s="11">
         <v>113000</v>
       </c>
-      <c r="E352" s="11"/>
-      <c r="F352" s="19" t="e">
+      <c r="E352" s="18">
+        <v>900</v>
+      </c>
+      <c r="F352" s="19">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16175.446305555502</v>
+      </c>
+      <c r="G352">
+        <v>16870.1455555555</v>
+      </c>
+      <c r="H352">
+        <v>15306.350888888799</v>
+      </c>
+      <c r="I352">
+        <v>13071.2473333333</v>
+      </c>
+      <c r="J352">
+        <v>17786.636444444401</v>
+      </c>
+      <c r="K352">
+        <v>14320.6397777777</v>
+      </c>
+      <c r="L352">
+        <v>16874.241555555502</v>
+      </c>
+      <c r="M352">
+        <v>17254.641111111101</v>
+      </c>
+      <c r="N352">
+        <v>17919.6677777777</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="32" t="s">
         <v>43</v>
       </c>
@@ -14494,12 +14606,42 @@
         <v>95700</v>
       </c>
       <c r="E353" s="11"/>
-      <c r="F353" s="19" t="e">
+      <c r="F353" s="19">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10559.417244444416</v>
+      </c>
+      <c r="G353">
+        <v>7403.4340000000002</v>
+      </c>
+      <c r="H353">
+        <v>9994.3808888888798</v>
+      </c>
+      <c r="I353">
+        <v>11661.5895555555</v>
+      </c>
+      <c r="J353">
+        <v>9526.2962222222195</v>
+      </c>
+      <c r="K353">
+        <v>11826.0482222222</v>
+      </c>
+      <c r="L353">
+        <v>11726.098222222199</v>
+      </c>
+      <c r="M353">
+        <v>12058.531555555501</v>
+      </c>
+      <c r="N353">
+        <v>11960.6875555555</v>
+      </c>
+      <c r="O353">
+        <v>11865.995555555501</v>
+      </c>
+      <c r="P353">
+        <v>7571.1106666666601</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="32" t="s">
         <v>44</v>
       </c>
@@ -14513,12 +14655,39 @@
         <v>94200</v>
       </c>
       <c r="E354" s="11"/>
-      <c r="F354" s="19" t="e">
+      <c r="F354" s="19">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15479.12938271601</v>
+      </c>
+      <c r="G354">
+        <v>18008.4931111111</v>
+      </c>
+      <c r="H354">
+        <v>17641.586444444401</v>
+      </c>
+      <c r="I354" s="42">
+        <v>17203.9391111111</v>
+      </c>
+      <c r="J354">
+        <v>18176.341777777699</v>
+      </c>
+      <c r="K354">
+        <v>13573.589777777701</v>
+      </c>
+      <c r="L354">
+        <v>11105.961111111101</v>
+      </c>
+      <c r="M354">
+        <v>15309.105111111099</v>
+      </c>
+      <c r="N354">
+        <v>12685.8728888888</v>
+      </c>
+      <c r="O354">
+        <v>15607.275111111099</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="32" t="s">
         <v>45</v>
       </c>
@@ -14532,12 +14701,39 @@
         <v>85200</v>
       </c>
       <c r="E355" s="11"/>
-      <c r="F355" s="19" t="e">
+      <c r="F355" s="19">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="356" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20701.367777777723</v>
+      </c>
+      <c r="G355">
+        <v>19248.343555555501</v>
+      </c>
+      <c r="H355">
+        <v>20945.167555555501</v>
+      </c>
+      <c r="I355">
+        <v>21414.2522222222</v>
+      </c>
+      <c r="J355">
+        <v>21478.886888888799</v>
+      </c>
+      <c r="K355">
+        <v>19143.811555555501</v>
+      </c>
+      <c r="L355">
+        <v>21245.933555555501</v>
+      </c>
+      <c r="M355">
+        <v>21414.5582222222</v>
+      </c>
+      <c r="N355">
+        <v>19876.650888888798</v>
+      </c>
+      <c r="O355">
+        <v>21544.705555555502</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="32" t="s">
         <v>46</v>
       </c>
@@ -14551,12 +14747,42 @@
         <v>117000</v>
       </c>
       <c r="E356" s="11"/>
-      <c r="F356" s="19" t="e">
+      <c r="F356" s="19">
         <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="357" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10650.547577777757</v>
+      </c>
+      <c r="G356">
+        <v>11778.4911111111</v>
+      </c>
+      <c r="H356">
+        <v>13510.790444444399</v>
+      </c>
+      <c r="I356">
+        <v>10497.4551111111</v>
+      </c>
+      <c r="J356">
+        <v>8495.9677777777706</v>
+      </c>
+      <c r="K356">
+        <v>9799.2811111111096</v>
+      </c>
+      <c r="L356">
+        <v>10399.7951111111</v>
+      </c>
+      <c r="M356">
+        <v>12376.543111111099</v>
+      </c>
+      <c r="N356">
+        <v>9835.5444444444402</v>
+      </c>
+      <c r="O356">
+        <v>9070.58977777777</v>
+      </c>
+      <c r="P356">
+        <v>10741.017777777701</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="32" t="s">
         <v>47</v>
       </c>
@@ -14575,7 +14801,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="32" t="s">
         <v>48</v>
       </c>
@@ -14594,7 +14820,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="359" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="32" t="s">
         <v>49</v>
       </c>
@@ -14613,7 +14839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="32" t="s">
         <v>50</v>
       </c>
@@ -14632,7 +14858,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="32" t="s">
         <v>51</v>
       </c>
@@ -14651,7 +14877,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="32" t="s">
         <v>52</v>
       </c>
@@ -14670,7 +14896,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="363" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="32" t="s">
         <v>53</v>
       </c>
@@ -14689,7 +14915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="364" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="32" t="s">
         <v>54</v>
       </c>
@@ -14708,7 +14934,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="365" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="32" t="s">
         <v>55</v>
       </c>
@@ -14727,7 +14953,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="366" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="32" t="s">
         <v>56</v>
       </c>
@@ -14746,7 +14972,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="367" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="32" t="s">
         <v>57</v>
       </c>
@@ -14765,7 +14991,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="368" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="32" t="s">
         <v>58</v>
       </c>
@@ -14977,86 +15203,2409 @@
     <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D385" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E385" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F385" s="33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B386" s="28">
+        <v>134</v>
+      </c>
+      <c r="C386" s="28">
+        <v>2300</v>
+      </c>
+      <c r="D386" s="28">
+        <v>130</v>
+      </c>
+      <c r="E386" s="19">
+        <v>135</v>
+      </c>
+      <c r="F386" s="19">
+        <f xml:space="preserve"> AVERAGE(G386:P386)</f>
+        <v>130.37199999999979</v>
+      </c>
+      <c r="G386">
+        <v>116.979999999999</v>
+      </c>
+      <c r="H386">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="I386">
+        <v>128.38</v>
+      </c>
+      <c r="J386">
+        <v>137.06</v>
+      </c>
+      <c r="K386">
+        <v>136.1</v>
+      </c>
+      <c r="L386">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="M386">
+        <v>135.72</v>
+      </c>
+      <c r="N386">
+        <v>135.91999999999999</v>
+      </c>
+      <c r="O386">
+        <v>132.74</v>
+      </c>
+      <c r="P386">
+        <v>117.41999999999901</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B387" s="28">
+        <v>95.74</v>
+      </c>
+      <c r="C387" s="28">
+        <v>30500</v>
+      </c>
+      <c r="D387" s="28">
+        <v>91.4</v>
+      </c>
+      <c r="E387" s="28">
+        <v>95.6</v>
+      </c>
+      <c r="F387" s="19">
+        <f t="shared" ref="F387:F391" si="18" xml:space="preserve"> AVERAGE(G387:P387)</f>
+        <v>90.121999999999986</v>
+      </c>
+      <c r="G387">
+        <v>92.4</v>
+      </c>
+      <c r="H387">
+        <v>92.1</v>
+      </c>
+      <c r="I387">
+        <v>89.52</v>
+      </c>
+      <c r="J387">
+        <v>92.12</v>
+      </c>
+      <c r="K387">
+        <v>92.9</v>
+      </c>
+      <c r="L387">
+        <v>86.92</v>
+      </c>
+      <c r="M387">
+        <v>87</v>
+      </c>
+      <c r="N387">
+        <v>92.14</v>
+      </c>
+      <c r="O387">
+        <v>86.92</v>
+      </c>
+      <c r="P387">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B388" s="28">
+        <v>97.44</v>
+      </c>
+      <c r="C388" s="28">
+        <v>35800</v>
+      </c>
+      <c r="D388" s="28">
+        <v>96.5</v>
+      </c>
+      <c r="E388" s="28">
+        <v>96.8</v>
+      </c>
+      <c r="F388" s="19">
+        <f t="shared" si="18"/>
+        <v>102.14599999999989</v>
+      </c>
+      <c r="G388">
+        <v>102.55999999999899</v>
+      </c>
+      <c r="H388">
+        <v>101.7</v>
+      </c>
+      <c r="I388">
+        <v>102.42</v>
+      </c>
+      <c r="J388">
+        <v>101.7</v>
+      </c>
+      <c r="K388">
+        <v>101.7</v>
+      </c>
+      <c r="L388">
+        <v>102.42</v>
+      </c>
+      <c r="M388">
+        <v>102.42</v>
+      </c>
+      <c r="N388">
+        <v>101.7</v>
+      </c>
+      <c r="O388">
+        <v>102.42</v>
+      </c>
+      <c r="P388">
+        <v>102.42</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B389" s="28">
+        <v>102.7342857</v>
+      </c>
+      <c r="C389" s="28">
+        <v>5490</v>
+      </c>
+      <c r="D389" s="28">
+        <v>104</v>
+      </c>
+      <c r="E389" s="28">
+        <v>94.6</v>
+      </c>
+      <c r="F389" s="19">
+        <f t="shared" si="18"/>
+        <v>92.835999999999984</v>
+      </c>
+      <c r="G389">
+        <v>91.86</v>
+      </c>
+      <c r="H389">
+        <v>92.82</v>
+      </c>
+      <c r="I389">
+        <v>91.66</v>
+      </c>
+      <c r="J389">
+        <v>90.56</v>
+      </c>
+      <c r="K389">
+        <v>96.32</v>
+      </c>
+      <c r="L389">
+        <v>91.66</v>
+      </c>
+      <c r="M389">
+        <v>93.78</v>
+      </c>
+      <c r="N389">
+        <v>93.78</v>
+      </c>
+      <c r="O389">
+        <v>93.78</v>
+      </c>
+      <c r="P389">
+        <v>92.14</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B390" s="28">
+        <v>4069.6358019999998</v>
+      </c>
+      <c r="C390" s="28">
+        <v>16900</v>
+      </c>
+      <c r="D390" s="28">
+        <v>8000</v>
+      </c>
+      <c r="E390" s="28">
+        <v>8000</v>
+      </c>
+      <c r="F390" s="19">
+        <f t="shared" si="18"/>
+        <v>5445.5180000000018</v>
+      </c>
+      <c r="G390">
+        <v>5448.62</v>
+      </c>
+      <c r="H390">
+        <v>5445.26</v>
+      </c>
+      <c r="I390">
+        <v>5445.26</v>
+      </c>
+      <c r="J390">
+        <v>5445.48</v>
+      </c>
+      <c r="K390">
+        <v>5445.26</v>
+      </c>
+      <c r="L390">
+        <v>5444.76</v>
+      </c>
+      <c r="M390">
+        <v>5445.26</v>
+      </c>
+      <c r="N390">
+        <v>5445.26</v>
+      </c>
+      <c r="O390">
+        <v>5444.76</v>
+      </c>
+      <c r="P390">
+        <v>5445.26</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" s="28">
+        <v>105</v>
+      </c>
+      <c r="C391" s="28">
+        <v>4760</v>
+      </c>
+      <c r="D391" s="28">
+        <v>118</v>
+      </c>
+      <c r="E391" s="19">
+        <v>120</v>
+      </c>
+      <c r="F391" s="19">
+        <f t="shared" si="18"/>
+        <v>115.36600000000001</v>
+      </c>
+      <c r="G391">
+        <v>108.96</v>
+      </c>
+      <c r="H391">
+        <v>117.72</v>
+      </c>
+      <c r="I391">
+        <v>118.58</v>
+      </c>
+      <c r="J391">
+        <v>116.72</v>
+      </c>
+      <c r="K391">
+        <v>114.98</v>
+      </c>
+      <c r="L391">
+        <v>118.24</v>
+      </c>
+      <c r="M391">
+        <v>118.58</v>
+      </c>
+      <c r="N391">
+        <v>108.96</v>
+      </c>
+      <c r="O391">
+        <v>115.46</v>
+      </c>
+      <c r="P391">
+        <v>115.46</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A392" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" s="28">
+        <v>10338.10578</v>
+      </c>
+      <c r="C392" s="28">
+        <v>12800</v>
+      </c>
+      <c r="D392" s="28">
+        <v>7360</v>
+      </c>
+      <c r="E392" s="19">
+        <v>7200</v>
+      </c>
+      <c r="F392" s="19">
+        <f xml:space="preserve"> AVERAGE(G392:P392)</f>
+        <v>3941.4046666666663</v>
+      </c>
+      <c r="G392">
+        <v>3785.04</v>
+      </c>
+      <c r="H392">
+        <v>3984.62</v>
+      </c>
+      <c r="I392">
+        <v>3783.7</v>
+      </c>
+      <c r="J392">
+        <v>3984.96</v>
+      </c>
+      <c r="K392">
+        <v>3985.02</v>
+      </c>
+      <c r="L392">
+        <v>4385.72</v>
+      </c>
+      <c r="M392">
+        <v>3985.48</v>
+      </c>
+      <c r="N392">
+        <v>3783.9</v>
+      </c>
+      <c r="O392">
+        <v>3985.08</v>
+      </c>
+      <c r="P392">
+        <v>3750.5266666666598</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B393" s="28">
+        <v>68.8</v>
+      </c>
+      <c r="C393" s="28">
+        <v>797</v>
+      </c>
+      <c r="D393" s="28">
+        <v>769</v>
+      </c>
+      <c r="E393" s="19">
+        <v>95</v>
+      </c>
+      <c r="F393" s="19">
+        <f t="shared" ref="F393:F397" si="19" xml:space="preserve"> AVERAGE(G393:P393)</f>
+        <v>65.895999999999958</v>
+      </c>
+      <c r="G393">
+        <v>65.64</v>
+      </c>
+      <c r="H393">
+        <v>65.759999999999906</v>
+      </c>
+      <c r="I393">
+        <v>65.38</v>
+      </c>
+      <c r="J393">
+        <v>65.64</v>
+      </c>
+      <c r="K393">
+        <v>65.64</v>
+      </c>
+      <c r="L393">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="M393">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="N393">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="O393">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="P393">
+        <v>68.739999999999995</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B394" s="28">
+        <v>3307.1417280000001</v>
+      </c>
+      <c r="C394" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D394" s="28">
+        <v>8480</v>
+      </c>
+      <c r="E394" s="19">
+        <v>5000</v>
+      </c>
+      <c r="F394" s="19">
+        <f t="shared" si="19"/>
+        <v>161.41399999999993</v>
+      </c>
+      <c r="G394">
+        <v>159.96</v>
+      </c>
+      <c r="H394">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I394">
+        <v>164.82</v>
+      </c>
+      <c r="J394">
+        <v>161.08000000000001</v>
+      </c>
+      <c r="K394">
+        <v>158.74</v>
+      </c>
+      <c r="L394">
+        <v>167.08</v>
+      </c>
+      <c r="M394">
+        <v>161</v>
+      </c>
+      <c r="N394">
+        <v>163.01999999999899</v>
+      </c>
+      <c r="O394">
+        <v>154.76</v>
+      </c>
+      <c r="P394">
+        <v>160.47999999999999</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B395" s="28">
+        <v>194000</v>
+      </c>
+      <c r="C395" s="28">
+        <v>1770000</v>
+      </c>
+      <c r="D395" s="28">
+        <v>187000</v>
+      </c>
+      <c r="E395" s="28">
+        <v>183000</v>
+      </c>
+      <c r="F395" s="19">
+        <f t="shared" si="19"/>
+        <v>142430.18866666619</v>
+      </c>
+      <c r="G395">
+        <v>152272.217777777</v>
+      </c>
+      <c r="H395">
+        <v>143329.67111111101</v>
+      </c>
+      <c r="I395">
+        <v>137353.89777777699</v>
+      </c>
+      <c r="J395">
+        <v>127236.451111111</v>
+      </c>
+      <c r="K395">
+        <v>140179.05777777699</v>
+      </c>
+      <c r="L395">
+        <v>149384.026666666</v>
+      </c>
+      <c r="M395">
+        <v>105007.773333333</v>
+      </c>
+      <c r="N395">
+        <v>163553.82</v>
+      </c>
+      <c r="O395">
+        <v>172068.16666666599</v>
+      </c>
+      <c r="P395">
+        <v>133916.80444444399</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B396" s="28">
+        <v>910.73827159999996</v>
+      </c>
+      <c r="C396" s="28">
+        <v>181000</v>
+      </c>
+      <c r="D396" s="28">
+        <v>3040</v>
+      </c>
+      <c r="E396" s="19">
+        <v>500</v>
+      </c>
+      <c r="F396" s="19">
+        <f t="shared" si="19"/>
+        <v>166.702</v>
+      </c>
+      <c r="G396">
+        <v>166.02</v>
+      </c>
+      <c r="H396">
+        <v>176.02</v>
+      </c>
+      <c r="I396">
+        <v>172.74</v>
+      </c>
+      <c r="J396">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="K396">
+        <v>164.12</v>
+      </c>
+      <c r="L396">
+        <v>160.34</v>
+      </c>
+      <c r="M396">
+        <v>171.54</v>
+      </c>
+      <c r="N396">
+        <v>164.16</v>
+      </c>
+      <c r="O396">
+        <v>166.64</v>
+      </c>
+      <c r="P396">
+        <v>164.14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B397" s="28">
+        <v>14974.64444</v>
+      </c>
+      <c r="C397" s="28">
+        <v>567000</v>
+      </c>
+      <c r="D397" s="28">
+        <v>84200</v>
+      </c>
+      <c r="E397" s="19">
+        <v>79000</v>
+      </c>
+      <c r="F397" s="19">
+        <f t="shared" si="19"/>
+        <v>23826.100444444404</v>
+      </c>
+      <c r="G397">
+        <v>31660.7022222222</v>
+      </c>
+      <c r="H397">
+        <v>29368.0888888888</v>
+      </c>
+      <c r="I397">
+        <v>13270.144444444401</v>
+      </c>
+      <c r="J397">
+        <v>27276.982222222199</v>
+      </c>
+      <c r="K397">
+        <v>26895.613333333298</v>
+      </c>
+      <c r="L397">
+        <v>27876.8888888888</v>
+      </c>
+      <c r="M397">
+        <v>4393.4511111111096</v>
+      </c>
+      <c r="N397">
+        <v>60285.7022222222</v>
+      </c>
+      <c r="O397">
+        <v>10540.028888888801</v>
+      </c>
+      <c r="P397">
+        <v>6693.4022222222202</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B398" s="28">
+        <v>3359.6609880000001</v>
+      </c>
+      <c r="C398" s="28">
+        <v>220000</v>
+      </c>
+      <c r="D398" s="28">
+        <v>277</v>
+      </c>
+      <c r="E398" s="19">
+        <v>1100</v>
+      </c>
+      <c r="F398" s="19">
+        <f xml:space="preserve"> AVERAGE(G398:P398)</f>
+        <v>737.31555555555383</v>
+      </c>
+      <c r="G398">
+        <v>3508.0577777777698</v>
+      </c>
+      <c r="H398">
+        <v>182.24</v>
+      </c>
+      <c r="I398">
+        <v>172.38</v>
+      </c>
+      <c r="J398">
+        <v>2391.39777777777</v>
+      </c>
+      <c r="K398">
+        <v>168.8</v>
+      </c>
+      <c r="L398">
+        <v>179.73999999999899</v>
+      </c>
+      <c r="M398">
+        <v>201.88</v>
+      </c>
+      <c r="N398">
+        <v>200.27999999999901</v>
+      </c>
+      <c r="O398">
+        <v>194.2</v>
+      </c>
+      <c r="P398">
+        <v>174.18</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B399" s="28">
+        <v>18163.26296</v>
+      </c>
+      <c r="C399" s="28">
+        <v>237000</v>
+      </c>
+      <c r="D399" s="28">
+        <v>7820</v>
+      </c>
+      <c r="E399" s="19">
+        <v>6500</v>
+      </c>
+      <c r="F399" s="19">
+        <f t="shared" ref="F399:F414" si="20" xml:space="preserve"> AVERAGE(G399:P399)</f>
+        <v>655.91456790123334</v>
+      </c>
+      <c r="G399">
+        <v>161.72</v>
+      </c>
+      <c r="H399">
+        <v>157.06</v>
+      </c>
+      <c r="I399">
+        <v>2624.81555555555</v>
+      </c>
+      <c r="J399">
+        <v>171.56</v>
+      </c>
+      <c r="K399">
+        <v>169.06</v>
+      </c>
+      <c r="L399">
+        <v>2125.6155555555501</v>
+      </c>
+      <c r="M399">
+        <v>160.06</v>
+      </c>
+      <c r="N399">
+        <v>168.46</v>
+      </c>
+      <c r="O399">
+        <v>164.88</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B400" s="28">
+        <v>32301.335800000001</v>
+      </c>
+      <c r="C400" s="28">
+        <v>793000</v>
+      </c>
+      <c r="D400" s="28">
+        <v>149000</v>
+      </c>
+      <c r="E400" s="19">
+        <v>47000</v>
+      </c>
+      <c r="F400" s="19">
+        <f t="shared" si="20"/>
+        <v>28053.94599999996</v>
+      </c>
+      <c r="G400">
+        <v>22734.313333333299</v>
+      </c>
+      <c r="H400">
+        <v>37061.653333333299</v>
+      </c>
+      <c r="I400">
+        <v>25024.635555555498</v>
+      </c>
+      <c r="J400">
+        <v>30399.5311111111</v>
+      </c>
+      <c r="K400">
+        <v>44303.453333333302</v>
+      </c>
+      <c r="L400">
+        <v>8523.8688888888792</v>
+      </c>
+      <c r="M400">
+        <v>28922.137777777702</v>
+      </c>
+      <c r="N400">
+        <v>38907.731111111098</v>
+      </c>
+      <c r="O400">
+        <v>21847.708888888799</v>
+      </c>
+      <c r="P400">
+        <v>22814.426666666601</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B401" s="28">
+        <v>51313.376790000002</v>
+      </c>
+      <c r="C401" s="28">
+        <v>854000</v>
+      </c>
+      <c r="D401" s="28">
+        <v>57800</v>
+      </c>
+      <c r="E401" s="19">
+        <v>49000</v>
+      </c>
+      <c r="F401" s="19">
+        <f t="shared" si="20"/>
+        <v>19360.027111111056</v>
+      </c>
+      <c r="G401">
+        <v>18036.093333333301</v>
+      </c>
+      <c r="H401">
+        <v>22070.604444444401</v>
+      </c>
+      <c r="I401">
+        <v>24461.38</v>
+      </c>
+      <c r="J401">
+        <v>19896.7266666666</v>
+      </c>
+      <c r="K401">
+        <v>21840.688888888799</v>
+      </c>
+      <c r="L401">
+        <v>18111.277777777701</v>
+      </c>
+      <c r="M401">
+        <v>10950.246666666601</v>
+      </c>
+      <c r="N401">
+        <v>21118.868888888799</v>
+      </c>
+      <c r="O401" s="42">
+        <v>19638.02</v>
+      </c>
+      <c r="P401">
+        <v>17476.3644444444</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B402" s="44">
+        <v>84.667500000000004</v>
+      </c>
+      <c r="C402" s="45">
+        <v>96</v>
+      </c>
+      <c r="D402" s="46">
+        <v>411</v>
+      </c>
+      <c r="E402" s="46">
+        <v>92</v>
+      </c>
+      <c r="F402" s="19">
+        <f t="shared" si="20"/>
+        <v>80.656499999999994</v>
+      </c>
+      <c r="G402">
+        <v>82.495000000000005</v>
+      </c>
+      <c r="H402">
+        <v>78.739999999999995</v>
+      </c>
+      <c r="I402">
+        <v>79.83</v>
+      </c>
+      <c r="J402">
+        <v>82.01</v>
+      </c>
+      <c r="K402">
+        <v>78.349999999999994</v>
+      </c>
+      <c r="L402">
+        <v>82.694999999999993</v>
+      </c>
+      <c r="M402">
+        <v>78.694999999999993</v>
+      </c>
+      <c r="N402">
+        <v>80.64</v>
+      </c>
+      <c r="O402">
+        <v>81.114999999999995</v>
+      </c>
+      <c r="P402">
+        <v>81.995000000000005</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B403" s="44">
+        <v>1627.9475</v>
+      </c>
+      <c r="C403" s="45">
+        <v>112</v>
+      </c>
+      <c r="D403" s="46">
+        <v>8560</v>
+      </c>
+      <c r="E403" s="46">
+        <v>96.42</v>
+      </c>
+      <c r="F403" s="19">
+        <f t="shared" si="20"/>
+        <v>85.755999999999986</v>
+      </c>
+      <c r="G403">
+        <v>85.444999999999993</v>
+      </c>
+      <c r="H403">
+        <v>86.91</v>
+      </c>
+      <c r="I403">
+        <v>86.38</v>
+      </c>
+      <c r="J403">
+        <v>85.385000000000005</v>
+      </c>
+      <c r="K403">
+        <v>86.584999999999994</v>
+      </c>
+      <c r="L403">
+        <v>82.999999999999901</v>
+      </c>
+      <c r="M403">
+        <v>86.435000000000002</v>
+      </c>
+      <c r="N403">
+        <v>86.53</v>
+      </c>
+      <c r="O403">
+        <v>84.4</v>
+      </c>
+      <c r="P403">
+        <v>86.49</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B404" s="44">
+        <v>1260.0333889999999</v>
+      </c>
+      <c r="C404" s="45">
+        <v>478</v>
+      </c>
+      <c r="D404" s="46">
+        <v>4150</v>
+      </c>
+      <c r="E404" s="46">
+        <v>120</v>
+      </c>
+      <c r="F404" s="19">
+        <f t="shared" si="20"/>
+        <v>108.50283333333309</v>
+      </c>
+      <c r="G404">
+        <v>106.425</v>
+      </c>
+      <c r="H404">
+        <v>109.15</v>
+      </c>
+      <c r="I404">
+        <v>103.96499999999899</v>
+      </c>
+      <c r="J404">
+        <v>109.325</v>
+      </c>
+      <c r="K404">
+        <v>112.76499999999901</v>
+      </c>
+      <c r="L404">
+        <v>107.245</v>
+      </c>
+      <c r="M404">
+        <v>104.705</v>
+      </c>
+      <c r="N404">
+        <v>111.613333333333</v>
+      </c>
+      <c r="O404">
+        <v>110.16</v>
+      </c>
+      <c r="P404">
+        <v>109.675</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B405" s="44">
+        <v>7055.9061670000001</v>
+      </c>
+      <c r="C405" s="45">
+        <v>3980</v>
+      </c>
+      <c r="D405" s="46">
+        <v>16200</v>
+      </c>
+      <c r="E405" s="46">
+        <v>100</v>
+      </c>
+      <c r="F405" s="19">
+        <f t="shared" si="20"/>
+        <v>3385.2657777777722</v>
+      </c>
+      <c r="G405">
+        <v>3528.4911111111101</v>
+      </c>
+      <c r="H405">
+        <v>3527.4411111111099</v>
+      </c>
+      <c r="I405">
+        <v>3494.7077777777699</v>
+      </c>
+      <c r="J405">
+        <v>3294.00277777777</v>
+      </c>
+      <c r="K405">
+        <v>3295.3477777777698</v>
+      </c>
+      <c r="L405">
+        <v>3295.21277777777</v>
+      </c>
+      <c r="M405">
+        <v>3530.3611111111099</v>
+      </c>
+      <c r="N405">
+        <v>3294.25277777777</v>
+      </c>
+      <c r="O405">
+        <v>3295.5527777777702</v>
+      </c>
+      <c r="P405">
+        <v>3297.2877777777699</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B406" s="44">
+        <v>2396.498556</v>
+      </c>
+      <c r="C406" s="45">
+        <v>2340</v>
+      </c>
+      <c r="D406" s="46">
+        <v>18500</v>
+      </c>
+      <c r="E406" s="46">
+        <v>110</v>
+      </c>
+      <c r="F406" s="19">
+        <f t="shared" si="20"/>
+        <v>104.54357142857144</v>
+      </c>
+      <c r="G406">
+        <v>103.66</v>
+      </c>
+      <c r="H406">
+        <v>106.83</v>
+      </c>
+      <c r="I406">
+        <v>105.015</v>
+      </c>
+      <c r="J406">
+        <v>104.68</v>
+      </c>
+      <c r="K406">
+        <v>103.47</v>
+      </c>
+      <c r="L406">
+        <v>104.68</v>
+      </c>
+      <c r="M406">
+        <v>103.47</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B407" s="44">
+        <v>3322.8712220000002</v>
+      </c>
+      <c r="C407" s="45">
+        <v>3320</v>
+      </c>
+      <c r="D407" s="46">
+        <v>21100</v>
+      </c>
+      <c r="E407" s="46">
+        <v>96</v>
+      </c>
+      <c r="F407" s="19">
+        <f t="shared" si="20"/>
+        <v>1641.851111111109</v>
+      </c>
+      <c r="G407">
+        <v>1646.18722222222</v>
+      </c>
+      <c r="H407">
+        <v>1640.8972222222201</v>
+      </c>
+      <c r="I407">
+        <v>1640.9622222222199</v>
+      </c>
+      <c r="J407">
+        <v>1641.9272222222201</v>
+      </c>
+      <c r="K407">
+        <v>1640.6172222222201</v>
+      </c>
+      <c r="L407">
+        <v>1643.38222222222</v>
+      </c>
+      <c r="M407">
+        <v>1640.14222222222</v>
+      </c>
+      <c r="N407">
+        <v>1641.9272222222201</v>
+      </c>
+      <c r="O407">
+        <v>1640.6172222222201</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B408" s="44">
+        <v>106.435</v>
+      </c>
+      <c r="C408" s="45">
+        <v>6870</v>
+      </c>
+      <c r="D408" s="46">
+        <v>809</v>
+      </c>
+      <c r="E408" s="46">
+        <v>105</v>
+      </c>
+      <c r="F408" s="19">
+        <f t="shared" si="20"/>
+        <v>104.70777777777744</v>
+      </c>
+      <c r="G408">
+        <v>104.5</v>
+      </c>
+      <c r="H408">
+        <v>105.36499999999999</v>
+      </c>
+      <c r="I408">
+        <v>102.55</v>
+      </c>
+      <c r="J408">
+        <v>104.509999999999</v>
+      </c>
+      <c r="K408">
+        <v>104.5</v>
+      </c>
+      <c r="L408">
+        <v>102.55</v>
+      </c>
+      <c r="M408">
+        <v>105.634999999999</v>
+      </c>
+      <c r="N408">
+        <v>108.25</v>
+      </c>
+      <c r="O408">
+        <v>104.509999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B409" s="44">
+        <v>92.355999999999995</v>
+      </c>
+      <c r="C409" s="45">
+        <v>1290</v>
+      </c>
+      <c r="D409" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E409" s="46">
+        <v>94.4</v>
+      </c>
+      <c r="F409" s="19">
+        <f t="shared" si="20"/>
+        <v>89.923999999999978</v>
+      </c>
+      <c r="G409">
+        <v>88.9</v>
+      </c>
+      <c r="H409">
+        <v>88.67</v>
+      </c>
+      <c r="I409">
+        <v>90.415000000000006</v>
+      </c>
+      <c r="J409">
+        <v>89.839999999999904</v>
+      </c>
+      <c r="K409">
+        <v>88.9</v>
+      </c>
+      <c r="L409">
+        <v>93.894999999999996</v>
+      </c>
+      <c r="M409">
+        <v>91.05</v>
+      </c>
+      <c r="N409">
+        <v>88.864999999999995</v>
+      </c>
+      <c r="O409">
+        <v>89.839999999999904</v>
+      </c>
+      <c r="P409">
+        <v>88.864999999999995</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B410" s="44">
+        <v>10300</v>
+      </c>
+      <c r="C410" s="45">
+        <v>92400</v>
+      </c>
+      <c r="D410" s="46">
+        <v>21500</v>
+      </c>
+      <c r="E410" s="46">
+        <v>6428</v>
+      </c>
+      <c r="F410" s="19">
+        <f t="shared" si="20"/>
+        <v>8691.0338333333257</v>
+      </c>
+      <c r="G410">
+        <v>9620.2577777777697</v>
+      </c>
+      <c r="H410">
+        <v>10355.5111111111</v>
+      </c>
+      <c r="I410">
+        <v>9822.1227777777694</v>
+      </c>
+      <c r="J410">
+        <v>10358.8861111111</v>
+      </c>
+      <c r="K410">
+        <v>5935.3488888888796</v>
+      </c>
+      <c r="L410">
+        <v>7451.8594444444398</v>
+      </c>
+      <c r="M410">
+        <v>5935.3488888888796</v>
+      </c>
+      <c r="N410">
+        <v>9620.2577777777697</v>
+      </c>
+      <c r="O410">
+        <v>10358.8861111111</v>
+      </c>
+      <c r="P410">
+        <v>7451.8594444444398</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B411" s="46">
+        <v>34883</v>
+      </c>
+      <c r="C411" s="45">
+        <v>275000</v>
+      </c>
+      <c r="D411" s="46">
+        <v>54000</v>
+      </c>
+      <c r="E411" s="46">
+        <v>9285</v>
+      </c>
+      <c r="F411" s="19">
+        <f t="shared" si="20"/>
+        <v>7385.2874074074025</v>
+      </c>
+      <c r="G411">
+        <v>8698.7066666666597</v>
+      </c>
+      <c r="H411">
+        <v>7857.5905555555501</v>
+      </c>
+      <c r="I411">
+        <v>8356.9805555555504</v>
+      </c>
+      <c r="J411">
+        <v>8689.5788888888892</v>
+      </c>
+      <c r="K411">
+        <v>3980.29</v>
+      </c>
+      <c r="L411">
+        <v>7857.5905555555501</v>
+      </c>
+      <c r="M411">
+        <v>8356.9805555555504</v>
+      </c>
+      <c r="N411">
+        <v>8689.5788888888892</v>
+      </c>
+      <c r="O411">
+        <v>3980.29</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B412" s="46">
+        <v>134</v>
+      </c>
+      <c r="C412" s="45">
+        <v>18400</v>
+      </c>
+      <c r="D412" s="46">
+        <v>18800</v>
+      </c>
+      <c r="E412" s="46">
+        <v>130</v>
+      </c>
+      <c r="F412" s="19">
+        <f t="shared" si="20"/>
+        <v>127.37444444444444</v>
+      </c>
+      <c r="G412">
+        <v>126.38</v>
+      </c>
+      <c r="H412">
+        <v>125.26</v>
+      </c>
+      <c r="I412">
+        <v>130.22999999999999</v>
+      </c>
+      <c r="J412">
+        <v>126.82</v>
+      </c>
+      <c r="K412">
+        <v>126.185</v>
+      </c>
+      <c r="L412">
+        <v>126.185</v>
+      </c>
+      <c r="M412">
+        <v>129.41999999999999</v>
+      </c>
+      <c r="N412">
+        <v>129.07</v>
+      </c>
+      <c r="O412">
+        <v>126.82</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B413" s="46">
+        <v>7100</v>
+      </c>
+      <c r="C413" s="45">
+        <v>9440</v>
+      </c>
+      <c r="D413" s="46">
+        <v>14900</v>
+      </c>
+      <c r="E413" s="46">
+        <v>302</v>
+      </c>
+      <c r="F413" s="19">
+        <f t="shared" si="20"/>
+        <v>7119.334388888883</v>
+      </c>
+      <c r="G413">
+        <v>7132.0122222222199</v>
+      </c>
+      <c r="H413">
+        <v>7098.5988888888796</v>
+      </c>
+      <c r="I413">
+        <v>7131.8672222222203</v>
+      </c>
+      <c r="J413">
+        <v>7099.4438888888799</v>
+      </c>
+      <c r="K413">
+        <v>7129.8772222222196</v>
+      </c>
+      <c r="L413">
+        <v>7095.3938888888797</v>
+      </c>
+      <c r="M413">
+        <v>7133.4322222222199</v>
+      </c>
+      <c r="N413">
+        <v>7105.48888888888</v>
+      </c>
+      <c r="O413">
+        <v>7128.6922222222202</v>
+      </c>
+      <c r="P413">
+        <v>7138.5372222222204</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B414" s="46">
+        <v>6400</v>
+      </c>
+      <c r="C414" s="45">
+        <v>163000</v>
+      </c>
+      <c r="D414" s="46">
+        <v>42400</v>
+      </c>
+      <c r="E414" s="46">
+        <v>925</v>
+      </c>
+      <c r="F414" s="19">
+        <f t="shared" si="20"/>
+        <v>6311.7867901234513</v>
+      </c>
+      <c r="G414">
+        <v>5863.3005555555501</v>
+      </c>
+      <c r="H414">
+        <v>6571.7605555555501</v>
+      </c>
+      <c r="I414">
+        <v>6995.5183333333298</v>
+      </c>
+      <c r="J414">
+        <v>6471.4111111111097</v>
+      </c>
+      <c r="K414">
+        <v>5868.3855555555501</v>
+      </c>
+      <c r="L414">
+        <v>6543.5277777777701</v>
+      </c>
+      <c r="M414">
+        <v>6535.8527777777699</v>
+      </c>
+      <c r="N414">
+        <v>5857.5955555555502</v>
+      </c>
+      <c r="O414">
+        <v>6098.7288888888797</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B415" s="46">
+        <v>119</v>
+      </c>
+      <c r="C415" s="45">
+        <v>74000</v>
+      </c>
+      <c r="D415" s="46">
+        <v>21100</v>
+      </c>
+      <c r="E415" s="46">
+        <v>450</v>
+      </c>
+      <c r="F415" s="19">
+        <f xml:space="preserve"> AVERAGE(G415:O415)</f>
+        <v>122.54555555555521</v>
+      </c>
+      <c r="G415">
+        <v>123.53</v>
+      </c>
+      <c r="H415">
+        <v>124.064999999999</v>
+      </c>
+      <c r="I415">
+        <v>114.235</v>
+      </c>
+      <c r="J415">
+        <v>125.83499999999999</v>
+      </c>
+      <c r="K415">
+        <v>121.354999999999</v>
+      </c>
+      <c r="L415">
+        <v>125.435</v>
+      </c>
+      <c r="M415">
+        <v>125.905</v>
+      </c>
+      <c r="N415">
+        <v>121.854999999999</v>
+      </c>
+      <c r="O415">
+        <v>120.69499999999999</v>
+      </c>
+      <c r="P415">
+        <v>124.36499999999999</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B416" s="46">
+        <v>22600</v>
+      </c>
+      <c r="C416" s="45">
+        <v>147000</v>
+      </c>
+      <c r="D416" s="46">
+        <v>23300</v>
+      </c>
+      <c r="E416" s="46">
+        <v>22000</v>
+      </c>
+      <c r="F416" s="19">
+        <f t="shared" ref="F416:F436" si="21" xml:space="preserve"> AVERAGE(G416:P416)</f>
+        <v>16303.368541666627</v>
+      </c>
+      <c r="G416">
+        <v>14883.9633333333</v>
+      </c>
+      <c r="H416">
+        <v>17180.633333333299</v>
+      </c>
+      <c r="I416">
+        <v>14821.5566666666</v>
+      </c>
+      <c r="J416">
+        <v>13718.2166666666</v>
+      </c>
+      <c r="K416">
+        <v>16013.4766666666</v>
+      </c>
+      <c r="L416">
+        <v>16451.555</v>
+      </c>
+      <c r="M416">
+        <v>21477.5683333333</v>
+      </c>
+      <c r="N416">
+        <v>15879.9783333333</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B417" s="46">
+        <v>7670</v>
+      </c>
+      <c r="C417" s="45">
+        <v>60400</v>
+      </c>
+      <c r="D417" s="46">
+        <v>19600</v>
+      </c>
+      <c r="E417" s="46">
+        <v>200</v>
+      </c>
+      <c r="F417" s="19">
+        <f t="shared" si="21"/>
+        <v>7489.0393888888839</v>
+      </c>
+      <c r="G417">
+        <v>7524.0938888888804</v>
+      </c>
+      <c r="H417">
+        <v>7491.2805555555497</v>
+      </c>
+      <c r="I417">
+        <v>7561.8672222222203</v>
+      </c>
+      <c r="J417">
+        <v>7697.6755555555501</v>
+      </c>
+      <c r="K417">
+        <v>7488.8105555555503</v>
+      </c>
+      <c r="L417">
+        <v>7366.5872222222197</v>
+      </c>
+      <c r="M417">
+        <v>7365.9022222222202</v>
+      </c>
+      <c r="N417">
+        <v>7364.6122222222202</v>
+      </c>
+      <c r="O417">
+        <v>7498.0605555555503</v>
+      </c>
+      <c r="P417">
+        <v>7531.5038888888803</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B418" s="46">
+        <v>1590</v>
+      </c>
+      <c r="C418" s="45">
+        <v>7030</v>
+      </c>
+      <c r="D418" s="46">
+        <v>95000</v>
+      </c>
+      <c r="E418" s="47">
+        <v>1300</v>
+      </c>
+      <c r="F418" s="19">
+        <f t="shared" si="21"/>
+        <v>77.451499999999967</v>
+      </c>
+      <c r="H418">
+        <v>78.085999999999999</v>
+      </c>
+      <c r="I418">
+        <v>77.305999999999898</v>
+      </c>
+      <c r="K418">
+        <v>76.557999999999893</v>
+      </c>
+      <c r="L418">
+        <v>78.149999999999906</v>
+      </c>
+      <c r="M418">
+        <v>74.786000000000001</v>
+      </c>
+      <c r="N418">
+        <v>77.683999999999997</v>
+      </c>
+      <c r="O418">
+        <v>79.736000000000004</v>
+      </c>
+      <c r="P418">
+        <v>77.305999999999997</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B419" s="46">
+        <v>10500</v>
+      </c>
+      <c r="C419" s="46">
+        <v>10500</v>
+      </c>
+      <c r="D419" s="46">
+        <v>54400</v>
+      </c>
+      <c r="E419" s="46">
+        <v>100</v>
+      </c>
+      <c r="F419" s="19">
+        <f t="shared" si="21"/>
+        <v>9384.5324444444268</v>
+      </c>
+      <c r="G419">
+        <v>14760.273999999999</v>
+      </c>
+      <c r="H419">
+        <v>7656.4846666666599</v>
+      </c>
+      <c r="I419">
+        <v>10459.785777777701</v>
+      </c>
+      <c r="J419">
+        <v>7152.2606666666597</v>
+      </c>
+      <c r="K419">
+        <v>6893.8571111111096</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B420" s="46">
+        <v>3440</v>
+      </c>
+      <c r="C420" s="46">
+        <v>15800</v>
+      </c>
+      <c r="D420" s="46">
+        <v>104000</v>
+      </c>
+      <c r="E420" s="46">
+        <v>100</v>
+      </c>
+      <c r="F420" s="19">
+        <f t="shared" si="21"/>
+        <v>2661.466499999995</v>
+      </c>
+      <c r="G420">
+        <v>3442.5415555555501</v>
+      </c>
+      <c r="H420">
+        <v>3676.5588888888801</v>
+      </c>
+      <c r="I420">
+        <v>84.286000000000001</v>
+      </c>
+      <c r="J420">
+        <v>3442.4795555555502</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B421" s="46">
+        <v>17500</v>
+      </c>
+      <c r="C421" s="46">
+        <v>23200</v>
+      </c>
+      <c r="D421" s="46">
+        <v>113000</v>
+      </c>
+      <c r="E421" s="46">
+        <v>900</v>
+      </c>
+      <c r="F421" s="19">
+        <f t="shared" si="21"/>
+        <v>16790.943283950553</v>
+      </c>
+      <c r="G421">
+        <v>17306.832888888799</v>
+      </c>
+      <c r="H421">
+        <v>17885.744444444401</v>
+      </c>
+      <c r="I421">
+        <v>15875.531555555501</v>
+      </c>
+      <c r="J421">
+        <v>17620.1997777777</v>
+      </c>
+      <c r="K421">
+        <v>16536.782222222198</v>
+      </c>
+      <c r="L421">
+        <v>16322.1657777777</v>
+      </c>
+      <c r="M421">
+        <v>18322.851777777701</v>
+      </c>
+      <c r="N421">
+        <v>17788.512444444401</v>
+      </c>
+      <c r="O421">
+        <v>13459.8686666666</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B422" s="46">
+        <v>11200</v>
+      </c>
+      <c r="C422" s="46">
+        <v>5140</v>
+      </c>
+      <c r="D422" s="46">
+        <v>95700</v>
+      </c>
+      <c r="E422" s="46"/>
+      <c r="F422" s="19">
+        <f t="shared" si="21"/>
+        <v>11610.224172839464</v>
+      </c>
+      <c r="G422">
+        <v>11663.6895555555</v>
+      </c>
+      <c r="H422">
+        <v>12028.768222222199</v>
+      </c>
+      <c r="I422">
+        <v>11728.8342222222</v>
+      </c>
+      <c r="J422">
+        <v>12127.0682222222</v>
+      </c>
+      <c r="K422">
+        <v>11894.920888888801</v>
+      </c>
+      <c r="L422">
+        <v>11860.8155555555</v>
+      </c>
+      <c r="M422">
+        <v>8658.6317777777695</v>
+      </c>
+      <c r="N422">
+        <v>12161.541555555499</v>
+      </c>
+      <c r="O422">
+        <v>12367.747555555499</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B423" s="46">
+        <v>15000</v>
+      </c>
+      <c r="C423" s="46">
+        <v>30100</v>
+      </c>
+      <c r="D423" s="46">
+        <v>94200</v>
+      </c>
+      <c r="E423" s="46"/>
+      <c r="F423" s="19">
+        <f t="shared" si="21"/>
+        <v>14929.591925925888</v>
+      </c>
+      <c r="G423">
+        <v>10659.7813333333</v>
+      </c>
+      <c r="H423">
+        <v>17769.632222222201</v>
+      </c>
+      <c r="I423">
+        <v>14391.168666666599</v>
+      </c>
+      <c r="J423">
+        <v>18009.291111111099</v>
+      </c>
+      <c r="K423">
+        <v>17642.462444444402</v>
+      </c>
+      <c r="L423">
+        <v>12677.7297777777</v>
+      </c>
+      <c r="M423">
+        <v>10518.585999999999</v>
+      </c>
+      <c r="N423">
+        <v>18208.633111111099</v>
+      </c>
+      <c r="P423">
+        <v>14489.042666666601</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B424" s="46">
+        <v>14900</v>
+      </c>
+      <c r="C424" s="46">
+        <v>22300</v>
+      </c>
+      <c r="D424" s="46">
+        <v>85200</v>
+      </c>
+      <c r="E424" s="46"/>
+      <c r="F424" s="19">
+        <f t="shared" si="21"/>
+        <v>20397.098155555508</v>
+      </c>
+      <c r="G424">
+        <v>21316.276222222201</v>
+      </c>
+      <c r="H424">
+        <v>20913.134222222201</v>
+      </c>
+      <c r="I424">
+        <v>19314.250222222199</v>
+      </c>
+      <c r="J424">
+        <v>20347.8035555555</v>
+      </c>
+      <c r="K424">
+        <v>20078.940888888799</v>
+      </c>
+      <c r="L424">
+        <v>21013.5762222222</v>
+      </c>
+      <c r="M424">
+        <v>19878.608888888801</v>
+      </c>
+      <c r="N424">
+        <v>20649.173555555499</v>
+      </c>
+      <c r="O424">
+        <v>20346.905555555499</v>
+      </c>
+      <c r="P424">
+        <v>20112.312222222201</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B425" s="46">
+        <v>10200</v>
+      </c>
+      <c r="C425" s="46">
+        <v>24300</v>
+      </c>
+      <c r="D425" s="46">
+        <v>117000</v>
+      </c>
+      <c r="E425" s="46"/>
+      <c r="F425" s="19">
+        <f t="shared" si="21"/>
+        <v>11284.419377777747</v>
+      </c>
+      <c r="G425">
+        <v>10809.4564444444</v>
+      </c>
+      <c r="H425">
+        <v>12377.8611111111</v>
+      </c>
+      <c r="I425">
+        <v>10336.3544444444</v>
+      </c>
+      <c r="J425">
+        <v>10403.9211111111</v>
+      </c>
+      <c r="K425">
+        <v>11277.855111111099</v>
+      </c>
+      <c r="L425">
+        <v>10035.7944444444</v>
+      </c>
+      <c r="M425">
+        <v>12978.0711111111</v>
+      </c>
+      <c r="N425">
+        <v>12110.040444444399</v>
+      </c>
+      <c r="O425">
+        <v>9770.1997777777706</v>
+      </c>
+      <c r="P425">
+        <v>12744.6397777777</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B426" s="46">
+        <v>29300</v>
+      </c>
+      <c r="C426" s="46">
+        <v>124000</v>
+      </c>
+      <c r="D426" s="46">
+        <v>549000</v>
+      </c>
+      <c r="E426" s="46"/>
+      <c r="F426" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B427" s="46">
+        <v>52900</v>
+      </c>
+      <c r="C427" s="46">
+        <v>164000</v>
+      </c>
+      <c r="D427" s="46">
+        <v>601000</v>
+      </c>
+      <c r="E427" s="46"/>
+      <c r="F427" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B428" s="46">
+        <v>69800</v>
+      </c>
+      <c r="C428" s="46">
+        <v>167000</v>
+      </c>
+      <c r="D428" s="46">
+        <v>551000</v>
+      </c>
+      <c r="E428" s="46"/>
+      <c r="F428" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B429" s="46">
+        <v>77800</v>
+      </c>
+      <c r="C429" s="46">
+        <v>191000</v>
+      </c>
+      <c r="D429" s="46">
+        <v>715000</v>
+      </c>
+      <c r="E429" s="46"/>
+      <c r="F429" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B430" s="46">
+        <v>36300</v>
+      </c>
+      <c r="C430" s="46">
+        <v>181000</v>
+      </c>
+      <c r="D430" s="46">
+        <v>616000</v>
+      </c>
+      <c r="E430" s="46"/>
+      <c r="F430" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B431" s="46">
+        <v>30900</v>
+      </c>
+      <c r="C431" s="46">
+        <v>176000</v>
+      </c>
+      <c r="D431" s="46">
+        <v>798000</v>
+      </c>
+      <c r="E431" s="46"/>
+      <c r="F431" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B432" s="46">
+        <v>26800</v>
+      </c>
+      <c r="C432" s="46">
+        <v>104000</v>
+      </c>
+      <c r="D432" s="46">
+        <v>603000</v>
+      </c>
+      <c r="E432" s="46"/>
+      <c r="F432" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B433" s="46">
+        <v>15200</v>
+      </c>
+      <c r="C433" s="46">
+        <v>124000</v>
+      </c>
+      <c r="D433" s="46">
+        <v>549000</v>
+      </c>
+      <c r="E433" s="46"/>
+      <c r="F433" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B434" s="46">
+        <v>1580000</v>
+      </c>
+      <c r="C434" s="46">
+        <v>1180000</v>
+      </c>
+      <c r="D434" s="46">
+        <v>1590000</v>
+      </c>
+      <c r="E434" s="46"/>
+      <c r="F434" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B435" s="46">
+        <v>931000</v>
+      </c>
+      <c r="C435" s="46">
+        <v>572000</v>
+      </c>
+      <c r="D435" s="46">
+        <v>2510000</v>
+      </c>
+      <c r="E435" s="46"/>
+      <c r="F435" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B436" s="46">
+        <v>74400</v>
+      </c>
+      <c r="C436" s="46">
+        <v>515000</v>
+      </c>
+      <c r="D436" s="46">
+        <v>1340000</v>
+      </c>
+      <c r="E436" s="46"/>
+      <c r="F436" s="19" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B437" s="46">
+        <v>761000</v>
+      </c>
+      <c r="C437" s="46">
+        <v>448000</v>
+      </c>
+      <c r="D437" s="46">
+        <v>2030000</v>
+      </c>
+      <c r="E437" s="46"/>
+      <c r="F437" s="46"/>
+    </row>
+    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B438" s="46">
+        <v>84700</v>
+      </c>
+      <c r="C438" s="46">
+        <v>317000</v>
+      </c>
+      <c r="D438" s="46">
+        <v>1930000</v>
+      </c>
+      <c r="E438" s="46"/>
+      <c r="F438" s="46"/>
+    </row>
+    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B439" s="11">
+        <v>2070000</v>
+      </c>
+      <c r="C439" s="11">
+        <v>1630000</v>
+      </c>
+      <c r="D439" s="11">
+        <v>2000000</v>
+      </c>
+      <c r="E439" s="11"/>
+      <c r="F439" s="11"/>
+    </row>
+    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B440" s="11">
+        <v>323000</v>
+      </c>
+      <c r="C440" s="11">
+        <v>730000</v>
+      </c>
+      <c r="D440" s="11">
+        <v>1980000</v>
+      </c>
+      <c r="E440" s="11"/>
+      <c r="F440" s="11"/>
+    </row>
+    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B441" s="11">
+        <v>2080000</v>
+      </c>
+      <c r="C441" s="11">
+        <v>1840000</v>
+      </c>
+      <c r="D441" s="11">
+        <v>2160000</v>
+      </c>
+      <c r="E441" s="11"/>
+      <c r="F441" s="11"/>
+    </row>
+    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B442" s="11">
+        <v>10400000</v>
+      </c>
+      <c r="C442" s="11">
+        <v>22400000</v>
+      </c>
+      <c r="D442" s="11">
+        <v>16500000</v>
+      </c>
+      <c r="E442" s="11"/>
+      <c r="F442" s="11"/>
+    </row>
+    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B443" s="11">
+        <v>10000000</v>
+      </c>
+      <c r="C443" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="D443" s="11">
+        <v>11200000</v>
+      </c>
+      <c r="E443" s="11"/>
+      <c r="F443" s="11"/>
+    </row>
+    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B444" s="11">
+        <v>7770000</v>
+      </c>
+      <c r="C444" s="11">
+        <v>12400000</v>
+      </c>
+      <c r="D444" s="11">
+        <v>9540000</v>
+      </c>
+      <c r="E444" s="11"/>
+      <c r="F444" s="11"/>
+    </row>
+    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B445" s="11">
+        <v>10700000</v>
+      </c>
+      <c r="C445" s="11">
+        <v>21500000</v>
+      </c>
+      <c r="D445" s="11">
+        <v>13200000</v>
+      </c>
+      <c r="E445" s="11"/>
+      <c r="F445" s="11"/>
+    </row>
+    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B446" s="11">
+        <v>6030000</v>
+      </c>
+      <c r="C446" s="11">
+        <v>9100000</v>
+      </c>
+      <c r="D446" s="11">
+        <v>7210000</v>
+      </c>
+      <c r="E446" s="11"/>
+      <c r="F446" s="11"/>
+    </row>
+    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B447" s="11">
+        <v>8800000</v>
+      </c>
+      <c r="C447" s="11">
+        <v>14500000</v>
+      </c>
+      <c r="D447" s="11">
+        <v>10900000</v>
+      </c>
+      <c r="E447" s="11"/>
+      <c r="F447" s="11"/>
+    </row>
+    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B448" s="11">
+        <v>13300000</v>
+      </c>
+      <c r="C448" s="11">
+        <v>30900000</v>
+      </c>
+      <c r="D448" s="11">
+        <v>25000000</v>
+      </c>
+      <c r="E448" s="11"/>
+      <c r="F448" s="11"/>
+    </row>
+    <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="B449" s="11">
+        <v>15700000</v>
+      </c>
+      <c r="C449" s="11">
+        <v>25400000</v>
+      </c>
+      <c r="D449" s="11">
+        <v>27400000</v>
+      </c>
+      <c r="E449" s="11"/>
+      <c r="F449" s="11"/>
+    </row>
+    <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15564,7 +18113,7 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="R177:W177"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -15574,8 +18123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911A5E9-8C1D-4937-B2E8-4FEF8E2ACD16}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE36A6F-5256-47FB-88F3-B1C6BD6745DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF76D-5CEE-4D3A-844F-EFB50D74EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -830,7 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K420" sqref="K420"/>
     </sheetView>
   </sheetViews>
@@ -18123,8 +18123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911A5E9-8C1D-4937-B2E8-4FEF8E2ACD16}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19703,7 +19703,37 @@
         <v>54000</v>
       </c>
       <c r="E27" s="11">
-        <v>8950</v>
+        <v>10659.381670000001</v>
+      </c>
+      <c r="F27">
+        <v>16133.981111111099</v>
+      </c>
+      <c r="G27">
+        <v>9481.4905555555506</v>
+      </c>
+      <c r="H27">
+        <v>8962.5194444444405</v>
+      </c>
+      <c r="I27">
+        <v>8559.6255555555508</v>
+      </c>
+      <c r="J27">
+        <v>6016.89222222222</v>
+      </c>
+      <c r="K27">
+        <v>13803.7477777777</v>
+      </c>
+      <c r="L27">
+        <v>9564.5044444444393</v>
+      </c>
+      <c r="M27">
+        <v>6120.6772222222198</v>
+      </c>
+      <c r="N27">
+        <v>18996.677777777699</v>
+      </c>
+      <c r="O27">
+        <v>8953.7005555555497</v>
       </c>
       <c r="Q27" s="15" t="s">
         <v>32</v>
@@ -19738,6 +19768,36 @@
       <c r="E28" s="11">
         <v>134</v>
       </c>
+      <c r="F28">
+        <v>135.43</v>
+      </c>
+      <c r="G28">
+        <v>135.43</v>
+      </c>
+      <c r="H28">
+        <v>128.26499999999999</v>
+      </c>
+      <c r="I28">
+        <v>135.43</v>
+      </c>
+      <c r="J28">
+        <v>128.719999999999</v>
+      </c>
+      <c r="K28">
+        <v>128.26499999999999</v>
+      </c>
+      <c r="L28">
+        <v>137.47499999999999</v>
+      </c>
+      <c r="M28">
+        <v>137.47499999999999</v>
+      </c>
+      <c r="N28">
+        <v>128.719999999999</v>
+      </c>
+      <c r="O28">
+        <v>128.26499999999999</v>
+      </c>
       <c r="Q28" s="15" t="s">
         <v>33</v>
       </c>
@@ -19769,7 +19829,37 @@
         <v>14900</v>
       </c>
       <c r="E29" s="11">
-        <v>7100</v>
+        <v>7137.7017219999998</v>
+      </c>
+      <c r="F29">
+        <v>7135.9572222222196</v>
+      </c>
+      <c r="G29">
+        <v>7137.5022222222196</v>
+      </c>
+      <c r="H29">
+        <v>7137.5022222222196</v>
+      </c>
+      <c r="I29">
+        <v>7137.5022222222196</v>
+      </c>
+      <c r="J29">
+        <v>7137.5022222222196</v>
+      </c>
+      <c r="K29">
+        <v>7146.2972222222197</v>
+      </c>
+      <c r="L29">
+        <v>7137.5022222222196</v>
+      </c>
+      <c r="M29">
+        <v>7135.9272222222198</v>
+      </c>
+      <c r="N29">
+        <v>7135.9122222222204</v>
+      </c>
+      <c r="O29">
+        <v>7135.4122222222204</v>
       </c>
       <c r="Q29" s="15" t="s">
         <v>34</v>
@@ -19802,7 +19892,37 @@
         <v>42400</v>
       </c>
       <c r="E30" s="11">
-        <v>6400</v>
+        <v>9044.8115560000006</v>
+      </c>
+      <c r="F30">
+        <v>8334.1916666666602</v>
+      </c>
+      <c r="G30">
+        <v>6734.7972222222197</v>
+      </c>
+      <c r="H30">
+        <v>6734.7972222222197</v>
+      </c>
+      <c r="I30">
+        <v>8828.2716666666602</v>
+      </c>
+      <c r="J30">
+        <v>6734.7972222222197</v>
+      </c>
+      <c r="K30">
+        <v>6734.7972222222197</v>
+      </c>
+      <c r="L30">
+        <v>7695.3727777777704</v>
+      </c>
+      <c r="M30">
+        <v>6734.7972222222197</v>
+      </c>
+      <c r="N30">
+        <v>22205.0816666666</v>
+      </c>
+      <c r="O30">
+        <v>9711.2116666666607</v>
       </c>
       <c r="Q30" s="15" t="s">
         <v>35</v>
@@ -19837,6 +19957,21 @@
       <c r="E31" s="11">
         <v>119</v>
       </c>
+      <c r="F31">
+        <v>118.295</v>
+      </c>
+      <c r="G31">
+        <v>121.13</v>
+      </c>
+      <c r="H31">
+        <v>116.03</v>
+      </c>
+      <c r="I31">
+        <v>1110.9138888888799</v>
+      </c>
+      <c r="J31">
+        <v>128.41499999999999</v>
+      </c>
       <c r="Q31" s="15" t="s">
         <v>36</v>
       </c>
@@ -19870,6 +20005,36 @@
       <c r="E32" s="11">
         <v>22600</v>
       </c>
+      <c r="F32">
+        <v>20345.71</v>
+      </c>
+      <c r="G32">
+        <v>16313.676666666601</v>
+      </c>
+      <c r="H32">
+        <v>20345.71</v>
+      </c>
+      <c r="I32">
+        <v>20345.71</v>
+      </c>
+      <c r="J32">
+        <v>16417.451666666599</v>
+      </c>
+      <c r="K32">
+        <v>20345.71</v>
+      </c>
+      <c r="L32">
+        <v>16313.676666666601</v>
+      </c>
+      <c r="M32">
+        <v>16050.844999999999</v>
+      </c>
+      <c r="N32">
+        <v>16680.203333333298</v>
+      </c>
+      <c r="O32">
+        <v>16313.7966666666</v>
+      </c>
       <c r="Q32" s="15" t="s">
         <v>37</v>
       </c>
@@ -19903,6 +20068,36 @@
       <c r="E33" s="11">
         <v>7670</v>
       </c>
+      <c r="F33">
+        <v>5995.8555555555504</v>
+      </c>
+      <c r="G33">
+        <v>5992.8455555555502</v>
+      </c>
+      <c r="H33">
+        <v>5992.1605555555498</v>
+      </c>
+      <c r="I33">
+        <v>5990.2855555555498</v>
+      </c>
+      <c r="J33">
+        <v>5991.5905555555501</v>
+      </c>
+      <c r="K33">
+        <v>6229.34666666666</v>
+      </c>
+      <c r="L33">
+        <v>5995.9105555555498</v>
+      </c>
+      <c r="M33">
+        <v>5991.7305555555504</v>
+      </c>
+      <c r="N33">
+        <v>5991.5955555555502</v>
+      </c>
+      <c r="O33">
+        <v>5857.1322222222198</v>
+      </c>
       <c r="Q33" s="15" t="s">
         <v>38</v>
       </c>
@@ -19934,7 +20129,37 @@
         <v>95000</v>
       </c>
       <c r="E34" s="11">
-        <v>1590</v>
+        <v>3667.1041329999998</v>
+      </c>
+      <c r="F34">
+        <v>1930.6855555555501</v>
+      </c>
+      <c r="G34">
+        <v>2790.3306666666599</v>
+      </c>
+      <c r="H34">
+        <v>1657.18333333333</v>
+      </c>
+      <c r="I34">
+        <v>1892.0606666666599</v>
+      </c>
+      <c r="J34">
+        <v>73.201999999999899</v>
+      </c>
+      <c r="K34">
+        <v>2792.38466666666</v>
+      </c>
+      <c r="L34">
+        <v>1655.1513333333301</v>
+      </c>
+      <c r="M34">
+        <v>1656.54733333333</v>
+      </c>
+      <c r="N34">
+        <v>74.763999999999996</v>
+      </c>
+      <c r="O34">
+        <v>22148.731777777699</v>
       </c>
       <c r="Q34" s="15" t="s">
         <v>39</v>
@@ -19967,7 +20192,37 @@
         <v>54400</v>
       </c>
       <c r="E35" s="11">
-        <v>10500</v>
+        <v>11149.197980000001</v>
+      </c>
+      <c r="F35">
+        <v>12193.1853333333</v>
+      </c>
+      <c r="G35">
+        <v>7350.2006666666603</v>
+      </c>
+      <c r="H35">
+        <v>12571.380666666601</v>
+      </c>
+      <c r="I35">
+        <v>9028.1064444444401</v>
+      </c>
+      <c r="J35">
+        <v>12193.1853333333</v>
+      </c>
+      <c r="K35">
+        <v>13275.632666666599</v>
+      </c>
+      <c r="L35">
+        <v>12193.1853333333</v>
+      </c>
+      <c r="M35">
+        <v>8300.7326666666595</v>
+      </c>
+      <c r="N35">
+        <v>12193.1853333333</v>
+      </c>
+      <c r="O35">
+        <v>12193.1853333333</v>
       </c>
       <c r="Q35" s="15" t="s">
         <v>40</v>
@@ -20000,7 +20255,34 @@
         <v>104000</v>
       </c>
       <c r="E36" s="11">
-        <v>3440</v>
+        <v>3475.4503169999998</v>
+      </c>
+      <c r="F36">
+        <v>84.033999999999907</v>
+      </c>
+      <c r="G36">
+        <v>978.23888888888803</v>
+      </c>
+      <c r="H36">
+        <v>3440.4735555555499</v>
+      </c>
+      <c r="I36">
+        <v>3676.1528888888802</v>
+      </c>
+      <c r="J36">
+        <v>3440.1435555555499</v>
+      </c>
+      <c r="K36">
+        <v>3446.2915555555501</v>
+      </c>
+      <c r="L36">
+        <v>3441.0935555555502</v>
+      </c>
+      <c r="M36">
+        <v>3443.85355555555</v>
+      </c>
+      <c r="N36">
+        <v>3440.1435555555499</v>
       </c>
       <c r="Q36" s="15" t="s">
         <v>41</v>
@@ -20035,6 +20317,36 @@
       <c r="E37" s="11">
         <v>17500</v>
       </c>
+      <c r="F37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="G37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="H37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="I37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="J37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="K37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="L37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="M37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="N37">
+        <v>16362.3384444444</v>
+      </c>
+      <c r="O37">
+        <v>16362.3384444444</v>
+      </c>
       <c r="Q37" s="15" t="s">
         <v>42</v>
       </c>
@@ -20068,6 +20380,36 @@
       <c r="E38" s="11">
         <v>11200</v>
       </c>
+      <c r="F38">
+        <v>7994.0468888888799</v>
+      </c>
+      <c r="G38">
+        <v>7993.6568888888796</v>
+      </c>
+      <c r="H38">
+        <v>7994.0468888888799</v>
+      </c>
+      <c r="I38">
+        <v>7993.6568888888796</v>
+      </c>
+      <c r="J38">
+        <v>7993.8028888888803</v>
+      </c>
+      <c r="K38">
+        <v>7994.0468888888799</v>
+      </c>
+      <c r="L38">
+        <v>7994.0468888888799</v>
+      </c>
+      <c r="M38">
+        <v>7994.0468888888799</v>
+      </c>
+      <c r="N38">
+        <v>7993.6568888888796</v>
+      </c>
+      <c r="O38">
+        <v>7993.8028888888803</v>
+      </c>
       <c r="Q38" s="15" t="s">
         <v>43</v>
       </c>
@@ -20099,7 +20441,31 @@
         <v>94200</v>
       </c>
       <c r="E39" s="11">
-        <v>15000</v>
+        <v>16497.968720000001</v>
+      </c>
+      <c r="F39">
+        <v>22572.754000000001</v>
+      </c>
+      <c r="G39">
+        <v>14406.8751111111</v>
+      </c>
+      <c r="I39">
+        <v>22573.46</v>
+      </c>
+      <c r="J39">
+        <v>16164.180888888801</v>
+      </c>
+      <c r="K39">
+        <v>14407.327111111101</v>
+      </c>
+      <c r="L39">
+        <v>13910.7951111111</v>
+      </c>
+      <c r="M39">
+        <v>13541.564444444401</v>
+      </c>
+      <c r="N39">
+        <v>14406.793111111099</v>
       </c>
       <c r="Q39" s="15" t="s">
         <v>44</v>
@@ -20132,7 +20498,37 @@
         <v>85200</v>
       </c>
       <c r="E40" s="11">
-        <v>14900</v>
+        <v>20275.580959999999</v>
+      </c>
+      <c r="F40">
+        <v>21134.180444444399</v>
+      </c>
+      <c r="G40">
+        <v>20167.011777777701</v>
+      </c>
+      <c r="H40">
+        <v>21134.180444444399</v>
+      </c>
+      <c r="I40">
+        <v>20045.6415555555</v>
+      </c>
+      <c r="J40">
+        <v>20044.405555555499</v>
+      </c>
+      <c r="K40">
+        <v>20046.771555555501</v>
+      </c>
+      <c r="L40">
+        <v>20045.617555555498</v>
+      </c>
+      <c r="M40">
+        <v>20043.9655555555</v>
+      </c>
+      <c r="N40">
+        <v>20045.621555555499</v>
+      </c>
+      <c r="O40">
+        <v>20048.4135555555</v>
       </c>
       <c r="Q40" s="15" t="s">
         <v>45</v>
@@ -20165,7 +20561,37 @@
         <v>117000</v>
       </c>
       <c r="E41" s="11">
-        <v>10200</v>
+        <v>13444.76433</v>
+      </c>
+      <c r="F41">
+        <v>13443.7557777777</v>
+      </c>
+      <c r="G41">
+        <v>13443.5857777777</v>
+      </c>
+      <c r="H41">
+        <v>13310.468444444399</v>
+      </c>
+      <c r="I41">
+        <v>13443.7557777777</v>
+      </c>
+      <c r="J41">
+        <v>13344.109777777699</v>
+      </c>
+      <c r="K41">
+        <v>13850.455333333301</v>
+      </c>
+      <c r="L41">
+        <v>13443.5857777777</v>
+      </c>
+      <c r="M41">
+        <v>13412.048444444399</v>
+      </c>
+      <c r="N41">
+        <v>13411.164444444399</v>
+      </c>
+      <c r="O41">
+        <v>13344.713777777701</v>
       </c>
       <c r="Q41" s="15" t="s">
         <v>46</v>
@@ -20198,7 +20624,37 @@
         <v>549000</v>
       </c>
       <c r="E42" s="11">
-        <v>29300</v>
+        <v>36129.024490000003</v>
+      </c>
+      <c r="F42">
+        <v>25298.8215555555</v>
+      </c>
+      <c r="G42">
+        <v>43810.318444444398</v>
+      </c>
+      <c r="H42">
+        <v>29316.8062222222</v>
+      </c>
+      <c r="I42">
+        <v>30595.592000000001</v>
+      </c>
+      <c r="J42">
+        <v>36218.9517777777</v>
+      </c>
+      <c r="K42">
+        <v>46660.458888888803</v>
+      </c>
+      <c r="L42">
+        <v>34414.597999999998</v>
+      </c>
+      <c r="M42">
+        <v>40591.085555555503</v>
+      </c>
+      <c r="N42">
+        <v>41049.119777777698</v>
+      </c>
+      <c r="O42">
+        <v>33334.4926666666</v>
       </c>
       <c r="Q42" s="15" t="s">
         <v>47</v>
@@ -20233,6 +20689,36 @@
       <c r="E43" s="11">
         <v>52900</v>
       </c>
+      <c r="F43">
+        <v>29108.944444444402</v>
+      </c>
+      <c r="G43">
+        <v>31866.599777777701</v>
+      </c>
+      <c r="H43">
+        <v>19562.905555555499</v>
+      </c>
+      <c r="I43">
+        <v>52357.076666666602</v>
+      </c>
+      <c r="J43">
+        <v>43025.690666666596</v>
+      </c>
+      <c r="K43">
+        <v>63683.3146666666</v>
+      </c>
+      <c r="L43">
+        <v>27174.536888888801</v>
+      </c>
+      <c r="M43">
+        <v>28273.237111111099</v>
+      </c>
+      <c r="N43">
+        <v>31016.6415555555</v>
+      </c>
+      <c r="O43">
+        <v>19138.437555555502</v>
+      </c>
       <c r="Q43" s="15" t="s">
         <v>48</v>
       </c>
@@ -20266,6 +20752,36 @@
       <c r="E44" s="11">
         <v>69800</v>
       </c>
+      <c r="F44">
+        <v>49373.846444444403</v>
+      </c>
+      <c r="G44">
+        <v>39191.206444444397</v>
+      </c>
+      <c r="H44">
+        <v>34479.7515555555</v>
+      </c>
+      <c r="I44">
+        <v>34648.657777777698</v>
+      </c>
+      <c r="J44">
+        <v>89068.464222222203</v>
+      </c>
+      <c r="K44">
+        <v>61847.5202222222</v>
+      </c>
+      <c r="L44">
+        <v>63957.459333333303</v>
+      </c>
+      <c r="M44">
+        <v>49271.350222222201</v>
+      </c>
+      <c r="N44">
+        <v>35833.725111111104</v>
+      </c>
+      <c r="O44">
+        <v>47579.049111111097</v>
+      </c>
       <c r="Q44" s="15" t="s">
         <v>49</v>
       </c>
@@ -20299,6 +20815,36 @@
       <c r="E45" s="11">
         <v>77800</v>
       </c>
+      <c r="F45">
+        <v>79263.546444444393</v>
+      </c>
+      <c r="G45">
+        <v>61339.346222222201</v>
+      </c>
+      <c r="H45">
+        <v>91893.778000000006</v>
+      </c>
+      <c r="I45">
+        <v>41415.530222222202</v>
+      </c>
+      <c r="J45">
+        <v>73271.687555555502</v>
+      </c>
+      <c r="K45">
+        <v>84095.618222222198</v>
+      </c>
+      <c r="L45">
+        <v>62141.210444444398</v>
+      </c>
+      <c r="M45">
+        <v>72182.086888888894</v>
+      </c>
+      <c r="N45">
+        <v>60461.254666666602</v>
+      </c>
+      <c r="O45">
+        <v>80776.807555555497</v>
+      </c>
       <c r="Q45" s="15" t="s">
         <v>50</v>
       </c>
@@ -20330,7 +20876,37 @@
         <v>616000</v>
       </c>
       <c r="E46" s="11">
-        <v>36300</v>
+        <v>47357.535309999999</v>
+      </c>
+      <c r="F46">
+        <v>40384.574666666602</v>
+      </c>
+      <c r="G46">
+        <v>28284.468666666598</v>
+      </c>
+      <c r="H46">
+        <v>17441.805777777699</v>
+      </c>
+      <c r="I46">
+        <v>51890.595999999998</v>
+      </c>
+      <c r="J46">
+        <v>86693.755999999994</v>
+      </c>
+      <c r="K46">
+        <v>42402.985111111098</v>
+      </c>
+      <c r="L46">
+        <v>22963.6102222222</v>
+      </c>
+      <c r="M46">
+        <v>107146.711555555</v>
+      </c>
+      <c r="N46">
+        <v>35516.659777777699</v>
+      </c>
+      <c r="O46">
+        <v>40850.185333333298</v>
       </c>
       <c r="Q46" s="15" t="s">
         <v>51</v>
@@ -20365,6 +20941,36 @@
       <c r="E47" s="11">
         <v>30900</v>
       </c>
+      <c r="F47">
+        <v>35152.634888888802</v>
+      </c>
+      <c r="G47">
+        <v>26817.934000000001</v>
+      </c>
+      <c r="H47">
+        <v>27916.658444444402</v>
+      </c>
+      <c r="I47">
+        <v>18551.117555555498</v>
+      </c>
+      <c r="J47">
+        <v>20111.3262222222</v>
+      </c>
+      <c r="K47">
+        <v>23226.7175555555</v>
+      </c>
+      <c r="L47">
+        <v>55831.027333333303</v>
+      </c>
+      <c r="M47">
+        <v>42715.124444444402</v>
+      </c>
+      <c r="N47">
+        <v>21318.616222222201</v>
+      </c>
+      <c r="O47">
+        <v>18110.630444444399</v>
+      </c>
       <c r="Q47" s="15" t="s">
         <v>52</v>
       </c>
@@ -20398,6 +21004,36 @@
       <c r="E48" s="11">
         <v>26800</v>
       </c>
+      <c r="F48">
+        <v>17664.123555555499</v>
+      </c>
+      <c r="G48">
+        <v>17664.123555555499</v>
+      </c>
+      <c r="H48">
+        <v>21170.332888888799</v>
+      </c>
+      <c r="I48">
+        <v>21171.680888888801</v>
+      </c>
+      <c r="J48">
+        <v>21718.149111111099</v>
+      </c>
+      <c r="K48">
+        <v>21174.452888888802</v>
+      </c>
+      <c r="L48">
+        <v>32092.341111111102</v>
+      </c>
+      <c r="M48">
+        <v>21166.5508888888</v>
+      </c>
+      <c r="N48">
+        <v>22201.054666666601</v>
+      </c>
+      <c r="O48">
+        <v>21174.452888888802</v>
+      </c>
       <c r="Q48" s="15" t="s">
         <v>53</v>
       </c>
@@ -20429,7 +21065,37 @@
         <v>549000</v>
       </c>
       <c r="E49" s="11">
-        <v>15200</v>
+        <v>18153.645619999999</v>
+      </c>
+      <c r="F49">
+        <v>24190.005555555501</v>
+      </c>
+      <c r="G49">
+        <v>15698.871111111101</v>
+      </c>
+      <c r="H49">
+        <v>14944.574888888799</v>
+      </c>
+      <c r="I49">
+        <v>14915.8955555555</v>
+      </c>
+      <c r="J49">
+        <v>15921.315333333299</v>
+      </c>
+      <c r="K49">
+        <v>24318.265111111101</v>
+      </c>
+      <c r="L49">
+        <v>14911.221555555499</v>
+      </c>
+      <c r="M49">
+        <v>15043.4268888888</v>
+      </c>
+      <c r="N49">
+        <v>26279.128666666598</v>
+      </c>
+      <c r="O49">
+        <v>15313.7515555555</v>
       </c>
       <c r="Q49" s="15" t="s">
         <v>54</v>
@@ -20464,6 +21130,36 @@
       <c r="E50" s="11">
         <v>1580000</v>
       </c>
+      <c r="F50">
+        <v>853048.36111111101</v>
+      </c>
+      <c r="G50">
+        <v>911357.08522222203</v>
+      </c>
+      <c r="H50">
+        <v>1305000.2944444399</v>
+      </c>
+      <c r="I50">
+        <v>455306.429777777</v>
+      </c>
+      <c r="J50">
+        <v>769775.35444444395</v>
+      </c>
+      <c r="K50">
+        <v>632219.72988888796</v>
+      </c>
+      <c r="L50">
+        <v>761174.50188888796</v>
+      </c>
+      <c r="M50">
+        <v>1001423.52088888</v>
+      </c>
+      <c r="N50">
+        <v>1183242.1541111099</v>
+      </c>
+      <c r="O50">
+        <v>872668.45211111102</v>
+      </c>
       <c r="Q50" s="15" t="s">
         <v>55</v>
       </c>
@@ -20497,6 +21193,36 @@
       <c r="E51" s="11">
         <v>931000</v>
       </c>
+      <c r="F51">
+        <v>87989.332888888894</v>
+      </c>
+      <c r="G51">
+        <v>511738.97311111097</v>
+      </c>
+      <c r="H51">
+        <v>1258957.10577777</v>
+      </c>
+      <c r="I51">
+        <v>1232918.6893333299</v>
+      </c>
+      <c r="J51">
+        <v>511738.97311111097</v>
+      </c>
+      <c r="K51">
+        <v>1137624.2938888799</v>
+      </c>
+      <c r="L51">
+        <v>607822.12388888805</v>
+      </c>
+      <c r="M51">
+        <v>866727.95966666599</v>
+      </c>
+      <c r="N51">
+        <v>964474.88066666597</v>
+      </c>
+      <c r="O51">
+        <v>995488.82177777705</v>
+      </c>
       <c r="Q51" s="15" t="s">
         <v>56</v>
       </c>
@@ -20528,7 +21254,37 @@
         <v>1340000</v>
       </c>
       <c r="E52" s="11">
-        <v>74400</v>
+        <v>192540.7703</v>
+      </c>
+      <c r="F52">
+        <v>87989.332888888894</v>
+      </c>
+      <c r="G52">
+        <v>429572.52122222201</v>
+      </c>
+      <c r="H52">
+        <v>432079.597555555</v>
+      </c>
+      <c r="I52">
+        <v>213844.74722222201</v>
+      </c>
+      <c r="J52">
+        <v>288219.489</v>
+      </c>
+      <c r="K52">
+        <v>57604.905333333299</v>
+      </c>
+      <c r="L52">
+        <v>172884.67811111099</v>
+      </c>
+      <c r="M52">
+        <v>68721.888999999996</v>
+      </c>
+      <c r="N52">
+        <v>103490.877666666</v>
+      </c>
+      <c r="O52">
+        <v>70999.664777777696</v>
       </c>
       <c r="Q52" s="15" t="s">
         <v>57</v>
@@ -20563,6 +21319,27 @@
       <c r="E53" s="11">
         <v>761000</v>
       </c>
+      <c r="F53">
+        <v>725741.69844444399</v>
+      </c>
+      <c r="G53">
+        <v>535861.85766666604</v>
+      </c>
+      <c r="H53">
+        <v>505677.65755555499</v>
+      </c>
+      <c r="I53">
+        <v>697146.84622222197</v>
+      </c>
+      <c r="J53">
+        <v>928300.85255555494</v>
+      </c>
+      <c r="K53">
+        <v>631545.147</v>
+      </c>
+      <c r="L53">
+        <v>395637.75866666599</v>
+      </c>
       <c r="Q53" s="15" t="s">
         <v>58</v>
       </c>
@@ -20596,6 +21373,36 @@
       <c r="E54" s="11">
         <v>84700</v>
       </c>
+      <c r="F54">
+        <v>25097.7303333333</v>
+      </c>
+      <c r="G54">
+        <v>93008.541666666599</v>
+      </c>
+      <c r="H54">
+        <v>28183.440444444401</v>
+      </c>
+      <c r="I54">
+        <v>84033.493666666604</v>
+      </c>
+      <c r="J54">
+        <v>107524.908555555</v>
+      </c>
+      <c r="K54">
+        <v>58437.360444444399</v>
+      </c>
+      <c r="L54">
+        <v>70514.322444444406</v>
+      </c>
+      <c r="M54">
+        <v>167258.269888888</v>
+      </c>
+      <c r="N54">
+        <v>48965.953000000001</v>
+      </c>
+      <c r="O54">
+        <v>115994.162</v>
+      </c>
       <c r="Q54" s="15" t="s">
         <v>59</v>
       </c>
@@ -20629,6 +21436,36 @@
       <c r="E55" s="11">
         <v>2070000</v>
       </c>
+      <c r="F55">
+        <v>838683.41711111099</v>
+      </c>
+      <c r="G55">
+        <v>2291219.8354444401</v>
+      </c>
+      <c r="H55">
+        <v>1527031.2871111101</v>
+      </c>
+      <c r="I55">
+        <v>2656138.8266666601</v>
+      </c>
+      <c r="J55">
+        <v>1552970.477</v>
+      </c>
+      <c r="K55">
+        <v>1546275.9655555501</v>
+      </c>
+      <c r="L55">
+        <v>2348351.5575555498</v>
+      </c>
+      <c r="M55">
+        <v>2023178.29333333</v>
+      </c>
+      <c r="N55">
+        <v>1472367.74944444</v>
+      </c>
+      <c r="O55">
+        <v>1278624.86855555</v>
+      </c>
       <c r="Q55" s="15" t="s">
         <v>60</v>
       </c>
@@ -20660,7 +21497,34 @@
         <v>1980000</v>
       </c>
       <c r="E56" s="11">
-        <v>323000</v>
+        <v>519003.67749999999</v>
+      </c>
+      <c r="F56">
+        <v>413967.32955555501</v>
+      </c>
+      <c r="G56">
+        <v>185580.49366666601</v>
+      </c>
+      <c r="H56">
+        <v>556887.41222222196</v>
+      </c>
+      <c r="I56">
+        <v>425233.01066666603</v>
+      </c>
+      <c r="J56">
+        <v>374957.85966666602</v>
+      </c>
+      <c r="K56">
+        <v>775498.13233333302</v>
+      </c>
+      <c r="L56">
+        <v>292267.88177777699</v>
+      </c>
+      <c r="M56">
+        <v>1277138.0272222201</v>
+      </c>
+      <c r="N56">
+        <v>369502.95033333299</v>
       </c>
       <c r="Q56" s="15" t="s">
         <v>61</v>
@@ -20695,6 +21559,33 @@
       <c r="E57" s="11">
         <v>2080000</v>
       </c>
+      <c r="F57">
+        <v>2111296.1490000002</v>
+      </c>
+      <c r="G57">
+        <v>1653318.59922222</v>
+      </c>
+      <c r="H57">
+        <v>1726463.84266666</v>
+      </c>
+      <c r="I57">
+        <v>1929662.6688888799</v>
+      </c>
+      <c r="J57">
+        <v>1669429.5965555499</v>
+      </c>
+      <c r="K57">
+        <v>2000946.676</v>
+      </c>
+      <c r="L57">
+        <v>1753547.4480000001</v>
+      </c>
+      <c r="M57">
+        <v>1805509.8091111099</v>
+      </c>
+      <c r="N57">
+        <v>1947286.5758888801</v>
+      </c>
       <c r="Q57" s="15" t="s">
         <v>62</v>
       </c>
@@ -20726,7 +21617,37 @@
         <v>16500000</v>
       </c>
       <c r="E58" s="11">
-        <v>10400000</v>
+        <v>10686649.529999999</v>
+      </c>
+      <c r="F58">
+        <v>11303656.527222199</v>
+      </c>
+      <c r="G58">
+        <v>11456131.0524444</v>
+      </c>
+      <c r="H58">
+        <v>10744638.6227777</v>
+      </c>
+      <c r="I58">
+        <v>9570172.3361111097</v>
+      </c>
+      <c r="J58">
+        <v>10533391.1963333</v>
+      </c>
+      <c r="K58">
+        <v>10642327.631666601</v>
+      </c>
+      <c r="L58">
+        <v>11550123.6268888</v>
+      </c>
+      <c r="M58">
+        <v>10394753.5714444</v>
+      </c>
+      <c r="N58">
+        <v>9492319.7883333303</v>
+      </c>
+      <c r="O58">
+        <v>11178980.932222201</v>
       </c>
       <c r="Q58" s="15" t="s">
         <v>63</v>
@@ -20759,7 +21680,37 @@
         <v>11200000</v>
       </c>
       <c r="E59" s="11">
-        <v>10000000</v>
+        <v>10283491.050000001</v>
+      </c>
+      <c r="F59">
+        <v>11582607.7781111</v>
+      </c>
+      <c r="G59">
+        <v>10997499.350333299</v>
+      </c>
+      <c r="H59">
+        <v>7910665.3832222205</v>
+      </c>
+      <c r="I59">
+        <v>10174300.9673333</v>
+      </c>
+      <c r="J59">
+        <v>11999286.606888801</v>
+      </c>
+      <c r="K59">
+        <v>6586638.9414444398</v>
+      </c>
+      <c r="L59">
+        <v>9830287.2844444402</v>
+      </c>
+      <c r="M59">
+        <v>12070831.8318888</v>
+      </c>
+      <c r="N59">
+        <v>13066165.035222201</v>
+      </c>
+      <c r="O59">
+        <v>8616627.2933333293</v>
       </c>
       <c r="Q59" s="15" t="s">
         <v>64</v>
@@ -20792,7 +21743,31 @@
         <v>9540000</v>
       </c>
       <c r="E60" s="11">
-        <v>7770000</v>
+        <v>9319943.2860000003</v>
+      </c>
+      <c r="F60">
+        <v>9122913.2914444394</v>
+      </c>
+      <c r="G60">
+        <v>10027332.219888801</v>
+      </c>
+      <c r="H60">
+        <v>9254790.6974444408</v>
+      </c>
+      <c r="I60">
+        <v>10075099.603555501</v>
+      </c>
+      <c r="J60">
+        <v>9807857.2788888793</v>
+      </c>
+      <c r="K60">
+        <v>8531746.4609999992</v>
+      </c>
+      <c r="L60">
+        <v>8817712.9576666597</v>
+      </c>
+      <c r="M60">
+        <v>8922093.7742222194</v>
       </c>
       <c r="Q60" s="15" t="s">
         <v>65</v>
@@ -20827,6 +21802,36 @@
       <c r="E61" s="11">
         <v>10700000</v>
       </c>
+      <c r="F61">
+        <v>11081578.4955555</v>
+      </c>
+      <c r="G61">
+        <v>10752781.383333299</v>
+      </c>
+      <c r="H61">
+        <v>8805054.7993333302</v>
+      </c>
+      <c r="I61">
+        <v>10238274.657777701</v>
+      </c>
+      <c r="J61">
+        <v>9340044.3362222202</v>
+      </c>
+      <c r="K61">
+        <v>9885489.2184444405</v>
+      </c>
+      <c r="L61">
+        <v>8811783.7691111099</v>
+      </c>
+      <c r="M61">
+        <v>8937184.2521111108</v>
+      </c>
+      <c r="N61">
+        <v>9670101.8797777705</v>
+      </c>
+      <c r="O61">
+        <v>9375602.1545555498</v>
+      </c>
       <c r="Q61" s="15" t="s">
         <v>66</v>
       </c>
@@ -20858,7 +21863,31 @@
         <v>7210000</v>
       </c>
       <c r="E62" s="11">
-        <v>6030000</v>
+        <v>6331051.2470000004</v>
+      </c>
+      <c r="F62">
+        <v>6822818.63566666</v>
+      </c>
+      <c r="G62">
+        <v>6014196.5518888803</v>
+      </c>
+      <c r="I62">
+        <v>7779777.1914444398</v>
+      </c>
+      <c r="J62">
+        <v>5094999.9916666597</v>
+      </c>
+      <c r="K62">
+        <v>6255495.5788888801</v>
+      </c>
+      <c r="L62">
+        <v>6399440.1913333302</v>
+      </c>
+      <c r="M62">
+        <v>6178421.1646666601</v>
+      </c>
+      <c r="N62">
+        <v>6103260.6717777699</v>
       </c>
       <c r="Q62" s="15" t="s">
         <v>67</v>
@@ -20892,6 +21921,36 @@
       </c>
       <c r="E63" s="11">
         <v>8800000</v>
+      </c>
+      <c r="F63">
+        <v>12201472.7873333</v>
+      </c>
+      <c r="G63">
+        <v>10306698.4161111</v>
+      </c>
+      <c r="H63">
+        <v>10933534.0404444</v>
+      </c>
+      <c r="I63">
+        <v>11237762.090444401</v>
+      </c>
+      <c r="J63">
+        <v>11345860.3434444</v>
+      </c>
+      <c r="K63">
+        <v>10141236.8656666</v>
+      </c>
+      <c r="L63">
+        <v>12049778.446888801</v>
+      </c>
+      <c r="M63">
+        <v>12233450.1321111</v>
+      </c>
+      <c r="N63">
+        <v>11500278.299888801</v>
+      </c>
+      <c r="O63">
+        <v>10819749.060555501</v>
       </c>
       <c r="Q63" s="15" t="s">
         <v>68</v>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AF76D-5CEE-4D3A-844F-EFB50D74EAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7EB58-31B5-449F-8ECB-A0891899AE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -590,7 +590,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -612,6 +611,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView topLeftCell="A396" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K420" sqref="K420"/>
+    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S446" sqref="S446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2159,22 +2159,22 @@
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="L44" s="51" t="s">
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="L44" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
@@ -3236,22 +3236,22 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="L63" s="52" t="s">
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="L63" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="50"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -4220,12 +4220,12 @@
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
+      <c r="A82" s="52"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="49"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="49"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4724,14 +4724,14 @@
     <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R104" s="48" t="s">
+      <c r="R104" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="S104" s="48"/>
-      <c r="T104" s="48"/>
-      <c r="U104" s="48"/>
-      <c r="V104" s="48"/>
-      <c r="W104" s="48"/>
+      <c r="S104" s="47"/>
+      <c r="T104" s="47"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="47"/>
+      <c r="W104" s="47"/>
     </row>
     <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
@@ -8137,22 +8137,22 @@
     <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="49" t="s">
+      <c r="A177" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="50"/>
-      <c r="R177" s="50" t="s">
+      <c r="B177" s="49"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="49"/>
+      <c r="F177" s="49"/>
+      <c r="R177" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="S177" s="50"/>
-      <c r="T177" s="50"/>
-      <c r="U177" s="50"/>
-      <c r="V177" s="50"/>
-      <c r="W177" s="50"/>
+      <c r="S177" s="49"/>
+      <c r="T177" s="49"/>
+      <c r="U177" s="49"/>
+      <c r="V177" s="49"/>
+      <c r="W177" s="49"/>
     </row>
     <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
@@ -13483,7 +13483,7 @@
       <c r="A317" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B317" s="28">
+      <c r="B317" s="11">
         <v>134</v>
       </c>
       <c r="C317" s="28">
@@ -13504,7 +13504,7 @@
       <c r="A318" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B318" s="28">
+      <c r="B318" s="11">
         <v>95.74</v>
       </c>
       <c r="C318" s="28">
@@ -13525,7 +13525,7 @@
       <c r="A319" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B319" s="28">
+      <c r="B319" s="11">
         <v>97.44</v>
       </c>
       <c r="C319" s="28">
@@ -13546,7 +13546,7 @@
       <c r="A320" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B320" s="28">
+      <c r="B320" s="11">
         <v>102.7342857</v>
       </c>
       <c r="C320" s="28">
@@ -13567,7 +13567,7 @@
       <c r="A321" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B321" s="17">
+      <c r="B321" s="11">
         <v>4069.6358019999998</v>
       </c>
       <c r="C321" s="28">
@@ -13588,7 +13588,7 @@
       <c r="A322" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B322" s="17">
+      <c r="B322" s="11">
         <v>105</v>
       </c>
       <c r="C322" s="28">
@@ -13609,7 +13609,7 @@
       <c r="A323" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B323" s="28">
+      <c r="B323" s="11">
         <v>10338.10578</v>
       </c>
       <c r="C323" s="28">
@@ -13630,7 +13630,7 @@
       <c r="A324" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B324" s="28">
+      <c r="B324" s="11">
         <v>68.8</v>
       </c>
       <c r="C324" s="28">
@@ -13651,7 +13651,7 @@
       <c r="A325" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B325" s="28">
+      <c r="B325" s="11">
         <v>3307.1417280000001</v>
       </c>
       <c r="C325" s="28">
@@ -13672,7 +13672,7 @@
       <c r="A326" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B326" s="28">
+      <c r="B326" s="11">
         <v>194000</v>
       </c>
       <c r="C326" s="28">
@@ -13714,7 +13714,7 @@
       <c r="A327" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B327" s="28">
+      <c r="B327" s="11">
         <v>910.73827159999996</v>
       </c>
       <c r="C327" s="28">
@@ -13765,7 +13765,7 @@
       <c r="A328" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B328" s="28">
+      <c r="B328" s="11">
         <v>14974.64444</v>
       </c>
       <c r="C328" s="28">
@@ -13795,7 +13795,7 @@
       <c r="A329" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B329" s="28">
+      <c r="B329" s="11">
         <v>3359.6609880000001</v>
       </c>
       <c r="C329" s="28">
@@ -13837,7 +13837,7 @@
       <c r="A330" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B330" s="28">
+      <c r="B330" s="11">
         <v>18163.26296</v>
       </c>
       <c r="C330" s="28">
@@ -13876,7 +13876,7 @@
       <c r="A331" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B331" s="28">
+      <c r="B331" s="11">
         <v>32301.335800000001</v>
       </c>
       <c r="C331" s="28">
@@ -13918,7 +13918,7 @@
       <c r="A332" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B332" s="28">
+      <c r="B332" s="11">
         <v>51313.376790000002</v>
       </c>
       <c r="C332" s="28">
@@ -13963,7 +13963,7 @@
       <c r="A333" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B333" s="38">
+      <c r="B333" s="11">
         <v>84.667500000000004</v>
       </c>
       <c r="C333" s="39">
@@ -14014,7 +14014,7 @@
       <c r="A334" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B334" s="38">
+      <c r="B334" s="11">
         <v>1627.9475</v>
       </c>
       <c r="C334" s="39">
@@ -14065,7 +14065,7 @@
       <c r="A335" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B335" s="38">
+      <c r="B335" s="11">
         <v>1260.0333889999999</v>
       </c>
       <c r="C335" s="39">
@@ -14116,7 +14116,7 @@
       <c r="A336" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B336" s="38">
+      <c r="B336" s="11">
         <v>7055.9061670000001</v>
       </c>
       <c r="C336" s="39">
@@ -14167,7 +14167,7 @@
       <c r="A337" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B337" s="38">
+      <c r="B337" s="11">
         <v>2396.498556</v>
       </c>
       <c r="C337" s="39">
@@ -14188,7 +14188,7 @@
       <c r="A338" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B338" s="38">
+      <c r="B338" s="11">
         <v>3322.8712220000002</v>
       </c>
       <c r="C338" s="39">
@@ -14209,7 +14209,7 @@
       <c r="A339" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B339" s="38">
+      <c r="B339" s="11">
         <v>106.435</v>
       </c>
       <c r="C339" s="39">
@@ -14230,7 +14230,7 @@
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B340" s="38">
+      <c r="B340" s="11">
         <v>92.355999999999995</v>
       </c>
       <c r="C340" s="39">
@@ -14251,7 +14251,7 @@
       <c r="A341" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B341" s="38">
+      <c r="B341" s="11">
         <v>10300</v>
       </c>
       <c r="C341" s="39">
@@ -14272,8 +14272,8 @@
       <c r="A342" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B342" s="40">
-        <v>34883</v>
+      <c r="B342" s="11">
+        <v>10659.381670000001</v>
       </c>
       <c r="C342" s="39">
         <v>275000</v>
@@ -14293,7 +14293,7 @@
       <c r="A343" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B343" s="40">
+      <c r="B343" s="11">
         <v>134</v>
       </c>
       <c r="C343" s="39">
@@ -14314,8 +14314,8 @@
       <c r="A344" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B344" s="40">
-        <v>7100</v>
+      <c r="B344" s="11">
+        <v>7137.7017219999998</v>
       </c>
       <c r="C344" s="39">
         <v>9440</v>
@@ -14335,8 +14335,8 @@
       <c r="A345" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B345" s="40">
-        <v>6400</v>
+      <c r="B345" s="11">
+        <v>9044.8115560000006</v>
       </c>
       <c r="C345" s="39">
         <v>163000</v>
@@ -14356,7 +14356,7 @@
       <c r="A346" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B346" s="40">
+      <c r="B346" s="11">
         <v>119</v>
       </c>
       <c r="C346" s="39">
@@ -14377,7 +14377,7 @@
       <c r="A347" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B347" s="40">
+      <c r="B347" s="11">
         <v>22600</v>
       </c>
       <c r="C347" s="39">
@@ -14398,7 +14398,7 @@
       <c r="A348" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B348" s="40">
+      <c r="B348" s="11">
         <v>7670</v>
       </c>
       <c r="C348" s="39">
@@ -14419,8 +14419,8 @@
       <c r="A349" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B349" s="40">
-        <v>1590</v>
+      <c r="B349" s="11">
+        <v>3667.1041329999998</v>
       </c>
       <c r="C349" s="39">
         <v>7030</v>
@@ -14465,7 +14465,7 @@
         <v>40</v>
       </c>
       <c r="B350" s="11">
-        <v>10500</v>
+        <v>11149.197980000001</v>
       </c>
       <c r="C350" s="11">
         <v>10500</v>
@@ -14507,7 +14507,7 @@
         <v>41</v>
       </c>
       <c r="B351" s="11">
-        <v>3440</v>
+        <v>3475.4503169999998</v>
       </c>
       <c r="C351" s="11">
         <v>15800</v>
@@ -14646,7 +14646,7 @@
         <v>44</v>
       </c>
       <c r="B354" s="11">
-        <v>15000</v>
+        <v>16497.968720000001</v>
       </c>
       <c r="C354" s="11">
         <v>30100</v>
@@ -14692,7 +14692,7 @@
         <v>45</v>
       </c>
       <c r="B355" s="11">
-        <v>14900</v>
+        <v>20275.580959999999</v>
       </c>
       <c r="C355" s="11">
         <v>22300</v>
@@ -14738,7 +14738,7 @@
         <v>46</v>
       </c>
       <c r="B356" s="11">
-        <v>10200</v>
+        <v>13444.76433</v>
       </c>
       <c r="C356" s="11">
         <v>24300</v>
@@ -14787,7 +14787,7 @@
         <v>47</v>
       </c>
       <c r="B357" s="11">
-        <v>29300</v>
+        <v>36129.024490000003</v>
       </c>
       <c r="C357" s="11">
         <v>124000</v>
@@ -14863,7 +14863,7 @@
         <v>51</v>
       </c>
       <c r="B361" s="11">
-        <v>36300</v>
+        <v>47357.535309999999</v>
       </c>
       <c r="C361" s="11">
         <v>181000</v>
@@ -14920,7 +14920,7 @@
         <v>54</v>
       </c>
       <c r="B364" s="11">
-        <v>15200</v>
+        <v>18153.645619999999</v>
       </c>
       <c r="C364" s="11">
         <v>124000</v>
@@ -14977,7 +14977,7 @@
         <v>57</v>
       </c>
       <c r="B367" s="11">
-        <v>74400</v>
+        <v>192540.7703</v>
       </c>
       <c r="C367" s="11">
         <v>515000</v>
@@ -15044,7 +15044,7 @@
         <v>61</v>
       </c>
       <c r="B371" s="11">
-        <v>323000</v>
+        <v>519003.67749999999</v>
       </c>
       <c r="C371" s="11">
         <v>730000</v>
@@ -15076,7 +15076,7 @@
         <v>63</v>
       </c>
       <c r="B373" s="11">
-        <v>10400000</v>
+        <v>10686649.529999999</v>
       </c>
       <c r="C373" s="11">
         <v>22400000</v>
@@ -15092,7 +15092,7 @@
         <v>64</v>
       </c>
       <c r="B374" s="11">
-        <v>10000000</v>
+        <v>10283491.050000001</v>
       </c>
       <c r="C374" s="11">
         <v>13200000</v>
@@ -15108,7 +15108,7 @@
         <v>65</v>
       </c>
       <c r="B375" s="11">
-        <v>7770000</v>
+        <v>9319943.2860000003</v>
       </c>
       <c r="C375" s="11">
         <v>12400000</v>
@@ -15140,7 +15140,7 @@
         <v>67</v>
       </c>
       <c r="B377" s="11">
-        <v>6030000</v>
+        <v>6331051.2470000004</v>
       </c>
       <c r="C377" s="11">
         <v>9100000</v>
@@ -15203,7 +15203,7 @@
     <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="27" t="s">
         <v>71</v>
       </c>
@@ -15223,11 +15223,11 @@
         <v>76</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B386" s="28">
+      <c r="B386" s="11">
         <v>134</v>
       </c>
       <c r="C386" s="28">
@@ -15273,12 +15273,20 @@
       <c r="P386">
         <v>117.41999999999901</v>
       </c>
-    </row>
-    <row r="387" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R386" s="11">
+        <f xml:space="preserve"> (F386 - B386)/B386</f>
+        <v>-2.7074626865673232E-2</v>
+      </c>
+      <c r="S386" s="19">
+        <f xml:space="preserve"> R386 * 100  * -1</f>
+        <v>2.707462686567323</v>
+      </c>
+    </row>
+    <row r="387" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B387" s="28">
+      <c r="B387" s="11">
         <v>95.74</v>
       </c>
       <c r="C387" s="28">
@@ -15324,12 +15332,20 @@
       <c r="P387">
         <v>89.2</v>
       </c>
-    </row>
-    <row r="388" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R387" s="11">
+        <f t="shared" ref="R387:R442" si="19" xml:space="preserve"> (F387 - B387)/B387</f>
+        <v>-5.8679757677042088E-2</v>
+      </c>
+      <c r="S387" s="19">
+        <f t="shared" ref="S387:S437" si="20" xml:space="preserve"> R387 * 100  * -1</f>
+        <v>5.867975767704209</v>
+      </c>
+    </row>
+    <row r="388" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B388" s="28">
+      <c r="B388" s="11">
         <v>97.44</v>
       </c>
       <c r="C388" s="28">
@@ -15375,12 +15391,20 @@
       <c r="P388">
         <v>102.42</v>
       </c>
-    </row>
-    <row r="389" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R388" s="11">
+        <f t="shared" si="19"/>
+        <v>4.8296387520524314E-2</v>
+      </c>
+      <c r="S388" s="19">
+        <f t="shared" si="20"/>
+        <v>-4.8296387520524311</v>
+      </c>
+    </row>
+    <row r="389" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B389" s="28">
+      <c r="B389" s="11">
         <v>102.7342857</v>
       </c>
       <c r="C389" s="28">
@@ -15426,12 +15450,20 @@
       <c r="P389">
         <v>92.14</v>
       </c>
-    </row>
-    <row r="390" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R389" s="11">
+        <f t="shared" si="19"/>
+        <v>-9.6348416038094048E-2</v>
+      </c>
+      <c r="S389" s="19">
+        <f t="shared" si="20"/>
+        <v>9.634841603809404</v>
+      </c>
+    </row>
+    <row r="390" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B390" s="28">
+      <c r="B390" s="11">
         <v>4069.6358019999998</v>
       </c>
       <c r="C390" s="28">
@@ -15477,12 +15509,20 @@
       <c r="P390">
         <v>5445.26</v>
       </c>
-    </row>
-    <row r="391" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R390" s="11">
+        <f t="shared" si="19"/>
+        <v>0.3380848471314884</v>
+      </c>
+      <c r="S390" s="19">
+        <f t="shared" si="20"/>
+        <v>-33.808484713148843</v>
+      </c>
+    </row>
+    <row r="391" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B391" s="28">
+      <c r="B391" s="11">
         <v>105</v>
       </c>
       <c r="C391" s="28">
@@ -15528,12 +15568,20 @@
       <c r="P391">
         <v>115.46</v>
       </c>
-    </row>
-    <row r="392" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R391" s="11">
+        <f t="shared" si="19"/>
+        <v>9.8723809523809658E-2</v>
+      </c>
+      <c r="S391" s="19">
+        <f t="shared" si="20"/>
+        <v>-9.8723809523809649</v>
+      </c>
+    </row>
+    <row r="392" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B392" s="28">
+      <c r="B392" s="11">
         <v>10338.10578</v>
       </c>
       <c r="C392" s="28">
@@ -15579,12 +15627,20 @@
       <c r="P392">
         <v>3750.5266666666598</v>
       </c>
-    </row>
-    <row r="393" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R392" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.61874982220711361</v>
+      </c>
+      <c r="S392" s="19">
+        <f t="shared" si="20"/>
+        <v>61.87498222071136</v>
+      </c>
+    </row>
+    <row r="393" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B393" s="28">
+      <c r="B393" s="11">
         <v>68.8</v>
       </c>
       <c r="C393" s="28">
@@ -15597,7 +15653,7 @@
         <v>95</v>
       </c>
       <c r="F393" s="19">
-        <f t="shared" ref="F393:F397" si="19" xml:space="preserve"> AVERAGE(G393:P393)</f>
+        <f t="shared" ref="F393:F397" si="21" xml:space="preserve"> AVERAGE(G393:P393)</f>
         <v>65.895999999999958</v>
       </c>
       <c r="G393">
@@ -15630,12 +15686,20 @@
       <c r="P393">
         <v>68.739999999999995</v>
       </c>
-    </row>
-    <row r="394" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R393" s="11">
+        <f t="shared" si="19"/>
+        <v>-4.2209302325581961E-2</v>
+      </c>
+      <c r="S393" s="19">
+        <f t="shared" si="20"/>
+        <v>4.2209302325581959</v>
+      </c>
+    </row>
+    <row r="394" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B394" s="28">
+      <c r="B394" s="11">
         <v>3307.1417280000001</v>
       </c>
       <c r="C394" s="28">
@@ -15648,7 +15712,7 @@
         <v>5000</v>
       </c>
       <c r="F394" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>161.41399999999993</v>
       </c>
       <c r="G394">
@@ -15681,12 +15745,20 @@
       <c r="P394">
         <v>160.47999999999999</v>
       </c>
-    </row>
-    <row r="395" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R394" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.95119229435092423</v>
+      </c>
+      <c r="S394" s="19">
+        <f t="shared" si="20"/>
+        <v>95.119229435092421</v>
+      </c>
+    </row>
+    <row r="395" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B395" s="28">
+      <c r="B395" s="11">
         <v>194000</v>
       </c>
       <c r="C395" s="28">
@@ -15699,7 +15771,7 @@
         <v>183000</v>
       </c>
       <c r="F395" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>142430.18866666619</v>
       </c>
       <c r="G395">
@@ -15732,12 +15804,20 @@
       <c r="P395">
         <v>133916.80444444399</v>
       </c>
-    </row>
-    <row r="396" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R395" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.26582376975945265</v>
+      </c>
+      <c r="S395" s="19">
+        <f t="shared" si="20"/>
+        <v>26.582376975945266</v>
+      </c>
+    </row>
+    <row r="396" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B396" s="28">
+      <c r="B396" s="11">
         <v>910.73827159999996</v>
       </c>
       <c r="C396" s="28">
@@ -15750,7 +15830,7 @@
         <v>500</v>
       </c>
       <c r="F396" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>166.702</v>
       </c>
       <c r="G396">
@@ -15783,12 +15863,20 @@
       <c r="P396">
         <v>164.14</v>
       </c>
-    </row>
-    <row r="397" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R396" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.81695948748575686</v>
+      </c>
+      <c r="S396" s="19">
+        <f t="shared" si="20"/>
+        <v>81.695948748575688</v>
+      </c>
+    </row>
+    <row r="397" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B397" s="28">
+      <c r="B397" s="11">
         <v>14974.64444</v>
       </c>
       <c r="C397" s="28">
@@ -15801,7 +15889,7 @@
         <v>79000</v>
       </c>
       <c r="F397" s="19">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>23826.100444444404</v>
       </c>
       <c r="G397">
@@ -15834,12 +15922,20 @@
       <c r="P397">
         <v>6693.4022222222202</v>
       </c>
-    </row>
-    <row r="398" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R397" s="11">
+        <f t="shared" si="19"/>
+        <v>0.591096238706046</v>
+      </c>
+      <c r="S397" s="19">
+        <f t="shared" si="20"/>
+        <v>-59.109623870604601</v>
+      </c>
+    </row>
+    <row r="398" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B398" s="28">
+      <c r="B398" s="11">
         <v>3359.6609880000001</v>
       </c>
       <c r="C398" s="28">
@@ -15885,12 +15981,20 @@
       <c r="P398">
         <v>174.18</v>
       </c>
-    </row>
-    <row r="399" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R398" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.7805387036998408</v>
+      </c>
+      <c r="S398" s="19">
+        <f t="shared" si="20"/>
+        <v>78.053870369984082</v>
+      </c>
+    </row>
+    <row r="399" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B399" s="28">
+      <c r="B399" s="11">
         <v>18163.26296</v>
       </c>
       <c r="C399" s="28">
@@ -15903,7 +16007,7 @@
         <v>6500</v>
       </c>
       <c r="F399" s="19">
-        <f t="shared" ref="F399:F414" si="20" xml:space="preserve"> AVERAGE(G399:P399)</f>
+        <f t="shared" ref="F399:F414" si="22" xml:space="preserve"> AVERAGE(G399:P399)</f>
         <v>655.91456790123334</v>
       </c>
       <c r="G399">
@@ -15933,12 +16037,20 @@
       <c r="O399">
         <v>164.88</v>
       </c>
-    </row>
-    <row r="400" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R399" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.96388784496784974</v>
+      </c>
+      <c r="S399" s="19">
+        <f t="shared" si="20"/>
+        <v>96.388784496784979</v>
+      </c>
+    </row>
+    <row r="400" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B400" s="28">
+      <c r="B400" s="11">
         <v>32301.335800000001</v>
       </c>
       <c r="C400" s="28">
@@ -15951,7 +16063,7 @@
         <v>47000</v>
       </c>
       <c r="F400" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28053.94599999996</v>
       </c>
       <c r="G400">
@@ -15984,12 +16096,20 @@
       <c r="P400">
         <v>22814.426666666601</v>
       </c>
-    </row>
-    <row r="401" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R400" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.13149269820599929</v>
+      </c>
+      <c r="S400" s="19">
+        <f t="shared" si="20"/>
+        <v>13.14926982059993</v>
+      </c>
+    </row>
+    <row r="401" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B401" s="28">
+      <c r="B401" s="11">
         <v>51313.376790000002</v>
       </c>
       <c r="C401" s="28">
@@ -16002,7 +16122,7 @@
         <v>49000</v>
       </c>
       <c r="F401" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>19360.027111111056</v>
       </c>
       <c r="G401">
@@ -16035,25 +16155,33 @@
       <c r="P401">
         <v>17476.3644444444</v>
       </c>
-    </row>
-    <row r="402" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R401" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.62270993798864638</v>
+      </c>
+      <c r="S401" s="19">
+        <f t="shared" si="20"/>
+        <v>62.270993798864637</v>
+      </c>
+    </row>
+    <row r="402" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B402" s="44">
+      <c r="B402" s="11">
         <v>84.667500000000004</v>
       </c>
-      <c r="C402" s="45">
+      <c r="C402" s="44">
         <v>96</v>
       </c>
-      <c r="D402" s="46">
+      <c r="D402" s="45">
         <v>411</v>
       </c>
-      <c r="E402" s="46">
+      <c r="E402" s="45">
         <v>92</v>
       </c>
       <c r="F402" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>80.656499999999994</v>
       </c>
       <c r="G402">
@@ -16086,25 +16214,33 @@
       <c r="P402">
         <v>81.995000000000005</v>
       </c>
-    </row>
-    <row r="403" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R402" s="11">
+        <f t="shared" si="19"/>
+        <v>-4.737354947293837E-2</v>
+      </c>
+      <c r="S402" s="19">
+        <f t="shared" si="20"/>
+        <v>4.737354947293837</v>
+      </c>
+    </row>
+    <row r="403" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B403" s="44">
+      <c r="B403" s="11">
         <v>1627.9475</v>
       </c>
-      <c r="C403" s="45">
+      <c r="C403" s="44">
         <v>112</v>
       </c>
-      <c r="D403" s="46">
+      <c r="D403" s="45">
         <v>8560</v>
       </c>
-      <c r="E403" s="46">
+      <c r="E403" s="45">
         <v>96.42</v>
       </c>
       <c r="F403" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>85.755999999999986</v>
       </c>
       <c r="G403">
@@ -16137,25 +16273,33 @@
       <c r="P403">
         <v>86.49</v>
       </c>
-    </row>
-    <row r="404" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R403" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.94732262557607039</v>
+      </c>
+      <c r="S403" s="19">
+        <f t="shared" si="20"/>
+        <v>94.732262557607044</v>
+      </c>
+    </row>
+    <row r="404" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B404" s="44">
+      <c r="B404" s="11">
         <v>1260.0333889999999</v>
       </c>
-      <c r="C404" s="45">
+      <c r="C404" s="44">
         <v>478</v>
       </c>
-      <c r="D404" s="46">
+      <c r="D404" s="45">
         <v>4150</v>
       </c>
-      <c r="E404" s="46">
+      <c r="E404" s="45">
         <v>120</v>
       </c>
       <c r="F404" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>108.50283333333309</v>
       </c>
       <c r="G404">
@@ -16188,25 +16332,33 @@
       <c r="P404">
         <v>109.675</v>
       </c>
-    </row>
-    <row r="405" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R404" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.91388892208686301</v>
+      </c>
+      <c r="S404" s="19">
+        <f t="shared" si="20"/>
+        <v>91.3888922086863</v>
+      </c>
+    </row>
+    <row r="405" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B405" s="44">
+      <c r="B405" s="11">
         <v>7055.9061670000001</v>
       </c>
-      <c r="C405" s="45">
+      <c r="C405" s="44">
         <v>3980</v>
       </c>
-      <c r="D405" s="46">
+      <c r="D405" s="45">
         <v>16200</v>
       </c>
-      <c r="E405" s="46">
+      <c r="E405" s="45">
         <v>100</v>
       </c>
       <c r="F405" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3385.2657777777722</v>
       </c>
       <c r="G405">
@@ -16239,25 +16391,33 @@
       <c r="P405">
         <v>3297.2877777777699</v>
       </c>
-    </row>
-    <row r="406" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R405" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.52022239275085136</v>
+      </c>
+      <c r="S405" s="19">
+        <f t="shared" si="20"/>
+        <v>52.022239275085134</v>
+      </c>
+    </row>
+    <row r="406" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B406" s="44">
+      <c r="B406" s="11">
         <v>2396.498556</v>
       </c>
-      <c r="C406" s="45">
+      <c r="C406" s="44">
         <v>2340</v>
       </c>
-      <c r="D406" s="46">
+      <c r="D406" s="45">
         <v>18500</v>
       </c>
-      <c r="E406" s="46">
+      <c r="E406" s="45">
         <v>110</v>
       </c>
       <c r="F406" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>104.54357142857144</v>
       </c>
       <c r="G406">
@@ -16281,25 +16441,33 @@
       <c r="M406">
         <v>103.47</v>
       </c>
-    </row>
-    <row r="407" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R406" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.95637653477118501</v>
+      </c>
+      <c r="S406" s="19">
+        <f t="shared" si="20"/>
+        <v>95.637653477118505</v>
+      </c>
+    </row>
+    <row r="407" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B407" s="44">
+      <c r="B407" s="11">
         <v>3322.8712220000002</v>
       </c>
-      <c r="C407" s="45">
+      <c r="C407" s="44">
         <v>3320</v>
       </c>
-      <c r="D407" s="46">
+      <c r="D407" s="45">
         <v>21100</v>
       </c>
-      <c r="E407" s="46">
+      <c r="E407" s="45">
         <v>96</v>
       </c>
       <c r="F407" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1641.851111111109</v>
       </c>
       <c r="G407">
@@ -16329,25 +16497,33 @@
       <c r="O407">
         <v>1640.6172222222201</v>
       </c>
-    </row>
-    <row r="408" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R407" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.50589384859672759</v>
+      </c>
+      <c r="S407" s="19">
+        <f t="shared" si="20"/>
+        <v>50.589384859672762</v>
+      </c>
+    </row>
+    <row r="408" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B408" s="44">
+      <c r="B408" s="11">
         <v>106.435</v>
       </c>
-      <c r="C408" s="45">
+      <c r="C408" s="44">
         <v>6870</v>
       </c>
-      <c r="D408" s="46">
+      <c r="D408" s="45">
         <v>809</v>
       </c>
-      <c r="E408" s="46">
+      <c r="E408" s="45">
         <v>105</v>
       </c>
       <c r="F408" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>104.70777777777744</v>
       </c>
       <c r="G408">
@@ -16377,25 +16553,33 @@
       <c r="O408">
         <v>104.509999999999</v>
       </c>
-    </row>
-    <row r="409" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R408" s="11">
+        <f t="shared" si="19"/>
+        <v>-1.6227953419669892E-2</v>
+      </c>
+      <c r="S408" s="19">
+        <f t="shared" si="20"/>
+        <v>1.6227953419669892</v>
+      </c>
+    </row>
+    <row r="409" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B409" s="44">
+      <c r="B409" s="11">
         <v>92.355999999999995</v>
       </c>
-      <c r="C409" s="45">
+      <c r="C409" s="44">
         <v>1290</v>
       </c>
-      <c r="D409" s="46">
+      <c r="D409" s="45">
         <v>2000</v>
       </c>
-      <c r="E409" s="46">
+      <c r="E409" s="45">
         <v>94.4</v>
       </c>
       <c r="F409" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>89.923999999999978</v>
       </c>
       <c r="G409">
@@ -16428,25 +16612,33 @@
       <c r="P409">
         <v>88.864999999999995</v>
       </c>
-    </row>
-    <row r="410" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R409" s="11">
+        <f t="shared" si="19"/>
+        <v>-2.6332885789770197E-2</v>
+      </c>
+      <c r="S409" s="19">
+        <f t="shared" si="20"/>
+        <v>2.63328857897702</v>
+      </c>
+    </row>
+    <row r="410" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B410" s="44">
+      <c r="B410" s="11">
         <v>10300</v>
       </c>
-      <c r="C410" s="45">
+      <c r="C410" s="44">
         <v>92400</v>
       </c>
-      <c r="D410" s="46">
+      <c r="D410" s="45">
         <v>21500</v>
       </c>
-      <c r="E410" s="46">
+      <c r="E410" s="45">
         <v>6428</v>
       </c>
       <c r="F410" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>8691.0338333333257</v>
       </c>
       <c r="G410">
@@ -16479,25 +16671,33 @@
       <c r="P410">
         <v>7451.8594444444398</v>
       </c>
-    </row>
-    <row r="411" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R410" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.15621030744336645</v>
+      </c>
+      <c r="S410" s="19">
+        <f t="shared" si="20"/>
+        <v>15.621030744336645</v>
+      </c>
+    </row>
+    <row r="411" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B411" s="46">
-        <v>34883</v>
-      </c>
-      <c r="C411" s="45">
+      <c r="B411" s="11">
+        <v>10659.381670000001</v>
+      </c>
+      <c r="C411" s="44">
         <v>275000</v>
       </c>
-      <c r="D411" s="46">
+      <c r="D411" s="45">
         <v>54000</v>
       </c>
-      <c r="E411" s="46">
+      <c r="E411" s="45">
         <v>9285</v>
       </c>
       <c r="F411" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7385.2874074074025</v>
       </c>
       <c r="G411">
@@ -16527,25 +16727,33 @@
       <c r="O411">
         <v>3980.29</v>
       </c>
-    </row>
-    <row r="412" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R411" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.30715611505002033</v>
+      </c>
+      <c r="S411" s="19">
+        <f t="shared" si="20"/>
+        <v>30.715611505002034</v>
+      </c>
+    </row>
+    <row r="412" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="B412" s="46">
+      <c r="B412" s="11">
         <v>134</v>
       </c>
-      <c r="C412" s="45">
+      <c r="C412" s="44">
         <v>18400</v>
       </c>
-      <c r="D412" s="46">
+      <c r="D412" s="45">
         <v>18800</v>
       </c>
-      <c r="E412" s="46">
+      <c r="E412" s="45">
         <v>130</v>
       </c>
       <c r="F412" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>127.37444444444444</v>
       </c>
       <c r="G412">
@@ -16575,25 +16783,33 @@
       <c r="O412">
         <v>126.82</v>
       </c>
-    </row>
-    <row r="413" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R412" s="11">
+        <f t="shared" si="19"/>
+        <v>-4.9444444444444513E-2</v>
+      </c>
+      <c r="S412" s="19">
+        <f t="shared" si="20"/>
+        <v>4.9444444444444517</v>
+      </c>
+    </row>
+    <row r="413" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B413" s="46">
-        <v>7100</v>
-      </c>
-      <c r="C413" s="45">
+      <c r="B413" s="11">
+        <v>7137.7017219999998</v>
+      </c>
+      <c r="C413" s="44">
         <v>9440</v>
       </c>
-      <c r="D413" s="46">
+      <c r="D413" s="45">
         <v>14900</v>
       </c>
-      <c r="E413" s="46">
+      <c r="E413" s="45">
         <v>302</v>
       </c>
       <c r="F413" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>7119.334388888883</v>
       </c>
       <c r="G413">
@@ -16626,25 +16842,33 @@
       <c r="P413">
         <v>7138.5372222222204</v>
       </c>
-    </row>
-    <row r="414" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R413" s="11">
+        <f t="shared" si="19"/>
+        <v>-2.5732839261837608E-3</v>
+      </c>
+      <c r="S413" s="19">
+        <f t="shared" si="20"/>
+        <v>0.25732839261837609</v>
+      </c>
+    </row>
+    <row r="414" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B414" s="46">
-        <v>6400</v>
-      </c>
-      <c r="C414" s="45">
+      <c r="B414" s="11">
+        <v>9044.8115560000006</v>
+      </c>
+      <c r="C414" s="44">
         <v>163000</v>
       </c>
-      <c r="D414" s="46">
+      <c r="D414" s="45">
         <v>42400</v>
       </c>
-      <c r="E414" s="46">
+      <c r="E414" s="45">
         <v>925</v>
       </c>
       <c r="F414" s="19">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6311.7867901234513</v>
       </c>
       <c r="G414">
@@ -16674,21 +16898,29 @@
       <c r="O414">
         <v>6098.7288888888797</v>
       </c>
-    </row>
-    <row r="415" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R414" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.30216492062386413</v>
+      </c>
+      <c r="S414" s="19">
+        <f t="shared" si="20"/>
+        <v>30.216492062386415</v>
+      </c>
+    </row>
+    <row r="415" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B415" s="46">
+      <c r="B415" s="11">
         <v>119</v>
       </c>
-      <c r="C415" s="45">
+      <c r="C415" s="44">
         <v>74000</v>
       </c>
-      <c r="D415" s="46">
+      <c r="D415" s="45">
         <v>21100</v>
       </c>
-      <c r="E415" s="46">
+      <c r="E415" s="45">
         <v>450</v>
       </c>
       <c r="F415" s="19">
@@ -16725,25 +16957,33 @@
       <c r="P415">
         <v>124.36499999999999</v>
       </c>
-    </row>
-    <row r="416" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R415" s="11">
+        <f t="shared" si="19"/>
+        <v>2.9794584500463957E-2</v>
+      </c>
+      <c r="S415" s="19">
+        <f t="shared" si="20"/>
+        <v>-2.9794584500463959</v>
+      </c>
+    </row>
+    <row r="416" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B416" s="46">
+      <c r="B416" s="11">
         <v>22600</v>
       </c>
-      <c r="C416" s="45">
+      <c r="C416" s="44">
         <v>147000</v>
       </c>
-      <c r="D416" s="46">
+      <c r="D416" s="45">
         <v>23300</v>
       </c>
-      <c r="E416" s="46">
+      <c r="E416" s="45">
         <v>22000</v>
       </c>
       <c r="F416" s="19">
-        <f t="shared" ref="F416:F436" si="21" xml:space="preserve"> AVERAGE(G416:P416)</f>
+        <f t="shared" ref="F416:F436" si="23" xml:space="preserve"> AVERAGE(G416:P416)</f>
         <v>16303.368541666627</v>
       </c>
       <c r="G416">
@@ -16770,25 +17010,33 @@
       <c r="N416">
         <v>15879.9783333333</v>
       </c>
-    </row>
-    <row r="417" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R416" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.27861201143068026</v>
+      </c>
+      <c r="S416" s="19">
+        <f t="shared" si="20"/>
+        <v>27.861201143068026</v>
+      </c>
+    </row>
+    <row r="417" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B417" s="46">
+      <c r="B417" s="11">
         <v>7670</v>
       </c>
-      <c r="C417" s="45">
+      <c r="C417" s="44">
         <v>60400</v>
       </c>
-      <c r="D417" s="46">
+      <c r="D417" s="45">
         <v>19600</v>
       </c>
-      <c r="E417" s="46">
+      <c r="E417" s="45">
         <v>200</v>
       </c>
       <c r="F417" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7489.0393888888839</v>
       </c>
       <c r="G417">
@@ -16821,25 +17069,33 @@
       <c r="P417">
         <v>7531.5038888888803</v>
       </c>
-    </row>
-    <row r="418" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R417" s="11">
+        <f t="shared" si="19"/>
+        <v>-2.3593300014487107E-2</v>
+      </c>
+      <c r="S417" s="19">
+        <f t="shared" si="20"/>
+        <v>2.3593300014487109</v>
+      </c>
+    </row>
+    <row r="418" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B418" s="46">
-        <v>1590</v>
-      </c>
-      <c r="C418" s="45">
+      <c r="B418" s="11">
+        <v>3667.1041329999998</v>
+      </c>
+      <c r="C418" s="44">
         <v>7030</v>
       </c>
-      <c r="D418" s="46">
+      <c r="D418" s="45">
         <v>95000</v>
       </c>
-      <c r="E418" s="47">
+      <c r="E418" s="46">
         <v>1300</v>
       </c>
       <c r="F418" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>77.451499999999967</v>
       </c>
       <c r="H418">
@@ -16866,25 +17122,33 @@
       <c r="P418">
         <v>77.305999999999997</v>
       </c>
-    </row>
-    <row r="419" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R418" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.97887938351599568</v>
+      </c>
+      <c r="S418" s="19">
+        <f t="shared" si="20"/>
+        <v>97.887938351599573</v>
+      </c>
+    </row>
+    <row r="419" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="B419" s="46">
+      <c r="B419" s="11">
+        <v>11149.197980000001</v>
+      </c>
+      <c r="C419" s="45">
         <v>10500</v>
       </c>
-      <c r="C419" s="46">
-        <v>10500</v>
-      </c>
-      <c r="D419" s="46">
+      <c r="D419" s="45">
         <v>54400</v>
       </c>
-      <c r="E419" s="46">
+      <c r="E419" s="45">
         <v>100</v>
       </c>
       <c r="F419" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9384.5324444444268</v>
       </c>
       <c r="G419">
@@ -16902,25 +17166,33 @@
       <c r="K419">
         <v>6893.8571111111096</v>
       </c>
-    </row>
-    <row r="420" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R419" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.15827735221144346</v>
+      </c>
+      <c r="S419" s="19">
+        <f t="shared" si="20"/>
+        <v>15.827735221144346</v>
+      </c>
+    </row>
+    <row r="420" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B420" s="46">
-        <v>3440</v>
-      </c>
-      <c r="C420" s="46">
+      <c r="B420" s="11">
+        <v>3475.4503169999998</v>
+      </c>
+      <c r="C420" s="45">
         <v>15800</v>
       </c>
-      <c r="D420" s="46">
+      <c r="D420" s="45">
         <v>104000</v>
       </c>
-      <c r="E420" s="46">
+      <c r="E420" s="45">
         <v>100</v>
       </c>
       <c r="F420" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2661.466499999995</v>
       </c>
       <c r="G420">
@@ -16935,25 +17207,33 @@
       <c r="J420">
         <v>3442.4795555555502</v>
       </c>
-    </row>
-    <row r="421" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R420" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.23420959667253527</v>
+      </c>
+      <c r="S420" s="19">
+        <f t="shared" si="20"/>
+        <v>23.420959667253527</v>
+      </c>
+    </row>
+    <row r="421" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B421" s="46">
+      <c r="B421" s="11">
         <v>17500</v>
       </c>
-      <c r="C421" s="46">
+      <c r="C421" s="45">
         <v>23200</v>
       </c>
-      <c r="D421" s="46">
+      <c r="D421" s="45">
         <v>113000</v>
       </c>
-      <c r="E421" s="46">
+      <c r="E421" s="45">
         <v>900</v>
       </c>
       <c r="F421" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>16790.943283950553</v>
       </c>
       <c r="G421">
@@ -16983,23 +17263,31 @@
       <c r="O421">
         <v>13459.8686666666</v>
       </c>
-    </row>
-    <row r="422" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R421" s="11">
+        <f t="shared" si="19"/>
+        <v>-4.0517526631396947E-2</v>
+      </c>
+      <c r="S421" s="19">
+        <f t="shared" si="20"/>
+        <v>4.0517526631396947</v>
+      </c>
+    </row>
+    <row r="422" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B422" s="46">
+      <c r="B422" s="11">
         <v>11200</v>
       </c>
-      <c r="C422" s="46">
+      <c r="C422" s="45">
         <v>5140</v>
       </c>
-      <c r="D422" s="46">
+      <c r="D422" s="45">
         <v>95700</v>
       </c>
-      <c r="E422" s="46"/>
+      <c r="E422" s="45"/>
       <c r="F422" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11610.224172839464</v>
       </c>
       <c r="G422">
@@ -17029,23 +17317,31 @@
       <c r="O422">
         <v>12367.747555555499</v>
       </c>
-    </row>
-    <row r="423" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R422" s="11">
+        <f t="shared" si="19"/>
+        <v>3.6627158289237835E-2</v>
+      </c>
+      <c r="S422" s="19">
+        <f t="shared" si="20"/>
+        <v>-3.6627158289237833</v>
+      </c>
+    </row>
+    <row r="423" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B423" s="46">
-        <v>15000</v>
-      </c>
-      <c r="C423" s="46">
+      <c r="B423" s="11">
+        <v>16497.968720000001</v>
+      </c>
+      <c r="C423" s="45">
         <v>30100</v>
       </c>
-      <c r="D423" s="46">
+      <c r="D423" s="45">
         <v>94200</v>
       </c>
-      <c r="E423" s="46"/>
+      <c r="E423" s="45"/>
       <c r="F423" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>14929.591925925888</v>
       </c>
       <c r="G423">
@@ -17075,23 +17371,31 @@
       <c r="P423">
         <v>14489.042666666601</v>
       </c>
-    </row>
-    <row r="424" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R423" s="11">
+        <f t="shared" si="19"/>
+        <v>-9.5064842265873362E-2</v>
+      </c>
+      <c r="S423" s="19">
+        <f t="shared" si="20"/>
+        <v>9.5064842265873359</v>
+      </c>
+    </row>
+    <row r="424" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B424" s="46">
-        <v>14900</v>
-      </c>
-      <c r="C424" s="46">
+      <c r="B424" s="11">
+        <v>20275.580959999999</v>
+      </c>
+      <c r="C424" s="45">
         <v>22300</v>
       </c>
-      <c r="D424" s="46">
+      <c r="D424" s="45">
         <v>85200</v>
       </c>
-      <c r="E424" s="46"/>
+      <c r="E424" s="45"/>
       <c r="F424" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>20397.098155555508</v>
       </c>
       <c r="G424">
@@ -17124,23 +17428,31 @@
       <c r="P424">
         <v>20112.312222222201</v>
       </c>
-    </row>
-    <row r="425" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R424" s="11">
+        <f t="shared" si="19"/>
+        <v>5.9932781110065324E-3</v>
+      </c>
+      <c r="S424" s="19">
+        <f t="shared" si="20"/>
+        <v>-0.59932781110065325</v>
+      </c>
+    </row>
+    <row r="425" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B425" s="46">
-        <v>10200</v>
-      </c>
-      <c r="C425" s="46">
+      <c r="B425" s="11">
+        <v>13444.76433</v>
+      </c>
+      <c r="C425" s="45">
         <v>24300</v>
       </c>
-      <c r="D425" s="46">
+      <c r="D425" s="45">
         <v>117000</v>
       </c>
-      <c r="E425" s="46"/>
+      <c r="E425" s="45"/>
       <c r="F425" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>11284.419377777747</v>
       </c>
       <c r="G425">
@@ -17173,249 +17485,577 @@
       <c r="P425">
         <v>12744.6397777777</v>
       </c>
-    </row>
-    <row r="426" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R425" s="11">
+        <f t="shared" si="19"/>
+        <v>-0.16068299147510998</v>
+      </c>
+      <c r="S425" s="19">
+        <f t="shared" si="20"/>
+        <v>16.068299147510999</v>
+      </c>
+    </row>
+    <row r="426" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B426" s="46">
-        <v>29300</v>
-      </c>
-      <c r="C426" s="46">
+      <c r="B426" s="11">
+        <v>36129.024490000003</v>
+      </c>
+      <c r="C426" s="45">
         <v>124000</v>
       </c>
-      <c r="D426" s="46">
+      <c r="D426" s="45">
         <v>549000</v>
       </c>
-      <c r="E426" s="46"/>
-      <c r="F426" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="427" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E426" s="45"/>
+      <c r="F426" s="19">
+        <f t="shared" si="23"/>
+        <v>207022.75875555529</v>
+      </c>
+      <c r="G426">
+        <v>164021.74299999999</v>
+      </c>
+      <c r="H426">
+        <v>122205.894</v>
+      </c>
+      <c r="I426">
+        <v>172769.11900000001</v>
+      </c>
+      <c r="J426">
+        <v>435877.087</v>
+      </c>
+      <c r="K426">
+        <v>136222.36900000001</v>
+      </c>
+      <c r="L426">
+        <v>218342.11133333301</v>
+      </c>
+      <c r="M426">
+        <v>278337.30377777701</v>
+      </c>
+      <c r="N426">
+        <v>243400.15688888801</v>
+      </c>
+      <c r="O426">
+        <v>140814.03200000001</v>
+      </c>
+      <c r="P426">
+        <v>158237.77155555499</v>
+      </c>
+      <c r="R426" s="11">
+        <f t="shared" si="19"/>
+        <v>4.7300954475772299</v>
+      </c>
+      <c r="S426" s="19">
+        <f t="shared" si="20"/>
+        <v>-473.00954475772301</v>
+      </c>
+    </row>
+    <row r="427" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B427" s="46">
+      <c r="B427" s="11">
         <v>52900</v>
       </c>
-      <c r="C427" s="46">
+      <c r="C427" s="45">
         <v>164000</v>
       </c>
-      <c r="D427" s="46">
+      <c r="D427" s="45">
         <v>601000</v>
       </c>
-      <c r="E427" s="46"/>
-      <c r="F427" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="428" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E427" s="45"/>
+      <c r="F427" s="19">
+        <f t="shared" si="23"/>
+        <v>143218.90014444414</v>
+      </c>
+      <c r="G427">
+        <v>95210.844888888896</v>
+      </c>
+      <c r="H427">
+        <v>136200.40177777701</v>
+      </c>
+      <c r="I427">
+        <v>189898.52622222199</v>
+      </c>
+      <c r="J427">
+        <v>171337.83911111101</v>
+      </c>
+      <c r="K427">
+        <v>173983.24733333301</v>
+      </c>
+      <c r="L427">
+        <v>117334.333</v>
+      </c>
+      <c r="M427">
+        <v>96815.714000000007</v>
+      </c>
+      <c r="N427">
+        <v>186761.78955555501</v>
+      </c>
+      <c r="O427">
+        <v>83367.455777777694</v>
+      </c>
+      <c r="P427">
+        <v>181278.84977777701</v>
+      </c>
+      <c r="R427" s="11">
+        <f t="shared" si="19"/>
+        <v>1.7073516095358061</v>
+      </c>
+      <c r="S427" s="19">
+        <f t="shared" si="20"/>
+        <v>-170.73516095358062</v>
+      </c>
+    </row>
+    <row r="428" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="B428" s="46">
+      <c r="B428" s="11">
         <v>69800</v>
       </c>
-      <c r="C428" s="46">
+      <c r="C428" s="45">
         <v>167000</v>
       </c>
-      <c r="D428" s="46">
+      <c r="D428" s="45">
         <v>551000</v>
       </c>
-      <c r="E428" s="46"/>
-      <c r="F428" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="429" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E428" s="45"/>
+      <c r="F428" s="19">
+        <f t="shared" si="23"/>
+        <v>267055.65427777747</v>
+      </c>
+      <c r="G428">
+        <v>352650.73866666597</v>
+      </c>
+      <c r="H428">
+        <v>292547.13099999999</v>
+      </c>
+      <c r="I428">
+        <v>210357.89244444401</v>
+      </c>
+      <c r="J428">
+        <v>239467.83377777701</v>
+      </c>
+      <c r="K428">
+        <v>79989.063555555505</v>
+      </c>
+      <c r="L428">
+        <v>343567.06777777697</v>
+      </c>
+      <c r="M428">
+        <v>261552.549</v>
+      </c>
+      <c r="N428">
+        <v>356312.95799999998</v>
+      </c>
+      <c r="R428" s="11">
+        <f t="shared" si="19"/>
+        <v>2.8260122389366402</v>
+      </c>
+      <c r="S428" s="19">
+        <f t="shared" si="20"/>
+        <v>-282.60122389366404</v>
+      </c>
+    </row>
+    <row r="429" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B429" s="46">
+      <c r="B429" s="11">
         <v>77800</v>
       </c>
-      <c r="C429" s="46">
+      <c r="C429" s="45">
         <v>191000</v>
       </c>
-      <c r="D429" s="46">
+      <c r="D429" s="45">
         <v>715000</v>
       </c>
-      <c r="E429" s="46"/>
-      <c r="F429" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="430" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E429" s="45"/>
+      <c r="F429" s="19">
+        <f t="shared" si="23"/>
+        <v>276897.77470000007</v>
+      </c>
+      <c r="G429">
+        <v>361988.228</v>
+      </c>
+      <c r="H429">
+        <v>732255.07</v>
+      </c>
+      <c r="I429">
+        <v>202407.78400000001</v>
+      </c>
+      <c r="J429">
+        <v>220081.008</v>
+      </c>
+      <c r="K429">
+        <v>188214.77900000001</v>
+      </c>
+      <c r="L429">
+        <v>327527.93599999999</v>
+      </c>
+      <c r="M429">
+        <v>204213.72399999999</v>
+      </c>
+      <c r="N429">
+        <v>174205.416</v>
+      </c>
+      <c r="O429">
+        <v>262261.37800000003</v>
+      </c>
+      <c r="P429">
+        <v>95822.423999999999</v>
+      </c>
+      <c r="R429" s="11">
+        <f t="shared" si="19"/>
+        <v>2.5590973611825203</v>
+      </c>
+      <c r="S429" s="19">
+        <f t="shared" si="20"/>
+        <v>-255.90973611825203</v>
+      </c>
+    </row>
+    <row r="430" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B430" s="46">
-        <v>36300</v>
-      </c>
-      <c r="C430" s="46">
+      <c r="B430" s="11">
+        <v>47357.535309999999</v>
+      </c>
+      <c r="C430" s="45">
         <v>181000</v>
       </c>
-      <c r="D430" s="46">
+      <c r="D430" s="45">
         <v>616000</v>
       </c>
-      <c r="E430" s="46"/>
-      <c r="F430" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="431" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E430" s="45"/>
+      <c r="F430" s="19">
+        <f t="shared" si="23"/>
+        <v>339636.52133333334</v>
+      </c>
+      <c r="G430">
+        <v>88323.585999999996</v>
+      </c>
+      <c r="H430">
+        <v>201047.31099999999</v>
+      </c>
+      <c r="I430">
+        <v>474327.098</v>
+      </c>
+      <c r="J430">
+        <v>183434.12299999999</v>
+      </c>
+      <c r="K430">
+        <v>277786.462</v>
+      </c>
+      <c r="L430">
+        <v>812900.54799999995</v>
+      </c>
+      <c r="R430" s="11">
+        <f t="shared" si="19"/>
+        <v>6.1717524805733674</v>
+      </c>
+      <c r="S430" s="19">
+        <f t="shared" si="20"/>
+        <v>-617.17524805733672</v>
+      </c>
+    </row>
+    <row r="431" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="B431" s="46">
+      <c r="B431" s="11">
         <v>30900</v>
       </c>
-      <c r="C431" s="46">
+      <c r="C431" s="45">
         <v>176000</v>
       </c>
-      <c r="D431" s="46">
+      <c r="D431" s="45">
         <v>798000</v>
       </c>
-      <c r="E431" s="46"/>
-      <c r="F431" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="432" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E431" s="45"/>
+      <c r="F431" s="19">
+        <f t="shared" si="23"/>
+        <v>127134.93691358007</v>
+      </c>
+      <c r="G431">
+        <v>189867.79</v>
+      </c>
+      <c r="H431">
+        <v>47604.072</v>
+      </c>
+      <c r="I431">
+        <v>177147.40533333301</v>
+      </c>
+      <c r="J431">
+        <v>74595.248888888804</v>
+      </c>
+      <c r="K431">
+        <v>101578.350888888</v>
+      </c>
+      <c r="L431">
+        <v>151848.77911111101</v>
+      </c>
+      <c r="M431">
+        <v>82757.094444444403</v>
+      </c>
+      <c r="N431">
+        <v>222721.14933333301</v>
+      </c>
+      <c r="O431">
+        <v>96094.542222222197</v>
+      </c>
+      <c r="R431" s="11">
+        <f t="shared" si="19"/>
+        <v>3.1143992528666686</v>
+      </c>
+      <c r="S431" s="19">
+        <f t="shared" si="20"/>
+        <v>-311.43992528666683</v>
+      </c>
+    </row>
+    <row r="432" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B432" s="46">
+      <c r="B432" s="11">
         <v>26800</v>
       </c>
-      <c r="C432" s="46">
+      <c r="C432" s="45">
         <v>104000</v>
       </c>
-      <c r="D432" s="46">
+      <c r="D432" s="45">
         <v>603000</v>
       </c>
-      <c r="E432" s="46"/>
-      <c r="F432" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E432" s="45"/>
+      <c r="F432" s="19">
+        <f t="shared" si="23"/>
+        <v>83958.0199333333</v>
+      </c>
+      <c r="G432">
+        <v>116096.109111111</v>
+      </c>
+      <c r="H432">
+        <v>29262.415000000001</v>
+      </c>
+      <c r="I432">
+        <v>139410.85200000001</v>
+      </c>
+      <c r="J432">
+        <v>227857.71</v>
+      </c>
+      <c r="K432">
+        <v>118276.814</v>
+      </c>
+      <c r="L432">
+        <v>19390.263999999999</v>
+      </c>
+      <c r="M432">
+        <v>81489.434999999998</v>
+      </c>
+      <c r="N432">
+        <v>30315.036444444399</v>
+      </c>
+      <c r="O432">
+        <v>29783.2113333333</v>
+      </c>
+      <c r="P432">
+        <v>47698.352444444397</v>
+      </c>
+      <c r="R432" s="11">
+        <f t="shared" si="19"/>
+        <v>2.1327619378109439</v>
+      </c>
+      <c r="S432" s="19">
+        <f t="shared" si="20"/>
+        <v>-213.27619378109438</v>
+      </c>
+    </row>
+    <row r="433" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="B433" s="46">
-        <v>15200</v>
-      </c>
-      <c r="C433" s="46">
+      <c r="B433" s="11">
+        <v>18153.645619999999</v>
+      </c>
+      <c r="C433" s="45">
         <v>124000</v>
       </c>
-      <c r="D433" s="46">
+      <c r="D433" s="45">
         <v>549000</v>
       </c>
-      <c r="E433" s="46"/>
-      <c r="F433" s="19" t="e">
-        <f t="shared" si="21"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E433" s="45"/>
+      <c r="F433" s="19">
+        <f t="shared" si="23"/>
+        <v>24510.86032222219</v>
+      </c>
+      <c r="G433">
+        <v>17346.763555555499</v>
+      </c>
+      <c r="H433">
+        <v>28511.510999999999</v>
+      </c>
+      <c r="I433">
+        <v>42622.4162222222</v>
+      </c>
+      <c r="J433">
+        <v>12842.07</v>
+      </c>
+      <c r="K433">
+        <v>18294</v>
+      </c>
+      <c r="L433">
+        <v>32022.610444444399</v>
+      </c>
+      <c r="M433">
+        <v>15969.1328888888</v>
+      </c>
+      <c r="N433">
+        <v>13005.1271111111</v>
+      </c>
+      <c r="O433">
+        <v>39516.830888888799</v>
+      </c>
+      <c r="P433">
+        <v>24978.141111111101</v>
+      </c>
+      <c r="R433" s="11">
+        <f t="shared" si="19"/>
+        <v>0.35018942394790403</v>
+      </c>
+      <c r="S433" s="19">
+        <f t="shared" si="20"/>
+        <v>-35.0189423947904</v>
+      </c>
+    </row>
+    <row r="434" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="B434" s="46">
+      <c r="B434" s="11">
         <v>1580000</v>
       </c>
-      <c r="C434" s="46">
+      <c r="C434" s="45">
         <v>1180000</v>
       </c>
-      <c r="D434" s="46">
+      <c r="D434" s="45">
         <v>1590000</v>
       </c>
-      <c r="E434" s="46"/>
+      <c r="E434" s="45"/>
       <c r="F434" s="19" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R434" s="11" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S434" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="435" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B435" s="46">
+      <c r="B435" s="11">
         <v>931000</v>
       </c>
-      <c r="C435" s="46">
+      <c r="C435" s="45">
         <v>572000</v>
       </c>
-      <c r="D435" s="46">
+      <c r="D435" s="45">
         <v>2510000</v>
       </c>
-      <c r="E435" s="46"/>
+      <c r="E435" s="45"/>
       <c r="F435" s="19" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R435" s="11" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S435" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="436" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B436" s="46">
-        <v>74400</v>
-      </c>
-      <c r="C436" s="46">
+      <c r="B436" s="11">
+        <v>192540.7703</v>
+      </c>
+      <c r="C436" s="45">
         <v>515000</v>
       </c>
-      <c r="D436" s="46">
+      <c r="D436" s="45">
         <v>1340000</v>
       </c>
-      <c r="E436" s="46"/>
+      <c r="E436" s="45"/>
       <c r="F436" s="19" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R436" s="11" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S436" s="19" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="437" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B437" s="46">
+      <c r="B437" s="11">
         <v>761000</v>
       </c>
-      <c r="C437" s="46">
+      <c r="C437" s="45">
         <v>448000</v>
       </c>
-      <c r="D437" s="46">
+      <c r="D437" s="45">
         <v>2030000</v>
       </c>
-      <c r="E437" s="46"/>
-      <c r="F437" s="46"/>
-    </row>
-    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E437" s="45"/>
+      <c r="F437" s="45"/>
+      <c r="R437" s="11">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="S437" s="19">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="438" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B438" s="46">
+      <c r="B438" s="11">
         <v>84700</v>
       </c>
-      <c r="C438" s="46">
+      <c r="C438" s="45">
         <v>317000</v>
       </c>
-      <c r="D438" s="46">
+      <c r="D438" s="45">
         <v>1930000</v>
       </c>
-      <c r="E438" s="46"/>
-      <c r="F438" s="46"/>
-    </row>
-    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E438" s="45"/>
+      <c r="F438" s="45"/>
+      <c r="R438" s="11">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="S438" s="45"/>
+    </row>
+    <row r="439" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="32" t="s">
         <v>60</v>
       </c>
@@ -17430,13 +18070,18 @@
       </c>
       <c r="E439" s="11"/>
       <c r="F439" s="11"/>
-    </row>
-    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R439" s="11">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="S439" s="11"/>
+    </row>
+    <row r="440" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B440" s="11">
-        <v>323000</v>
+        <v>519003.67749999999</v>
       </c>
       <c r="C440" s="11">
         <v>730000</v>
@@ -17446,8 +18091,13 @@
       </c>
       <c r="E440" s="11"/>
       <c r="F440" s="11"/>
-    </row>
-    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R440" s="11">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="S440" s="11"/>
+    </row>
+    <row r="441" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="32" t="s">
         <v>62</v>
       </c>
@@ -17462,13 +18112,18 @@
       </c>
       <c r="E441" s="11"/>
       <c r="F441" s="11"/>
-    </row>
-    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R441" s="11">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+      <c r="S441" s="11"/>
+    </row>
+    <row r="442" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="32" t="s">
         <v>63</v>
       </c>
       <c r="B442" s="11">
-        <v>10400000</v>
+        <v>10686649.529999999</v>
       </c>
       <c r="C442" s="11">
         <v>22400000</v>
@@ -17478,13 +18133,17 @@
       </c>
       <c r="E442" s="11"/>
       <c r="F442" s="11"/>
-    </row>
-    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R442" s="11">
+        <f t="shared" si="19"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B443" s="11">
-        <v>10000000</v>
+        <v>10283491.050000001</v>
       </c>
       <c r="C443" s="11">
         <v>13200000</v>
@@ -17494,13 +18153,14 @@
       </c>
       <c r="E443" s="11"/>
       <c r="F443" s="11"/>
-    </row>
-    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R443" s="11"/>
+    </row>
+    <row r="444" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B444" s="11">
-        <v>7770000</v>
+        <v>9319943.2860000003</v>
       </c>
       <c r="C444" s="11">
         <v>12400000</v>
@@ -17510,8 +18170,9 @@
       </c>
       <c r="E444" s="11"/>
       <c r="F444" s="11"/>
-    </row>
-    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R444" s="11"/>
+    </row>
+    <row r="445" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="32" t="s">
         <v>66</v>
       </c>
@@ -17527,12 +18188,12 @@
       <c r="E445" s="11"/>
       <c r="F445" s="11"/>
     </row>
-    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="32" t="s">
         <v>67</v>
       </c>
       <c r="B446" s="11">
-        <v>6030000</v>
+        <v>6331051.2470000004</v>
       </c>
       <c r="C446" s="11">
         <v>9100000</v>
@@ -17542,8 +18203,12 @@
       </c>
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
-    </row>
-    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S446" s="53">
+        <f xml:space="preserve"> AVERAGE(S386:S425)</f>
+        <v>27.37018786489719</v>
+      </c>
+    </row>
+    <row r="447" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="32" t="s">
         <v>68</v>
       </c>
@@ -17559,7 +18224,7 @@
       <c r="E447" s="11"/>
       <c r="F447" s="11"/>
     </row>
-    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="32" t="s">
         <v>69</v>
       </c>
@@ -18123,8 +18788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911A5E9-8C1D-4937-B2E8-4FEF8E2ACD16}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7EB58-31B5-449F-8ECB-A0891899AE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6917AC-B0F9-41C5-B931-B5E5E9C88FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,6 +593,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -611,7 +612,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S446" sqref="S446"/>
+    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P332" sqref="P332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2159,22 +2159,22 @@
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="L44" s="50" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="L44" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
@@ -3236,22 +3236,22 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="L63" s="51" t="s">
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="L63" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -4220,12 +4220,12 @@
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="52"/>
-      <c r="B82" s="49"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="49"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="50"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4724,14 +4724,14 @@
     <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R104" s="47" t="s">
+      <c r="R104" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="S104" s="47"/>
-      <c r="T104" s="47"/>
-      <c r="U104" s="47"/>
-      <c r="V104" s="47"/>
-      <c r="W104" s="47"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="48"/>
+      <c r="U104" s="48"/>
+      <c r="V104" s="48"/>
+      <c r="W104" s="48"/>
     </row>
     <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
@@ -8137,22 +8137,22 @@
     <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="48" t="s">
+      <c r="A177" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B177" s="49"/>
-      <c r="C177" s="49"/>
-      <c r="D177" s="49"/>
-      <c r="E177" s="49"/>
-      <c r="F177" s="49"/>
-      <c r="R177" s="49" t="s">
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="50"/>
+      <c r="F177" s="50"/>
+      <c r="R177" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="S177" s="49"/>
-      <c r="T177" s="49"/>
-      <c r="U177" s="49"/>
-      <c r="V177" s="49"/>
-      <c r="W177" s="49"/>
+      <c r="S177" s="50"/>
+      <c r="T177" s="50"/>
+      <c r="U177" s="50"/>
+      <c r="V177" s="50"/>
+      <c r="W177" s="50"/>
     </row>
     <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
@@ -13685,29 +13685,38 @@
         <v>183000</v>
       </c>
       <c r="F326" s="16">
-        <f t="shared" si="15"/>
-        <v>142707.54507936476</v>
+        <f xml:space="preserve"> AVERAGE(G326:P326)</f>
+        <v>183746.80266666616</v>
       </c>
       <c r="G326">
-        <v>153947.42000000001</v>
+        <v>161528.50222222201</v>
       </c>
       <c r="H326">
-        <v>184605.83555555501</v>
+        <v>211673.46444444399</v>
       </c>
       <c r="I326">
-        <v>89018.644444444406</v>
+        <v>197705.96444444399</v>
       </c>
       <c r="J326">
-        <v>167394.724444444</v>
+        <v>154222.44</v>
+      </c>
+      <c r="K326">
+        <v>216599.58444444399</v>
       </c>
       <c r="L326">
-        <v>128688.431111111</v>
+        <v>120552.377777777</v>
       </c>
       <c r="M326">
-        <v>133723.377777777</v>
+        <v>222127.108888888</v>
       </c>
       <c r="N326">
-        <v>141574.38222222199</v>
+        <v>213021.34666666601</v>
+      </c>
+      <c r="O326">
+        <v>175628.21555555501</v>
+      </c>
+      <c r="P326">
+        <v>164409.022222222</v>
       </c>
     </row>
     <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13728,37 +13737,37 @@
       </c>
       <c r="F327" s="16">
         <f t="shared" si="15"/>
-        <v>174.05400000000003</v>
+        <v>178.80399999999992</v>
       </c>
       <c r="G327">
-        <v>171.14</v>
+        <v>170.51999999999899</v>
       </c>
       <c r="H327">
-        <v>173.72</v>
+        <v>177.92</v>
       </c>
       <c r="I327">
-        <v>182.94</v>
+        <v>169.08</v>
       </c>
       <c r="J327">
-        <v>171.1</v>
+        <v>176.56</v>
       </c>
       <c r="K327">
-        <v>163.84</v>
+        <v>188.58</v>
       </c>
       <c r="L327">
-        <v>179.22</v>
+        <v>190.94</v>
       </c>
       <c r="M327">
-        <v>166.88</v>
+        <v>184.86</v>
       </c>
       <c r="N327">
-        <v>185.52</v>
+        <v>178.74</v>
       </c>
       <c r="O327">
-        <v>159.19999999999999</v>
+        <v>166.16</v>
       </c>
       <c r="P327">
-        <v>186.98</v>
+        <v>184.68</v>
       </c>
     </row>
     <row r="328" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13779,16 +13788,37 @@
       </c>
       <c r="F328" s="16">
         <f t="shared" si="15"/>
-        <v>20781.988888888867</v>
+        <v>51789.177999999942</v>
+      </c>
+      <c r="G328">
+        <v>12471.3866666666</v>
+      </c>
+      <c r="H328">
+        <v>13442.5933333333</v>
+      </c>
+      <c r="I328">
+        <v>21760.651111111099</v>
+      </c>
+      <c r="J328">
+        <v>73244.317777777702</v>
+      </c>
+      <c r="K328">
+        <v>16490.006666666599</v>
       </c>
       <c r="L328">
-        <v>21422.253333333301</v>
+        <v>40722.5666666666</v>
       </c>
       <c r="M328">
-        <v>21831.48</v>
+        <v>57745.471111111103</v>
+      </c>
+      <c r="N328">
+        <v>45654.106666666601</v>
+      </c>
+      <c r="O328">
+        <v>55791.148888888798</v>
       </c>
       <c r="P328">
-        <v>19092.233333333301</v>
+        <v>180569.53111111099</v>
       </c>
     </row>
     <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13809,28 +13839,37 @@
       </c>
       <c r="F329" s="16">
         <f xml:space="preserve"> AVERAGE(G329:P329)</f>
-        <v>178.93142857142828</v>
+        <v>1348.7262222222209</v>
       </c>
       <c r="G329">
-        <v>187.88</v>
+        <v>174.16</v>
+      </c>
+      <c r="H329">
+        <v>489.56</v>
       </c>
       <c r="I329">
-        <v>189.11999999999901</v>
+        <v>174.18</v>
+      </c>
+      <c r="J329">
+        <v>1568.24444444444</v>
       </c>
       <c r="K329">
-        <v>173.7</v>
+        <v>174.18</v>
+      </c>
+      <c r="L329">
+        <v>174.16</v>
       </c>
       <c r="M329">
-        <v>172.57999999999899</v>
+        <v>188.01999999999899</v>
       </c>
       <c r="N329">
-        <v>180.44</v>
+        <v>4193.08</v>
       </c>
       <c r="O329">
-        <v>174.62</v>
+        <v>6160.5777777777703</v>
       </c>
       <c r="P329">
-        <v>174.18</v>
+        <v>191.099999999999</v>
       </c>
     </row>
     <row r="330" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13851,25 +13890,37 @@
       </c>
       <c r="F330" s="16">
         <f t="shared" ref="F330:F345" si="16" xml:space="preserve"> AVERAGE(G330:P330)</f>
-        <v>878.42851851851674</v>
+        <v>1938.3351111111101</v>
       </c>
       <c r="G330">
-        <v>166.62</v>
+        <v>168.8</v>
+      </c>
+      <c r="H330">
+        <v>9325.4155555555499</v>
       </c>
       <c r="I330">
-        <v>158.56</v>
+        <v>169.11999999999901</v>
+      </c>
+      <c r="J330">
+        <v>8720.3555555555504</v>
       </c>
       <c r="K330">
-        <v>164.88</v>
+        <v>160.80000000000001</v>
+      </c>
+      <c r="L330">
+        <v>170.4</v>
       </c>
       <c r="M330">
-        <v>155.13999999999999</v>
+        <v>170.58</v>
       </c>
       <c r="N330">
-        <v>1082.1444444444401</v>
+        <v>165.8</v>
+      </c>
+      <c r="O330">
+        <v>169.18</v>
       </c>
       <c r="P330">
-        <v>3543.2266666666601</v>
+        <v>162.9</v>
       </c>
     </row>
     <row r="331" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13890,28 +13941,37 @@
       </c>
       <c r="F331" s="16">
         <f t="shared" si="16"/>
-        <v>20544.331746031705</v>
+        <v>44386.338444444409</v>
       </c>
       <c r="G331">
-        <v>16249.6111111111</v>
+        <v>74215.506666666595</v>
+      </c>
+      <c r="H331">
+        <v>19824.071111111101</v>
       </c>
       <c r="I331">
-        <v>6603.7155555555501</v>
+        <v>49814.391111111101</v>
+      </c>
+      <c r="J331">
+        <v>36897.235555555497</v>
       </c>
       <c r="K331">
-        <v>18213.026666666599</v>
+        <v>18456.326666666599</v>
       </c>
       <c r="L331">
-        <v>30445.855555555499</v>
+        <v>19347.593333333301</v>
+      </c>
+      <c r="M331">
+        <v>57513.131111111099</v>
       </c>
       <c r="N331">
-        <v>24268.9088888888</v>
+        <v>48280.771111111098</v>
       </c>
       <c r="O331">
-        <v>16756.6711111111</v>
+        <v>78344.78</v>
       </c>
       <c r="P331">
-        <v>31272.5333333333</v>
+        <v>41169.577777777697</v>
       </c>
     </row>
     <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13932,31 +13992,34 @@
       </c>
       <c r="F332" s="16">
         <f t="shared" si="16"/>
-        <v>20344.828333333273</v>
+        <v>19445.814567901201</v>
+      </c>
+      <c r="G332">
+        <v>17598.926666666601</v>
       </c>
       <c r="H332">
-        <v>15425.608888888801</v>
+        <v>20866.6733333333</v>
       </c>
       <c r="I332">
-        <v>17565.313333333299</v>
+        <v>22341.3511111111</v>
       </c>
       <c r="J332">
-        <v>16691.9288888888</v>
+        <v>24497.971111111099</v>
+      </c>
+      <c r="K332">
+        <v>13998.8266666666</v>
       </c>
       <c r="L332">
-        <v>14201.904444444401</v>
+        <v>18360.444444444402</v>
       </c>
       <c r="M332">
-        <v>24808.137777777702</v>
+        <v>16238.311111111099</v>
       </c>
       <c r="N332">
-        <v>29805.126666666602</v>
+        <v>27113.8</v>
       </c>
       <c r="O332">
-        <v>24202.880000000001</v>
-      </c>
-      <c r="P332">
-        <v>20057.7266666666</v>
+        <v>13996.026666666599</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13977,37 +14040,34 @@
       </c>
       <c r="F333" s="16">
         <f t="shared" si="16"/>
-        <v>81.438999999999979</v>
+        <v>83.656666666666666</v>
       </c>
       <c r="G333">
-        <v>82.004999999999995</v>
+        <v>83.334999999999994</v>
       </c>
       <c r="H333">
-        <v>80.784999999999997</v>
+        <v>88.344999999999999</v>
       </c>
       <c r="I333">
-        <v>79.119999999999905</v>
+        <v>84.75</v>
       </c>
       <c r="J333">
-        <v>83.47</v>
+        <v>83.665000000000006</v>
       </c>
       <c r="K333">
-        <v>83.33</v>
+        <v>83.73</v>
       </c>
       <c r="L333">
-        <v>85.09</v>
+        <v>82.729999999999905</v>
       </c>
       <c r="M333">
-        <v>78.364999999999995</v>
+        <v>79.995000000000005</v>
       </c>
       <c r="N333">
-        <v>82.549999999999898</v>
+        <v>82.78</v>
       </c>
       <c r="O333">
-        <v>78.349999999999994</v>
-      </c>
-      <c r="P333">
-        <v>81.325000000000003</v>
+        <v>83.58</v>
       </c>
     </row>
     <row r="334" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14028,37 +14088,34 @@
       </c>
       <c r="F334" s="16">
         <f t="shared" si="16"/>
-        <v>87.762999999999977</v>
+        <v>87.089444444444439</v>
       </c>
       <c r="G334">
-        <v>88.584999999999994</v>
+        <v>85.68</v>
       </c>
       <c r="H334">
-        <v>92.47</v>
+        <v>83.74</v>
       </c>
       <c r="I334">
-        <v>84.439999999999898</v>
+        <v>86.699999999999903</v>
       </c>
       <c r="J334">
-        <v>89.825000000000003</v>
+        <v>85.74</v>
       </c>
       <c r="K334">
-        <v>86.8</v>
+        <v>87.46</v>
       </c>
       <c r="L334">
-        <v>91.87</v>
+        <v>87.094999999999999</v>
       </c>
       <c r="M334">
-        <v>84.694999999999993</v>
+        <v>89.06</v>
       </c>
       <c r="N334">
-        <v>86.924999999999997</v>
+        <v>91.22</v>
       </c>
       <c r="O334">
-        <v>87.534999999999997</v>
-      </c>
-      <c r="P334">
-        <v>84.4849999999999</v>
+        <v>87.11</v>
       </c>
     </row>
     <row r="335" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14077,39 +14134,9 @@
       <c r="E335" s="40">
         <v>120</v>
       </c>
-      <c r="F335" s="16">
+      <c r="F335" s="16" t="e">
         <f t="shared" si="16"/>
-        <v>116.8216111111107</v>
-      </c>
-      <c r="G335">
-        <v>110.375</v>
-      </c>
-      <c r="H335">
-        <v>110.729999999999</v>
-      </c>
-      <c r="I335">
-        <v>113.814999999999</v>
-      </c>
-      <c r="J335">
-        <v>141.81888888888801</v>
-      </c>
-      <c r="K335">
-        <v>145.56888888888801</v>
-      </c>
-      <c r="L335">
-        <v>113.34333333333301</v>
-      </c>
-      <c r="M335">
-        <v>113.25</v>
-      </c>
-      <c r="N335">
-        <v>105.785</v>
-      </c>
-      <c r="O335">
-        <v>105.995</v>
-      </c>
-      <c r="P335">
-        <v>107.535</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14128,39 +14155,9 @@
       <c r="E336" s="18">
         <v>100</v>
       </c>
-      <c r="F336" s="19">
+      <c r="F336" s="19" t="e">
         <f t="shared" si="16"/>
-        <v>3387.148777777772</v>
-      </c>
-      <c r="G336">
-        <v>3295.3027777777702</v>
-      </c>
-      <c r="H336">
-        <v>3526.6661111111098</v>
-      </c>
-      <c r="I336">
-        <v>3528.1861111111102</v>
-      </c>
-      <c r="J336">
-        <v>3302.4727777777698</v>
-      </c>
-      <c r="K336">
-        <v>3296.10777777777</v>
-      </c>
-      <c r="L336">
-        <v>3498.10777777777</v>
-      </c>
-      <c r="M336">
-        <v>3298.85777777777</v>
-      </c>
-      <c r="N336">
-        <v>3299.3427777777702</v>
-      </c>
-      <c r="O336">
-        <v>3529.13611111111</v>
-      </c>
-      <c r="P336">
-        <v>3297.3077777777698</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18203,7 +18200,7 @@
       </c>
       <c r="E446" s="11"/>
       <c r="F446" s="11"/>
-      <c r="S446" s="53">
+      <c r="S446" s="47">
         <f xml:space="preserve"> AVERAGE(S386:S425)</f>
         <v>27.37018786489719</v>
       </c>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6917AC-B0F9-41C5-B931-B5E5E9C88FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB2E3A7-0130-429A-977E-F418570615C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P332" sqref="P332"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O351" sqref="O351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13686,37 +13686,37 @@
       </c>
       <c r="F326" s="16">
         <f xml:space="preserve"> AVERAGE(G326:P326)</f>
-        <v>183746.80266666616</v>
+        <v>130400.34022222183</v>
       </c>
       <c r="G326">
-        <v>161528.50222222201</v>
+        <v>168786.22666666601</v>
       </c>
       <c r="H326">
-        <v>211673.46444444399</v>
+        <v>110920.96222222201</v>
       </c>
       <c r="I326">
-        <v>197705.96444444399</v>
+        <v>156206.90888888799</v>
       </c>
       <c r="J326">
-        <v>154222.44</v>
+        <v>98414.882222222193</v>
       </c>
       <c r="K326">
-        <v>216599.58444444399</v>
+        <v>146500.63777777701</v>
       </c>
       <c r="L326">
-        <v>120552.377777777</v>
+        <v>137100.82222222199</v>
       </c>
       <c r="M326">
-        <v>222127.108888888</v>
+        <v>132591.30444444399</v>
       </c>
       <c r="N326">
-        <v>213021.34666666601</v>
+        <v>113643.40222222199</v>
       </c>
       <c r="O326">
-        <v>175628.21555555501</v>
+        <v>118955.82</v>
       </c>
       <c r="P326">
-        <v>164409.022222222</v>
+        <v>120882.435555555</v>
       </c>
     </row>
     <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13788,37 +13788,28 @@
       </c>
       <c r="F328" s="16">
         <f t="shared" si="15"/>
-        <v>51789.177999999942</v>
+        <v>29970.866984126915</v>
       </c>
       <c r="G328">
-        <v>12471.3866666666</v>
+        <v>38938.075555555501</v>
       </c>
       <c r="H328">
-        <v>13442.5933333333</v>
+        <v>22255.637777777702</v>
       </c>
       <c r="I328">
-        <v>21760.651111111099</v>
+        <v>29598.828888888798</v>
       </c>
       <c r="J328">
-        <v>73244.317777777702</v>
+        <v>29534.968888888801</v>
       </c>
       <c r="K328">
-        <v>16490.006666666599</v>
-      </c>
-      <c r="L328">
-        <v>40722.5666666666</v>
-      </c>
-      <c r="M328">
-        <v>57745.471111111103</v>
+        <v>40626.871111111097</v>
       </c>
       <c r="N328">
-        <v>45654.106666666601</v>
-      </c>
-      <c r="O328">
-        <v>55791.148888888798</v>
+        <v>35924.608888888797</v>
       </c>
       <c r="P328">
-        <v>180569.53111111099</v>
+        <v>12917.0777777777</v>
       </c>
     </row>
     <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13839,20 +13830,14 @@
       </c>
       <c r="F329" s="16">
         <f xml:space="preserve"> AVERAGE(G329:P329)</f>
-        <v>1348.7262222222209</v>
+        <v>179.29999999999964</v>
       </c>
       <c r="G329">
         <v>174.16</v>
       </c>
-      <c r="H329">
-        <v>489.56</v>
-      </c>
       <c r="I329">
         <v>174.18</v>
       </c>
-      <c r="J329">
-        <v>1568.24444444444</v>
-      </c>
       <c r="K329">
         <v>174.18</v>
       </c>
@@ -13861,12 +13846,6 @@
       </c>
       <c r="M329">
         <v>188.01999999999899</v>
-      </c>
-      <c r="N329">
-        <v>4193.08</v>
-      </c>
-      <c r="O329">
-        <v>6160.5777777777703</v>
       </c>
       <c r="P329">
         <v>191.099999999999</v>
@@ -13890,19 +13869,13 @@
       </c>
       <c r="F330" s="16">
         <f t="shared" ref="F330:F345" si="16" xml:space="preserve"> AVERAGE(G330:P330)</f>
-        <v>1938.3351111111101</v>
+        <v>167.19749999999991</v>
       </c>
       <c r="G330">
         <v>168.8</v>
       </c>
-      <c r="H330">
-        <v>9325.4155555555499</v>
-      </c>
       <c r="I330">
         <v>169.11999999999901</v>
-      </c>
-      <c r="J330">
-        <v>8720.3555555555504</v>
       </c>
       <c r="K330">
         <v>160.80000000000001</v>
@@ -13941,37 +13914,31 @@
       </c>
       <c r="F331" s="16">
         <f t="shared" si="16"/>
-        <v>44386.338444444409</v>
-      </c>
-      <c r="G331">
-        <v>74215.506666666595</v>
+        <v>20242.6011111111</v>
       </c>
       <c r="H331">
-        <v>19824.071111111101</v>
+        <v>34599.722222222197</v>
       </c>
       <c r="I331">
-        <v>49814.391111111101</v>
+        <v>24214.942222222198</v>
       </c>
       <c r="J331">
-        <v>36897.235555555497</v>
+        <v>26221.98</v>
       </c>
       <c r="K331">
-        <v>18456.326666666599</v>
+        <v>7447.5711111111104</v>
       </c>
       <c r="L331">
-        <v>19347.593333333301</v>
+        <v>10834.36</v>
       </c>
       <c r="M331">
-        <v>57513.131111111099</v>
-      </c>
-      <c r="N331">
-        <v>48280.771111111098</v>
+        <v>10829.82</v>
       </c>
       <c r="O331">
-        <v>78344.78</v>
+        <v>33452.92</v>
       </c>
       <c r="P331">
-        <v>41169.577777777697</v>
+        <v>14339.493333333299</v>
       </c>
     </row>
     <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13992,34 +13959,34 @@
       </c>
       <c r="F332" s="16">
         <f t="shared" si="16"/>
-        <v>19445.814567901201</v>
+        <v>14527.631358024648</v>
       </c>
       <c r="G332">
-        <v>17598.926666666601</v>
+        <v>16038.677777777701</v>
       </c>
       <c r="H332">
-        <v>20866.6733333333</v>
+        <v>18878.2</v>
       </c>
       <c r="I332">
-        <v>22341.3511111111</v>
+        <v>14747.1933333333</v>
       </c>
       <c r="J332">
-        <v>24497.971111111099</v>
+        <v>11022.026666666599</v>
       </c>
       <c r="K332">
-        <v>13998.8266666666</v>
+        <v>14413.971111111099</v>
       </c>
       <c r="L332">
-        <v>18360.444444444402</v>
-      </c>
-      <c r="M332">
-        <v>16238.311111111099</v>
+        <v>16833.6933333333</v>
       </c>
       <c r="N332">
-        <v>27113.8</v>
+        <v>9785.7333333333299</v>
       </c>
       <c r="O332">
-        <v>13996.026666666599</v>
+        <v>14260.9777777777</v>
+      </c>
+      <c r="P332">
+        <v>14768.208888888799</v>
       </c>
     </row>
     <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14134,9 +14101,39 @@
       <c r="E335" s="40">
         <v>120</v>
       </c>
-      <c r="F335" s="16" t="e">
+      <c r="F335" s="16">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>112.2491666666665</v>
+      </c>
+      <c r="G335">
+        <v>108.785</v>
+      </c>
+      <c r="H335">
+        <v>106.06</v>
+      </c>
+      <c r="I335">
+        <v>109.47499999999999</v>
+      </c>
+      <c r="J335">
+        <v>117.598333333333</v>
+      </c>
+      <c r="K335">
+        <v>105.81</v>
+      </c>
+      <c r="L335">
+        <v>114.948333333333</v>
+      </c>
+      <c r="M335">
+        <v>109.24</v>
+      </c>
+      <c r="N335">
+        <v>116.558333333333</v>
+      </c>
+      <c r="O335">
+        <v>115.23333333333299</v>
+      </c>
+      <c r="P335">
+        <v>118.783333333333</v>
       </c>
     </row>
     <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14155,12 +14152,42 @@
       <c r="E336" s="18">
         <v>100</v>
       </c>
-      <c r="F336" s="19" t="e">
+      <c r="F336" s="19">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="337" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3406.6567777777723</v>
+      </c>
+      <c r="G336">
+        <v>3299.73277777777</v>
+      </c>
+      <c r="H336">
+        <v>3530.92611111111</v>
+      </c>
+      <c r="I336">
+        <v>3297.73277777777</v>
+      </c>
+      <c r="J336">
+        <v>3297.4477777777702</v>
+      </c>
+      <c r="K336">
+        <v>3296.3627777777701</v>
+      </c>
+      <c r="L336">
+        <v>3492.9027777777701</v>
+      </c>
+      <c r="M336">
+        <v>3528.5811111111102</v>
+      </c>
+      <c r="N336">
+        <v>3496.6977777777702</v>
+      </c>
+      <c r="O336">
+        <v>3296.1627777777699</v>
+      </c>
+      <c r="P336">
+        <v>3530.0211111111098</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="32" t="s">
         <v>27</v>
       </c>
@@ -14176,12 +14203,36 @@
       <c r="E337" s="40">
         <v>110</v>
       </c>
-      <c r="F337" s="16" t="e">
+      <c r="F337" s="16">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="338" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104.08999999999988</v>
+      </c>
+      <c r="G337">
+        <v>104.304999999999</v>
+      </c>
+      <c r="H337">
+        <v>104.69</v>
+      </c>
+      <c r="I337">
+        <v>102.54</v>
+      </c>
+      <c r="J337">
+        <v>102.31</v>
+      </c>
+      <c r="K337">
+        <v>105.155</v>
+      </c>
+      <c r="L337">
+        <v>102.155</v>
+      </c>
+      <c r="M337">
+        <v>105.2</v>
+      </c>
+      <c r="N337">
+        <v>106.36499999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>28</v>
       </c>
@@ -14197,12 +14248,30 @@
       <c r="E338" s="18">
         <v>96</v>
       </c>
-      <c r="F338" s="19" t="e">
+      <c r="F338" s="19">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="339" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1641.5255555555534</v>
+      </c>
+      <c r="G338">
+        <v>1642.4422222222199</v>
+      </c>
+      <c r="H338">
+        <v>1639.02722222222</v>
+      </c>
+      <c r="I338">
+        <v>1643.0022222222201</v>
+      </c>
+      <c r="J338">
+        <v>1642.64222222222</v>
+      </c>
+      <c r="L338">
+        <v>1642.0772222222199</v>
+      </c>
+      <c r="M338">
+        <v>1639.9622222222199</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="32" t="s">
         <v>29</v>
       </c>
@@ -14218,12 +14287,30 @@
       <c r="E339" s="40">
         <v>105</v>
       </c>
-      <c r="F339" s="16" t="e">
+      <c r="F339" s="16">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="340" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104.4325</v>
+      </c>
+      <c r="G339">
+        <v>103.14</v>
+      </c>
+      <c r="H339">
+        <v>107.795</v>
+      </c>
+      <c r="I339">
+        <v>102.21</v>
+      </c>
+      <c r="J339">
+        <v>104.745</v>
+      </c>
+      <c r="L339">
+        <v>105.12</v>
+      </c>
+      <c r="M339">
+        <v>103.58499999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
@@ -14239,12 +14326,27 @@
       <c r="E340" s="40">
         <v>94.4</v>
       </c>
-      <c r="F340" s="16" t="e">
+      <c r="F340" s="16">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="341" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89.744</v>
+      </c>
+      <c r="G340">
+        <v>88.54</v>
+      </c>
+      <c r="H340">
+        <v>90.77</v>
+      </c>
+      <c r="J340">
+        <v>88.305000000000007</v>
+      </c>
+      <c r="L340">
+        <v>91.11</v>
+      </c>
+      <c r="M340">
+        <v>89.995000000000005</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="32" t="s">
         <v>31</v>
       </c>
@@ -14260,12 +14362,42 @@
       <c r="E341" s="18">
         <v>6428</v>
       </c>
-      <c r="F341" s="19" t="e">
+      <c r="F341" s="19">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="342" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9801.2519444444224</v>
+      </c>
+      <c r="G341">
+        <v>9851.0961111111101</v>
+      </c>
+      <c r="H341">
+        <v>9551.2511111111107</v>
+      </c>
+      <c r="I341">
+        <v>10485.8994444444</v>
+      </c>
+      <c r="J341">
+        <v>9697.9494444444408</v>
+      </c>
+      <c r="K341">
+        <v>9755.4611111111099</v>
+      </c>
+      <c r="L341">
+        <v>12830.9233333333</v>
+      </c>
+      <c r="M341">
+        <v>5926.65888888888</v>
+      </c>
+      <c r="N341">
+        <v>10202.472777777701</v>
+      </c>
+      <c r="O341">
+        <v>10089.394444444401</v>
+      </c>
+      <c r="P341">
+        <v>9621.4127777777703</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>32</v>
       </c>
@@ -14281,12 +14413,42 @@
       <c r="E342" s="40">
         <v>9285</v>
       </c>
-      <c r="F342" s="16" t="e">
+      <c r="F342" s="16">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="343" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8534.9488333333156</v>
+      </c>
+      <c r="G342">
+        <v>8321.8922222222209</v>
+      </c>
+      <c r="H342">
+        <v>6025.5372222222204</v>
+      </c>
+      <c r="I342">
+        <v>9662.6505555555505</v>
+      </c>
+      <c r="J342">
+        <v>10065.4783333333</v>
+      </c>
+      <c r="K342">
+        <v>5562.7155555555501</v>
+      </c>
+      <c r="L342">
+        <v>8562.2105555555499</v>
+      </c>
+      <c r="M342">
+        <v>12160.7583333333</v>
+      </c>
+      <c r="N342">
+        <v>5858.6255555555499</v>
+      </c>
+      <c r="O342">
+        <v>9040.4511111111096</v>
+      </c>
+      <c r="P342">
+        <v>10089.1688888888</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="32" t="s">
         <v>33</v>
       </c>
@@ -14302,12 +14464,42 @@
       <c r="E343" s="40">
         <v>130</v>
       </c>
-      <c r="F343" s="16" t="e">
+      <c r="F343" s="16">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="344" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>128.17699999999962</v>
+      </c>
+      <c r="G343">
+        <v>127.485</v>
+      </c>
+      <c r="H343">
+        <v>130.87</v>
+      </c>
+      <c r="I343">
+        <v>128.73499999999899</v>
+      </c>
+      <c r="J343">
+        <v>127.61</v>
+      </c>
+      <c r="K343">
+        <v>130.495</v>
+      </c>
+      <c r="L343">
+        <v>130.625</v>
+      </c>
+      <c r="M343">
+        <v>127.92</v>
+      </c>
+      <c r="N343">
+        <v>126.009999999999</v>
+      </c>
+      <c r="O343">
+        <v>126.009999999999</v>
+      </c>
+      <c r="P343">
+        <v>126.009999999999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>34</v>
       </c>
@@ -14323,12 +14515,42 @@
       <c r="E344" s="18">
         <v>302</v>
       </c>
-      <c r="F344" s="19" t="e">
+      <c r="F344" s="19">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="345" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7153.3489444444422</v>
+      </c>
+      <c r="G344">
+        <v>7128.89222222222</v>
+      </c>
+      <c r="H344">
+        <v>7135.7222222222199</v>
+      </c>
+      <c r="I344">
+        <v>7133.5922222222198</v>
+      </c>
+      <c r="J344">
+        <v>7138.0372222222204</v>
+      </c>
+      <c r="K344">
+        <v>7136.7522222222196</v>
+      </c>
+      <c r="L344">
+        <v>7129.9272222222198</v>
+      </c>
+      <c r="M344">
+        <v>7333.2644444444404</v>
+      </c>
+      <c r="N344">
+        <v>7133.6172222222203</v>
+      </c>
+      <c r="O344">
+        <v>7133.6172222222203</v>
+      </c>
+      <c r="P344">
+        <v>7130.0672222222202</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="32" t="s">
         <v>35</v>
       </c>
@@ -14344,12 +14566,39 @@
       <c r="E345" s="18">
         <v>925</v>
       </c>
-      <c r="F345" s="19" t="e">
+      <c r="F345" s="19">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="346" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5492.8387037036982</v>
+      </c>
+      <c r="G345">
+        <v>3025.2166666666599</v>
+      </c>
+      <c r="H345">
+        <v>6091.6738888888804</v>
+      </c>
+      <c r="J345">
+        <v>5668.4505555555497</v>
+      </c>
+      <c r="K345">
+        <v>5669.13055555555</v>
+      </c>
+      <c r="L345">
+        <v>6071.0855555555499</v>
+      </c>
+      <c r="M345">
+        <v>5699.8044444444404</v>
+      </c>
+      <c r="N345">
+        <v>5669.13055555555</v>
+      </c>
+      <c r="O345">
+        <v>5871.9255555555501</v>
+      </c>
+      <c r="P345">
+        <v>5669.13055555555</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>36</v>
       </c>
@@ -14370,7 +14619,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="32" t="s">
         <v>37</v>
       </c>
@@ -14386,12 +14635,42 @@
       <c r="E347" s="40">
         <v>22000</v>
       </c>
-      <c r="F347" s="16" t="e">
-        <f t="shared" ref="F347:F367" si="17" xml:space="preserve"> AVERAGE(G347:P347)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="348" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F347" s="16">
+        <f xml:space="preserve"> AVERAGE(G347:P347)</f>
+        <v>15396.787866666651</v>
+      </c>
+      <c r="G347">
+        <v>14681.418</v>
+      </c>
+      <c r="H347">
+        <v>15915.227000000001</v>
+      </c>
+      <c r="I347">
+        <v>15918.182000000001</v>
+      </c>
+      <c r="J347">
+        <v>16120.347</v>
+      </c>
+      <c r="K347">
+        <v>16808.321666666601</v>
+      </c>
+      <c r="L347">
+        <v>19749.764999999999</v>
+      </c>
+      <c r="M347">
+        <v>16183.993</v>
+      </c>
+      <c r="N347">
+        <v>10261.3416666666</v>
+      </c>
+      <c r="O347">
+        <v>13749.674999999999</v>
+      </c>
+      <c r="P347">
+        <v>14579.608333333301</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>38</v>
       </c>
@@ -14407,57 +14686,63 @@
       <c r="E348" s="18">
         <v>200</v>
       </c>
-      <c r="F348" s="19" t="e">
+      <c r="F348" s="19">
+        <f t="shared" ref="F348:F367" si="17" xml:space="preserve"> AVERAGE(G348:P348)</f>
+        <v>6638.2183666666651</v>
+      </c>
+      <c r="G348">
+        <v>5827.8689999999997</v>
+      </c>
+      <c r="H348">
+        <v>7729.5389999999998</v>
+      </c>
+      <c r="I348">
+        <v>6191.1459999999997</v>
+      </c>
+      <c r="J348">
+        <v>7528.9440000000004</v>
+      </c>
+      <c r="K348">
+        <v>5993.0955555555502</v>
+      </c>
+      <c r="L348">
+        <v>6257.8469999999998</v>
+      </c>
+      <c r="M348">
+        <v>5687.7110000000002</v>
+      </c>
+      <c r="N348">
+        <v>5688.4359999999997</v>
+      </c>
+      <c r="O348">
+        <v>7621.0788888888801</v>
+      </c>
+      <c r="P348">
+        <v>7856.51722222222</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B349" s="11">
+        <v>3667.1041329999998</v>
+      </c>
+      <c r="C349" s="39">
+        <v>7030</v>
+      </c>
+      <c r="D349" s="40">
+        <v>95000</v>
+      </c>
+      <c r="E349" s="41">
+        <v>1300</v>
+      </c>
+      <c r="F349" s="16" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B349" s="11">
-        <v>3667.1041329999998</v>
-      </c>
-      <c r="C349" s="39">
-        <v>7030</v>
-      </c>
-      <c r="D349" s="40">
-        <v>95000</v>
-      </c>
-      <c r="E349" s="41">
-        <v>1300</v>
-      </c>
-      <c r="F349" s="16">
-        <f t="shared" si="17"/>
-        <v>75.40674999999996</v>
-      </c>
-      <c r="G349">
-        <v>76.616</v>
-      </c>
-      <c r="H349">
-        <v>76.073999999999899</v>
-      </c>
-      <c r="I349">
-        <v>72.337999999999994</v>
-      </c>
-      <c r="J349">
-        <v>72.363999999999905</v>
-      </c>
-      <c r="K349">
-        <v>75.569999999999993</v>
-      </c>
-      <c r="L349">
-        <v>77.518000000000001</v>
-      </c>
-      <c r="M349">
-        <v>76.367999999999995</v>
-      </c>
-      <c r="N349">
-        <v>76.406000000000006</v>
-      </c>
-    </row>
-    <row r="350" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="32" t="s">
         <v>40</v>
       </c>
@@ -14473,33 +14758,12 @@
       <c r="E350" s="18">
         <v>100</v>
       </c>
-      <c r="F350" s="19">
+      <c r="F350" s="19" t="e">
         <f t="shared" si="17"/>
-        <v>6721.8893968253897</v>
-      </c>
-      <c r="G350">
-        <v>7151.0086666666602</v>
-      </c>
-      <c r="H350">
-        <v>10492.193111111101</v>
-      </c>
-      <c r="I350">
-        <v>9087.2817777777691</v>
-      </c>
-      <c r="J350">
-        <v>3517.18711111111</v>
-      </c>
-      <c r="K350">
-        <v>5161.6337777777699</v>
-      </c>
-      <c r="L350">
-        <v>6292.1208888888796</v>
-      </c>
-      <c r="M350">
-        <v>5351.8004444444396</v>
-      </c>
-    </row>
-    <row r="351" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="32" t="s">
         <v>41</v>
       </c>
@@ -14515,36 +14779,12 @@
       <c r="E351" s="18">
         <v>100</v>
       </c>
-      <c r="F351" s="19">
-        <f t="shared" si="17"/>
-        <v>3439.5528055555501</v>
-      </c>
-      <c r="G351">
-        <v>3439.7535555555501</v>
-      </c>
-      <c r="H351">
-        <v>3440.2415555555499</v>
-      </c>
-      <c r="I351">
-        <v>3439.8295555555501</v>
-      </c>
-      <c r="J351">
-        <v>3441.00755555555</v>
-      </c>
-      <c r="K351">
-        <v>3438.7235555555499</v>
-      </c>
-      <c r="L351">
-        <v>3435.6955555555501</v>
-      </c>
-      <c r="M351">
-        <v>3439.1135555555502</v>
-      </c>
-      <c r="N351">
-        <v>3442.0575555555502</v>
-      </c>
-    </row>
-    <row r="352" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F351" s="19" t="e">
+        <f xml:space="preserve"> AVERAGE(G351:P351)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="32" t="s">
         <v>42</v>
       </c>
@@ -14560,36 +14800,12 @@
       <c r="E352" s="18">
         <v>900</v>
       </c>
-      <c r="F352" s="19">
+      <c r="F352" s="19" t="e">
         <f t="shared" si="17"/>
-        <v>16175.446305555502</v>
-      </c>
-      <c r="G352">
-        <v>16870.1455555555</v>
-      </c>
-      <c r="H352">
-        <v>15306.350888888799</v>
-      </c>
-      <c r="I352">
-        <v>13071.2473333333</v>
-      </c>
-      <c r="J352">
-        <v>17786.636444444401</v>
-      </c>
-      <c r="K352">
-        <v>14320.6397777777</v>
-      </c>
-      <c r="L352">
-        <v>16874.241555555502</v>
-      </c>
-      <c r="M352">
-        <v>17254.641111111101</v>
-      </c>
-      <c r="N352">
-        <v>17919.6677777777</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="32" t="s">
         <v>43</v>
       </c>
@@ -14603,42 +14819,12 @@
         <v>95700</v>
       </c>
       <c r="E353" s="11"/>
-      <c r="F353" s="19">
+      <c r="F353" s="19" t="e">
         <f t="shared" si="17"/>
-        <v>10559.417244444416</v>
-      </c>
-      <c r="G353">
-        <v>7403.4340000000002</v>
-      </c>
-      <c r="H353">
-        <v>9994.3808888888798</v>
-      </c>
-      <c r="I353">
-        <v>11661.5895555555</v>
-      </c>
-      <c r="J353">
-        <v>9526.2962222222195</v>
-      </c>
-      <c r="K353">
-        <v>11826.0482222222</v>
-      </c>
-      <c r="L353">
-        <v>11726.098222222199</v>
-      </c>
-      <c r="M353">
-        <v>12058.531555555501</v>
-      </c>
-      <c r="N353">
-        <v>11960.6875555555</v>
-      </c>
-      <c r="O353">
-        <v>11865.995555555501</v>
-      </c>
-      <c r="P353">
-        <v>7571.1106666666601</v>
-      </c>
-    </row>
-    <row r="354" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="32" t="s">
         <v>44</v>
       </c>
@@ -14652,39 +14838,13 @@
         <v>94200</v>
       </c>
       <c r="E354" s="11"/>
-      <c r="F354" s="19">
+      <c r="F354" s="19" t="e">
         <f t="shared" si="17"/>
-        <v>15479.12938271601</v>
-      </c>
-      <c r="G354">
-        <v>18008.4931111111</v>
-      </c>
-      <c r="H354">
-        <v>17641.586444444401</v>
-      </c>
-      <c r="I354" s="42">
-        <v>17203.9391111111</v>
-      </c>
-      <c r="J354">
-        <v>18176.341777777699</v>
-      </c>
-      <c r="K354">
-        <v>13573.589777777701</v>
-      </c>
-      <c r="L354">
-        <v>11105.961111111101</v>
-      </c>
-      <c r="M354">
-        <v>15309.105111111099</v>
-      </c>
-      <c r="N354">
-        <v>12685.8728888888</v>
-      </c>
-      <c r="O354">
-        <v>15607.275111111099</v>
-      </c>
-    </row>
-    <row r="355" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I354" s="42"/>
+    </row>
+    <row r="355" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="32" t="s">
         <v>45</v>
       </c>
@@ -14698,39 +14858,12 @@
         <v>85200</v>
       </c>
       <c r="E355" s="11"/>
-      <c r="F355" s="19">
+      <c r="F355" s="19" t="e">
         <f t="shared" si="17"/>
-        <v>20701.367777777723</v>
-      </c>
-      <c r="G355">
-        <v>19248.343555555501</v>
-      </c>
-      <c r="H355">
-        <v>20945.167555555501</v>
-      </c>
-      <c r="I355">
-        <v>21414.2522222222</v>
-      </c>
-      <c r="J355">
-        <v>21478.886888888799</v>
-      </c>
-      <c r="K355">
-        <v>19143.811555555501</v>
-      </c>
-      <c r="L355">
-        <v>21245.933555555501</v>
-      </c>
-      <c r="M355">
-        <v>21414.5582222222</v>
-      </c>
-      <c r="N355">
-        <v>19876.650888888798</v>
-      </c>
-      <c r="O355">
-        <v>21544.705555555502</v>
-      </c>
-    </row>
-    <row r="356" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="32" t="s">
         <v>46</v>
       </c>
@@ -14744,42 +14877,12 @@
         <v>117000</v>
       </c>
       <c r="E356" s="11"/>
-      <c r="F356" s="19">
+      <c r="F356" s="19" t="e">
         <f t="shared" si="17"/>
-        <v>10650.547577777757</v>
-      </c>
-      <c r="G356">
-        <v>11778.4911111111</v>
-      </c>
-      <c r="H356">
-        <v>13510.790444444399</v>
-      </c>
-      <c r="I356">
-        <v>10497.4551111111</v>
-      </c>
-      <c r="J356">
-        <v>8495.9677777777706</v>
-      </c>
-      <c r="K356">
-        <v>9799.2811111111096</v>
-      </c>
-      <c r="L356">
-        <v>10399.7951111111</v>
-      </c>
-      <c r="M356">
-        <v>12376.543111111099</v>
-      </c>
-      <c r="N356">
-        <v>9835.5444444444402</v>
-      </c>
-      <c r="O356">
-        <v>9070.58977777777</v>
-      </c>
-      <c r="P356">
-        <v>10741.017777777701</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="32" t="s">
         <v>47</v>
       </c>
@@ -14798,7 +14901,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="32" t="s">
         <v>48</v>
       </c>
@@ -14817,7 +14920,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="32" t="s">
         <v>49</v>
       </c>
@@ -14836,7 +14939,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="32" t="s">
         <v>50</v>
       </c>
@@ -14855,7 +14958,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="32" t="s">
         <v>51</v>
       </c>
@@ -14874,7 +14977,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="32" t="s">
         <v>52</v>
       </c>
@@ -14893,7 +14996,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="32" t="s">
         <v>53</v>
       </c>
@@ -14912,7 +15015,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="32" t="s">
         <v>54</v>
       </c>
@@ -14931,7 +15034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="32" t="s">
         <v>55</v>
       </c>
@@ -14950,7 +15053,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="32" t="s">
         <v>56</v>
       </c>
@@ -14969,7 +15072,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="32" t="s">
         <v>57</v>
       </c>
@@ -14988,7 +15091,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="32" t="s">
         <v>58</v>
       </c>

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB2E3A7-0130-429A-977E-F418570615C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A0ABA-18AF-472C-9C50-D102C7F9BA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -830,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O351" sqref="O351"/>
+    <sheetView tabSelected="1" topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F328" sqref="F328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13686,37 +13686,37 @@
       </c>
       <c r="F326" s="16">
         <f xml:space="preserve"> AVERAGE(G326:P326)</f>
-        <v>130400.34022222183</v>
+        <v>126363.84222222201</v>
       </c>
       <c r="G326">
-        <v>168786.22666666601</v>
+        <v>115298.86</v>
       </c>
       <c r="H326">
-        <v>110920.96222222201</v>
+        <v>117446.32</v>
       </c>
       <c r="I326">
-        <v>156206.90888888799</v>
+        <v>121328.177777777</v>
       </c>
       <c r="J326">
-        <v>98414.882222222193</v>
+        <v>138760.62444444399</v>
       </c>
       <c r="K326">
-        <v>146500.63777777701</v>
+        <v>145471.67999999999</v>
       </c>
       <c r="L326">
-        <v>137100.82222222199</v>
+        <v>146481.731111111</v>
       </c>
       <c r="M326">
-        <v>132591.30444444399</v>
+        <v>123929.11111111099</v>
       </c>
       <c r="N326">
-        <v>113643.40222222199</v>
+        <v>116147.74</v>
       </c>
       <c r="O326">
-        <v>118955.82</v>
+        <v>121327.857777777</v>
       </c>
       <c r="P326">
-        <v>120882.435555555</v>
+        <v>117446.32</v>
       </c>
     </row>
     <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Kết quả thử nghiệm.xlsx
+++ b/Kết quả thử nghiệm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PHUC\DPDP\New_DPDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A0ABA-18AF-472C-9C50-D102C7F9BA81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10548B1-684A-44C5-A316-CD21E15DA373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -350,17 +350,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -594,6 +597,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="13" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -830,28 +838,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH960"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A406" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F328" sqref="F328"/>
+    <sheetView tabSelected="1" topLeftCell="A346" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B369" sqref="B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="11" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="16" max="17" width="11.42578125" customWidth="1"/>
+    <col min="15" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" customWidth="1"/>
     <col min="19" max="20" width="12.42578125" customWidth="1"/>
     <col min="21" max="21" width="12.5703125" customWidth="1"/>
@@ -2159,22 +2162,22 @@
     <row r="42" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="L44" s="51" t="s">
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="L44" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
     </row>
     <row r="45" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
@@ -3236,22 +3239,22 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
-      <c r="L63" s="52" t="s">
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="L63" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="M63" s="50"/>
-      <c r="N63" s="50"/>
-      <c r="O63" s="50"/>
-      <c r="P63" s="50"/>
-      <c r="Q63" s="50"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="27" t="s">
@@ -4220,12 +4223,12 @@
     </row>
     <row r="81" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="82" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="50"/>
-      <c r="C82" s="50"/>
-      <c r="D82" s="50"/>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="53"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="53"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
@@ -4724,14 +4727,14 @@
     <row r="102" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="103" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="104" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="R104" s="48" t="s">
+      <c r="R104" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="S104" s="48"/>
-      <c r="T104" s="48"/>
-      <c r="U104" s="48"/>
-      <c r="V104" s="48"/>
-      <c r="W104" s="48"/>
+      <c r="S104" s="51"/>
+      <c r="T104" s="51"/>
+      <c r="U104" s="51"/>
+      <c r="V104" s="51"/>
+      <c r="W104" s="51"/>
     </row>
     <row r="105" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="27" t="s">
@@ -8137,22 +8140,22 @@
     <row r="175" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="49" t="s">
+      <c r="A177" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="50"/>
-      <c r="F177" s="50"/>
-      <c r="R177" s="50" t="s">
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="53"/>
+      <c r="R177" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="S177" s="50"/>
-      <c r="T177" s="50"/>
-      <c r="U177" s="50"/>
-      <c r="V177" s="50"/>
-      <c r="W177" s="50"/>
+      <c r="S177" s="53"/>
+      <c r="T177" s="53"/>
+      <c r="U177" s="53"/>
+      <c r="V177" s="53"/>
+      <c r="W177" s="53"/>
     </row>
     <row r="178" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="27" t="s">
@@ -11370,7 +11373,7 @@
         <v>95</v>
       </c>
       <c r="F255" s="16">
-        <f t="shared" ref="F255:F298" si="13" xml:space="preserve"> AVERAGE(G255:P255)</f>
+        <f t="shared" ref="F255:F311" si="13" xml:space="preserve"> AVERAGE(G255:P255)</f>
         <v>65.543999999999954</v>
       </c>
       <c r="G255">
@@ -13261,7 +13264,10 @@
         <v>2030000</v>
       </c>
       <c r="E299" s="11"/>
-      <c r="F299" s="11"/>
+      <c r="F299" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="32" t="s">
@@ -13277,7 +13283,10 @@
         <v>1930000</v>
       </c>
       <c r="E300" s="11"/>
-      <c r="F300" s="11"/>
+      <c r="F300" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="32" t="s">
@@ -13293,7 +13302,10 @@
         <v>2000000</v>
       </c>
       <c r="E301" s="11"/>
-      <c r="F301" s="11"/>
+      <c r="F301" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="32" t="s">
@@ -13309,7 +13321,10 @@
         <v>1980000</v>
       </c>
       <c r="E302" s="11"/>
-      <c r="F302" s="11"/>
+      <c r="F302" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="32" t="s">
@@ -13325,7 +13340,10 @@
         <v>2160000</v>
       </c>
       <c r="E303" s="11"/>
-      <c r="F303" s="11"/>
+      <c r="F303" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="32" t="s">
@@ -13341,9 +13359,12 @@
         <v>16500000</v>
       </c>
       <c r="E304" s="11"/>
-      <c r="F304" s="11"/>
-    </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F304" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="305" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="32" t="s">
         <v>64</v>
       </c>
@@ -13357,9 +13378,12 @@
         <v>11200000</v>
       </c>
       <c r="E305" s="11"/>
-      <c r="F305" s="11"/>
-    </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F305" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="306" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="32" t="s">
         <v>65</v>
       </c>
@@ -13373,9 +13397,12 @@
         <v>9540000</v>
       </c>
       <c r="E306" s="11"/>
-      <c r="F306" s="11"/>
-    </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F306" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="307" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="32" t="s">
         <v>66</v>
       </c>
@@ -13389,9 +13416,12 @@
         <v>13200000</v>
       </c>
       <c r="E307" s="11"/>
-      <c r="F307" s="11"/>
-    </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F307" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="32" t="s">
         <v>67</v>
       </c>
@@ -13405,9 +13435,12 @@
         <v>7210000</v>
       </c>
       <c r="E308" s="11"/>
-      <c r="F308" s="11"/>
-    </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F308" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="32" t="s">
         <v>68</v>
       </c>
@@ -13421,9 +13454,12 @@
         <v>10900000</v>
       </c>
       <c r="E309" s="11"/>
-      <c r="F309" s="11"/>
-    </row>
-    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F309" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="310" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="32" t="s">
         <v>69</v>
       </c>
@@ -13437,9 +13473,12 @@
         <v>25000000</v>
       </c>
       <c r="E310" s="11"/>
-      <c r="F310" s="11"/>
-    </row>
-    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F310" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="32" t="s">
         <v>70</v>
       </c>
@@ -13453,13 +13492,16 @@
         <v>27400000</v>
       </c>
       <c r="E311" s="11"/>
-      <c r="F311" s="11"/>
-    </row>
-    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F311" s="19" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="27" t="s">
         <v>71</v>
       </c>
@@ -13479,7 +13521,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="8" t="s">
         <v>0</v>
       </c>
@@ -13495,12 +13537,50 @@
       <c r="E317" s="19">
         <v>135</v>
       </c>
-      <c r="F317" s="16" t="e">
+      <c r="F317" s="19">
         <f xml:space="preserve"> AVERAGE(G317:P317)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130.37199999999979</v>
+      </c>
+      <c r="G317">
+        <v>116.979999999999</v>
+      </c>
+      <c r="H317">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="I317">
+        <v>128.38</v>
+      </c>
+      <c r="J317">
+        <v>137.06</v>
+      </c>
+      <c r="K317">
+        <v>136.1</v>
+      </c>
+      <c r="L317">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="M317">
+        <v>135.72</v>
+      </c>
+      <c r="N317">
+        <v>135.91999999999999</v>
+      </c>
+      <c r="O317">
+        <v>132.74</v>
+      </c>
+      <c r="P317">
+        <v>117.41999999999901</v>
+      </c>
+      <c r="S317">
+        <f>COUNTIF(T317:T372, "&gt;=0")</f>
+        <v>41</v>
+      </c>
+      <c r="T317">
+        <f>(B317-F317)/B317 * 100</f>
+        <v>2.707462686567323</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="s">
         <v>1</v>
       </c>
@@ -13516,12 +13596,46 @@
       <c r="E318" s="28">
         <v>95.6</v>
       </c>
-      <c r="F318" s="16" t="e">
+      <c r="F318" s="19">
         <f t="shared" ref="F318:F322" si="14" xml:space="preserve"> AVERAGE(G318:P318)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90.121999999999986</v>
+      </c>
+      <c r="G318">
+        <v>92.4</v>
+      </c>
+      <c r="H318">
+        <v>92.1</v>
+      </c>
+      <c r="I318">
+        <v>89.52</v>
+      </c>
+      <c r="J318">
+        <v>92.12</v>
+      </c>
+      <c r="K318">
+        <v>92.9</v>
+      </c>
+      <c r="L318">
+        <v>86.92</v>
+      </c>
+      <c r="M318">
+        <v>87</v>
+      </c>
+      <c r="N318">
+        <v>92.14</v>
+      </c>
+      <c r="O318">
+        <v>86.92</v>
+      </c>
+      <c r="P318">
+        <v>89.2</v>
+      </c>
+      <c r="T318">
+        <f t="shared" ref="T318:T372" si="15">(B318-F318)/B318 * 100</f>
+        <v>5.867975767704209</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="8" t="s">
         <v>2</v>
       </c>
@@ -13531,18 +13645,56 @@
       <c r="C319" s="28">
         <v>35800</v>
       </c>
-      <c r="D319" s="17">
+      <c r="D319" s="48">
         <v>96.5</v>
       </c>
       <c r="E319" s="28">
         <v>96.8</v>
       </c>
-      <c r="F319" s="19" t="e">
+      <c r="F319" s="19">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>102.14599999999989</v>
+      </c>
+      <c r="G319">
+        <v>102.55999999999899</v>
+      </c>
+      <c r="H319">
+        <v>101.7</v>
+      </c>
+      <c r="I319">
+        <v>102.42</v>
+      </c>
+      <c r="J319">
+        <v>101.7</v>
+      </c>
+      <c r="K319">
+        <v>101.7</v>
+      </c>
+      <c r="L319">
+        <v>102.42</v>
+      </c>
+      <c r="M319">
+        <v>102.42</v>
+      </c>
+      <c r="N319">
+        <v>101.7</v>
+      </c>
+      <c r="O319">
+        <v>102.42</v>
+      </c>
+      <c r="P319">
+        <v>102.42</v>
+      </c>
+      <c r="S319">
+        <f xml:space="preserve"> AVERAGEIF(T317:T372, "&lt;0")</f>
+        <v>-37.019977684935014</v>
+      </c>
+      <c r="T319">
+        <f t="shared" si="15"/>
+        <v>-4.8296387520524311</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="s">
         <v>3</v>
       </c>
@@ -13558,12 +13710,46 @@
       <c r="E320" s="28">
         <v>94.6</v>
       </c>
-      <c r="F320" s="16" t="e">
+      <c r="F320" s="19">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="321" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>92.835999999999984</v>
+      </c>
+      <c r="G320">
+        <v>91.86</v>
+      </c>
+      <c r="H320">
+        <v>92.82</v>
+      </c>
+      <c r="I320">
+        <v>91.66</v>
+      </c>
+      <c r="J320">
+        <v>90.56</v>
+      </c>
+      <c r="K320">
+        <v>96.32</v>
+      </c>
+      <c r="L320">
+        <v>91.66</v>
+      </c>
+      <c r="M320">
+        <v>93.78</v>
+      </c>
+      <c r="N320">
+        <v>93.78</v>
+      </c>
+      <c r="O320">
+        <v>93.78</v>
+      </c>
+      <c r="P320">
+        <v>92.14</v>
+      </c>
+      <c r="T320">
+        <f t="shared" si="15"/>
+        <v>9.634841603809404</v>
+      </c>
+    </row>
+    <row r="321" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="8" t="s">
         <v>4</v>
       </c>
@@ -13579,12 +13765,46 @@
       <c r="E321" s="28">
         <v>8000</v>
       </c>
-      <c r="F321" s="19" t="e">
+      <c r="F321" s="19">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="322" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5445.5180000000018</v>
+      </c>
+      <c r="G321">
+        <v>5448.62</v>
+      </c>
+      <c r="H321">
+        <v>5445.26</v>
+      </c>
+      <c r="I321">
+        <v>5445.26</v>
+      </c>
+      <c r="J321">
+        <v>5445.48</v>
+      </c>
+      <c r="K321">
+        <v>5445.26</v>
+      </c>
+      <c r="L321">
+        <v>5444.76</v>
+      </c>
+      <c r="M321">
+        <v>5445.26</v>
+      </c>
+      <c r="N321">
+        <v>5445.26</v>
+      </c>
+      <c r="O321">
+        <v>5444.76</v>
+      </c>
+      <c r="P321">
+        <v>5445.26</v>
+      </c>
+      <c r="T321">
+        <f t="shared" si="15"/>
+        <v>-33.808484713148843</v>
+      </c>
+    </row>
+    <row r="322" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="s">
         <v>5</v>
       </c>
@@ -13600,12 +13820,46 @@
       <c r="E322" s="19">
         <v>120</v>
       </c>
-      <c r="F322" s="19" t="e">
+      <c r="F322" s="19">
         <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="323" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>115.36600000000001</v>
+      </c>
+      <c r="G322">
+        <v>108.96</v>
+      </c>
+      <c r="H322">
+        <v>117.72</v>
+      </c>
+      <c r="I322">
+        <v>118.58</v>
+      </c>
+      <c r="J322">
+        <v>116.72</v>
+      </c>
+      <c r="K322">
+        <v>114.98</v>
+      </c>
+      <c r="L322">
+        <v>118.24</v>
+      </c>
+      <c r="M322">
+        <v>118.58</v>
+      </c>
+      <c r="N322">
+        <v>108.96</v>
+      </c>
+      <c r="O322">
+        <v>115.46</v>
+      </c>
+      <c r="P322">
+        <v>115.46</v>
+      </c>
+      <c r="T322">
+        <f t="shared" si="15"/>
+        <v>-9.8723809523809649</v>
+      </c>
+    </row>
+    <row r="323" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="8" t="s">
         <v>6</v>
       </c>
@@ -13621,12 +13875,46 @@
       <c r="E323" s="19">
         <v>7200</v>
       </c>
-      <c r="F323" s="16" t="e">
+      <c r="F323" s="19">
         <f xml:space="preserve"> AVERAGE(G323:P323)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="324" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3941.4046666666663</v>
+      </c>
+      <c r="G323">
+        <v>3785.04</v>
+      </c>
+      <c r="H323">
+        <v>3984.62</v>
+      </c>
+      <c r="I323">
+        <v>3783.7</v>
+      </c>
+      <c r="J323">
+        <v>3984.96</v>
+      </c>
+      <c r="K323">
+        <v>3985.02</v>
+      </c>
+      <c r="L323">
+        <v>4385.72</v>
+      </c>
+      <c r="M323">
+        <v>3985.48</v>
+      </c>
+      <c r="N323">
+        <v>3783.9</v>
+      </c>
+      <c r="O323">
+        <v>3985.08</v>
+      </c>
+      <c r="P323">
+        <v>3750.5266666666598</v>
+      </c>
+      <c r="T323">
+        <f t="shared" si="15"/>
+        <v>61.87498222071136</v>
+      </c>
+    </row>
+    <row r="324" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="s">
         <v>7</v>
       </c>
@@ -13642,12 +13930,46 @@
       <c r="E324" s="19">
         <v>95</v>
       </c>
-      <c r="F324" s="16" t="e">
-        <f t="shared" ref="F324:F328" si="15" xml:space="preserve"> AVERAGE(G324:P324)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="325" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F324" s="19">
+        <f t="shared" ref="F324:F328" si="16" xml:space="preserve"> AVERAGE(G324:P324)</f>
+        <v>65.895999999999958</v>
+      </c>
+      <c r="G324">
+        <v>65.64</v>
+      </c>
+      <c r="H324">
+        <v>65.759999999999906</v>
+      </c>
+      <c r="I324">
+        <v>65.38</v>
+      </c>
+      <c r="J324">
+        <v>65.64</v>
+      </c>
+      <c r="K324">
+        <v>65.64</v>
+      </c>
+      <c r="L324">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="M324">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="N324">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="O324">
+        <v>65.539999999999907</v>
+      </c>
+      <c r="P324">
+        <v>68.739999999999995</v>
+      </c>
+      <c r="T324">
+        <f t="shared" si="15"/>
+        <v>4.2209302325581959</v>
+      </c>
+    </row>
+    <row r="325" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="8" t="s">
         <v>8</v>
       </c>
@@ -13663,12 +13985,46 @@
       <c r="E325" s="19">
         <v>5000</v>
       </c>
-      <c r="F325" s="16" t="e">
+      <c r="F325" s="19">
+        <f t="shared" si="16"/>
+        <v>161.41399999999993</v>
+      </c>
+      <c r="G325">
+        <v>159.96</v>
+      </c>
+      <c r="H325">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="I325">
+        <v>164.82</v>
+      </c>
+      <c r="J325">
+        <v>161.08000000000001</v>
+      </c>
+      <c r="K325">
+        <v>158.74</v>
+      </c>
+      <c r="L325">
+        <v>167.08</v>
+      </c>
+      <c r="M325">
+        <v>161</v>
+      </c>
+      <c r="N325">
+        <v>163.01999999999899</v>
+      </c>
+      <c r="O325">
+        <v>154.76</v>
+      </c>
+      <c r="P325">
+        <v>160.47999999999999</v>
+      </c>
+      <c r="T325">
         <f t="shared" si="15"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="326" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95.119229435092421</v>
+      </c>
+    </row>
+    <row r="326" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="s">
         <v>9</v>
       </c>
@@ -13684,7 +14040,7 @@
       <c r="E326" s="28">
         <v>183000</v>
       </c>
-      <c r="F326" s="16">
+      <c r="F326" s="19">
         <f xml:space="preserve"> AVERAGE(G326:P326)</f>
         <v>126363.84222222201</v>
       </c>
@@ -13718,8 +14074,13 @@
       <c r="P326">
         <v>117446.32</v>
       </c>
-    </row>
-    <row r="327" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S326" s="47"/>
+      <c r="T326">
+        <f t="shared" si="15"/>
+        <v>34.863998854524738</v>
+      </c>
+    </row>
+    <row r="327" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="8" t="s">
         <v>10</v>
       </c>
@@ -13735,8 +14096,8 @@
       <c r="E327" s="19">
         <v>500</v>
       </c>
-      <c r="F327" s="16">
-        <f t="shared" si="15"/>
+      <c r="F327" s="19">
+        <f t="shared" si="16"/>
         <v>178.80399999999992</v>
       </c>
       <c r="G327">
@@ -13769,8 +14130,13 @@
       <c r="P327">
         <v>184.68</v>
       </c>
-    </row>
-    <row r="328" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S327" s="47"/>
+      <c r="T327">
+        <f t="shared" si="15"/>
+        <v>80.367136687264278</v>
+      </c>
+    </row>
+    <row r="328" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="s">
         <v>11</v>
       </c>
@@ -13786,8 +14152,8 @@
       <c r="E328" s="19">
         <v>79000</v>
       </c>
-      <c r="F328" s="16">
-        <f t="shared" si="15"/>
+      <c r="F328" s="19">
+        <f t="shared" si="16"/>
         <v>29970.866984126915</v>
       </c>
       <c r="G328">
@@ -13811,8 +14177,13 @@
       <c r="P328">
         <v>12917.0777777777</v>
       </c>
-    </row>
-    <row r="329" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S328" s="47"/>
+      <c r="T328">
+        <f t="shared" si="15"/>
+        <v>-100.14409760587888</v>
+      </c>
+    </row>
+    <row r="329" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="8" t="s">
         <v>12</v>
       </c>
@@ -13828,7 +14199,7 @@
       <c r="E329" s="19">
         <v>1100</v>
       </c>
-      <c r="F329" s="16">
+      <c r="F329" s="19">
         <f xml:space="preserve"> AVERAGE(G329:P329)</f>
         <v>179.29999999999964</v>
       </c>
@@ -13850,8 +14221,13 @@
       <c r="P329">
         <v>191.099999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S329" s="47"/>
+      <c r="T329">
+        <f t="shared" si="15"/>
+        <v>94.66315200728819</v>
+      </c>
+    </row>
+    <row r="330" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="s">
         <v>13</v>
       </c>
@@ -13867,8 +14243,8 @@
       <c r="E330" s="19">
         <v>6500</v>
       </c>
-      <c r="F330" s="16">
-        <f t="shared" ref="F330:F345" si="16" xml:space="preserve"> AVERAGE(G330:P330)</f>
+      <c r="F330" s="19">
+        <f t="shared" ref="F330:F345" si="17" xml:space="preserve"> AVERAGE(G330:P330)</f>
         <v>167.19749999999991</v>
       </c>
       <c r="G330">
@@ -13895,8 +14271,13 @@
       <c r="P330">
         <v>162.9</v>
       </c>
-    </row>
-    <row r="331" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S330" s="47"/>
+      <c r="T330">
+        <f t="shared" si="15"/>
+        <v>99.079474319299294</v>
+      </c>
+    </row>
+    <row r="331" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="32" t="s">
         <v>14</v>
       </c>
@@ -13912,8 +14293,8 @@
       <c r="E331" s="19">
         <v>47000</v>
       </c>
-      <c r="F331" s="16">
-        <f t="shared" si="16"/>
+      <c r="F331" s="19">
+        <f t="shared" si="17"/>
         <v>20242.6011111111</v>
       </c>
       <c r="H331">
@@ -13940,8 +14321,13 @@
       <c r="P331">
         <v>14339.493333333299</v>
       </c>
-    </row>
-    <row r="332" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S331" s="47"/>
+      <c r="T331">
+        <f t="shared" si="15"/>
+        <v>37.332000024868634</v>
+      </c>
+    </row>
+    <row r="332" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="s">
         <v>15</v>
       </c>
@@ -13957,8 +14343,8 @@
       <c r="E332" s="19">
         <v>49000</v>
       </c>
-      <c r="F332" s="16">
-        <f t="shared" si="16"/>
+      <c r="F332" s="19">
+        <f t="shared" si="17"/>
         <v>14527.631358024648</v>
       </c>
       <c r="G332">
@@ -13988,8 +14374,13 @@
       <c r="P332">
         <v>14768.208888888799</v>
       </c>
-    </row>
-    <row r="333" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S332" s="47"/>
+      <c r="T332">
+        <f t="shared" si="15"/>
+        <v>71.688412911356465</v>
+      </c>
+    </row>
+    <row r="333" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="32" t="s">
         <v>23</v>
       </c>
@@ -14005,8 +14396,8 @@
       <c r="E333" s="40">
         <v>92</v>
       </c>
-      <c r="F333" s="16">
-        <f t="shared" si="16"/>
+      <c r="F333" s="19">
+        <f t="shared" si="17"/>
         <v>83.656666666666666</v>
       </c>
       <c r="G333">
@@ -14036,8 +14427,13 @@
       <c r="O333">
         <v>83.58</v>
       </c>
-    </row>
-    <row r="334" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S333" s="47"/>
+      <c r="T333">
+        <f t="shared" si="15"/>
+        <v>1.1938858869499367</v>
+      </c>
+    </row>
+    <row r="334" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="s">
         <v>24</v>
       </c>
@@ -14053,8 +14449,8 @@
       <c r="E334" s="40">
         <v>96.42</v>
       </c>
-      <c r="F334" s="16">
-        <f t="shared" si="16"/>
+      <c r="F334" s="19">
+        <f t="shared" si="17"/>
         <v>87.089444444444439</v>
       </c>
       <c r="G334">
@@ -14084,8 +14480,13 @@
       <c r="O334">
         <v>87.11</v>
       </c>
-    </row>
-    <row r="335" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S334" s="47"/>
+      <c r="T334">
+        <f t="shared" si="15"/>
+        <v>94.650353009268144</v>
+      </c>
+    </row>
+    <row r="335" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="32" t="s">
         <v>25</v>
       </c>
@@ -14101,8 +14502,8 @@
       <c r="E335" s="40">
         <v>120</v>
       </c>
-      <c r="F335" s="16">
-        <f t="shared" si="16"/>
+      <c r="F335" s="19">
+        <f t="shared" si="17"/>
         <v>112.2491666666665</v>
       </c>
       <c r="G335">
@@ -14135,8 +14536,13 @@
       <c r="P335">
         <v>118.783333333333</v>
       </c>
-    </row>
-    <row r="336" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S335" s="47"/>
+      <c r="T335">
+        <f t="shared" si="15"/>
+        <v>91.091572045106616</v>
+      </c>
+    </row>
+    <row r="336" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="s">
         <v>26</v>
       </c>
@@ -14149,11 +14555,11 @@
       <c r="D336" s="40">
         <v>16200</v>
       </c>
-      <c r="E336" s="18">
+      <c r="E336" s="49">
         <v>100</v>
       </c>
       <c r="F336" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3406.6567777777723</v>
       </c>
       <c r="G336">
@@ -14186,8 +14592,13 @@
       <c r="P336">
         <v>3530.0211111111098</v>
       </c>
-    </row>
-    <row r="337" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S336" s="47"/>
+      <c r="T336">
+        <f t="shared" si="15"/>
+        <v>51.719074812665767</v>
+      </c>
+    </row>
+    <row r="337" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="32" t="s">
         <v>27</v>
       </c>
@@ -14203,8 +14614,8 @@
       <c r="E337" s="40">
         <v>110</v>
       </c>
-      <c r="F337" s="16">
-        <f t="shared" si="16"/>
+      <c r="F337" s="19">
+        <f t="shared" si="17"/>
         <v>104.08999999999988</v>
       </c>
       <c r="G337">
@@ -14231,8 +14642,13 @@
       <c r="N337">
         <v>106.36499999999999</v>
       </c>
-    </row>
-    <row r="338" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S337" s="47"/>
+      <c r="T337">
+        <f t="shared" si="15"/>
+        <v>95.656579899061725</v>
+      </c>
+    </row>
+    <row r="338" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="s">
         <v>28</v>
       </c>
@@ -14245,11 +14661,11 @@
       <c r="D338" s="40">
         <v>21100</v>
       </c>
-      <c r="E338" s="18">
+      <c r="E338" s="49">
         <v>96</v>
       </c>
       <c r="F338" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1641.5255555555534</v>
       </c>
       <c r="G338">
@@ -14270,8 +14686,13 @@
       <c r="M338">
         <v>1639.9622222222199</v>
       </c>
-    </row>
-    <row r="339" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S338" s="47"/>
+      <c r="T338">
+        <f t="shared" si="15"/>
+        <v>50.599182276840182</v>
+      </c>
+    </row>
+    <row r="339" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="32" t="s">
         <v>29</v>
       </c>
@@ -14287,8 +14708,8 @@
       <c r="E339" s="40">
         <v>105</v>
       </c>
-      <c r="F339" s="16">
-        <f t="shared" si="16"/>
+      <c r="F339" s="19">
+        <f t="shared" si="17"/>
         <v>104.4325</v>
       </c>
       <c r="G339">
@@ -14309,8 +14730,13 @@
       <c r="M339">
         <v>103.58499999999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S339" s="47"/>
+      <c r="T339">
+        <f t="shared" si="15"/>
+        <v>1.8814299807394161</v>
+      </c>
+    </row>
+    <row r="340" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="s">
         <v>30</v>
       </c>
@@ -14326,8 +14752,8 @@
       <c r="E340" s="40">
         <v>94.4</v>
       </c>
-      <c r="F340" s="16">
-        <f t="shared" si="16"/>
+      <c r="F340" s="19">
+        <f t="shared" si="17"/>
         <v>89.744</v>
       </c>
       <c r="G340">
@@ -14345,8 +14771,13 @@
       <c r="M340">
         <v>89.995000000000005</v>
       </c>
-    </row>
-    <row r="341" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S340" s="47"/>
+      <c r="T340">
+        <f t="shared" si="15"/>
+        <v>2.8281865823552286</v>
+      </c>
+    </row>
+    <row r="341" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="32" t="s">
         <v>31</v>
       </c>
@@ -14359,11 +14790,11 @@
       <c r="D341" s="40">
         <v>21500</v>
       </c>
-      <c r="E341" s="18">
+      <c r="E341" s="49">
         <v>6428</v>
       </c>
       <c r="F341" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9801.2519444444224</v>
       </c>
       <c r="G341">
@@ -14396,8 +14827,13 @@
       <c r="P341">
         <v>9621.4127777777703</v>
       </c>
-    </row>
-    <row r="342" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S341" s="47"/>
+      <c r="T341">
+        <f t="shared" si="15"/>
+        <v>4.8422141316075491</v>
+      </c>
+    </row>
+    <row r="342" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="s">
         <v>32</v>
       </c>
@@ -14413,8 +14849,8 @@
       <c r="E342" s="40">
         <v>9285</v>
       </c>
-      <c r="F342" s="16">
-        <f t="shared" si="16"/>
+      <c r="F342" s="19">
+        <f t="shared" si="17"/>
         <v>8534.9488333333156</v>
       </c>
       <c r="G342">
@@ -14447,8 +14883,13 @@
       <c r="P342">
         <v>10089.1688888888</v>
       </c>
-    </row>
-    <row r="343" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S342" s="47"/>
+      <c r="T342">
+        <f t="shared" si="15"/>
+        <v>19.930169520486686</v>
+      </c>
+    </row>
+    <row r="343" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="32" t="s">
         <v>33</v>
       </c>
@@ -14464,8 +14905,8 @@
       <c r="E343" s="40">
         <v>130</v>
       </c>
-      <c r="F343" s="16">
-        <f t="shared" si="16"/>
+      <c r="F343" s="19">
+        <f t="shared" si="17"/>
         <v>128.17699999999962</v>
       </c>
       <c r="G343">
@@ -14498,8 +14939,13 @@
       <c r="P343">
         <v>126.009999999999</v>
       </c>
-    </row>
-    <row r="344" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S343" s="47"/>
+      <c r="T343">
+        <f t="shared" si="15"/>
+        <v>4.3455223880599831</v>
+      </c>
+    </row>
+    <row r="344" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="s">
         <v>34</v>
       </c>
@@ -14512,11 +14958,11 @@
       <c r="D344" s="40">
         <v>14900</v>
       </c>
-      <c r="E344" s="18">
+      <c r="E344" s="49">
         <v>302</v>
       </c>
       <c r="F344" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7153.3489444444422</v>
       </c>
       <c r="G344">
@@ -14549,8 +14995,13 @@
       <c r="P344">
         <v>7130.0672222222202</v>
       </c>
-    </row>
-    <row r="345" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S344" s="47"/>
+      <c r="T344">
+        <f t="shared" si="15"/>
+        <v>-0.21921933773463975</v>
+      </c>
+    </row>
+    <row r="345" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="32" t="s">
         <v>35</v>
       </c>
@@ -14563,11 +15014,11 @@
       <c r="D345" s="40">
         <v>42400</v>
       </c>
-      <c r="E345" s="18">
+      <c r="E345" s="49">
         <v>925</v>
       </c>
       <c r="F345" s="19">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5492.8387037036982</v>
       </c>
       <c r="G345">
@@ -14597,8 +15048,13 @@
       <c r="P345">
         <v>5669.13055555555</v>
       </c>
-    </row>
-    <row r="346" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S345" s="47"/>
+      <c r="T345">
+        <f t="shared" si="15"/>
+        <v>39.270833121338519</v>
+      </c>
+    </row>
+    <row r="346" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="s">
         <v>36</v>
       </c>
@@ -14614,12 +15070,47 @@
       <c r="E346" s="40">
         <v>450</v>
       </c>
-      <c r="F346" s="16" t="e">
+      <c r="F346" s="19">
         <f xml:space="preserve"> AVERAGE(G346:O346)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="347" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122.54555555555521</v>
+      </c>
+      <c r="G346">
+        <v>123.53</v>
+      </c>
+      <c r="H346">
+        <v>124.064999999999</v>
+      </c>
+      <c r="I346">
+        <v>114.235</v>
+      </c>
+      <c r="J346">
+        <v>125.83499999999999</v>
+      </c>
+      <c r="K346">
+        <v>121.354999999999</v>
+      </c>
+      <c r="L346">
+        <v>125.435</v>
+      </c>
+      <c r="M346">
+        <v>125.905</v>
+      </c>
+      <c r="N346">
+        <v>121.854999999999</v>
+      </c>
+      <c r="O346">
+        <v>120.69499999999999</v>
+      </c>
+      <c r="P346">
+        <v>124.36499999999999</v>
+      </c>
+      <c r="S346" s="47"/>
+      <c r="T346">
+        <f t="shared" si="15"/>
+        <v>-2.9794584500463959</v>
+      </c>
+    </row>
+    <row r="347" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="32" t="s">
         <v>37</v>
       </c>
@@ -14635,7 +15126,7 @@
       <c r="E347" s="40">
         <v>22000</v>
       </c>
-      <c r="F347" s="16">
+      <c r="F347" s="19">
         <f xml:space="preserve"> AVERAGE(G347:P347)</f>
         <v>15396.787866666651</v>
       </c>
@@ -14669,8 +15160,13 @@
       <c r="P347">
         <v>14579.608333333301</v>
       </c>
-    </row>
-    <row r="348" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S347" s="47"/>
+      <c r="T347">
+        <f t="shared" si="15"/>
+        <v>31.872620058997121</v>
+      </c>
+    </row>
+    <row r="348" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="s">
         <v>38</v>
       </c>
@@ -14683,11 +15179,11 @@
       <c r="D348" s="40">
         <v>19600</v>
       </c>
-      <c r="E348" s="18">
+      <c r="E348" s="49">
         <v>200</v>
       </c>
       <c r="F348" s="19">
-        <f t="shared" ref="F348:F367" si="17" xml:space="preserve"> AVERAGE(G348:P348)</f>
+        <f t="shared" ref="F348:F380" si="18" xml:space="preserve"> AVERAGE(G348:P348)</f>
         <v>6638.2183666666651</v>
       </c>
       <c r="G348">
@@ -14720,8 +15216,13 @@
       <c r="P348">
         <v>7856.51722222222</v>
       </c>
-    </row>
-    <row r="349" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S348" s="47"/>
+      <c r="T348">
+        <f t="shared" si="15"/>
+        <v>13.452172533681029</v>
+      </c>
+    </row>
+    <row r="349" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="32" t="s">
         <v>39</v>
       </c>
@@ -14737,12 +15238,40 @@
       <c r="E349" s="41">
         <v>1300</v>
       </c>
-      <c r="F349" s="16" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="350" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F349" s="19">
+        <f t="shared" si="18"/>
+        <v>77.451499999999967</v>
+      </c>
+      <c r="H349">
+        <v>78.085999999999999</v>
+      </c>
+      <c r="I349">
+        <v>77.305999999999898</v>
+      </c>
+      <c r="K349">
+        <v>76.557999999999893</v>
+      </c>
+      <c r="L349">
+        <v>78.149999999999906</v>
+      </c>
+      <c r="M349">
+        <v>74.786000000000001</v>
+      </c>
+      <c r="N349">
+        <v>77.683999999999997</v>
+      </c>
+      <c r="O349">
+        <v>79.736000000000004</v>
+      </c>
+      <c r="P349">
+        <v>77.305999999999997</v>
+      </c>
+      <c r="T349">
+        <f t="shared" si="15"/>
+        <v>97.887938351599573</v>
+      </c>
+    </row>
+    <row r="350" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="32" t="s">
         <v>40</v>
       </c>
@@ -14752,18 +15281,38 @@
       <c r="C350" s="11">
         <v>10500</v>
       </c>
-      <c r="D350" s="11">
+      <c r="D350" s="50">
         <v>54400</v>
       </c>
-      <c r="E350" s="18">
+      <c r="E350" s="49">
         <v>100</v>
       </c>
-      <c r="F350" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="351" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F350" s="19">
+        <f t="shared" si="18"/>
+        <v>9384.5324444444268</v>
+      </c>
+      <c r="G350">
+        <v>14760.273999999999</v>
+      </c>
+      <c r="H350">
+        <v>7656.4846666666599</v>
+      </c>
+      <c r="I350">
+        <v>10459.785777777701</v>
+      </c>
+      <c r="J350">
+        <v>7152.2606666666597</v>
+      </c>
+      <c r="K350">
+        <v>6893.8571111111096</v>
+      </c>
+      <c r="S350" s="47"/>
+      <c r="T350">
+        <f t="shared" si="15"/>
+        <v>15.827735221144346</v>
+      </c>
+    </row>
+    <row r="351" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="32" t="s">
         <v>41</v>
       </c>
@@ -14773,18 +15322,34 @@
       <c r="C351" s="11">
         <v>15800</v>
       </c>
-      <c r="D351" s="11">
+      <c r="D351" s="50">
         <v>104000</v>
       </c>
-      <c r="E351" s="18">
+      <c r="E351" s="49">
         <v>100</v>
       </c>
-      <c r="F351" s="19" t="e">
+      <c r="F351" s="19">
         <f xml:space="preserve"> AVERAGE(G351:P351)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="352" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2661.466499999995</v>
+      </c>
+      <c r="G351">
+        <v>3442.5415555555501</v>
+      </c>
+      <c r="H351">
+        <v>3676.5588888888801</v>
+      </c>
+      <c r="I351">
+        <v>84.286000000000001</v>
+      </c>
+      <c r="J351">
+        <v>3442.4795555555502</v>
+      </c>
+      <c r="T351">
+        <f t="shared" si="15"/>
+        <v>23.420959667253527</v>
+      </c>
+    </row>
+    <row r="352" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="32" t="s">
         <v>42</v>
       </c>
@@ -14794,18 +15359,49 @@
       <c r="C352" s="11">
         <v>23200</v>
       </c>
-      <c r="D352" s="11">
+      <c r="D352" s="50">
         <v>113000</v>
       </c>
-      <c r="E352" s="18">
+      <c r="E352" s="49">
         <v>900</v>
       </c>
-      <c r="F352" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F352" s="19">
+        <f t="shared" si="18"/>
+        <v>16790.943283950553</v>
+      </c>
+      <c r="G352">
+        <v>17306.832888888799</v>
+      </c>
+      <c r="H352">
+        <v>17885.744444444401</v>
+      </c>
+      <c r="I352">
+        <v>15875.531555555501</v>
+      </c>
+      <c r="J352">
+        <v>17620.1997777777</v>
+      </c>
+      <c r="K352">
+        <v>16536.782222222198</v>
+      </c>
+      <c r="L352">
+        <v>16322.1657777777</v>
+      </c>
+      <c r="M352">
+        <v>18322.851777777701</v>
+      </c>
+      <c r="N352">
+        <v>17788.512444444401</v>
+      </c>
+      <c r="O352">
+        <v>13459.8686666666</v>
+      </c>
+      <c r="T352">
+        <f t="shared" si="15"/>
+        <v>4.0517526631396947</v>
+      </c>
+    </row>
+    <row r="353" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="32" t="s">
         <v>43</v>
       </c>
@@ -14815,16 +15411,47 @@
       <c r="C353" s="11">
         <v>5140</v>
       </c>
-      <c r="D353" s="11">
+      <c r="D353" s="50">
         <v>95700</v>
       </c>
-      <c r="E353" s="11"/>
-      <c r="F353" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E353" s="50"/>
+      <c r="F353" s="19">
+        <f t="shared" si="18"/>
+        <v>11610.224172839464</v>
+      </c>
+      <c r="G353">
+        <v>11663.6895555555</v>
+      </c>
+      <c r="H353">
+        <v>12028.768222222199</v>
+      </c>
+      <c r="I353">
+        <v>11728.8342222222</v>
+      </c>
+      <c r="J353">
+        <v>12127.0682222222</v>
+      </c>
+      <c r="K353">
+        <v>11894.920888888801</v>
+      </c>
+      <c r="L353">
+        <v>11860.8155555555</v>
+      </c>
+      <c r="M353">
+        <v>8658.6317777777695</v>
+      </c>
+      <c r="N353">
+        <v>12161.541555555499</v>
+      </c>
+      <c r="O353">
+        <v>12367.747555555499</v>
+      </c>
+      <c r="T353">
+        <f t="shared" si="15"/>
+        <v>-3.6627158289237833</v>
+      </c>
+    </row>
+    <row r="354" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="32" t="s">
         <v>44</v>
       </c>
@@ -14834,17 +15461,47 @@
       <c r="C354" s="11">
         <v>30100</v>
       </c>
-      <c r="D354" s="11">
+      <c r="D354" s="50">
         <v>94200</v>
       </c>
-      <c r="E354" s="11"/>
-      <c r="F354" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I354" s="42"/>
-    </row>
-    <row r="355" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E354" s="50"/>
+      <c r="F354" s="19">
+        <f t="shared" si="18"/>
+        <v>14929.591925925888</v>
+      </c>
+      <c r="G354">
+        <v>10659.7813333333</v>
+      </c>
+      <c r="H354">
+        <v>17769.632222222201</v>
+      </c>
+      <c r="I354">
+        <v>14391.168666666599</v>
+      </c>
+      <c r="J354">
+        <v>18009.291111111099</v>
+      </c>
+      <c r="K354">
+        <v>17642.462444444402</v>
+      </c>
+      <c r="L354">
+        <v>12677.7297777777</v>
+      </c>
+      <c r="M354">
+        <v>10518.585999999999</v>
+      </c>
+      <c r="N354">
+        <v>18208.633111111099</v>
+      </c>
+      <c r="P354">
+        <v>14489.042666666601</v>
+      </c>
+      <c r="T354">
+        <f t="shared" si="15"/>
+        <v>9.5064842265873359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="32" t="s">
         <v>45</v>
       </c>
@@ -14854,16 +15511,50 @@
       <c r="C355" s="11">
         <v>22300</v>
       </c>
-      <c r="D355" s="11">
+      <c r="D355" s="50">
         <v>85200</v>
       </c>
-      <c r="E355" s="11"/>
-      <c r="F355" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E355" s="50"/>
+      <c r="F355" s="19">
+        <f t="shared" si="18"/>
+        <v>20397.098155555508</v>
+      </c>
+      <c r="G355">
+        <v>21316.276222222201</v>
+      </c>
+      <c r="H355">
+        <v>20913.134222222201</v>
+      </c>
+      <c r="I355">
+        <v>19314.250222222199</v>
+      </c>
+      <c r="J355">
+        <v>20347.8035555555</v>
+      </c>
+      <c r="K355">
+        <v>20078.940888888799</v>
+      </c>
+      <c r="L355">
+        <v>21013.5762222222</v>
+      </c>
+      <c r="M355">
+        <v>19878.608888888801</v>
+      </c>
+      <c r="N355">
+        <v>20649.173555555499</v>
+      </c>
+      <c r="O355">
+        <v>20346.905555555499</v>
+      </c>
+      <c r="P355">
+        <v>20112.312222222201</v>
+      </c>
+      <c r="T355">
+        <f t="shared" si="15"/>
+        <v>-0.59932781110065325</v>
+      </c>
+    </row>
+    <row r="356" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="32" t="s">
         <v>46</v>
       </c>
@@ -14873,16 +15564,50 @@
       <c r="C356" s="11">
         <v>24300</v>
       </c>
-      <c r="D356" s="11">
+      <c r="D356" s="50">
         <v>117000</v>
       </c>
-      <c r="E356" s="11"/>
-      <c r="F356" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E356" s="50"/>
+      <c r="F356" s="19">
+        <f t="shared" si="18"/>
+        <v>11284.419377777747</v>
+      </c>
+      <c r="G356">
+        <v>10809.4564444444</v>
+      </c>
+      <c r="H356">
+        <v>12377.8611111111</v>
+      </c>
+      <c r="I356">
+        <v>10336.3544444444</v>
+      </c>
+      <c r="J356">
+        <v>10403.9211111111</v>
+      </c>
+      <c r="K356">
+        <v>11277.855111111099</v>
+      </c>
+      <c r="L356">
+        <v>10035.7944444444</v>
+      </c>
+      <c r="M356">
+        <v>12978.0711111111</v>
+      </c>
+      <c r="N356">
+        <v>12110.040444444399</v>
+      </c>
+      <c r="O356">
+        <v>9770.1997777777706</v>
+      </c>
+      <c r="P356">
+        <v>12744.6397777777</v>
+      </c>
+      <c r="T356">
+        <f t="shared" si="15"/>
+        <v>16.068299147510999</v>
+      </c>
+    </row>
+    <row r="357" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="32" t="s">
         <v>47</v>
       </c>
@@ -14892,16 +15617,50 @@
       <c r="C357" s="11">
         <v>124000</v>
       </c>
-      <c r="D357" s="11">
+      <c r="D357" s="50">
         <v>549000</v>
       </c>
-      <c r="E357" s="11"/>
-      <c r="F357" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E357" s="50"/>
+      <c r="F357" s="19">
+        <f xml:space="preserve"> AVERAGE(G357:P357)</f>
+        <v>27701.970922222194</v>
+      </c>
+      <c r="G357">
+        <v>26780.771000000001</v>
+      </c>
+      <c r="H357">
+        <v>23664.81</v>
+      </c>
+      <c r="I357">
+        <v>32090.294888888799</v>
+      </c>
+      <c r="J357">
+        <v>30720.84</v>
+      </c>
+      <c r="K357">
+        <v>24679.715333333301</v>
+      </c>
+      <c r="L357">
+        <v>37662.388888888803</v>
+      </c>
+      <c r="M357">
+        <v>27775.013777777702</v>
+      </c>
+      <c r="N357">
+        <v>26030.331333333299</v>
+      </c>
+      <c r="O357">
+        <v>15666.51</v>
+      </c>
+      <c r="P357">
+        <v>31949.034</v>
+      </c>
+      <c r="T357">
+        <f t="shared" si="15"/>
+        <v>23.324885425872203</v>
+      </c>
+    </row>
+    <row r="358" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="32" t="s">
         <v>48</v>
       </c>
@@ -14911,16 +15670,41 @@
       <c r="C358" s="11">
         <v>164000</v>
       </c>
-      <c r="D358" s="11">
+      <c r="D358" s="50">
         <v>601000</v>
       </c>
-      <c r="E358" s="11"/>
-      <c r="F358" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E358" s="50"/>
+      <c r="F358" s="19">
+        <f t="shared" si="18"/>
+        <v>61828.87023809518</v>
+      </c>
+      <c r="G358">
+        <v>84592.184999999998</v>
+      </c>
+      <c r="H358">
+        <v>38534.606666666601</v>
+      </c>
+      <c r="I358">
+        <v>111057.24711111101</v>
+      </c>
+      <c r="J358">
+        <v>43415.330666666603</v>
+      </c>
+      <c r="K358">
+        <v>62520.374000000003</v>
+      </c>
+      <c r="M358">
+        <v>30857.894666666602</v>
+      </c>
+      <c r="O358">
+        <v>61824.453555555498</v>
+      </c>
+      <c r="T358">
+        <f t="shared" si="15"/>
+        <v>-16.878771716626048</v>
+      </c>
+    </row>
+    <row r="359" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="32" t="s">
         <v>49</v>
       </c>
@@ -14934,12 +15718,43 @@
         <v>551000</v>
       </c>
       <c r="E359" s="11"/>
-      <c r="F359" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F359" s="19">
+        <f t="shared" si="18"/>
+        <v>54085.943086419706</v>
+      </c>
+      <c r="G359">
+        <v>49345.990444444396</v>
+      </c>
+      <c r="H359">
+        <v>62544.972888888798</v>
+      </c>
+      <c r="I359">
+        <v>64906.4517777777</v>
+      </c>
+      <c r="J359">
+        <v>56334.583333333299</v>
+      </c>
+      <c r="K359">
+        <v>26420.588444444398</v>
+      </c>
+      <c r="L359">
+        <v>57456.157777777698</v>
+      </c>
+      <c r="M359">
+        <v>71501.408444444402</v>
+      </c>
+      <c r="O359">
+        <v>32938.880444444403</v>
+      </c>
+      <c r="P359">
+        <v>65324.454222222201</v>
+      </c>
+      <c r="T359">
+        <f t="shared" si="15"/>
+        <v>22.512975520888673</v>
+      </c>
+    </row>
+    <row r="360" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="32" t="s">
         <v>50</v>
       </c>
@@ -14953,12 +15768,46 @@
         <v>715000</v>
       </c>
       <c r="E360" s="11"/>
-      <c r="F360" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F360" s="19">
+        <f t="shared" si="18"/>
+        <v>72577.047933333291</v>
+      </c>
+      <c r="G360">
+        <v>88536.158888888895</v>
+      </c>
+      <c r="H360">
+        <v>96707.565555555499</v>
+      </c>
+      <c r="I360">
+        <v>96983.330888888799</v>
+      </c>
+      <c r="J360">
+        <v>93989.021111111098</v>
+      </c>
+      <c r="K360">
+        <v>46009.075111111102</v>
+      </c>
+      <c r="L360">
+        <v>70643.472666666596</v>
+      </c>
+      <c r="M360">
+        <v>57083.015111111097</v>
+      </c>
+      <c r="N360">
+        <v>50637.868888888799</v>
+      </c>
+      <c r="O360">
+        <v>76021.928</v>
+      </c>
+      <c r="P360">
+        <v>49159.043111111103</v>
+      </c>
+      <c r="T360">
+        <f t="shared" si="15"/>
+        <v>6.7133059982862582</v>
+      </c>
+    </row>
+    <row r="361" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="32" t="s">
         <v>51</v>
       </c>
@@ -14972,12 +15821,46 @@
         <v>616000</v>
       </c>
       <c r="E361" s="11"/>
-      <c r="F361" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F361" s="19">
+        <f t="shared" si="18"/>
+        <v>51128.447777777736</v>
+      </c>
+      <c r="G361">
+        <v>52126.895777777703</v>
+      </c>
+      <c r="H361">
+        <v>63505.829555555501</v>
+      </c>
+      <c r="I361">
+        <v>67471.556222222207</v>
+      </c>
+      <c r="J361">
+        <v>82594.246222222195</v>
+      </c>
+      <c r="K361">
+        <v>23595.475555555498</v>
+      </c>
+      <c r="L361">
+        <v>33666.490444444396</v>
+      </c>
+      <c r="M361">
+        <v>38751.469777777696</v>
+      </c>
+      <c r="N361">
+        <v>85527.080222222197</v>
+      </c>
+      <c r="O361">
+        <v>36561.4591111111</v>
+      </c>
+      <c r="P361">
+        <v>27483.974888888799</v>
+      </c>
+      <c r="T361">
+        <f t="shared" si="15"/>
+        <v>-7.9626451061980674</v>
+      </c>
+    </row>
+    <row r="362" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="32" t="s">
         <v>52</v>
       </c>
@@ -14991,12 +15874,46 @@
         <v>798000</v>
       </c>
       <c r="E362" s="11"/>
-      <c r="F362" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F362" s="19">
+        <f t="shared" si="18"/>
+        <v>29182.619511111065</v>
+      </c>
+      <c r="G362">
+        <v>40450.271999999997</v>
+      </c>
+      <c r="H362">
+        <v>33670.282888888803</v>
+      </c>
+      <c r="I362">
+        <v>48986.7515555555</v>
+      </c>
+      <c r="J362">
+        <v>12349.585555555501</v>
+      </c>
+      <c r="K362">
+        <v>14380.446</v>
+      </c>
+      <c r="L362">
+        <v>35630.823777777703</v>
+      </c>
+      <c r="M362">
+        <v>26975.835777777698</v>
+      </c>
+      <c r="N362">
+        <v>34032.753777777703</v>
+      </c>
+      <c r="O362">
+        <v>15526.5057777777</v>
+      </c>
+      <c r="P362">
+        <v>29822.937999999998</v>
+      </c>
+      <c r="T362">
+        <f t="shared" si="15"/>
+        <v>5.557865659834742</v>
+      </c>
+    </row>
+    <row r="363" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="32" t="s">
         <v>53</v>
       </c>
@@ -15010,12 +15927,37 @@
         <v>603000</v>
       </c>
       <c r="E363" s="11"/>
-      <c r="F363" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F363" s="19">
+        <f t="shared" si="18"/>
+        <v>23777.886031745998</v>
+      </c>
+      <c r="G363">
+        <v>20717.8797777777</v>
+      </c>
+      <c r="J363">
+        <v>26456.947111111102</v>
+      </c>
+      <c r="K363">
+        <v>23771.323777777699</v>
+      </c>
+      <c r="L363">
+        <v>24803.899111111099</v>
+      </c>
+      <c r="M363">
+        <v>21561.708444444401</v>
+      </c>
+      <c r="N363">
+        <v>25168.428</v>
+      </c>
+      <c r="O363">
+        <v>23965.016</v>
+      </c>
+      <c r="T363">
+        <f t="shared" si="15"/>
+        <v>11.276544657664186</v>
+      </c>
+    </row>
+    <row r="364" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="32" t="s">
         <v>54</v>
       </c>
@@ -15029,12 +15971,46 @@
         <v>549000</v>
       </c>
       <c r="E364" s="11"/>
-      <c r="F364" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F364" s="19">
+        <f t="shared" si="18"/>
+        <v>14741.358844444379</v>
+      </c>
+      <c r="G364">
+        <v>14789.1302222222</v>
+      </c>
+      <c r="H364">
+        <v>12223.298000000001</v>
+      </c>
+      <c r="I364">
+        <v>16368.502888888799</v>
+      </c>
+      <c r="J364">
+        <v>15564.984888888799</v>
+      </c>
+      <c r="K364">
+        <v>16269.564888888801</v>
+      </c>
+      <c r="L364">
+        <v>14686.4608888888</v>
+      </c>
+      <c r="M364">
+        <v>15567.932888888799</v>
+      </c>
+      <c r="N364">
+        <v>15645.6884444444</v>
+      </c>
+      <c r="O364">
+        <v>13137.128444444401</v>
+      </c>
+      <c r="P364">
+        <v>13160.896888888799</v>
+      </c>
+      <c r="T364">
+        <f t="shared" si="15"/>
+        <v>18.796702585161622</v>
+      </c>
+    </row>
+    <row r="365" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="32" t="s">
         <v>55</v>
       </c>
@@ -15048,12 +16024,35 @@
         <v>1590000</v>
       </c>
       <c r="E365" s="11"/>
-      <c r="F365" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F365" s="19">
+        <f t="shared" si="18"/>
+        <v>1647786.628022216</v>
+      </c>
+      <c r="G365">
+        <v>1607178.6651111101</v>
+      </c>
+      <c r="H365">
+        <v>1626496.75533333</v>
+      </c>
+      <c r="I365">
+        <v>1688804.2238888801</v>
+      </c>
+      <c r="M365">
+        <v>1618773.7398888799</v>
+      </c>
+      <c r="O365">
+        <v>1697679.75588888</v>
+      </c>
+      <c r="T365">
+        <f t="shared" si="15"/>
+        <v>-4.290292912798483</v>
+      </c>
+      <c r="U365">
+        <f>AVERAGE(T317:T365)</f>
+        <v>23.88677161094401</v>
+      </c>
+    </row>
+    <row r="366" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="32" t="s">
         <v>56</v>
       </c>
@@ -15067,17 +16066,48 @@
         <v>2510000</v>
       </c>
       <c r="E366" s="11"/>
-      <c r="F366" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F366" s="19">
+        <f t="shared" si="18"/>
+        <v>1645376.0278024632</v>
+      </c>
+      <c r="G366">
+        <v>1393942.1089999999</v>
+      </c>
+      <c r="H366">
+        <v>1508128.8288888801</v>
+      </c>
+      <c r="I366">
+        <v>1848780.1458888799</v>
+      </c>
+      <c r="J366">
+        <v>1826298.55511111</v>
+      </c>
+      <c r="K366">
+        <v>2337392.0737777702</v>
+      </c>
+      <c r="L366">
+        <v>1228936.14144444</v>
+      </c>
+      <c r="M366">
+        <v>1691812.3724444399</v>
+      </c>
+      <c r="N366">
+        <v>1619604.6058888801</v>
+      </c>
+      <c r="O366">
+        <v>1353489.41777777</v>
+      </c>
+      <c r="T366">
+        <f t="shared" si="15"/>
+        <v>-76.732118990597542</v>
+      </c>
+    </row>
+    <row r="367" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="32" t="s">
         <v>57</v>
       </c>
       <c r="B367" s="11">
-        <v>192540.7703</v>
+        <v>284264.25206666643</v>
       </c>
       <c r="C367" s="11">
         <v>515000</v>
@@ -15086,12 +16116,37 @@
         <v>1340000</v>
       </c>
       <c r="E367" s="11"/>
-      <c r="F367" s="19" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F367" s="19">
+        <f t="shared" si="18"/>
+        <v>282275.33488888864</v>
+      </c>
+      <c r="G367">
+        <v>160304.02577777699</v>
+      </c>
+      <c r="H367">
+        <v>315012.35800000001</v>
+      </c>
+      <c r="I367">
+        <v>97645.541444444403</v>
+      </c>
+      <c r="L367">
+        <v>347449.79800000001</v>
+      </c>
+      <c r="M367">
+        <v>487954.13400000002</v>
+      </c>
+      <c r="N367">
+        <v>343149.85244444403</v>
+      </c>
+      <c r="P367">
+        <v>224411.63455555501</v>
+      </c>
+      <c r="T367">
+        <f t="shared" si="15"/>
+        <v>0.69967192966330116</v>
+      </c>
+    </row>
+    <row r="368" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="32" t="s">
         <v>58</v>
       </c>
@@ -15105,14 +16160,42 @@
         <v>2030000</v>
       </c>
       <c r="E368" s="11"/>
-      <c r="F368" s="11"/>
-    </row>
-    <row r="369" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F368" s="19">
+        <f t="shared" si="18"/>
+        <v>1678848.8214126925</v>
+      </c>
+      <c r="H368">
+        <v>1439888.0758888801</v>
+      </c>
+      <c r="J368">
+        <v>1933759.1393333301</v>
+      </c>
+      <c r="K368">
+        <v>1553328.91777777</v>
+      </c>
+      <c r="M368">
+        <v>1741676.5737777699</v>
+      </c>
+      <c r="N368">
+        <v>1827879.4757777699</v>
+      </c>
+      <c r="O368">
+        <v>1803957.10633333</v>
+      </c>
+      <c r="P368">
+        <v>1451452.4609999999</v>
+      </c>
+      <c r="T368">
+        <f t="shared" si="15"/>
+        <v>-120.61088323425658</v>
+      </c>
+    </row>
+    <row r="369" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B369" s="11">
-        <v>84700</v>
+        <v>133651.83300000001</v>
       </c>
       <c r="C369" s="11">
         <v>317000</v>
@@ -15121,9 +16204,31 @@
         <v>1930000</v>
       </c>
       <c r="E369" s="11"/>
-      <c r="F369" s="11"/>
-    </row>
-    <row r="370" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F369" s="19">
+        <f t="shared" si="18"/>
+        <v>322498.83302222163</v>
+      </c>
+      <c r="G369">
+        <v>255841.872888888</v>
+      </c>
+      <c r="J369">
+        <v>298939.383111111</v>
+      </c>
+      <c r="K369">
+        <v>122770.03644444401</v>
+      </c>
+      <c r="L369">
+        <v>469802.46077777701</v>
+      </c>
+      <c r="N369">
+        <v>465140.41188888799</v>
+      </c>
+      <c r="T369">
+        <f t="shared" si="15"/>
+        <v>-141.29772542829369</v>
+      </c>
+    </row>
+    <row r="370" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="32" t="s">
         <v>60</v>
       </c>
@@ -15137,9 +16242,34 @@
         <v>2000000</v>
       </c>
       <c r="E370" s="11"/>
-      <c r="F370" s="11"/>
-    </row>
-    <row r="371" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F370" s="19">
+        <f t="shared" si="18"/>
+        <v>1804622.6088148097</v>
+      </c>
+      <c r="G370">
+        <v>1815099.4246666599</v>
+      </c>
+      <c r="H370">
+        <v>1946421.86022222</v>
+      </c>
+      <c r="I370">
+        <v>1385581.56055555</v>
+      </c>
+      <c r="L370">
+        <v>2133996.6528888801</v>
+      </c>
+      <c r="N370">
+        <v>1847140.4761111101</v>
+      </c>
+      <c r="O370">
+        <v>1699495.67844444</v>
+      </c>
+      <c r="T370">
+        <f t="shared" si="15"/>
+        <v>12.820163825371511</v>
+      </c>
+    </row>
+    <row r="371" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="32" t="s">
         <v>61</v>
       </c>
@@ -15153,9 +16283,34 @@
         <v>1980000</v>
       </c>
       <c r="E371" s="11"/>
-      <c r="F371" s="11"/>
-    </row>
-    <row r="372" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F371" s="19">
+        <f t="shared" si="18"/>
+        <v>682032.61668518442</v>
+      </c>
+      <c r="H371">
+        <v>552598.32977777696</v>
+      </c>
+      <c r="I371">
+        <v>849716.89066666598</v>
+      </c>
+      <c r="J371">
+        <v>521680.27255555498</v>
+      </c>
+      <c r="K371">
+        <v>428657.62588888803</v>
+      </c>
+      <c r="N371">
+        <v>785691.62544444401</v>
+      </c>
+      <c r="O371">
+        <v>953850.95577777701</v>
+      </c>
+      <c r="T371">
+        <f t="shared" si="15"/>
+        <v>-31.411904433988219</v>
+      </c>
+    </row>
+    <row r="372" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="32" t="s">
         <v>62</v>
       </c>
@@ -15169,9 +16324,38 @@
         <v>2160000</v>
       </c>
       <c r="E372" s="11"/>
-      <c r="F372" s="11"/>
-    </row>
-    <row r="373" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F372" s="19">
+        <f t="shared" si="18"/>
+        <v>1849190.1731296249</v>
+      </c>
+      <c r="H372">
+        <v>1833272.3154444401</v>
+      </c>
+      <c r="K372">
+        <v>1741502.64544444</v>
+      </c>
+      <c r="L372">
+        <v>1703443.51411111</v>
+      </c>
+      <c r="M372">
+        <v>1936455.7325555501</v>
+      </c>
+      <c r="O372">
+        <v>1817372.9428888799</v>
+      </c>
+      <c r="P372">
+        <v>2063093.8883333299</v>
+      </c>
+      <c r="T372">
+        <f t="shared" si="15"/>
+        <v>11.096626291844956</v>
+      </c>
+      <c r="U372">
+        <f>AVERAGE(T324:T372)</f>
+        <v>16.192671041526324</v>
+      </c>
+    </row>
+    <row r="373" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="32" t="s">
         <v>63</v>
       </c>
@@ -15185,9 +16369,12 @@
         <v>16500000</v>
       </c>
       <c r="E373" s="11"/>
-      <c r="F373" s="11"/>
-    </row>
-    <row r="374" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F373" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="374" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="32" t="s">
         <v>64</v>
       </c>
@@ -15201,9 +16388,30 @@
         <v>11200000</v>
       </c>
       <c r="E374" s="11"/>
-      <c r="F374" s="11"/>
-    </row>
-    <row r="375" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F374" s="19">
+        <f t="shared" si="18"/>
+        <v>14642732.681777751</v>
+      </c>
+      <c r="G374">
+        <v>15591238.7764444</v>
+      </c>
+      <c r="H374">
+        <v>14424184.670111099</v>
+      </c>
+      <c r="I374">
+        <v>15591238.7764444</v>
+      </c>
+      <c r="J374">
+        <v>14138709.3093333</v>
+      </c>
+      <c r="K374">
+        <v>14375327.9471111</v>
+      </c>
+      <c r="L374">
+        <v>13735696.6112222</v>
+      </c>
+    </row>
+    <row r="375" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="32" t="s">
         <v>65</v>
       </c>
@@ -15217,9 +16425,24 @@
         <v>9540000</v>
       </c>
       <c r="E375" s="11"/>
-      <c r="F375" s="11"/>
-    </row>
-    <row r="376" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F375" s="19">
+        <f t="shared" si="18"/>
+        <v>13575862.100416625</v>
+      </c>
+      <c r="G375">
+        <v>13860455.2073333</v>
+      </c>
+      <c r="H375">
+        <v>11725526.4075555</v>
+      </c>
+      <c r="I375">
+        <v>13837810.975666599</v>
+      </c>
+      <c r="J375">
+        <v>14879655.8111111</v>
+      </c>
+    </row>
+    <row r="376" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="32" t="s">
         <v>66</v>
       </c>
@@ -15233,9 +16456,12 @@
         <v>13200000</v>
       </c>
       <c r="E376" s="11"/>
-      <c r="F376" s="11"/>
-    </row>
-    <row r="377" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F376" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="377" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="32" t="s">
         <v>67</v>
       </c>
@@ -15249,14 +16475,17 @@
         <v>7210000</v>
       </c>
       <c r="E377" s="11"/>
-      <c r="F377" s="11"/>
-    </row>
-    <row r="378" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F377" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="378" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="32" t="s">
         <v>68</v>
       </c>
       <c r="B378" s="11">
-        <v>8800000</v>
+        <v>11276982.050000001</v>
       </c>
       <c r="C378" s="11">
         <v>14500000</v>
@@ -15265,14 +16494,17 @@
         <v>10900000</v>
       </c>
       <c r="E378" s="11"/>
-      <c r="F378" s="11"/>
-    </row>
-    <row r="379" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F378" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="379" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="32" t="s">
         <v>69</v>
       </c>
       <c r="B379" s="11">
-        <v>13300000</v>
+        <v>17760068.359999999</v>
       </c>
       <c r="C379" s="11">
         <v>30900000</v>
@@ -15281,14 +16513,17 @@
         <v>25000000</v>
       </c>
       <c r="E379" s="11"/>
-      <c r="F379" s="11"/>
-    </row>
-    <row r="380" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F379" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="380" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B380" s="11">
-        <v>15700000</v>
+      <c r="B380">
+        <v>16764545.721333301</v>
       </c>
       <c r="C380" s="11">
         <v>25400000</v>
@@ -15297,12 +16532,15 @@
         <v>27400000</v>
       </c>
       <c r="E380" s="11"/>
-      <c r="F380" s="11"/>
-    </row>
-    <row r="381" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F380" s="19" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="381" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="385" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="27" t="s">
         <v>71</v>
@@ -15399,7 +16637,7 @@
         <v>95.6</v>
       </c>
       <c r="F387" s="19">
-        <f t="shared" ref="F387:F391" si="18" xml:space="preserve"> AVERAGE(G387:P387)</f>
+        <f t="shared" ref="F387:F391" si="19" xml:space="preserve"> AVERAGE(G387:P387)</f>
         <v>90.121999999999986</v>
       </c>
       <c r="G387">
@@ -15433,12 +16671,12 @@
         <v>89.2</v>
       </c>
       <c r="R387" s="11">
-        <f t="shared" ref="R387:R442" si="19" xml:space="preserve"> (F387 - B387)/B387</f>
-        <v>-5.8679757677042088E-2</v>
+        <f t="shared" ref="R387:R436" si="20" xml:space="preserve"> -(F387 - B387)/B387</f>
+        <v>5.8679757677042088E-2</v>
       </c>
       <c r="S387" s="19">
-        <f t="shared" ref="S387:S437" si="20" xml:space="preserve"> R387 * 100  * -1</f>
-        <v>5.867975767704209</v>
+        <f t="shared" ref="S387:S437" si="21" xml:space="preserve"> R387 * 100  * -1</f>
+        <v>-5.867975767704209</v>
       </c>
     </row>
     <row r="388" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15458,7 +16696,7 @@
         <v>96.8</v>
       </c>
       <c r="F388" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>102.14599999999989</v>
       </c>
       <c r="G388">
@@ -15492,12 +16730,12 @@
         <v>102.42</v>
       </c>
       <c r="R388" s="11">
-        <f t="shared" si="19"/>
-        <v>4.8296387520524314E-2</v>
+        <f t="shared" si="20"/>
+        <v>-4.8296387520524314E-2</v>
       </c>
       <c r="S388" s="19">
-        <f t="shared" si="20"/>
-        <v>-4.8296387520524311</v>
+        <f t="shared" si="21"/>
+        <v>4.8296387520524311</v>
       </c>
     </row>
     <row r="389" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15517,7 +16755,7 @@
         <v>94.6</v>
       </c>
       <c r="F389" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>92.835999999999984</v>
       </c>
       <c r="G389">
@@ -15551,12 +16789,12 @@
         <v>92.14</v>
       </c>
       <c r="R389" s="11">
-        <f t="shared" si="19"/>
-        <v>-9.6348416038094048E-2</v>
+        <f t="shared" si="20"/>
+        <v>9.6348416038094048E-2</v>
       </c>
       <c r="S389" s="19">
-        <f t="shared" si="20"/>
-        <v>9.634841603809404</v>
+        <f t="shared" si="21"/>
+        <v>-9.634841603809404</v>
       </c>
     </row>
     <row r="390" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15576,7 +16814,7 @@
         <v>8000</v>
       </c>
       <c r="F390" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5445.5180000000018</v>
       </c>
       <c r="G390">
@@ -15610,12 +16848,12 @@
         <v>5445.26</v>
       </c>
       <c r="R390" s="11">
-        <f t="shared" si="19"/>
-        <v>0.3380848471314884</v>
+        <f t="shared" si="20"/>
+        <v>-0.3380848471314884</v>
       </c>
       <c r="S390" s="19">
-        <f t="shared" si="20"/>
-        <v>-33.808484713148843</v>
+        <f t="shared" si="21"/>
+        <v>33.808484713148843</v>
       </c>
     </row>
     <row r="391" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15635,7 +16873,7 @@
         <v>120</v>
       </c>
       <c r="F391" s="19">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>115.36600000000001</v>
       </c>
       <c r="G391">
@@ -15669,12 +16907,12 @@
         <v>115.46</v>
       </c>
       <c r="R391" s="11">
-        <f t="shared" si="19"/>
-        <v>9.8723809523809658E-2</v>
+        <f t="shared" si="20"/>
+        <v>-9.8723809523809658E-2</v>
       </c>
       <c r="S391" s="19">
-        <f t="shared" si="20"/>
-        <v>-9.8723809523809649</v>
+        <f t="shared" si="21"/>
+        <v>9.8723809523809649</v>
       </c>
     </row>
     <row r="392" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15728,12 +16966,12 @@
         <v>3750.5266666666598</v>
       </c>
       <c r="R392" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.61874982220711361</v>
+        <f t="shared" si="20"/>
+        <v>0.61874982220711361</v>
       </c>
       <c r="S392" s="19">
-        <f t="shared" si="20"/>
-        <v>61.87498222071136</v>
+        <f t="shared" si="21"/>
+        <v>-61.87498222071136</v>
       </c>
     </row>
     <row r="393" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15753,7 +16991,7 @@
         <v>95</v>
       </c>
       <c r="F393" s="19">
-        <f t="shared" ref="F393:F397" si="21" xml:space="preserve"> AVERAGE(G393:P393)</f>
+        <f t="shared" ref="F393:F397" si="22" xml:space="preserve"> AVERAGE(G393:P393)</f>
         <v>65.895999999999958</v>
       </c>
       <c r="G393">
@@ -15787,12 +17025,12 @@
         <v>68.739999999999995</v>
       </c>
       <c r="R393" s="11">
-        <f t="shared" si="19"/>
-        <v>-4.2209302325581961E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.2209302325581961E-2</v>
       </c>
       <c r="S393" s="19">
-        <f t="shared" si="20"/>
-        <v>4.2209302325581959</v>
+        <f t="shared" si="21"/>
+        <v>-4.2209302325581959</v>
       </c>
     </row>
     <row r="394" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15812,7 +17050,7 @@
         <v>5000</v>
       </c>
       <c r="F394" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>161.41399999999993</v>
       </c>
       <c r="G394">
@@ -15846,12 +17084,12 @@
         <v>160.47999999999999</v>
       </c>
       <c r="R394" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.95119229435092423</v>
+        <f t="shared" si="20"/>
+        <v>0.95119229435092423</v>
       </c>
       <c r="S394" s="19">
-        <f t="shared" si="20"/>
-        <v>95.119229435092421</v>
+        <f t="shared" si="21"/>
+        <v>-95.119229435092421</v>
       </c>
     </row>
     <row r="395" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15871,7 +17109,7 @@
         <v>183000</v>
       </c>
       <c r="F395" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>142430.18866666619</v>
       </c>
       <c r="G395">
@@ -15905,12 +17143,12 @@
         <v>133916.80444444399</v>
       </c>
       <c r="R395" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.26582376975945265</v>
+        <f t="shared" si="20"/>
+        <v>0.26582376975945265</v>
       </c>
       <c r="S395" s="19">
-        <f t="shared" si="20"/>
-        <v>26.582376975945266</v>
+        <f t="shared" si="21"/>
+        <v>-26.582376975945266</v>
       </c>
     </row>
     <row r="396" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15930,7 +17168,7 @@
         <v>500</v>
       </c>
       <c r="F396" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>166.702</v>
       </c>
       <c r="G396">
@@ -15964,12 +17202,12 @@
         <v>164.14</v>
       </c>
       <c r="R396" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.81695948748575686</v>
+        <f t="shared" si="20"/>
+        <v>0.81695948748575686</v>
       </c>
       <c r="S396" s="19">
-        <f t="shared" si="20"/>
-        <v>81.695948748575688</v>
+        <f t="shared" si="21"/>
+        <v>-81.695948748575688</v>
       </c>
     </row>
     <row r="397" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15989,7 +17227,7 @@
         <v>79000</v>
       </c>
       <c r="F397" s="19">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23826.100444444404</v>
       </c>
       <c r="G397">
@@ -16023,12 +17261,12 @@
         <v>6693.4022222222202</v>
       </c>
       <c r="R397" s="11">
-        <f t="shared" si="19"/>
-        <v>0.591096238706046</v>
+        <f t="shared" si="20"/>
+        <v>-0.591096238706046</v>
       </c>
       <c r="S397" s="19">
-        <f t="shared" si="20"/>
-        <v>-59.109623870604601</v>
+        <f t="shared" si="21"/>
+        <v>59.109623870604601</v>
       </c>
     </row>
     <row r="398" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16082,12 +17320,12 @@
         <v>174.18</v>
       </c>
       <c r="R398" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.7805387036998408</v>
+        <f t="shared" si="20"/>
+        <v>0.7805387036998408</v>
       </c>
       <c r="S398" s="19">
-        <f t="shared" si="20"/>
-        <v>78.053870369984082</v>
+        <f t="shared" si="21"/>
+        <v>-78.053870369984082</v>
       </c>
     </row>
     <row r="399" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16107,7 +17345,7 @@
         <v>6500</v>
       </c>
       <c r="F399" s="19">
-        <f t="shared" ref="F399:F414" si="22" xml:space="preserve"> AVERAGE(G399:P399)</f>
+        <f t="shared" ref="F399:F414" si="23" xml:space="preserve"> AVERAGE(G399:P399)</f>
         <v>655.91456790123334</v>
       </c>
       <c r="G399">
@@ -16138,12 +17376,12 @@
         <v>164.88</v>
       </c>
       <c r="R399" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.96388784496784974</v>
+        <f t="shared" si="20"/>
+        <v>0.96388784496784974</v>
       </c>
       <c r="S399" s="19">
-        <f t="shared" si="20"/>
-        <v>96.388784496784979</v>
+        <f t="shared" si="21"/>
+        <v>-96.388784496784979</v>
       </c>
     </row>
     <row r="400" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16163,7 +17401,7 @@
         <v>47000</v>
       </c>
       <c r="F400" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>28053.94599999996</v>
       </c>
       <c r="G400">
@@ -16197,12 +17435,12 @@
         <v>22814.426666666601</v>
       </c>
       <c r="R400" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.13149269820599929</v>
+        <f t="shared" si="20"/>
+        <v>0.13149269820599929</v>
       </c>
       <c r="S400" s="19">
-        <f t="shared" si="20"/>
-        <v>13.14926982059993</v>
+        <f t="shared" si="21"/>
+        <v>-13.14926982059993</v>
       </c>
     </row>
     <row r="401" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16222,7 +17460,7 @@
         <v>49000</v>
       </c>
       <c r="F401" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>19360.027111111056</v>
       </c>
       <c r="G401">
@@ -16256,12 +17494,12 @@
         <v>17476.3644444444</v>
       </c>
       <c r="R401" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.62270993798864638</v>
+        <f t="shared" si="20"/>
+        <v>0.62270993798864638</v>
       </c>
       <c r="S401" s="19">
-        <f t="shared" si="20"/>
-        <v>62.270993798864637</v>
+        <f t="shared" si="21"/>
+        <v>-62.270993798864637</v>
       </c>
     </row>
     <row r="402" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16281,7 +17519,7 @@
         <v>92</v>
       </c>
       <c r="F402" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>80.656499999999994</v>
       </c>
       <c r="G402">
@@ -16315,12 +17553,12 @@
         <v>81.995000000000005</v>
       </c>
       <c r="R402" s="11">
-        <f t="shared" si="19"/>
-        <v>-4.737354947293837E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.737354947293837E-2</v>
       </c>
       <c r="S402" s="19">
-        <f t="shared" si="20"/>
-        <v>4.737354947293837</v>
+        <f t="shared" si="21"/>
+        <v>-4.737354947293837</v>
       </c>
     </row>
     <row r="403" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16340,7 +17578,7 @@
         <v>96.42</v>
       </c>
       <c r="F403" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>85.755999999999986</v>
       </c>
       <c r="G403">
@@ -16374,12 +17612,12 @@
         <v>86.49</v>
       </c>
       <c r="R403" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.94732262557607039</v>
+        <f t="shared" si="20"/>
+        <v>0.94732262557607039</v>
       </c>
       <c r="S403" s="19">
-        <f t="shared" si="20"/>
-        <v>94.732262557607044</v>
+        <f t="shared" si="21"/>
+        <v>-94.732262557607044</v>
       </c>
     </row>
     <row r="404" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16399,7 +17637,7 @@
         <v>120</v>
       </c>
       <c r="F404" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>108.50283333333309</v>
       </c>
       <c r="G404">
@@ -16433,12 +17671,12 @@
         <v>109.675</v>
       </c>
       <c r="R404" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.91388892208686301</v>
+        <f t="shared" si="20"/>
+        <v>0.91388892208686301</v>
       </c>
       <c r="S404" s="19">
-        <f t="shared" si="20"/>
-        <v>91.3888922086863</v>
+        <f t="shared" si="21"/>
+        <v>-91.3888922086863</v>
       </c>
     </row>
     <row r="405" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16458,7 +17696,7 @@
         <v>100</v>
       </c>
       <c r="F405" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3385.2657777777722</v>
       </c>
       <c r="G405">
@@ -16492,12 +17730,12 @@
         <v>3297.2877777777699</v>
       </c>
       <c r="R405" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.52022239275085136</v>
+        <f t="shared" si="20"/>
+        <v>0.52022239275085136</v>
       </c>
       <c r="S405" s="19">
-        <f t="shared" si="20"/>
-        <v>52.022239275085134</v>
+        <f t="shared" si="21"/>
+        <v>-52.022239275085134</v>
       </c>
     </row>
     <row r="406" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16517,7 +17755,7 @@
         <v>110</v>
       </c>
       <c r="F406" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>104.54357142857144</v>
       </c>
       <c r="G406">
@@ -16542,12 +17780,12 @@
         <v>103.47</v>
       </c>
       <c r="R406" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.95637653477118501</v>
+        <f t="shared" si="20"/>
+        <v>0.95637653477118501</v>
       </c>
       <c r="S406" s="19">
-        <f t="shared" si="20"/>
-        <v>95.637653477118505</v>
+        <f t="shared" si="21"/>
+        <v>-95.637653477118505</v>
       </c>
     </row>
     <row r="407" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16567,7 +17805,7 @@
         <v>96</v>
       </c>
       <c r="F407" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1641.851111111109</v>
       </c>
       <c r="G407">
@@ -16598,12 +17836,12 @@
         <v>1640.6172222222201</v>
       </c>
       <c r="R407" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.50589384859672759</v>
+        <f t="shared" si="20"/>
+        <v>0.50589384859672759</v>
       </c>
       <c r="S407" s="19">
-        <f t="shared" si="20"/>
-        <v>50.589384859672762</v>
+        <f t="shared" si="21"/>
+        <v>-50.589384859672762</v>
       </c>
     </row>
     <row r="408" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16623,7 +17861,7 @@
         <v>105</v>
       </c>
       <c r="F408" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>104.70777777777744</v>
       </c>
       <c r="G408">
@@ -16654,12 +17892,12 @@
         <v>104.509999999999</v>
       </c>
       <c r="R408" s="11">
-        <f t="shared" si="19"/>
-        <v>-1.6227953419669892E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.6227953419669892E-2</v>
       </c>
       <c r="S408" s="19">
-        <f t="shared" si="20"/>
-        <v>1.6227953419669892</v>
+        <f t="shared" si="21"/>
+        <v>-1.6227953419669892</v>
       </c>
     </row>
     <row r="409" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16679,7 +17917,7 @@
         <v>94.4</v>
       </c>
       <c r="F409" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>89.923999999999978</v>
       </c>
       <c r="G409">
@@ -16713,12 +17951,12 @@
         <v>88.864999999999995</v>
       </c>
       <c r="R409" s="11">
-        <f t="shared" si="19"/>
-        <v>-2.6332885789770197E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.6332885789770197E-2</v>
       </c>
       <c r="S409" s="19">
-        <f t="shared" si="20"/>
-        <v>2.63328857897702</v>
+        <f t="shared" si="21"/>
+        <v>-2.63328857897702</v>
       </c>
     </row>
     <row r="410" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16738,7 +17976,7 @@
         <v>6428</v>
       </c>
       <c r="F410" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8691.0338333333257</v>
       </c>
       <c r="G410">
@@ -16772,12 +18010,12 @@
         <v>7451.8594444444398</v>
       </c>
       <c r="R410" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.15621030744336645</v>
+        <f t="shared" si="20"/>
+        <v>0.15621030744336645</v>
       </c>
       <c r="S410" s="19">
-        <f t="shared" si="20"/>
-        <v>15.621030744336645</v>
+        <f t="shared" si="21"/>
+        <v>-15.621030744336645</v>
       </c>
     </row>
     <row r="411" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16797,7 +18035,7 @@
         <v>9285</v>
       </c>
       <c r="F411" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7385.2874074074025</v>
       </c>
       <c r="G411">
@@ -16828,12 +18066,12 @@
         <v>3980.29</v>
       </c>
       <c r="R411" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.30715611505002033</v>
+        <f t="shared" si="20"/>
+        <v>0.30715611505002033</v>
       </c>
       <c r="S411" s="19">
-        <f t="shared" si="20"/>
-        <v>30.715611505002034</v>
+        <f t="shared" si="21"/>
+        <v>-30.715611505002034</v>
       </c>
     </row>
     <row r="412" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16853,7 +18091,7 @@
         <v>130</v>
       </c>
       <c r="F412" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>127.37444444444444</v>
       </c>
       <c r="G412">
@@ -16884,12 +18122,12 @@
         <v>126.82</v>
       </c>
       <c r="R412" s="11">
-        <f t="shared" si="19"/>
-        <v>-4.9444444444444513E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.9444444444444513E-2</v>
       </c>
       <c r="S412" s="19">
-        <f t="shared" si="20"/>
-        <v>4.9444444444444517</v>
+        <f t="shared" si="21"/>
+        <v>-4.9444444444444517</v>
       </c>
     </row>
     <row r="413" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16909,7 +18147,7 @@
         <v>302</v>
       </c>
       <c r="F413" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7119.334388888883</v>
       </c>
       <c r="G413">
@@ -16943,12 +18181,12 @@
         <v>7138.5372222222204</v>
       </c>
       <c r="R413" s="11">
-        <f t="shared" si="19"/>
-        <v>-2.5732839261837608E-3</v>
+        <f t="shared" si="20"/>
+        <v>2.5732839261837608E-3</v>
       </c>
       <c r="S413" s="19">
-        <f t="shared" si="20"/>
-        <v>0.25732839261837609</v>
+        <f t="shared" si="21"/>
+        <v>-0.25732839261837609</v>
       </c>
     </row>
     <row r="414" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16968,7 +18206,7 @@
         <v>925</v>
       </c>
       <c r="F414" s="19">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6311.7867901234513</v>
       </c>
       <c r="G414">
@@ -16999,12 +18237,12 @@
         <v>6098.7288888888797</v>
       </c>
       <c r="R414" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.30216492062386413</v>
+        <f t="shared" si="20"/>
+        <v>0.30216492062386413</v>
       </c>
       <c r="S414" s="19">
-        <f t="shared" si="20"/>
-        <v>30.216492062386415</v>
+        <f t="shared" si="21"/>
+        <v>-30.216492062386415</v>
       </c>
     </row>
     <row r="415" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17058,12 +18296,12 @@
         <v>124.36499999999999</v>
       </c>
       <c r="R415" s="11">
-        <f t="shared" si="19"/>
-        <v>2.9794584500463957E-2</v>
+        <f t="shared" si="20"/>
+        <v>-2.9794584500463957E-2</v>
       </c>
       <c r="S415" s="19">
-        <f t="shared" si="20"/>
-        <v>-2.9794584500463959</v>
+        <f t="shared" si="21"/>
+        <v>2.9794584500463959</v>
       </c>
     </row>
     <row r="416" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17083,7 +18321,7 @@
         <v>22000</v>
       </c>
       <c r="F416" s="19">
-        <f t="shared" ref="F416:F436" si="23" xml:space="preserve"> AVERAGE(G416:P416)</f>
+        <f t="shared" ref="F416:F449" si="24" xml:space="preserve"> AVERAGE(G416:P416)</f>
         <v>16303.368541666627</v>
       </c>
       <c r="G416">
@@ -17111,12 +18349,12 @@
         <v>15879.9783333333</v>
       </c>
       <c r="R416" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.27861201143068026</v>
+        <f t="shared" si="20"/>
+        <v>0.27861201143068026</v>
       </c>
       <c r="S416" s="19">
-        <f t="shared" si="20"/>
-        <v>27.861201143068026</v>
+        <f t="shared" si="21"/>
+        <v>-27.861201143068026</v>
       </c>
     </row>
     <row r="417" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17136,7 +18374,7 @@
         <v>200</v>
       </c>
       <c r="F417" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7489.0393888888839</v>
       </c>
       <c r="G417">
@@ -17170,12 +18408,12 @@
         <v>7531.5038888888803</v>
       </c>
       <c r="R417" s="11">
-        <f t="shared" si="19"/>
-        <v>-2.3593300014487107E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.3593300014487107E-2</v>
       </c>
       <c r="S417" s="19">
-        <f t="shared" si="20"/>
-        <v>2.3593300014487109</v>
+        <f t="shared" si="21"/>
+        <v>-2.3593300014487109</v>
       </c>
     </row>
     <row r="418" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17195,7 +18433,7 @@
         <v>1300</v>
       </c>
       <c r="F418" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>77.451499999999967</v>
       </c>
       <c r="H418">
@@ -17223,12 +18461,12 @@
         <v>77.305999999999997</v>
       </c>
       <c r="R418" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.97887938351599568</v>
+        <f t="shared" si="20"/>
+        <v>0.97887938351599568</v>
       </c>
       <c r="S418" s="19">
-        <f t="shared" si="20"/>
-        <v>97.887938351599573</v>
+        <f t="shared" si="21"/>
+        <v>-97.887938351599573</v>
       </c>
     </row>
     <row r="419" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17248,7 +18486,7 @@
         <v>100</v>
       </c>
       <c r="F419" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9384.5324444444268</v>
       </c>
       <c r="G419">
@@ -17267,12 +18505,12 @@
         <v>6893.8571111111096</v>
       </c>
       <c r="R419" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.15827735221144346</v>
+        <f t="shared" si="20"/>
+        <v>0.15827735221144346</v>
       </c>
       <c r="S419" s="19">
-        <f t="shared" si="20"/>
-        <v>15.827735221144346</v>
+        <f t="shared" si="21"/>
+        <v>-15.827735221144346</v>
       </c>
     </row>
     <row r="420" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17292,7 +18530,7 @@
         <v>100</v>
       </c>
       <c r="F420" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>2661.466499999995</v>
       </c>
       <c r="G420">
@@ -17308,12 +18546,12 @@
         <v>3442.4795555555502</v>
       </c>
       <c r="R420" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.23420959667253527</v>
+        <f t="shared" si="20"/>
+        <v>0.23420959667253527</v>
       </c>
       <c r="S420" s="19">
-        <f t="shared" si="20"/>
-        <v>23.420959667253527</v>
+        <f t="shared" si="21"/>
+        <v>-23.420959667253527</v>
       </c>
     </row>
     <row r="421" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17333,7 +18571,7 @@
         <v>900</v>
       </c>
       <c r="F421" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>16790.943283950553</v>
       </c>
       <c r="G421">
@@ -17364,12 +18602,12 @@
         <v>13459.8686666666</v>
       </c>
       <c r="R421" s="11">
-        <f t="shared" si="19"/>
-        <v>-4.0517526631396947E-2</v>
+        <f t="shared" si="20"/>
+        <v>4.0517526631396947E-2</v>
       </c>
       <c r="S421" s="19">
-        <f t="shared" si="20"/>
-        <v>4.0517526631396947</v>
+        <f t="shared" si="21"/>
+        <v>-4.0517526631396947</v>
       </c>
     </row>
     <row r="422" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17387,7 +18625,7 @@
       </c>
       <c r="E422" s="45"/>
       <c r="F422" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11610.224172839464</v>
       </c>
       <c r="G422">
@@ -17418,12 +18656,12 @@
         <v>12367.747555555499</v>
       </c>
       <c r="R422" s="11">
-        <f t="shared" si="19"/>
-        <v>3.6627158289237835E-2</v>
+        <f t="shared" si="20"/>
+        <v>-3.6627158289237835E-2</v>
       </c>
       <c r="S422" s="19">
-        <f t="shared" si="20"/>
-        <v>-3.6627158289237833</v>
+        <f t="shared" si="21"/>
+        <v>3.6627158289237833</v>
       </c>
     </row>
     <row r="423" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17441,7 +18679,7 @@
       </c>
       <c r="E423" s="45"/>
       <c r="F423" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>14929.591925925888</v>
       </c>
       <c r="G423">
@@ -17472,12 +18710,12 @@
         <v>14489.042666666601</v>
       </c>
       <c r="R423" s="11">
-        <f t="shared" si="19"/>
-        <v>-9.5064842265873362E-2</v>
+        <f t="shared" si="20"/>
+        <v>9.5064842265873362E-2</v>
       </c>
       <c r="S423" s="19">
-        <f t="shared" si="20"/>
-        <v>9.5064842265873359</v>
+        <f t="shared" si="21"/>
+        <v>-9.5064842265873359</v>
       </c>
     </row>
     <row r="424" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17495,7 +18733,7 @@
       </c>
       <c r="E424" s="45"/>
       <c r="F424" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>20397.098155555508</v>
       </c>
       <c r="G424">
@@ -17529,12 +18767,12 @@
         <v>20112.312222222201</v>
       </c>
       <c r="R424" s="11">
-        <f t="shared" si="19"/>
-        <v>5.9932781110065324E-3</v>
+        <f t="shared" si="20"/>
+        <v>-5.9932781110065324E-3</v>
       </c>
       <c r="S424" s="19">
-        <f t="shared" si="20"/>
-        <v>-0.59932781110065325</v>
+        <f t="shared" si="21"/>
+        <v>0.59932781110065325</v>
       </c>
     </row>
     <row r="425" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17552,7 +18790,7 @@
       </c>
       <c r="E425" s="45"/>
       <c r="F425" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>11284.419377777747</v>
       </c>
       <c r="G425">
@@ -17586,12 +18824,12 @@
         <v>12744.6397777777</v>
       </c>
       <c r="R425" s="11">
-        <f t="shared" si="19"/>
-        <v>-0.16068299147510998</v>
+        <f t="shared" si="20"/>
+        <v>0.16068299147510998</v>
       </c>
       <c r="S425" s="19">
-        <f t="shared" si="20"/>
-        <v>16.068299147510999</v>
+        <f t="shared" si="21"/>
+        <v>-16.068299147510999</v>
       </c>
     </row>
     <row r="426" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17609,7 +18847,7 @@
       </c>
       <c r="E426" s="45"/>
       <c r="F426" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>207022.75875555529</v>
       </c>
       <c r="G426">
@@ -17643,12 +18881,12 @@
         <v>158237.77155555499</v>
       </c>
       <c r="R426" s="11">
-        <f t="shared" si="19"/>
-        <v>4.7300954475772299</v>
+        <f t="shared" si="20"/>
+        <v>-4.7300954475772299</v>
       </c>
       <c r="S426" s="19">
-        <f t="shared" si="20"/>
-        <v>-473.00954475772301</v>
+        <f t="shared" si="21"/>
+        <v>473.00954475772301</v>
       </c>
     </row>
     <row r="427" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17666,7 +18904,7 @@
       </c>
       <c r="E427" s="45"/>
       <c r="F427" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>143218.90014444414</v>
       </c>
       <c r="G427">
@@ -17700,12 +18938,12 @@
         <v>181278.84977777701</v>
       </c>
       <c r="R427" s="11">
-        <f t="shared" si="19"/>
-        <v>1.7073516095358061</v>
+        <f t="shared" si="20"/>
+        <v>-1.7073516095358061</v>
       </c>
       <c r="S427" s="19">
-        <f t="shared" si="20"/>
-        <v>-170.73516095358062</v>
+        <f t="shared" si="21"/>
+        <v>170.73516095358062</v>
       </c>
     </row>
     <row r="428" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17723,7 +18961,7 @@
       </c>
       <c r="E428" s="45"/>
       <c r="F428" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>267055.65427777747</v>
       </c>
       <c r="G428">
@@ -17751,12 +18989,12 @@
         <v>356312.95799999998</v>
       </c>
       <c r="R428" s="11">
-        <f t="shared" si="19"/>
-        <v>2.8260122389366402</v>
+        <f t="shared" si="20"/>
+        <v>-2.8260122389366402</v>
       </c>
       <c r="S428" s="19">
-        <f t="shared" si="20"/>
-        <v>-282.60122389366404</v>
+        <f t="shared" si="21"/>
+        <v>282.60122389366404</v>
       </c>
     </row>
     <row r="429" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17774,7 +19012,7 @@
       </c>
       <c r="E429" s="45"/>
       <c r="F429" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>276897.77470000007</v>
       </c>
       <c r="G429">
@@ -17808,12 +19046,12 @@
         <v>95822.423999999999</v>
       </c>
       <c r="R429" s="11">
-        <f t="shared" si="19"/>
-        <v>2.5590973611825203</v>
+        <f t="shared" si="20"/>
+        <v>-2.5590973611825203</v>
       </c>
       <c r="S429" s="19">
-        <f t="shared" si="20"/>
-        <v>-255.90973611825203</v>
+        <f t="shared" si="21"/>
+        <v>255.90973611825203</v>
       </c>
     </row>
     <row r="430" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17831,7 +19069,7 @@
       </c>
       <c r="E430" s="45"/>
       <c r="F430" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>339636.52133333334</v>
       </c>
       <c r="G430">
@@ -17853,12 +19091,12 @@
         <v>812900.54799999995</v>
       </c>
       <c r="R430" s="11">
-        <f t="shared" si="19"/>
-        <v>6.1717524805733674</v>
+        <f t="shared" si="20"/>
+        <v>-6.1717524805733674</v>
       </c>
       <c r="S430" s="19">
-        <f t="shared" si="20"/>
-        <v>-617.17524805733672</v>
+        <f t="shared" si="21"/>
+        <v>617.17524805733672</v>
       </c>
     </row>
     <row r="431" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17876,7 +19114,7 @@
       </c>
       <c r="E431" s="45"/>
       <c r="F431" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>127134.93691358007</v>
       </c>
       <c r="G431">
@@ -17907,12 +19145,12 @@
         <v>96094.542222222197</v>
       </c>
       <c r="R431" s="11">
-        <f t="shared" si="19"/>
-        <v>3.1143992528666686</v>
+        <f t="shared" si="20"/>
+        <v>-3.1143992528666686</v>
       </c>
       <c r="S431" s="19">
-        <f t="shared" si="20"/>
-        <v>-311.43992528666683</v>
+        <f t="shared" si="21"/>
+        <v>311.43992528666683</v>
       </c>
     </row>
     <row r="432" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17930,7 +19168,7 @@
       </c>
       <c r="E432" s="45"/>
       <c r="F432" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>83958.0199333333</v>
       </c>
       <c r="G432">
@@ -17964,12 +19202,12 @@
         <v>47698.352444444397</v>
       </c>
       <c r="R432" s="11">
-        <f t="shared" si="19"/>
-        <v>2.1327619378109439</v>
+        <f t="shared" si="20"/>
+        <v>-2.1327619378109439</v>
       </c>
       <c r="S432" s="19">
-        <f t="shared" si="20"/>
-        <v>-213.27619378109438</v>
+        <f t="shared" si="21"/>
+        <v>213.27619378109438</v>
       </c>
     </row>
     <row r="433" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17987,7 +19225,7 @@
       </c>
       <c r="E433" s="45"/>
       <c r="F433" s="19">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>24510.86032222219</v>
       </c>
       <c r="G433">
@@ -18021,12 +19259,12 @@
         <v>24978.141111111101</v>
       </c>
       <c r="R433" s="11">
-        <f t="shared" si="19"/>
-        <v>0.35018942394790403</v>
+        <f t="shared" si="20"/>
+        <v>-0.35018942394790403</v>
       </c>
       <c r="S433" s="19">
-        <f t="shared" si="20"/>
-        <v>-35.0189423947904</v>
+        <f t="shared" si="21"/>
+        <v>35.0189423947904</v>
       </c>
     </row>
     <row r="434" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18044,15 +19282,15 @@
       </c>
       <c r="E434" s="45"/>
       <c r="F434" s="19" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R434" s="11" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S434" s="19" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18071,15 +19309,15 @@
       </c>
       <c r="E435" s="45"/>
       <c r="F435" s="19" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R435" s="11" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S435" s="19" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18088,7 +19326,7 @@
         <v>57</v>
       </c>
       <c r="B436" s="11">
-        <v>192540.7703</v>
+        <v>284264.25206666643</v>
       </c>
       <c r="C436" s="45">
         <v>515000</v>
@@ -18098,15 +19336,15 @@
       </c>
       <c r="E436" s="45"/>
       <c r="F436" s="19" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R436" s="11" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S436" s="19" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -18124,14 +19362,44 @@
         <v>2030000</v>
       </c>
       <c r="E437" s="45"/>
-      <c r="F437" s="45"/>
+      <c r="F437" s="19">
+        <f t="shared" si="24"/>
+        <v>1811440.7584938232</v>
+      </c>
+      <c r="G437">
+        <v>1867336.28633333</v>
+      </c>
+      <c r="H437">
+        <v>2055900.5162222199</v>
+      </c>
+      <c r="I437">
+        <v>1436658.6395555499</v>
+      </c>
+      <c r="J437">
+        <v>2046035.29811111</v>
+      </c>
+      <c r="K437">
+        <v>2059527.2837777699</v>
+      </c>
+      <c r="L437">
+        <v>1731211.46311111</v>
+      </c>
+      <c r="M437">
+        <v>1727443.9286666601</v>
+      </c>
+      <c r="N437">
+        <v>1822427.145</v>
+      </c>
+      <c r="O437">
+        <v>1556426.2656666599</v>
+      </c>
       <c r="R437" s="11">
-        <f t="shared" si="19"/>
-        <v>-1</v>
+        <f xml:space="preserve"> -(F437 - B437)/B437</f>
+        <v>-1.3803426524228952</v>
       </c>
       <c r="S437" s="19">
-        <f t="shared" si="20"/>
-        <v>100</v>
+        <f t="shared" si="21"/>
+        <v>138.03426524228954</v>
       </c>
     </row>
     <row r="438" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18139,7 +19407,7 @@
         <v>59</v>
       </c>
       <c r="B438" s="11">
-        <v>84700</v>
+        <v>133651.83300000001</v>
       </c>
       <c r="C438" s="45">
         <v>317000</v>
@@ -18148,10 +19416,43 @@
         <v>1930000</v>
       </c>
       <c r="E438" s="45"/>
-      <c r="F438" s="45"/>
+      <c r="F438" s="19">
+        <f xml:space="preserve"> AVERAGE(G438:P438)</f>
+        <v>492591.50106666621</v>
+      </c>
+      <c r="G438">
+        <v>644148.34722222202</v>
+      </c>
+      <c r="H438">
+        <v>711755.85077777703</v>
+      </c>
+      <c r="I438">
+        <v>432994.44566666603</v>
+      </c>
+      <c r="J438">
+        <v>346191.74366666598</v>
+      </c>
+      <c r="K438">
+        <v>293213.13288888801</v>
+      </c>
+      <c r="L438">
+        <v>514783.272</v>
+      </c>
+      <c r="M438">
+        <v>787725.22122222197</v>
+      </c>
+      <c r="N438">
+        <v>532723.72944444395</v>
+      </c>
+      <c r="O438">
+        <v>382755.04655555502</v>
+      </c>
+      <c r="P438">
+        <v>279624.22122222203</v>
+      </c>
       <c r="R438" s="11">
-        <f t="shared" si="19"/>
-        <v>-1</v>
+        <f xml:space="preserve"> -(F438 - B438)/B438</f>
+        <v>-2.6856322132646411</v>
       </c>
       <c r="S438" s="45"/>
     </row>
@@ -18169,10 +19470,31 @@
         <v>2000000</v>
       </c>
       <c r="E439" s="11"/>
-      <c r="F439" s="11"/>
+      <c r="F439" s="19">
+        <f t="shared" si="24"/>
+        <v>1912805.2779259218</v>
+      </c>
+      <c r="G439">
+        <v>2152576.8816666598</v>
+      </c>
+      <c r="H439">
+        <v>1413713.76888888</v>
+      </c>
+      <c r="I439">
+        <v>1932231.0179999999</v>
+      </c>
+      <c r="J439">
+        <v>1268785.4711111099</v>
+      </c>
+      <c r="K439">
+        <v>2210423.0536666601</v>
+      </c>
+      <c r="L439">
+        <v>2499101.47422222</v>
+      </c>
       <c r="R439" s="11">
-        <f t="shared" si="19"/>
-        <v>-1</v>
+        <f t="shared" ref="R439" si="25" xml:space="preserve"> -(F439 - B439)/B439</f>
+        <v>7.5939479262839699E-2</v>
       </c>
       <c r="S439" s="11"/>
     </row>
@@ -18190,10 +19512,13 @@
         <v>1980000</v>
       </c>
       <c r="E440" s="11"/>
-      <c r="F440" s="11"/>
-      <c r="R440" s="11">
-        <f t="shared" si="19"/>
-        <v>-1</v>
+      <c r="F440" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R440" s="11" t="e">
+        <f t="shared" ref="R440:R442" si="26" xml:space="preserve"> (F440 - B440)/B440</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S440" s="11"/>
     </row>
@@ -18211,10 +19536,13 @@
         <v>2160000</v>
       </c>
       <c r="E441" s="11"/>
-      <c r="F441" s="11"/>
-      <c r="R441" s="11">
-        <f t="shared" si="19"/>
-        <v>-1</v>
+      <c r="F441" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R441" s="11" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="S441" s="11"/>
     </row>
@@ -18232,10 +19560,13 @@
         <v>16500000</v>
       </c>
       <c r="E442" s="11"/>
-      <c r="F442" s="11"/>
-      <c r="R442" s="11">
-        <f t="shared" si="19"/>
-        <v>-1</v>
+      <c r="F442" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R442" s="11" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="443" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18252,7 +19583,10 @@
         <v>11200000</v>
       </c>
       <c r="E443" s="11"/>
-      <c r="F443" s="11"/>
+      <c r="F443" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R443" s="11"/>
     </row>
     <row r="444" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18269,7 +19603,10 @@
         <v>9540000</v>
       </c>
       <c r="E444" s="11"/>
-      <c r="F444" s="11"/>
+      <c r="F444" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="R444" s="11"/>
     </row>
     <row r="445" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18286,7 +19623,10 @@
         <v>13200000</v>
       </c>
       <c r="E445" s="11"/>
-      <c r="F445" s="11"/>
+      <c r="F445" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="446" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="32" t="s">
@@ -18302,10 +19642,13 @@
         <v>7210000</v>
       </c>
       <c r="E446" s="11"/>
-      <c r="F446" s="11"/>
+      <c r="F446" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="S446" s="47">
         <f xml:space="preserve"> AVERAGE(S386:S425)</f>
-        <v>27.37018786489719</v>
+        <v>-27.234814730568825</v>
       </c>
     </row>
     <row r="447" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18313,7 +19656,7 @@
         <v>68</v>
       </c>
       <c r="B447" s="11">
-        <v>8800000</v>
+        <v>11276982.050000001</v>
       </c>
       <c r="C447" s="11">
         <v>14500000</v>
@@ -18322,14 +19665,17 @@
         <v>10900000</v>
       </c>
       <c r="E447" s="11"/>
-      <c r="F447" s="11"/>
+      <c r="F447" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="448" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="32" t="s">
         <v>69</v>
       </c>
       <c r="B448" s="11">
-        <v>13300000</v>
+        <v>17760068.359999999</v>
       </c>
       <c r="C448" s="11">
         <v>30900000</v>
@@ -18338,14 +19684,17 @@
         <v>25000000</v>
       </c>
       <c r="E448" s="11"/>
-      <c r="F448" s="11"/>
+      <c r="F448" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B449" s="11">
-        <v>15700000</v>
+      <c r="B449">
+        <v>16764545.721333301</v>
       </c>
       <c r="C449" s="11">
         <v>25400000</v>
@@ -18354,7 +19703,10 @@
         <v>27400000</v>
       </c>
       <c r="E449" s="11"/>
-      <c r="F449" s="11"/>
+      <c r="F449" s="19" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18888,8 +20240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8911A5E9-8C1D-4937-B2E8-4FEF8E2ACD16}">
   <dimension ref="A1:AA148"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22019,10 +23371,8 @@
         <v>1340000</v>
       </c>
       <c r="E52" s="11">
-        <v>192540.7703</v>
-      </c>
-      <c r="F52">
-        <v>87989.332888888894</v>
+        <f>AVERAGE(F52:O52)</f>
+        <v>284264.25206666643</v>
       </c>
       <c r="G52">
         <v>429572.52122222201</v>
@@ -22038,18 +23388,6 @@
       </c>
       <c r="K52">
         <v>57604.905333333299</v>
-      </c>
-      <c r="L52">
-        <v>172884.67811111099</v>
-      </c>
-      <c r="M52">
-        <v>68721.888999999996</v>
-      </c>
-      <c r="N52">
-        <v>103490.877666666</v>
-      </c>
-      <c r="O52">
-        <v>70999.664777777696</v>
       </c>
       <c r="Q52" s="15" t="s">
         <v>57</v>
@@ -22102,9 +23440,6 @@
       <c r="K53">
         <v>631545.147</v>
       </c>
-      <c r="L53">
-        <v>395637.75866666599</v>
-      </c>
       <c r="Q53" s="15" t="s">
         <v>58</v>
       </c>
@@ -22136,19 +23471,19 @@
         <v>1930000</v>
       </c>
       <c r="E54" s="11">
-        <v>84700</v>
+        <v>133651.83300000001</v>
       </c>
       <c r="F54">
-        <v>25097.7303333333</v>
+        <v>126422.70477777701</v>
       </c>
       <c r="G54">
         <v>93008.541666666599</v>
       </c>
       <c r="H54">
-        <v>28183.440444444401</v>
+        <v>150763.67644444399</v>
       </c>
       <c r="I54">
-        <v>84033.493666666604</v>
+        <v>108866.961</v>
       </c>
       <c r="J54">
         <v>107524.908555555</v>
@@ -22157,7 +23492,7 @@
         <v>58437.360444444399</v>
       </c>
       <c r="L54">
-        <v>70514.322444444406</v>
+        <v>359275.792555555</v>
       </c>
       <c r="M54">
         <v>167258.269888888</v>
@@ -22685,7 +24020,7 @@
         <v>10900000</v>
       </c>
       <c r="E63" s="11">
-        <v>8800000</v>
+        <v>11276982.050000001</v>
       </c>
       <c r="F63">
         <v>12201472.7873333</v>
@@ -22748,7 +24083,22 @@
         <v>25000000</v>
       </c>
       <c r="E64" s="11">
-        <v>13300000</v>
+        <v>17760068.359999999</v>
+      </c>
+      <c r="F64">
+        <v>17568492.154777698</v>
+      </c>
+      <c r="G64">
+        <v>17870685.9532222</v>
+      </c>
+      <c r="H64">
+        <v>16909475.487111099</v>
+      </c>
+      <c r="I64">
+        <v>19346525.833888799</v>
+      </c>
+      <c r="J64">
+        <v>17105162.3722222</v>
       </c>
       <c r="Q64" s="15" t="s">
         <v>69</v>
@@ -22780,8 +24130,14 @@
       <c r="D65" s="11">
         <v>27400000</v>
       </c>
-      <c r="E65" s="11">
-        <v>15700000</v>
+      <c r="E65">
+        <v>16764545.721333301</v>
+      </c>
+      <c r="F65">
+        <v>13024442.7263333</v>
+      </c>
+      <c r="G65">
+        <v>16764545.721333301</v>
       </c>
       <c r="Q65" s="15" t="s">
         <v>70</v>
